--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/AgEvidence_Kenya/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E87990-1342-5848-9A81-0FBBB4C73480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EE6B8-7246-4242-8E8F-948C0CD58729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1380" windowWidth="16900" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$209</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="201">
   <si>
     <t>Review</t>
   </si>
@@ -1493,11 +1493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J210"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F222" sqref="F222"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
         <v>24</v>
@@ -4522,16 +4522,16 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
         <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E95" t="s">
         <v>27</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
         <v>24</v>
@@ -4563,7 +4563,7 @@
         <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E96" t="s">
         <v>27</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
         <v>24</v>
@@ -4595,7 +4595,7 @@
         <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
         <v>27</v>
@@ -4604,21 +4604,21 @@
         <v>77</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J97" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>24</v>
@@ -4627,7 +4627,7 @@
         <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="E98" t="s">
         <v>27</v>
@@ -4636,21 +4636,21 @@
         <v>77</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
         <v>24</v>
@@ -4659,13 +4659,13 @@
         <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G99" t="s">
         <v>14</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
         <v>24</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B101" t="s">
         <v>24</v>
@@ -4723,7 +4723,7 @@
         <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E101" t="s">
         <v>22</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
         <v>24</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B103" t="s">
         <v>24</v>
@@ -4787,13 +4787,13 @@
         <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
         <v>24</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B105" t="s">
         <v>24</v>
@@ -4851,7 +4851,7 @@
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E105" t="s">
         <v>27</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
         <v>24</v>
@@ -4912,16 +4912,16 @@
         <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D107" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="E107" t="s">
         <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B108" t="s">
         <v>24</v>
@@ -4947,13 +4947,13 @@
         <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E108" t="s">
         <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B109" t="s">
         <v>24</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
         <v>24</v>
@@ -5011,30 +5011,30 @@
         <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E110" t="s">
         <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I110" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J110" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
         <v>24</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
         <v>24</v>
@@ -5098,34 +5098,34 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B113" t="s">
         <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E113" t="s">
         <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H113" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="I113" t="s">
         <v>22</v>
       </c>
       <c r="J113" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -5139,30 +5139,30 @@
         <v>111</v>
       </c>
       <c r="D114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E114" t="s">
         <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
         <v>24</v>
@@ -5171,13 +5171,13 @@
         <v>111</v>
       </c>
       <c r="D115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E115" t="s">
         <v>27</v>
       </c>
       <c r="F115" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B116" t="s">
         <v>24</v>
@@ -5203,7 +5203,7 @@
         <v>111</v>
       </c>
       <c r="D116" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E116" t="s">
         <v>27</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
         <v>24</v>
@@ -5235,13 +5235,13 @@
         <v>111</v>
       </c>
       <c r="D117" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E117" t="s">
         <v>27</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G117" t="s">
         <v>14</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
         <v>24</v>
@@ -5296,13 +5296,13 @@
         <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
         <v>26</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B120" t="s">
         <v>24</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B121" t="s">
         <v>24</v>
@@ -5363,7 +5363,7 @@
         <v>112</v>
       </c>
       <c r="D121" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E121" t="s">
         <v>22</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B122" t="s">
         <v>24</v>
@@ -5418,34 +5418,34 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E123" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G123" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J123" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
@@ -5459,7 +5459,7 @@
         <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -5491,7 +5491,7 @@
         <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E125" t="s">
         <v>15</v>
@@ -5523,7 +5523,7 @@
         <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
         <v>15</v>
@@ -5555,7 +5555,7 @@
         <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E127" t="s">
         <v>15</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
         <v>41</v>
@@ -5587,7 +5587,7 @@
         <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E128" t="s">
         <v>15</v>
@@ -5610,16 +5610,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
       </c>
       <c r="C129" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D129" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E129" t="s">
         <v>15</v>
@@ -5628,16 +5628,16 @@
         <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -5651,7 +5651,7 @@
         <v>42</v>
       </c>
       <c r="D130" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E130" t="s">
         <v>15</v>
@@ -5683,7 +5683,7 @@
         <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B132" t="s">
         <v>41</v>
@@ -5715,7 +5715,7 @@
         <v>42</v>
       </c>
       <c r="D132" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E132" t="s">
         <v>15</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
         <v>41</v>
@@ -5747,7 +5747,7 @@
         <v>42</v>
       </c>
       <c r="D133" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E133" t="s">
         <v>15</v>
@@ -5776,13 +5776,13 @@
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D134" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E134" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B135" t="s">
         <v>41</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
         <v>41</v>
@@ -5843,25 +5843,25 @@
         <v>130</v>
       </c>
       <c r="D136" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E136" t="s">
         <v>27</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I136" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J136" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -5875,7 +5875,7 @@
         <v>130</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E137" t="s">
         <v>27</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B138" t="s">
         <v>41</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
         <v>41</v>
@@ -5939,7 +5939,7 @@
         <v>130</v>
       </c>
       <c r="D139" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E139" t="s">
         <v>27</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B140" t="s">
         <v>41</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
         <v>41</v>
@@ -6003,7 +6003,7 @@
         <v>130</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E141" t="s">
         <v>27</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B142" t="s">
         <v>41</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
         <v>41</v>
@@ -6067,25 +6067,25 @@
         <v>130</v>
       </c>
       <c r="D143" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E143" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F143" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I143" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -6096,16 +6096,16 @@
         <v>41</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D144" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E144" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B145" t="s">
         <v>41</v>
@@ -6152,88 +6152,88 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="146" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D146" t="s">
-        <v>138</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="D146" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G146" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" t="s">
-        <v>14</v>
-      </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="G146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
         <v>41</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>26</v>
+      <c r="C147" t="s">
+        <v>140</v>
+      </c>
+      <c r="D147" t="s">
+        <v>129</v>
+      </c>
+      <c r="E147" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B148" t="s">
         <v>41</v>
       </c>
       <c r="C148" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D148" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G148" t="s">
         <v>14</v>
@@ -6259,7 +6259,7 @@
         <v>141</v>
       </c>
       <c r="D149" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s">
         <v>41</v>
@@ -6291,7 +6291,7 @@
         <v>141</v>
       </c>
       <c r="D150" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
@@ -6323,7 +6323,7 @@
         <v>141</v>
       </c>
       <c r="D151" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B152" t="s">
         <v>41</v>
@@ -6355,13 +6355,13 @@
         <v>141</v>
       </c>
       <c r="D152" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G152" t="s">
         <v>14</v>
@@ -6381,19 +6381,19 @@
         <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C153" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D153" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="E153" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F153" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G153" t="s">
         <v>14</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B154" t="s">
         <v>147</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B155" t="s">
         <v>147</v>
@@ -6451,7 +6451,7 @@
         <v>149</v>
       </c>
       <c r="D155" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="E155" t="s">
         <v>22</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B156" t="s">
         <v>147</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B157" t="s">
         <v>147</v>
@@ -6515,7 +6515,7 @@
         <v>149</v>
       </c>
       <c r="D157" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E157" t="s">
         <v>22</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B158" t="s">
         <v>147</v>
@@ -6570,22 +6570,22 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
         <v>147</v>
       </c>
       <c r="C159" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D159" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F159" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B160" t="s">
         <v>147</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
         <v>147</v>
@@ -6643,7 +6643,7 @@
         <v>153</v>
       </c>
       <c r="D161" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E161" t="s">
         <v>27</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B162" t="s">
         <v>147</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B163" t="s">
         <v>147</v>
@@ -6707,7 +6707,7 @@
         <v>153</v>
       </c>
       <c r="D163" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E163" t="s">
         <v>27</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B164" t="s">
         <v>147</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B165" t="s">
         <v>147</v>
@@ -6771,13 +6771,13 @@
         <v>153</v>
       </c>
       <c r="D165" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E165" t="s">
         <v>27</v>
       </c>
       <c r="F165" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G165" t="s">
         <v>14</v>
@@ -6803,13 +6803,13 @@
         <v>153</v>
       </c>
       <c r="D166" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E166" t="s">
         <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G166" t="s">
         <v>14</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B167" t="s">
         <v>147</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
         <v>147</v>
@@ -6890,16 +6890,16 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
         <v>147</v>
       </c>
       <c r="C169" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D169" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E169" t="s">
         <v>27</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
         <v>147</v>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
         <v>147</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
         <v>147</v>
@@ -6995,13 +6995,13 @@
         <v>157</v>
       </c>
       <c r="D172" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E172" t="s">
         <v>27</v>
       </c>
       <c r="F172" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G172" t="s">
         <v>14</v>
@@ -7027,13 +7027,13 @@
         <v>157</v>
       </c>
       <c r="D173" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E173" t="s">
         <v>27</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G173" t="s">
         <v>14</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B174" t="s">
         <v>147</v>
@@ -7065,7 +7065,7 @@
         <v>27</v>
       </c>
       <c r="F174" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G174" t="s">
         <v>14</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>147</v>
@@ -7097,7 +7097,7 @@
         <v>27</v>
       </c>
       <c r="F175" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G175" t="s">
         <v>14</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
         <v>147</v>
@@ -7123,13 +7123,13 @@
         <v>157</v>
       </c>
       <c r="D176" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E176" t="s">
         <v>27</v>
       </c>
       <c r="F176" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G176" t="s">
         <v>14</v>
@@ -7149,16 +7149,16 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C177" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D177" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E177" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F177" t="s">
         <v>16</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B178" t="s">
         <v>162</v>
@@ -7187,7 +7187,7 @@
         <v>163</v>
       </c>
       <c r="D178" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
         <v>162</v>
@@ -7242,7 +7242,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B180" t="s">
         <v>162</v>
@@ -7274,16 +7274,16 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
         <v>162</v>
       </c>
       <c r="C181" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D181" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E181" t="s">
         <v>15</v>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B182" t="s">
         <v>162</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
         <v>162</v>
@@ -7347,7 +7347,7 @@
         <v>166</v>
       </c>
       <c r="D183" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E183" t="s">
         <v>15</v>
@@ -7379,7 +7379,7 @@
         <v>166</v>
       </c>
       <c r="D184" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -7408,10 +7408,10 @@
         <v>162</v>
       </c>
       <c r="C185" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D185" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -7434,22 +7434,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="C186" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="D186" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E186" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G186" t="s">
         <v>14</v>
@@ -7472,10 +7472,10 @@
         <v>37</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D187" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E187" t="s">
         <v>22</v>
@@ -7507,7 +7507,7 @@
         <v>78</v>
       </c>
       <c r="D188" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="E188" t="s">
         <v>22</v>
@@ -7539,7 +7539,7 @@
         <v>78</v>
       </c>
       <c r="D189" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E189" t="s">
         <v>22</v>
@@ -7562,16 +7562,16 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B190" t="s">
         <v>37</v>
       </c>
       <c r="C190" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D190" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="E190" t="s">
         <v>22</v>
@@ -7603,7 +7603,7 @@
         <v>45</v>
       </c>
       <c r="D191" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E191" t="s">
         <v>22</v>
@@ -7632,10 +7632,10 @@
         <v>37</v>
       </c>
       <c r="C192" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D192" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E192" t="s">
         <v>22</v>
@@ -7667,13 +7667,13 @@
         <v>78</v>
       </c>
       <c r="D193" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E193" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F193" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G193" t="s">
         <v>14</v>
@@ -7699,7 +7699,7 @@
         <v>78</v>
       </c>
       <c r="D194" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E194" t="s">
         <v>27</v>
@@ -7728,16 +7728,16 @@
         <v>37</v>
       </c>
       <c r="C195" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D195" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E195" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F195" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G195" t="s">
         <v>14</v>
@@ -7757,31 +7757,31 @@
         <v>173</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C196" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="D196" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E196" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F196" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G196" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J196" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
@@ -7792,10 +7792,10 @@
         <v>91</v>
       </c>
       <c r="C197" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="D197" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E197" t="s">
         <v>15</v>
@@ -7804,16 +7804,16 @@
         <v>16</v>
       </c>
       <c r="G197" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -7827,13 +7827,13 @@
         <v>92</v>
       </c>
       <c r="D198" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E198" t="s">
         <v>15</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
@@ -7859,7 +7859,7 @@
         <v>92</v>
       </c>
       <c r="D199" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E199" t="s">
         <v>15</v>
@@ -7885,31 +7885,31 @@
         <v>173</v>
       </c>
       <c r="B200" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D200" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="E200" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F200" t="s">
         <v>26</v>
       </c>
       <c r="G200" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I200" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J200" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -7917,13 +7917,13 @@
         <v>173</v>
       </c>
       <c r="B201" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D201" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="E201" t="s">
         <v>27</v>
@@ -7932,16 +7932,16 @@
         <v>26</v>
       </c>
       <c r="G201" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H201" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I201" t="s">
         <v>22</v>
       </c>
       <c r="J201" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -7955,7 +7955,7 @@
         <v>130</v>
       </c>
       <c r="D202" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E202" t="s">
         <v>27</v>
@@ -7987,13 +7987,13 @@
         <v>130</v>
       </c>
       <c r="D203" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E203" t="s">
         <v>27</v>
       </c>
       <c r="F203" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G203" t="s">
         <v>24</v>
@@ -8019,7 +8019,7 @@
         <v>130</v>
       </c>
       <c r="D204" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E204" t="s">
         <v>27</v>
@@ -8042,16 +8042,16 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C205" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D205" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E205" t="s">
         <v>27</v>
@@ -8060,16 +8060,16 @@
         <v>77</v>
       </c>
       <c r="G205" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I205" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J205" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -8083,7 +8083,7 @@
         <v>99</v>
       </c>
       <c r="D206" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E206" t="s">
         <v>27</v>
@@ -8106,16 +8106,16 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B207" t="s">
         <v>24</v>
       </c>
       <c r="C207" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D207" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E207" t="s">
         <v>27</v>
@@ -8144,16 +8144,16 @@
         <v>24</v>
       </c>
       <c r="C208" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D208" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E208" t="s">
         <v>27</v>
       </c>
       <c r="F208" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
@@ -8179,7 +8179,7 @@
         <v>25</v>
       </c>
       <c r="D209" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E209" t="s">
         <v>27</v>
@@ -8188,58 +8188,26 @@
         <v>26</v>
       </c>
       <c r="G209" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H209" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I209" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J209" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>173</v>
-      </c>
-      <c r="B210" t="s">
-        <v>24</v>
-      </c>
-      <c r="C210" t="s">
-        <v>25</v>
-      </c>
-      <c r="D210" t="s">
-        <v>200</v>
-      </c>
-      <c r="E210" t="s">
-        <v>27</v>
-      </c>
-      <c r="F210" t="s">
-        <v>26</v>
-      </c>
-      <c r="G210" t="s">
-        <v>11</v>
-      </c>
-      <c r="H210" t="s">
-        <v>20</v>
-      </c>
-      <c r="I210" t="s">
-        <v>22</v>
-      </c>
-      <c r="J210" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J210" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J186">
+  <autoFilter ref="A1:J209" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J185">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J235">
-    <sortCondition ref="D2:D235"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J234">
+    <sortCondition ref="D2:D234"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/AgEvidence_Kenya/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EE6B8-7246-4242-8E8F-948C0CD58729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AE2D46-D9B2-4882-857A-128400B9B2D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1380" windowWidth="16900" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28875" yWindow="0" windowWidth="23640" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
@@ -1493,26 +1493,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94:XFD94"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="47.6328125" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -1736,7 +1737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>173</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2640,10 +2641,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
@@ -2664,7 +2665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2760,18 +2761,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>89</v>
+      <c r="C40" t="s">
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -2792,18 +2793,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>89</v>
+      <c r="C41" t="s">
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -2824,24 +2825,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>89</v>
+      <c r="C42" t="s">
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -2856,24 +2857,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>89</v>
+      <c r="C43" t="s">
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
@@ -2888,18 +2889,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>89</v>
+      <c r="C44" t="s">
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -2920,18 +2921,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>89</v>
+      <c r="C45" t="s">
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -2952,18 +2953,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>89</v>
+      <c r="C46" t="s">
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
@@ -2984,7 +2985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -3016,18 +3017,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -3048,7 +3049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -3080,7 +3081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -3112,7 +3113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
@@ -3144,7 +3145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -3176,18 +3177,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -3208,18 +3209,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -3240,18 +3241,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -3272,18 +3273,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
       </c>
-      <c r="C56" t="s">
-        <v>75</v>
+      <c r="C56" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -3304,18 +3305,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="C57" t="s">
-        <v>76</v>
+      <c r="C57" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
@@ -3336,7 +3337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>173</v>
       </c>
@@ -3344,16 +3345,16 @@
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
@@ -3368,7 +3369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -3376,16 +3377,16 @@
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G59" t="s">
         <v>14</v>
@@ -3400,24 +3401,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
       </c>
-      <c r="C60" t="s">
-        <v>78</v>
+      <c r="C60" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
@@ -3432,24 +3433,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
       </c>
-      <c r="C61" t="s">
-        <v>78</v>
+      <c r="C61" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -3464,7 +3465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3472,10 +3473,10 @@
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -3496,7 +3497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -3504,10 +3505,10 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -3528,7 +3529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>173</v>
       </c>
@@ -3539,13 +3540,13 @@
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
@@ -3560,7 +3561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -3571,13 +3572,13 @@
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
@@ -3592,7 +3593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -3624,7 +3625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -3656,18 +3657,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
       </c>
-      <c r="C68" t="s">
-        <v>78</v>
+      <c r="C68" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -3688,7 +3689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>173</v>
       </c>
@@ -3696,10 +3697,10 @@
         <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -3720,7 +3721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -3728,16 +3729,16 @@
         <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s">
         <v>14</v>
@@ -3752,7 +3753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -3760,16 +3761,16 @@
         <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
@@ -3784,7 +3785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -3824,10 +3825,10 @@
         <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -3848,7 +3849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -3856,10 +3857,10 @@
         <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
@@ -3880,7 +3881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -3888,10 +3889,10 @@
         <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -3912,7 +3913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -3920,10 +3921,10 @@
         <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -3944,7 +3945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3976,7 +3977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4048,16 +4049,16 @@
         <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G80" t="s">
         <v>14</v>
@@ -4072,7 +4073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -4080,16 +4081,16 @@
         <v>37</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
@@ -4104,18 +4105,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -4136,24 +4137,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G83" t="s">
         <v>14</v>
@@ -4168,24 +4169,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G84" t="s">
         <v>14</v>
@@ -4200,24 +4201,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G85" t="s">
         <v>14</v>
@@ -4232,18 +4233,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -4264,18 +4265,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -4296,7 +4297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>98</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
         <v>77</v>
@@ -4328,24 +4329,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -4360,7 +4361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -4392,24 +4393,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G91" t="s">
         <v>14</v>
@@ -4424,7 +4425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -4456,24 +4457,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G93" t="s">
         <v>14</v>
@@ -4488,24 +4489,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
@@ -4520,24 +4521,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G95" t="s">
         <v>14</v>
@@ -4552,24 +4553,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G96" t="s">
         <v>14</v>
@@ -4584,39 +4585,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -4624,10 +4625,10 @@
         <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D98" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="E98" t="s">
         <v>27</v>
@@ -4648,7 +4649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -4656,16 +4657,16 @@
         <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G99" t="s">
         <v>14</v>
@@ -4680,18 +4681,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D100" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="E100" t="s">
         <v>22</v>
@@ -4712,7 +4713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -4720,16 +4721,16 @@
         <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
@@ -4744,39 +4745,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E103" t="s">
         <v>27</v>
@@ -4808,24 +4809,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D104" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
@@ -4840,7 +4841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E105" t="s">
         <v>27</v>
@@ -4860,36 +4861,36 @@
         <v>77</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C106" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
@@ -4904,24 +4905,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
@@ -4936,7 +4937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -4944,16 +4945,16 @@
         <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E108" t="s">
         <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -4968,24 +4969,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D109" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
@@ -5000,7 +5001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -5008,31 +5009,31 @@
         <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D110" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="E110" t="s">
         <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -5040,10 +5041,10 @@
         <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E111" t="s">
         <v>27</v>
@@ -5052,51 +5053,51 @@
         <v>26</v>
       </c>
       <c r="G111" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D112" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F112" t="s">
         <v>26</v>
       </c>
       <c r="G112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -5104,31 +5105,31 @@
         <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="E113" t="s">
         <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G113" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -5136,10 +5137,10 @@
         <v>24</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="E114" t="s">
         <v>27</v>
@@ -5160,7 +5161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -5168,16 +5169,16 @@
         <v>24</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E115" t="s">
         <v>27</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
@@ -5192,7 +5193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>173</v>
       </c>
@@ -5200,16 +5201,16 @@
         <v>24</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D116" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E116" t="s">
         <v>27</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G116" t="s">
         <v>14</v>
@@ -5224,7 +5225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -5232,10 +5233,10 @@
         <v>24</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E117" t="s">
         <v>27</v>
@@ -5244,19 +5245,19 @@
         <v>26</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -5264,16 +5265,16 @@
         <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E118" t="s">
         <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
@@ -5288,7 +5289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -5296,31 +5297,31 @@
         <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
         <v>26</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -5328,16 +5329,16 @@
         <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D120" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
@@ -5352,7 +5353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -5360,31 +5361,31 @@
         <v>24</v>
       </c>
       <c r="C121" t="s">
+        <v>111</v>
+      </c>
+      <c r="D121" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" t="s">
         <v>112</v>
       </c>
-      <c r="D121" t="s">
-        <v>118</v>
-      </c>
-      <c r="E121" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" t="s">
-        <v>14</v>
-      </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J121" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>173</v>
       </c>
@@ -5392,16 +5393,16 @@
         <v>24</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="E122" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G122" t="s">
         <v>14</v>
@@ -5416,71 +5417,71 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D123" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E123" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F123" t="s">
         <v>16</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C124" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D124" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E124" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E125" t="s">
         <v>15</v>
@@ -5512,7 +5513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E126" t="s">
         <v>15</v>
@@ -5544,7 +5545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E127" t="s">
         <v>15</v>
@@ -5576,39 +5577,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D128" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="E128" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -5616,10 +5617,10 @@
         <v>41</v>
       </c>
       <c r="C129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E129" t="s">
         <v>15</v>
@@ -5628,19 +5629,19 @@
         <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -5648,10 +5649,10 @@
         <v>41</v>
       </c>
       <c r="C130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E130" t="s">
         <v>15</v>
@@ -5660,19 +5661,19 @@
         <v>16</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -5704,24 +5705,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C132" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D132" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E132" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
@@ -5736,7 +5737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -5747,7 +5748,7 @@
         <v>42</v>
       </c>
       <c r="D133" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E133" t="s">
         <v>15</v>
@@ -5768,7 +5769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -5776,13 +5777,13 @@
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D134" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E134" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
@@ -5800,24 +5801,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>173</v>
       </c>
       <c r="B135" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C135" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D135" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E135" t="s">
         <v>27</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
@@ -5832,7 +5833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -5840,31 +5841,31 @@
         <v>41</v>
       </c>
       <c r="C136" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E136" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F136" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G136" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I136" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -5875,39 +5876,39 @@
         <v>130</v>
       </c>
       <c r="D137" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E137" t="s">
         <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I137" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>173</v>
       </c>
       <c r="B138" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D138" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="E138" t="s">
         <v>27</v>
@@ -5916,19 +5917,19 @@
         <v>77</v>
       </c>
       <c r="G138" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I138" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>130</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E139" t="s">
         <v>27</v>
@@ -5954,24 +5955,24 @@
         <v>103</v>
       </c>
       <c r="I139" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J139" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>173</v>
       </c>
       <c r="B140" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C140" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D140" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="E140" t="s">
         <v>27</v>
@@ -5980,19 +5981,19 @@
         <v>77</v>
       </c>
       <c r="G140" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I140" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>130</v>
       </c>
       <c r="D141" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E141" t="s">
         <v>27</v>
@@ -6018,24 +6019,24 @@
         <v>103</v>
       </c>
       <c r="I141" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J141" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>173</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C142" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D142" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="E142" t="s">
         <v>27</v>
@@ -6044,19 +6045,19 @@
         <v>77</v>
       </c>
       <c r="G142" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I142" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -6067,28 +6068,28 @@
         <v>130</v>
       </c>
       <c r="D143" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E143" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G143" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I143" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J143" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -6096,10 +6097,10 @@
         <v>41</v>
       </c>
       <c r="C144" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D144" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E144" t="s">
         <v>27</v>
@@ -6108,36 +6109,36 @@
         <v>77</v>
       </c>
       <c r="G144" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J144" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C145" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D145" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E145" t="s">
         <v>27</v>
       </c>
       <c r="F145" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G145" t="s">
         <v>14</v>
@@ -6152,39 +6153,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G146" s="1" t="s">
+      <c r="B146" t="s">
         <v>24</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" t="s">
+        <v>117</v>
+      </c>
+      <c r="E146" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -6192,16 +6193,16 @@
         <v>41</v>
       </c>
       <c r="C147" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D147" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E147" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G147" t="s">
         <v>14</v>
@@ -6216,24 +6217,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D148" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E148" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G148" t="s">
         <v>14</v>
@@ -6248,7 +6249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -6256,10 +6257,10 @@
         <v>41</v>
       </c>
       <c r="C149" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D149" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
@@ -6280,7 +6281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -6288,16 +6289,16 @@
         <v>41</v>
       </c>
       <c r="C150" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D150" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E150" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G150" t="s">
         <v>14</v>
@@ -6312,7 +6313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6320,16 +6321,16 @@
         <v>41</v>
       </c>
       <c r="C151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D151" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E151" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G151" t="s">
         <v>14</v>
@@ -6344,7 +6345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -6352,13 +6353,13 @@
         <v>41</v>
       </c>
       <c r="C152" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D152" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E152" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F152" t="s">
         <v>77</v>
@@ -6376,53 +6377,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B153" t="s">
-        <v>147</v>
-      </c>
-      <c r="C153" t="s">
-        <v>149</v>
-      </c>
-      <c r="D153" t="s">
-        <v>107</v>
-      </c>
-      <c r="E153" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" t="s">
-        <v>14</v>
-      </c>
-      <c r="H153" t="s">
-        <v>14</v>
-      </c>
-      <c r="I153" t="s">
-        <v>14</v>
-      </c>
-      <c r="J153" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>173</v>
       </c>
       <c r="B154" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C154" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D154" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E154" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F154" t="s">
         <v>26</v>
@@ -6440,24 +6441,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D155" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E155" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G155" t="s">
         <v>14</v>
@@ -6472,24 +6473,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C156" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E156" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G156" t="s">
         <v>14</v>
@@ -6504,24 +6505,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C157" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D157" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E157" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
@@ -6536,53 +6537,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>173</v>
       </c>
       <c r="B158" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C158" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F158" t="s">
         <v>26</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I158" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D159" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E159" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F159" t="s">
         <v>77</v>
@@ -6600,39 +6601,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>173</v>
       </c>
       <c r="B160" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C160" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D160" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="E160" t="s">
         <v>27</v>
       </c>
       <c r="F160" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I160" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J160" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -6640,16 +6641,16 @@
         <v>147</v>
       </c>
       <c r="C161" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D161" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="E161" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F161" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G161" t="s">
         <v>14</v>
@@ -6664,24 +6665,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C162" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D162" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="E162" t="s">
         <v>27</v>
       </c>
       <c r="F162" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G162" t="s">
         <v>14</v>
@@ -6696,7 +6697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -6704,16 +6705,16 @@
         <v>147</v>
       </c>
       <c r="C163" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D163" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E163" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F163" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G163" t="s">
         <v>14</v>
@@ -6728,53 +6729,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D164" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E164" t="s">
         <v>27</v>
       </c>
       <c r="F164" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G164" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I164" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J164" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D165" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E165" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F165" t="s">
         <v>16</v>
@@ -6792,24 +6793,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C166" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D166" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E166" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F166" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G166" t="s">
         <v>14</v>
@@ -6824,7 +6825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -6832,16 +6833,16 @@
         <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D167" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E167" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F167" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G167" t="s">
         <v>14</v>
@@ -6856,24 +6857,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C168" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="D168" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E168" t="s">
         <v>27</v>
       </c>
       <c r="F168" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G168" t="s">
         <v>14</v>
@@ -6888,7 +6889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -6896,16 +6897,16 @@
         <v>147</v>
       </c>
       <c r="C169" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D169" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E169" t="s">
         <v>27</v>
       </c>
       <c r="F169" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G169" t="s">
         <v>14</v>
@@ -6920,7 +6921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -6928,10 +6929,10 @@
         <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D170" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E170" t="s">
         <v>27</v>
@@ -6952,24 +6953,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C171" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="D171" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E171" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F171" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G171" t="s">
         <v>14</v>
@@ -6984,7 +6985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -6992,16 +6993,16 @@
         <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D172" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E172" t="s">
         <v>27</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G172" t="s">
         <v>14</v>
@@ -7016,7 +7017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -7027,13 +7028,13 @@
         <v>157</v>
       </c>
       <c r="D173" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E173" t="s">
         <v>27</v>
       </c>
       <c r="F173" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G173" t="s">
         <v>14</v>
@@ -7048,7 +7049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -7056,10 +7057,10 @@
         <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D174" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E174" t="s">
         <v>27</v>
@@ -7080,21 +7081,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="D175" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="E175" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F175" t="s">
         <v>26</v>
@@ -7112,7 +7113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>157</v>
       </c>
       <c r="D176" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E176" t="s">
         <v>27</v>
@@ -7144,24 +7145,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C177" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D177" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E177" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G177" t="s">
         <v>14</v>
@@ -7176,24 +7177,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C178" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D178" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E178" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
@@ -7208,21 +7209,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C179" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D179" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E179" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F179" t="s">
         <v>16</v>
@@ -7240,18 +7241,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>173</v>
       </c>
       <c r="B180" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="C180" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="D180" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -7260,19 +7261,19 @@
         <v>16</v>
       </c>
       <c r="G180" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J180" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -7280,10 +7281,10 @@
         <v>162</v>
       </c>
       <c r="C181" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D181" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E181" t="s">
         <v>15</v>
@@ -7304,21 +7305,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>173</v>
       </c>
       <c r="B182" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="C182" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="D182" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E182" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F182" t="s">
         <v>16</v>
@@ -7336,7 +7337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -7344,10 +7345,10 @@
         <v>162</v>
       </c>
       <c r="C183" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D183" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E183" t="s">
         <v>15</v>
@@ -7368,7 +7369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -7379,7 +7380,7 @@
         <v>166</v>
       </c>
       <c r="D184" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E184" t="s">
         <v>15</v>
@@ -7400,7 +7401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -7408,10 +7409,10 @@
         <v>162</v>
       </c>
       <c r="C185" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D185" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E185" t="s">
         <v>15</v>
@@ -7432,24 +7433,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C186" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="D186" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E186" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F186" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G186" t="s">
         <v>14</v>
@@ -7464,24 +7465,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C187" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="D187" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E187" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F187" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G187" t="s">
         <v>14</v>
@@ -7496,24 +7497,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C188" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="D188" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="E188" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F188" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G188" t="s">
         <v>14</v>
@@ -7528,24 +7529,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="C189" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="D189" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="E189" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F189" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G189" t="s">
         <v>14</v>
@@ -7560,248 +7561,248 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>173</v>
       </c>
       <c r="B190" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D190" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="E190" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F190" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I190" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J190" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>173</v>
       </c>
       <c r="B191" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C191" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D191" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E191" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F191" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G191" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H191" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I191" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J191" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>173</v>
       </c>
       <c r="B192" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C192" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D192" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E192" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F192" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G192" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I192" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J192" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>173</v>
       </c>
       <c r="B193" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C193" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D193" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E193" t="s">
         <v>27</v>
       </c>
       <c r="F193" t="s">
+        <v>26</v>
+      </c>
+      <c r="G193" t="s">
+        <v>24</v>
+      </c>
+      <c r="H193" t="s">
+        <v>103</v>
+      </c>
+      <c r="I193" t="s">
+        <v>27</v>
+      </c>
+      <c r="J193" t="s">
         <v>77</v>
       </c>
-      <c r="G193" t="s">
-        <v>14</v>
-      </c>
-      <c r="H193" t="s">
-        <v>14</v>
-      </c>
-      <c r="I193" t="s">
-        <v>14</v>
-      </c>
-      <c r="J193" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>173</v>
       </c>
       <c r="B194" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C194" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D194" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E194" t="s">
         <v>27</v>
       </c>
       <c r="F194" t="s">
+        <v>26</v>
+      </c>
+      <c r="G194" t="s">
+        <v>24</v>
+      </c>
+      <c r="H194" t="s">
+        <v>103</v>
+      </c>
+      <c r="I194" t="s">
+        <v>27</v>
+      </c>
+      <c r="J194" t="s">
         <v>77</v>
       </c>
-      <c r="G194" t="s">
-        <v>14</v>
-      </c>
-      <c r="H194" t="s">
-        <v>14</v>
-      </c>
-      <c r="I194" t="s">
-        <v>14</v>
-      </c>
-      <c r="J194" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>173</v>
       </c>
       <c r="B195" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C195" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="D195" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E195" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F195" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G195" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I195" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J195" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>173</v>
       </c>
       <c r="B196" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C196" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D196" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E196" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H196" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="I196" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J196" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>173</v>
       </c>
       <c r="B197" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C197" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D197" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="E197" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
@@ -7816,21 +7817,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>173</v>
       </c>
       <c r="B198" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C198" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D198" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="E198" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F198" t="s">
         <v>26</v>
@@ -7848,21 +7849,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>173</v>
       </c>
       <c r="B199" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C199" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D199" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E199" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F199" t="s">
         <v>26</v>
@@ -7880,114 +7881,114 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>173</v>
       </c>
       <c r="B200" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D200" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E200" t="s">
         <v>27</v>
       </c>
       <c r="F200" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G200" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I200" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J200" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>173</v>
       </c>
       <c r="B201" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C201" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D201" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="E201" t="s">
         <v>27</v>
       </c>
       <c r="F201" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G201" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I201" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J201" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>173</v>
       </c>
       <c r="B202" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C202" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D202" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="E202" t="s">
         <v>27</v>
       </c>
       <c r="F202" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G202" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I202" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J202" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>173</v>
       </c>
       <c r="B203" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C203" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D203" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="E203" t="s">
         <v>27</v>
@@ -7996,30 +7997,30 @@
         <v>77</v>
       </c>
       <c r="G203" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I203" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J203" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>173</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C204" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D204" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E204" t="s">
         <v>27</v>
@@ -8028,36 +8029,36 @@
         <v>77</v>
       </c>
       <c r="G204" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I204" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J204" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="C205" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D205" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="E205" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F205" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G205" t="s">
         <v>14</v>
@@ -8072,24 +8073,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="C206" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="D206" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="E206" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F206" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G206" t="s">
         <v>14</v>
@@ -8104,24 +8105,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>173</v>
       </c>
       <c r="B207" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="C207" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="D207" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="E207" t="s">
         <v>27</v>
       </c>
       <c r="F207" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G207" t="s">
         <v>14</v>
@@ -8136,24 +8137,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>173</v>
       </c>
       <c r="B208" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="D208" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="E208" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F208" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
@@ -8168,47 +8169,53 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>173</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="D209" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="E209" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F209" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G209" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I209" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J209" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J209" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J185">
-      <sortCondition ref="B1"/>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Tillage"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J189">
+      <sortCondition ref="B1:B209"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J234">
     <sortCondition ref="D2:D234"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AE2D46-D9B2-4882-857A-128400B9B2D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A5907-02A3-4CB1-A83A-BF9EAF074EE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28875" yWindow="0" windowWidth="23640" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29340" yWindow="1125" windowWidth="23640" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
@@ -567,9 +567,6 @@
     <t>Nitrogen Decomposition Rate Of Buried Residues</t>
   </si>
   <si>
-    <t>Carbon Decomposition Rate On Buried Residues</t>
-  </si>
-  <si>
     <t>Respiration</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
   </si>
   <si>
     <t>Mineral-Associated Carbon</t>
+  </si>
+  <si>
+    <t>Phosphorus Decomposition Rate Of Buried Residues</t>
   </si>
 </sst>
 </file>
@@ -1497,16 +1497,16 @@
   <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I196" sqref="I196"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="47.6328125" customWidth="1"/>
     <col min="5" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
@@ -2356,7 +2356,7 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
@@ -3348,7 +3348,7 @@
         <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -4084,7 +4084,7 @@
         <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
@@ -4148,7 +4148,7 @@
         <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
@@ -4628,7 +4628,7 @@
         <v>99</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E98" t="s">
         <v>27</v>
@@ -4692,7 +4692,7 @@
         <v>89</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E100" t="s">
         <v>22</v>
@@ -4753,10 +4753,10 @@
         <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E102" t="s">
         <v>15</v>
@@ -4788,7 +4788,7 @@
         <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E103" t="s">
         <v>27</v>
@@ -4852,7 +4852,7 @@
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E105" t="s">
         <v>27</v>
@@ -4916,7 +4916,7 @@
         <v>92</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
@@ -4980,7 +4980,7 @@
         <v>92</v>
       </c>
       <c r="D109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
@@ -5012,7 +5012,7 @@
         <v>99</v>
       </c>
       <c r="D110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E110" t="s">
         <v>27</v>
@@ -5076,7 +5076,7 @@
         <v>92</v>
       </c>
       <c r="D112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
@@ -5140,7 +5140,7 @@
         <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E114" t="s">
         <v>27</v>
@@ -5332,7 +5332,7 @@
         <v>99</v>
       </c>
       <c r="D120" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E120" t="s">
         <v>27</v>
@@ -5396,7 +5396,7 @@
         <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E122" t="s">
         <v>27</v>
@@ -5972,7 +5972,7 @@
         <v>103</v>
       </c>
       <c r="D140" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E140" t="s">
         <v>27</v>
@@ -6036,7 +6036,7 @@
         <v>103</v>
       </c>
       <c r="D142" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E142" t="s">
         <v>27</v>
@@ -6676,7 +6676,7 @@
         <v>25</v>
       </c>
       <c r="D162" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E162" t="s">
         <v>27</v>
@@ -6740,7 +6740,7 @@
         <v>25</v>
       </c>
       <c r="D164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E164" t="s">
         <v>27</v>
@@ -7668,7 +7668,7 @@
         <v>130</v>
       </c>
       <c r="D193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E193" t="s">
         <v>27</v>
@@ -7700,7 +7700,7 @@
         <v>130</v>
       </c>
       <c r="D194" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E194" t="s">
         <v>27</v>
@@ -7732,7 +7732,7 @@
         <v>130</v>
       </c>
       <c r="D195" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E195" t="s">
         <v>27</v>
@@ -7764,7 +7764,7 @@
         <v>130</v>
       </c>
       <c r="D196" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E196" t="s">
         <v>27</v>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A5907-02A3-4CB1-A83A-BF9EAF074EE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4571023-F7E7-428D-A0D5-888EFC5CC783}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="1125" windowWidth="23640" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40935" yWindow="0" windowWidth="14745" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
@@ -1493,12 +1493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1577,7 +1576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -1737,7 +1736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1833,7 +1832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -1865,7 +1864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>173</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>173</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>173</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2665,18 +2664,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -2697,18 +2696,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
@@ -2729,18 +2728,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -2761,7 +2760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2769,10 +2768,10 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -2793,7 +2792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2801,10 +2800,10 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -2825,7 +2824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2833,16 +2832,16 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -2857,7 +2856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2865,16 +2864,16 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
@@ -2889,7 +2888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2897,10 +2896,10 @@
         <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -2921,7 +2920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2932,13 +2931,13 @@
         <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
@@ -2953,7 +2952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2964,13 +2963,13 @@
         <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -2985,18 +2984,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>89</v>
+      <c r="C47" t="s">
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
@@ -3017,18 +3016,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>89</v>
+      <c r="C48" t="s">
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -3049,18 +3048,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>89</v>
+      <c r="C49" t="s">
+        <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -3081,24 +3080,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>89</v>
+      <c r="C50" t="s">
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -3113,24 +3112,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>89</v>
+      <c r="C51" t="s">
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -3145,18 +3144,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>89</v>
+      <c r="C52" t="s">
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -3177,18 +3176,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>89</v>
+      <c r="C53" t="s">
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -3209,18 +3208,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>89</v>
+      <c r="C54" t="s">
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -3241,18 +3240,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -3273,18 +3272,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>89</v>
+      <c r="C56" t="s">
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -3305,18 +3304,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>89</v>
+      <c r="C57" t="s">
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
@@ -3337,18 +3336,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -3369,7 +3368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -3377,10 +3376,10 @@
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
         <v>22</v>
@@ -3401,24 +3400,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>89</v>
+      <c r="C60" t="s">
+        <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
@@ -3433,24 +3432,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>89</v>
+      <c r="C61" t="s">
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -3465,18 +3464,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -3497,24 +3496,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
@@ -3529,24 +3528,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
@@ -3561,24 +3560,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
       </c>
-      <c r="C65" t="s">
-        <v>78</v>
+      <c r="C65" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
@@ -3593,18 +3592,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="C66" t="s">
-        <v>78</v>
+      <c r="C66" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -3625,18 +3624,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
       </c>
-      <c r="C67" t="s">
-        <v>78</v>
+      <c r="C67" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -3657,7 +3656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>89</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -3689,18 +3688,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
       </c>
-      <c r="C69" t="s">
-        <v>78</v>
+      <c r="C69" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -3723,16 +3722,16 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
       </c>
-      <c r="C70" t="s">
-        <v>50</v>
+      <c r="C70" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -3755,16 +3754,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
         <v>37</v>
       </c>
-      <c r="C71" t="s">
-        <v>78</v>
+      <c r="C71" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -3785,7 +3784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -3819,16 +3818,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -3849,18 +3848,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
       </c>
-      <c r="C74" t="s">
-        <v>78</v>
+      <c r="C74" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
@@ -3883,16 +3882,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
       </c>
-      <c r="C75" t="s">
-        <v>78</v>
+      <c r="C75" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -3913,18 +3912,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
         <v>37</v>
       </c>
-      <c r="C76" t="s">
-        <v>78</v>
+      <c r="C76" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -3945,18 +3944,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
         <v>22</v>
@@ -3977,18 +3976,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>89</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -4009,18 +4008,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E79" t="s">
         <v>22</v>
@@ -4043,22 +4042,22 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
       </c>
-      <c r="C80" t="s">
-        <v>87</v>
+      <c r="C80" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G80" t="s">
         <v>14</v>
@@ -4073,24 +4072,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
       </c>
-      <c r="C81" t="s">
-        <v>78</v>
+      <c r="C81" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
@@ -4107,22 +4106,22 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
         <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G82" t="s">
         <v>14</v>
@@ -4137,24 +4136,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
       </c>
-      <c r="C83" t="s">
-        <v>78</v>
+      <c r="C83" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G83" t="s">
         <v>14</v>
@@ -4171,16 +4170,16 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
@@ -4201,18 +4200,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E85" t="s">
         <v>22</v>
@@ -4297,24 +4296,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E88" t="s">
         <v>22</v>
       </c>
       <c r="F88" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G88" t="s">
         <v>14</v>
@@ -4331,22 +4330,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -4361,24 +4360,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G90" t="s">
         <v>14</v>
@@ -4395,118 +4394,118 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>17</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>91</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>92</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" t="s">
         <v>94</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E94" t="s">
         <v>15</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F94" t="s">
         <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" t="s">
-        <v>99</v>
-      </c>
-      <c r="D92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" t="s">
-        <v>77</v>
-      </c>
-      <c r="G92" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>173</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" t="s">
-        <v>57</v>
-      </c>
-      <c r="E93" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94" t="s">
-        <v>22</v>
-      </c>
-      <c r="F94" t="s">
-        <v>26</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
@@ -4523,22 +4522,22 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
         <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G95" t="s">
         <v>14</v>
@@ -4553,24 +4552,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D96" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G96" t="s">
         <v>14</v>
@@ -4587,22 +4586,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
         <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D97" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G97" t="s">
         <v>14</v>
@@ -4617,24 +4616,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D98" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
@@ -4651,48 +4650,48 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>17</v>
       </c>
-      <c r="B99" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" t="s">
-        <v>27</v>
-      </c>
-      <c r="F99" t="s">
-        <v>77</v>
-      </c>
-      <c r="G99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>173</v>
-      </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="E100" t="s">
         <v>22</v>
@@ -4718,19 +4717,19 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
@@ -4745,50 +4744,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="E102" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="E103" t="s">
         <v>27</v>
@@ -4809,24 +4808,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D104" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
@@ -4843,16 +4842,16 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
         <v>24</v>
       </c>
       <c r="C105" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D105" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E105" t="s">
         <v>27</v>
@@ -4861,37 +4860,37 @@
         <v>77</v>
       </c>
       <c r="G105" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>173</v>
-      </c>
-      <c r="B106" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" t="s">
-        <v>94</v>
-      </c>
-      <c r="E106" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" t="s">
-        <v>16</v>
-      </c>
       <c r="G106" t="s">
         <v>14</v>
       </c>
@@ -4905,24 +4904,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="E107" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
@@ -4939,22 +4938,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
         <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D108" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E108" t="s">
         <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -4969,24 +4968,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
@@ -5001,9 +5000,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
         <v>24</v>
@@ -5012,7 +5011,7 @@
         <v>99</v>
       </c>
       <c r="D110" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E110" t="s">
         <v>27</v>
@@ -5044,13 +5043,13 @@
         <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="E111" t="s">
         <v>27</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s">
         <v>14</v>
@@ -5065,36 +5064,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C112" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E112" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" t="s">
+        <v>77</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
         <v>15</v>
       </c>
-      <c r="F112" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" t="s">
-        <v>14</v>
-      </c>
       <c r="J112" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
@@ -5108,13 +5107,13 @@
         <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="E113" t="s">
         <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G113" t="s">
         <v>14</v>
@@ -5140,13 +5139,13 @@
         <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E114" t="s">
         <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G114" t="s">
         <v>14</v>
@@ -5161,9 +5160,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B115" t="s">
         <v>24</v>
@@ -5172,7 +5171,7 @@
         <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="E115" t="s">
         <v>27</v>
@@ -5193,18 +5192,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B116" t="s">
         <v>24</v>
       </c>
       <c r="C116" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="E116" t="s">
         <v>27</v>
@@ -5225,7 +5224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -5233,42 +5232,42 @@
         <v>24</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D117" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E117" t="s">
         <v>27</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I117" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B118" t="s">
         <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D118" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="E118" t="s">
         <v>27</v>
@@ -5291,16 +5290,16 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
         <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D119" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E119" t="s">
         <v>27</v>
@@ -5309,19 +5308,19 @@
         <v>26</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -5329,16 +5328,16 @@
         <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D120" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="E120" t="s">
         <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
@@ -5355,37 +5354,37 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B121" t="s">
         <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D121" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="E121" t="s">
         <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G121" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>173</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E122" t="s">
         <v>27</v>
@@ -5417,24 +5416,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B123" t="s">
         <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="E123" t="s">
         <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
@@ -5449,7 +5448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -5457,10 +5456,10 @@
         <v>24</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D124" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E124" t="s">
         <v>27</v>
@@ -5469,115 +5468,115 @@
         <v>26</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I124" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J124" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C125" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E125" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C126" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E126" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I126" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D127" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E127" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>173</v>
       </c>
@@ -5585,16 +5584,16 @@
         <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E128" t="s">
         <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G128" t="s">
         <v>14</v>
@@ -5609,88 +5608,88 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E129" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I129" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D130" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I130" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J130" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C131" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D131" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="E131" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G131" t="s">
         <v>14</v>
@@ -5707,83 +5706,83 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B132" t="s">
         <v>24</v>
       </c>
       <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" t="s">
+        <v>199</v>
+      </c>
+      <c r="E132" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" t="s">
         <v>111</v>
       </c>
-      <c r="D132" t="s">
-        <v>113</v>
-      </c>
-      <c r="E132" t="s">
-        <v>27</v>
-      </c>
-      <c r="F132" t="s">
-        <v>77</v>
-      </c>
-      <c r="G132" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133" t="s">
-        <v>41</v>
-      </c>
-      <c r="C133" t="s">
-        <v>42</v>
-      </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E133" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="I133" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D134" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E134" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
@@ -5801,18 +5800,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
       </c>
       <c r="C135" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D135" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E135" t="s">
         <v>27</v>
@@ -5833,24 +5832,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D136" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E136" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
@@ -5865,24 +5864,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C137" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E137" t="s">
         <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G137" t="s">
         <v>14</v>
@@ -5897,7 +5896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>173</v>
       </c>
@@ -5905,16 +5904,16 @@
         <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D138" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="E138" t="s">
         <v>27</v>
       </c>
       <c r="F138" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G138" t="s">
         <v>14</v>
@@ -5929,56 +5928,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D139" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E139" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F139" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G139" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I139" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B140" t="s">
         <v>24</v>
       </c>
       <c r="C140" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D140" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="E140" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G140" t="s">
         <v>14</v>
@@ -5993,39 +5992,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B141" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C141" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D141" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E141" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F141" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G141" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I141" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>173</v>
       </c>
@@ -6033,16 +6032,16 @@
         <v>24</v>
       </c>
       <c r="C142" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D142" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="E142" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G142" t="s">
         <v>14</v>
@@ -6057,7 +6056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -6065,31 +6064,31 @@
         <v>41</v>
       </c>
       <c r="C143" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E143" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F143" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H143" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I143" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J143" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -6097,95 +6096,95 @@
         <v>41</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E144" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H144" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I144" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J144" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C145" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E145" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J145" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C146" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E146" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J146" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -6193,65 +6192,65 @@
         <v>41</v>
       </c>
       <c r="C147" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E147" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F147" t="s">
         <v>16</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J147" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C148" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J148" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
         <v>41</v>
@@ -6260,7 +6259,7 @@
         <v>42</v>
       </c>
       <c r="D149" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
@@ -6281,7 +6280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -6289,16 +6288,16 @@
         <v>41</v>
       </c>
       <c r="C150" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="D150" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E150" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F150" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G150" t="s">
         <v>14</v>
@@ -6313,7 +6312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6321,16 +6320,16 @@
         <v>41</v>
       </c>
       <c r="C151" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E151" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G151" t="s">
         <v>14</v>
@@ -6347,22 +6346,22 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
         <v>41</v>
       </c>
       <c r="C152" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E152" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F152" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G152" t="s">
         <v>14</v>
@@ -6378,55 +6377,55 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>17</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>41</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" t="s">
+        <v>127</v>
+      </c>
+      <c r="E153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D154" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E154" t="s">
         <v>27</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G154" t="s">
         <v>14</v>
@@ -6443,48 +6442,48 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
         <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D155" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E155" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G155" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I155" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J155" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D156" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E156" t="s">
         <v>27</v>
@@ -6493,100 +6492,100 @@
         <v>77</v>
       </c>
       <c r="G156" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I156" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J156" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
         <v>41</v>
       </c>
       <c r="C157" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D157" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E157" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I157" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J157" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B158" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" t="s">
+        <v>130</v>
+      </c>
+      <c r="D158" t="s">
+        <v>135</v>
+      </c>
+      <c r="E158" t="s">
+        <v>27</v>
+      </c>
+      <c r="F158" t="s">
+        <v>77</v>
+      </c>
+      <c r="G158" t="s">
         <v>24</v>
       </c>
-      <c r="C158" t="s">
-        <v>25</v>
-      </c>
-      <c r="D158" t="s">
-        <v>110</v>
-      </c>
-      <c r="E158" t="s">
-        <v>27</v>
-      </c>
-      <c r="F158" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" t="s">
-        <v>11</v>
-      </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I158" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J158" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B159" t="s">
         <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D159" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F159" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
@@ -6601,440 +6600,440 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>173</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="D160" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="E160" t="s">
         <v>27</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I160" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B161" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C161" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E161" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F161" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I161" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J161" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>173</v>
       </c>
       <c r="B162" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" t="s">
+        <v>130</v>
+      </c>
+      <c r="D162" t="s">
+        <v>134</v>
+      </c>
+      <c r="E162" t="s">
+        <v>27</v>
+      </c>
+      <c r="F162" t="s">
+        <v>77</v>
+      </c>
+      <c r="G162" t="s">
         <v>24</v>
       </c>
-      <c r="C162" t="s">
-        <v>25</v>
-      </c>
-      <c r="D162" t="s">
-        <v>198</v>
-      </c>
-      <c r="E162" t="s">
-        <v>27</v>
-      </c>
-      <c r="F162" t="s">
-        <v>26</v>
-      </c>
-      <c r="G162" t="s">
-        <v>14</v>
-      </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I162" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J162" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C163" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D163" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E163" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F163" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I163" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J163" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>173</v>
       </c>
       <c r="B164" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" t="s">
+        <v>130</v>
+      </c>
+      <c r="D164" t="s">
+        <v>192</v>
+      </c>
+      <c r="E164" t="s">
+        <v>27</v>
+      </c>
+      <c r="F164" t="s">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s">
         <v>24</v>
       </c>
-      <c r="C164" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" t="s">
-        <v>199</v>
-      </c>
-      <c r="E164" t="s">
-        <v>27</v>
-      </c>
-      <c r="F164" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" t="s">
-        <v>11</v>
-      </c>
       <c r="H164" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I164" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J164" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
         <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D165" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="E165" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G165" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I165" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J165" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B166" t="s">
         <v>41</v>
       </c>
       <c r="C166" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D166" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E166" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I166" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J166" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" t="s">
+        <v>130</v>
+      </c>
+      <c r="D167" t="s">
+        <v>191</v>
+      </c>
+      <c r="E167" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167" t="s">
+        <v>77</v>
+      </c>
+      <c r="G167" t="s">
+        <v>24</v>
+      </c>
+      <c r="H167" t="s">
+        <v>103</v>
+      </c>
+      <c r="I167" t="s">
+        <v>27</v>
+      </c>
+      <c r="J167" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" t="s">
+        <v>137</v>
+      </c>
+      <c r="D168" t="s">
+        <v>138</v>
+      </c>
+      <c r="E168" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" t="s">
+        <v>77</v>
+      </c>
+      <c r="G168" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>14</v>
+      </c>
+      <c r="J168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>17</v>
       </c>
-      <c r="B167" t="s">
-        <v>147</v>
-      </c>
-      <c r="C167" t="s">
-        <v>149</v>
-      </c>
-      <c r="D167" t="s">
-        <v>151</v>
-      </c>
-      <c r="E167" t="s">
-        <v>22</v>
-      </c>
-      <c r="F167" t="s">
-        <v>26</v>
-      </c>
-      <c r="G167" t="s">
-        <v>14</v>
-      </c>
-      <c r="H167" t="s">
-        <v>14</v>
-      </c>
-      <c r="I167" t="s">
-        <v>14</v>
-      </c>
-      <c r="J167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>173</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" t="s">
+        <v>137</v>
+      </c>
+      <c r="D169" t="s">
+        <v>138</v>
+      </c>
+      <c r="E169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" t="s">
+        <v>77</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+      <c r="J169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C168" t="s">
-        <v>111</v>
-      </c>
-      <c r="D168" t="s">
-        <v>115</v>
-      </c>
-      <c r="E168" t="s">
-        <v>27</v>
-      </c>
-      <c r="F168" t="s">
+      <c r="H170" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" t="s">
+        <v>140</v>
+      </c>
+      <c r="D171" t="s">
+        <v>129</v>
+      </c>
+      <c r="E171" t="s">
+        <v>22</v>
+      </c>
+      <c r="F171" t="s">
+        <v>26</v>
+      </c>
+      <c r="G171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+      <c r="J171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" t="s">
+        <v>141</v>
+      </c>
+      <c r="D172" t="s">
+        <v>142</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
         <v>16</v>
       </c>
-      <c r="G168" t="s">
-        <v>14</v>
-      </c>
-      <c r="H168" t="s">
-        <v>14</v>
-      </c>
-      <c r="I168" t="s">
-        <v>14</v>
-      </c>
-      <c r="J168" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>10</v>
-      </c>
-      <c r="B169" t="s">
-        <v>147</v>
-      </c>
-      <c r="C169" t="s">
-        <v>153</v>
-      </c>
-      <c r="D169" t="s">
-        <v>155</v>
-      </c>
-      <c r="E169" t="s">
-        <v>27</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="G172" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+      <c r="J172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" t="s">
+        <v>41</v>
+      </c>
+      <c r="C173" t="s">
+        <v>141</v>
+      </c>
+      <c r="D173" t="s">
+        <v>143</v>
+      </c>
+      <c r="E173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" t="s">
         <v>16</v>
-      </c>
-      <c r="G169" t="s">
-        <v>14</v>
-      </c>
-      <c r="H169" t="s">
-        <v>14</v>
-      </c>
-      <c r="I169" t="s">
-        <v>14</v>
-      </c>
-      <c r="J169" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>17</v>
-      </c>
-      <c r="B170" t="s">
-        <v>147</v>
-      </c>
-      <c r="C170" t="s">
-        <v>153</v>
-      </c>
-      <c r="D170" t="s">
-        <v>148</v>
-      </c>
-      <c r="E170" t="s">
-        <v>27</v>
-      </c>
-      <c r="F170" t="s">
-        <v>77</v>
-      </c>
-      <c r="G170" t="s">
-        <v>14</v>
-      </c>
-      <c r="H170" t="s">
-        <v>14</v>
-      </c>
-      <c r="I170" t="s">
-        <v>14</v>
-      </c>
-      <c r="J170" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>173</v>
-      </c>
-      <c r="B171" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" t="s">
-        <v>112</v>
-      </c>
-      <c r="D171" t="s">
-        <v>117</v>
-      </c>
-      <c r="E171" t="s">
-        <v>22</v>
-      </c>
-      <c r="F171" t="s">
-        <v>26</v>
-      </c>
-      <c r="G171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" t="s">
-        <v>14</v>
-      </c>
-      <c r="I171" t="s">
-        <v>14</v>
-      </c>
-      <c r="J171" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>10</v>
-      </c>
-      <c r="B172" t="s">
-        <v>147</v>
-      </c>
-      <c r="C172" t="s">
-        <v>153</v>
-      </c>
-      <c r="D172" t="s">
-        <v>156</v>
-      </c>
-      <c r="E172" t="s">
-        <v>27</v>
-      </c>
-      <c r="F172" t="s">
-        <v>77</v>
-      </c>
-      <c r="G172" t="s">
-        <v>14</v>
-      </c>
-      <c r="H172" t="s">
-        <v>14</v>
-      </c>
-      <c r="I172" t="s">
-        <v>14</v>
-      </c>
-      <c r="J172" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>10</v>
-      </c>
-      <c r="B173" t="s">
-        <v>147</v>
-      </c>
-      <c r="C173" t="s">
-        <v>157</v>
-      </c>
-      <c r="D173" t="s">
-        <v>158</v>
-      </c>
-      <c r="E173" t="s">
-        <v>27</v>
-      </c>
-      <c r="F173" t="s">
-        <v>77</v>
       </c>
       <c r="G173" t="s">
         <v>14</v>
@@ -7054,16 +7053,16 @@
         <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C174" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D174" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E174" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F174" t="s">
         <v>77</v>
@@ -7081,24 +7080,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D175" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E175" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F175" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G175" t="s">
         <v>14</v>
@@ -7113,21 +7112,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C176" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D176" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E176" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F176" t="s">
         <v>16</v>
@@ -7145,21 +7144,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B177" t="s">
         <v>147</v>
       </c>
       <c r="C177" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D177" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="E177" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F177" t="s">
         <v>26</v>
@@ -7185,16 +7184,16 @@
         <v>147</v>
       </c>
       <c r="C178" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D178" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E178" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F178" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
@@ -7209,24 +7208,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B179" t="s">
         <v>147</v>
       </c>
       <c r="C179" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D179" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E179" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G179" t="s">
         <v>14</v>
@@ -7241,56 +7240,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>173</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D180" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="E180" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J180" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B181" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C181" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D181" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E181" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G181" t="s">
         <v>14</v>
@@ -7305,24 +7304,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>173</v>
       </c>
       <c r="B182" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C182" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D182" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E182" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G182" t="s">
         <v>14</v>
@@ -7337,21 +7336,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C183" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D183" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E183" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F183" t="s">
         <v>16</v>
@@ -7369,24 +7368,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C184" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D184" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E184" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G184" t="s">
         <v>14</v>
@@ -7401,24 +7400,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C185" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D185" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E185" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
@@ -7444,7 +7443,7 @@
         <v>153</v>
       </c>
       <c r="D186" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E186" t="s">
         <v>27</v>
@@ -7473,10 +7472,10 @@
         <v>147</v>
       </c>
       <c r="C187" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D187" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E187" t="s">
         <v>27</v>
@@ -7505,10 +7504,10 @@
         <v>147</v>
       </c>
       <c r="C188" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D188" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E188" t="s">
         <v>27</v>
@@ -7531,22 +7530,22 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B189" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C189" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D189" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E189" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G189" t="s">
         <v>14</v>
@@ -7561,18 +7560,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>173</v>
       </c>
       <c r="B190" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C190" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D190" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="E190" t="s">
         <v>27</v>
@@ -7581,30 +7580,30 @@
         <v>77</v>
       </c>
       <c r="G190" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I190" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J190" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>173</v>
       </c>
       <c r="B191" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C191" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D191" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E191" t="s">
         <v>27</v>
@@ -7613,30 +7612,30 @@
         <v>77</v>
       </c>
       <c r="G191" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I191" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J191" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>173</v>
       </c>
       <c r="B192" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C192" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D192" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="E192" t="s">
         <v>27</v>
@@ -7645,164 +7644,164 @@
         <v>77</v>
       </c>
       <c r="G192" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I192" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" t="s">
+        <v>147</v>
+      </c>
+      <c r="C193" t="s">
+        <v>157</v>
+      </c>
+      <c r="D193" t="s">
+        <v>158</v>
+      </c>
+      <c r="E193" t="s">
+        <v>27</v>
+      </c>
+      <c r="F193" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>173</v>
-      </c>
-      <c r="B193" t="s">
-        <v>41</v>
-      </c>
-      <c r="C193" t="s">
-        <v>130</v>
-      </c>
-      <c r="D193" t="s">
-        <v>192</v>
-      </c>
-      <c r="E193" t="s">
-        <v>27</v>
-      </c>
-      <c r="F193" t="s">
-        <v>26</v>
-      </c>
       <c r="G193" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I193" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J193" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C194" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D194" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E194" t="s">
         <v>27</v>
       </c>
       <c r="F194" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G194" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I194" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J194" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C195" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D195" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E195" t="s">
         <v>27</v>
       </c>
       <c r="F195" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G195" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I195" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J195" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C196" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D196" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="E196" t="s">
         <v>27</v>
       </c>
       <c r="F196" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G196" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I196" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J196" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B197" t="s">
         <v>147</v>
       </c>
       <c r="C197" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D197" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="E197" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F197" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
@@ -7817,24 +7816,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B198" t="s">
         <v>147</v>
       </c>
       <c r="C198" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D198" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E198" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F198" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
@@ -7849,7 +7848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>173</v>
       </c>
@@ -7857,16 +7856,16 @@
         <v>147</v>
       </c>
       <c r="C199" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D199" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E199" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F199" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G199" t="s">
         <v>14</v>
@@ -7881,7 +7880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>173</v>
       </c>
@@ -7889,16 +7888,16 @@
         <v>147</v>
       </c>
       <c r="C200" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D200" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E200" t="s">
         <v>27</v>
       </c>
       <c r="F200" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G200" t="s">
         <v>14</v>
@@ -7913,24 +7912,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C201" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D201" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E201" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F201" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G201" t="s">
         <v>14</v>
@@ -7945,24 +7944,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C202" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D202" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E202" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F202" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G202" t="s">
         <v>14</v>
@@ -7977,24 +7976,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B203" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C203" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D203" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E203" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F203" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G203" t="s">
         <v>14</v>
@@ -8009,24 +8008,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>173</v>
       </c>
       <c r="B204" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C204" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D204" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E204" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F204" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G204" t="s">
         <v>14</v>
@@ -8041,7 +8040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -8052,7 +8051,7 @@
         <v>166</v>
       </c>
       <c r="D205" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E205" t="s">
         <v>15</v>
@@ -8073,7 +8072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -8081,10 +8080,10 @@
         <v>162</v>
       </c>
       <c r="C206" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D206" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E206" t="s">
         <v>15</v>
@@ -8105,24 +8104,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C207" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D207" t="s">
         <v>160</v>
       </c>
       <c r="E207" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F207" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G207" t="s">
         <v>14</v>
@@ -8137,7 +8136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>173</v>
       </c>
@@ -8145,10 +8144,10 @@
         <v>162</v>
       </c>
       <c r="C208" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D208" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8169,18 +8168,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
         <v>162</v>
       </c>
       <c r="C209" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D209" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
@@ -8203,12 +8202,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J209" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Tillage"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J189">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J209">
       <sortCondition ref="B1:B209"/>
     </sortState>
   </autoFilter>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4571023-F7E7-428D-A0D5-888EFC5CC783}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A936D-E84C-469A-AAB3-DDCECD1641F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40935" yWindow="0" windowWidth="14745" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29490" yWindow="2415" windowWidth="28425" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="203">
   <si>
     <t>Review</t>
   </si>
@@ -637,6 +637,12 @@
   </si>
   <si>
     <t>Phosphorus Decomposition Rate Of Buried Residues</t>
+  </si>
+  <si>
+    <t>Misc. Micro-nutrients</t>
+  </si>
+  <si>
+    <t>Variable Cost</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1139,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1493,11 +1500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4616,85 +4623,85 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C98" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" t="s">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D98" t="s">
-        <v>185</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D99" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" t="s">
-        <v>92</v>
-      </c>
-      <c r="D99" t="s">
-        <v>186</v>
-      </c>
-      <c r="E99" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="F99" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
         <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F100" t="s">
         <v>26</v>
@@ -4714,19 +4721,19 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
         <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D101" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
         <v>26</v>
@@ -4746,22 +4753,22 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B102" t="s">
         <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E102" t="s">
         <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
@@ -4778,22 +4785,22 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E103" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
@@ -4813,16 +4820,16 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F104" t="s">
         <v>77</v>
@@ -4851,7 +4858,7 @@
         <v>99</v>
       </c>
       <c r="D105" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="E105" t="s">
         <v>27</v>
@@ -4874,7 +4881,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
         <v>24</v>
@@ -4883,7 +4890,7 @@
         <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
         <v>27</v>
@@ -4906,7 +4913,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
         <v>24</v>
@@ -4915,7 +4922,7 @@
         <v>99</v>
       </c>
       <c r="D107" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="E107" t="s">
         <v>27</v>
@@ -4938,7 +4945,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B108" t="s">
         <v>24</v>
@@ -4947,7 +4954,7 @@
         <v>99</v>
       </c>
       <c r="D108" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="E108" t="s">
         <v>27</v>
@@ -4970,7 +4977,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B109" t="s">
         <v>24</v>
@@ -5002,7 +5009,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
         <v>24</v>
@@ -5011,7 +5018,7 @@
         <v>99</v>
       </c>
       <c r="D110" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E110" t="s">
         <v>27</v>
@@ -5034,16 +5041,16 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
         <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="E111" t="s">
         <v>27</v>
@@ -5066,16 +5073,16 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
         <v>24</v>
       </c>
       <c r="C112" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D112" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E112" t="s">
         <v>27</v>
@@ -5084,16 +5091,16 @@
         <v>77</v>
       </c>
       <c r="G112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
@@ -5107,13 +5114,13 @@
         <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="E113" t="s">
         <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G113" t="s">
         <v>14</v>
@@ -5139,25 +5146,25 @@
         <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E114" t="s">
         <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J114" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
@@ -5171,13 +5178,13 @@
         <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="E115" t="s">
         <v>27</v>
       </c>
       <c r="F115" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
@@ -5203,13 +5210,13 @@
         <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E116" t="s">
         <v>27</v>
       </c>
       <c r="F116" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G116" t="s">
         <v>14</v>
@@ -5226,7 +5233,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
         <v>24</v>
@@ -5235,7 +5242,7 @@
         <v>103</v>
       </c>
       <c r="D117" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="E117" t="s">
         <v>27</v>
@@ -5258,7 +5265,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
         <v>24</v>
@@ -5267,7 +5274,7 @@
         <v>103</v>
       </c>
       <c r="D118" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E118" t="s">
         <v>27</v>
@@ -5290,7 +5297,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
         <v>24</v>
@@ -5299,13 +5306,13 @@
         <v>103</v>
       </c>
       <c r="D119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E119" t="s">
         <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
@@ -5331,13 +5338,13 @@
         <v>103</v>
       </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="E120" t="s">
         <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
@@ -5363,13 +5370,13 @@
         <v>103</v>
       </c>
       <c r="D121" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="E121" t="s">
         <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G121" t="s">
         <v>14</v>
@@ -5395,13 +5402,13 @@
         <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="E122" t="s">
         <v>27</v>
       </c>
       <c r="F122" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G122" t="s">
         <v>14</v>
@@ -5427,7 +5434,7 @@
         <v>103</v>
       </c>
       <c r="D123" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E123" t="s">
         <v>27</v>
@@ -5450,48 +5457,48 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
         <v>24</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E124" t="s">
         <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G124" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
         <v>24</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D125" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="E125" t="s">
         <v>27</v>
@@ -5514,7 +5521,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
         <v>24</v>
@@ -5546,7 +5553,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B127" t="s">
         <v>24</v>
@@ -5555,13 +5562,13 @@
         <v>25</v>
       </c>
       <c r="D127" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E127" t="s">
         <v>27</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
@@ -5578,7 +5585,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B128" t="s">
         <v>24</v>
@@ -5587,25 +5594,25 @@
         <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E128" t="s">
         <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G128" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J128" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
@@ -5619,7 +5626,7 @@
         <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E129" t="s">
         <v>27</v>
@@ -5628,16 +5635,16 @@
         <v>26</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
@@ -5651,25 +5658,25 @@
         <v>25</v>
       </c>
       <c r="D130" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="E130" t="s">
         <v>27</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I130" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
@@ -5683,7 +5690,7 @@
         <v>25</v>
       </c>
       <c r="D131" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="E131" t="s">
         <v>27</v>
@@ -5692,16 +5699,16 @@
         <v>26</v>
       </c>
       <c r="G131" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J131" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
@@ -5715,7 +5722,7 @@
         <v>25</v>
       </c>
       <c r="D132" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="E132" t="s">
         <v>27</v>
@@ -5738,71 +5745,71 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
       </c>
       <c r="C133" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D133" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="E133" t="s">
         <v>27</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G133" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="I133" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B134" t="s">
         <v>24</v>
       </c>
       <c r="C134" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="E134" t="s">
         <v>27</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G134" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I134" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J134" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
@@ -5811,30 +5818,30 @@
         <v>111</v>
       </c>
       <c r="D135" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E135" t="s">
         <v>27</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="I135" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J135" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
@@ -5843,13 +5850,13 @@
         <v>111</v>
       </c>
       <c r="D136" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E136" t="s">
         <v>27</v>
       </c>
       <c r="F136" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
@@ -5866,7 +5873,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
@@ -5898,7 +5905,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
@@ -5907,13 +5914,13 @@
         <v>111</v>
       </c>
       <c r="D138" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E138" t="s">
         <v>27</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G138" t="s">
         <v>14</v>
@@ -5936,13 +5943,13 @@
         <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D139" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E139" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F139" t="s">
         <v>26</v>
@@ -5962,22 +5969,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B140" t="s">
         <v>24</v>
       </c>
       <c r="C140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D140" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G140" t="s">
         <v>14</v>
@@ -5994,7 +6001,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B141" t="s">
         <v>24</v>
@@ -6026,7 +6033,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
@@ -6058,66 +6065,66 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C143" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D143" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E143" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D144" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E144" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
@@ -6131,7 +6138,7 @@
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E145" t="s">
         <v>15</v>
@@ -6152,7 +6159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -6163,7 +6170,7 @@
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E146" t="s">
         <v>15</v>
@@ -6195,7 +6202,7 @@
         <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E147" t="s">
         <v>15</v>
@@ -6216,9 +6223,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
         <v>41</v>
@@ -6227,7 +6234,7 @@
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="E148" t="s">
         <v>15</v>
@@ -6256,10 +6263,10 @@
         <v>41</v>
       </c>
       <c r="C149" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
@@ -6268,30 +6275,30 @@
         <v>16</v>
       </c>
       <c r="G149" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J149" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B150" t="s">
         <v>41</v>
       </c>
       <c r="C150" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
@@ -6300,16 +6307,16 @@
         <v>16</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J150" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
@@ -6323,7 +6330,7 @@
         <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
@@ -6355,7 +6362,7 @@
         <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -6378,7 +6385,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
         <v>41</v>
@@ -6387,7 +6394,7 @@
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E153" t="s">
         <v>15</v>
@@ -6416,13 +6423,13 @@
         <v>41</v>
       </c>
       <c r="C154" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E154" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F154" t="s">
         <v>16</v>
@@ -6442,34 +6449,34 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B155" t="s">
         <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E155" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F155" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I155" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
@@ -6483,25 +6490,25 @@
         <v>130</v>
       </c>
       <c r="D156" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E156" t="s">
         <v>27</v>
       </c>
       <c r="F156" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I156" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
@@ -6515,7 +6522,7 @@
         <v>130</v>
       </c>
       <c r="D157" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E157" t="s">
         <v>27</v>
@@ -6547,7 +6554,7 @@
         <v>130</v>
       </c>
       <c r="D158" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E158" t="s">
         <v>27</v>
@@ -6579,30 +6586,30 @@
         <v>130</v>
       </c>
       <c r="D159" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E159" t="s">
         <v>27</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G159" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I159" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J159" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
         <v>41</v>
@@ -6611,30 +6618,30 @@
         <v>130</v>
       </c>
       <c r="D160" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E160" t="s">
         <v>27</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I160" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J160" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
         <v>41</v>
@@ -6643,25 +6650,25 @@
         <v>130</v>
       </c>
       <c r="D161" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E161" t="s">
         <v>27</v>
       </c>
       <c r="F161" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G161" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I161" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
@@ -6675,25 +6682,25 @@
         <v>130</v>
       </c>
       <c r="D162" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E162" t="s">
         <v>27</v>
       </c>
       <c r="F162" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G162" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I162" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
@@ -6707,7 +6714,7 @@
         <v>130</v>
       </c>
       <c r="D163" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E163" t="s">
         <v>27</v>
@@ -6739,13 +6746,13 @@
         <v>130</v>
       </c>
       <c r="D164" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="E164" t="s">
         <v>27</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G164" t="s">
         <v>24</v>
@@ -6771,13 +6778,13 @@
         <v>130</v>
       </c>
       <c r="D165" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="E165" t="s">
         <v>27</v>
       </c>
       <c r="F165" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G165" t="s">
         <v>24</v>
@@ -6803,13 +6810,13 @@
         <v>130</v>
       </c>
       <c r="D166" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E166" t="s">
         <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G166" t="s">
         <v>24</v>
@@ -6835,13 +6842,13 @@
         <v>130</v>
       </c>
       <c r="D167" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E167" t="s">
         <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G167" t="s">
         <v>24</v>
@@ -6858,16 +6865,16 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
         <v>41</v>
       </c>
       <c r="C168" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D168" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="E168" t="s">
         <v>27</v>
@@ -6876,30 +6883,30 @@
         <v>77</v>
       </c>
       <c r="G168" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I168" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J168" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B169" t="s">
         <v>41</v>
       </c>
       <c r="C169" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D169" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="E169" t="s">
         <v>27</v>
@@ -6908,68 +6915,68 @@
         <v>77</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I169" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J169" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
         <v>41</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" t="s">
         <v>137</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F170" s="1" t="s">
+      <c r="D170" t="s">
+        <v>138</v>
+      </c>
+      <c r="E170" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" t="s">
         <v>77</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>26</v>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B171" t="s">
         <v>41</v>
       </c>
       <c r="C171" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D171" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E171" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F171" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G171" t="s">
         <v>14</v>
@@ -6985,55 +6992,55 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C172" t="s">
-        <v>141</v>
-      </c>
-      <c r="D172" t="s">
-        <v>142</v>
-      </c>
-      <c r="E172" t="s">
-        <v>15</v>
-      </c>
-      <c r="F172" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" t="s">
-        <v>14</v>
-      </c>
-      <c r="H172" t="s">
-        <v>14</v>
-      </c>
-      <c r="I172" t="s">
-        <v>14</v>
-      </c>
-      <c r="J172" t="s">
-        <v>14</v>
+      <c r="C172" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
         <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D173" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E173" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G173" t="s">
         <v>14</v>
@@ -7059,13 +7066,13 @@
         <v>141</v>
       </c>
       <c r="D174" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E174" t="s">
         <v>15</v>
       </c>
       <c r="F174" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G174" t="s">
         <v>14</v>
@@ -7082,7 +7089,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B175" t="s">
         <v>41</v>
@@ -7091,7 +7098,7 @@
         <v>141</v>
       </c>
       <c r="D175" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E175" t="s">
         <v>15</v>
@@ -7114,7 +7121,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B176" t="s">
         <v>41</v>
@@ -7123,13 +7130,13 @@
         <v>141</v>
       </c>
       <c r="D176" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E176" t="s">
         <v>15</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G176" t="s">
         <v>14</v>
@@ -7146,22 +7153,22 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C177" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D177" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="E177" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F177" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G177" t="s">
         <v>14</v>
@@ -7178,22 +7185,22 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C178" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D178" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E178" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F178" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
@@ -7219,7 +7226,7 @@
         <v>149</v>
       </c>
       <c r="D179" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E179" t="s">
         <v>22</v>
@@ -7242,7 +7249,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B180" t="s">
         <v>147</v>
@@ -7251,7 +7258,7 @@
         <v>149</v>
       </c>
       <c r="D180" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="E180" t="s">
         <v>22</v>
@@ -7274,7 +7281,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B181" t="s">
         <v>147</v>
@@ -7283,7 +7290,7 @@
         <v>149</v>
       </c>
       <c r="D181" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E181" t="s">
         <v>22</v>
@@ -7315,7 +7322,7 @@
         <v>149</v>
       </c>
       <c r="D182" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E182" t="s">
         <v>22</v>
@@ -7338,22 +7345,22 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B183" t="s">
         <v>147</v>
       </c>
       <c r="C183" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D183" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E183" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G183" t="s">
         <v>14</v>
@@ -7370,22 +7377,22 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B184" t="s">
         <v>147</v>
       </c>
       <c r="C184" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D184" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="E184" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F184" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G184" t="s">
         <v>14</v>
@@ -7411,13 +7418,13 @@
         <v>153</v>
       </c>
       <c r="D185" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E185" t="s">
         <v>27</v>
       </c>
       <c r="F185" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
@@ -7443,7 +7450,7 @@
         <v>153</v>
       </c>
       <c r="D186" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E186" t="s">
         <v>27</v>
@@ -7466,7 +7473,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
         <v>147</v>
@@ -7475,7 +7482,7 @@
         <v>153</v>
       </c>
       <c r="D187" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E187" t="s">
         <v>27</v>
@@ -7507,7 +7514,7 @@
         <v>153</v>
       </c>
       <c r="D188" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E188" t="s">
         <v>27</v>
@@ -7530,7 +7537,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B189" t="s">
         <v>147</v>
@@ -7539,7 +7546,7 @@
         <v>153</v>
       </c>
       <c r="D189" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E189" t="s">
         <v>27</v>
@@ -7562,7 +7569,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B190" t="s">
         <v>147</v>
@@ -7571,7 +7578,7 @@
         <v>153</v>
       </c>
       <c r="D190" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E190" t="s">
         <v>27</v>
@@ -7603,7 +7610,7 @@
         <v>153</v>
       </c>
       <c r="D191" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E191" t="s">
         <v>27</v>
@@ -7635,7 +7642,7 @@
         <v>153</v>
       </c>
       <c r="D192" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E192" t="s">
         <v>27</v>
@@ -7658,16 +7665,16 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B193" t="s">
         <v>147</v>
       </c>
       <c r="C193" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D193" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E193" t="s">
         <v>27</v>
@@ -7690,22 +7697,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B194" t="s">
         <v>147</v>
       </c>
       <c r="C194" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D194" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E194" t="s">
         <v>27</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G194" t="s">
         <v>14</v>
@@ -7731,13 +7738,13 @@
         <v>157</v>
       </c>
       <c r="D195" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E195" t="s">
         <v>27</v>
       </c>
       <c r="F195" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G195" t="s">
         <v>14</v>
@@ -7763,7 +7770,7 @@
         <v>157</v>
       </c>
       <c r="D196" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E196" t="s">
         <v>27</v>
@@ -7786,7 +7793,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
         <v>147</v>
@@ -7795,13 +7802,13 @@
         <v>157</v>
       </c>
       <c r="D197" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E197" t="s">
         <v>27</v>
       </c>
       <c r="F197" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
@@ -7818,7 +7825,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B198" t="s">
         <v>147</v>
@@ -7827,13 +7834,13 @@
         <v>157</v>
       </c>
       <c r="D198" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E198" t="s">
         <v>27</v>
       </c>
       <c r="F198" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
@@ -7850,7 +7857,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B199" t="s">
         <v>147</v>
@@ -7882,7 +7889,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B200" t="s">
         <v>147</v>
@@ -7897,7 +7904,7 @@
         <v>27</v>
       </c>
       <c r="F200" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G200" t="s">
         <v>14</v>
@@ -7914,22 +7921,22 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B201" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C201" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D201" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E201" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G201" t="s">
         <v>14</v>
@@ -7946,22 +7953,22 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C202" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D202" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E202" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G202" t="s">
         <v>14</v>
@@ -7978,7 +7985,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
         <v>162</v>
@@ -7987,7 +7994,7 @@
         <v>163</v>
       </c>
       <c r="D203" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E203" t="s">
         <v>15</v>
@@ -8010,7 +8017,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
         <v>162</v>
@@ -8042,16 +8049,16 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B205" t="s">
         <v>162</v>
       </c>
       <c r="C205" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D205" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E205" t="s">
         <v>15</v>
@@ -8074,16 +8081,16 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B206" t="s">
         <v>162</v>
       </c>
       <c r="C206" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D206" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E206" t="s">
         <v>15</v>
@@ -8115,7 +8122,7 @@
         <v>166</v>
       </c>
       <c r="D207" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E207" t="s">
         <v>15</v>
@@ -8138,7 +8145,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
         <v>162</v>
@@ -8147,7 +8154,7 @@
         <v>166</v>
       </c>
       <c r="D208" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8176,10 +8183,10 @@
         <v>162</v>
       </c>
       <c r="C209" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D209" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
@@ -8200,14 +8207,78 @@
         <v>14</v>
       </c>
     </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>173</v>
+      </c>
+      <c r="B210" t="s">
+        <v>162</v>
+      </c>
+      <c r="C210" t="s">
+        <v>166</v>
+      </c>
+      <c r="D210" t="s">
+        <v>153</v>
+      </c>
+      <c r="E210" t="s">
+        <v>15</v>
+      </c>
+      <c r="F210" t="s">
+        <v>16</v>
+      </c>
+      <c r="G210" t="s">
+        <v>14</v>
+      </c>
+      <c r="H210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>14</v>
+      </c>
+      <c r="J210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>162</v>
+      </c>
+      <c r="C211" t="s">
+        <v>167</v>
+      </c>
+      <c r="D211" t="s">
+        <v>167</v>
+      </c>
+      <c r="E211" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" t="s">
+        <v>16</v>
+      </c>
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J209" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J209">
-      <sortCondition ref="B1:B209"/>
+  <autoFilter ref="A1:J211" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J211">
+      <sortCondition ref="B1:B211"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J234">
-    <sortCondition ref="D2:D234"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J236">
+    <sortCondition ref="D2:D236"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A936D-E84C-469A-AAB3-DDCECD1641F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA8551D-4BF9-4330-831E-EA0068359CFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="2415" windowWidth="28425" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28815" yWindow="0" windowWidth="16080" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$214</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="203">
   <si>
     <t>Review</t>
   </si>
@@ -1500,11 +1500,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J211"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1551,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -6895,248 +6896,248 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+    <row r="169" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D172" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E169" t="s">
-        <v>27</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="E172" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G172" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H172" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I169" t="s">
-        <v>27</v>
-      </c>
-      <c r="J169" t="s">
+      <c r="I172" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J172" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+    <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B173" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C173" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D173" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E170" t="s">
-        <v>27</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="E173" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G170" t="s">
-        <v>14</v>
-      </c>
-      <c r="H170" t="s">
-        <v>14</v>
-      </c>
-      <c r="I170" t="s">
-        <v>14</v>
-      </c>
-      <c r="J170" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="G173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B174" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C174" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D174" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E171" t="s">
-        <v>27</v>
-      </c>
-      <c r="F171" t="s">
+      <c r="E174" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F174" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" t="s">
-        <v>14</v>
-      </c>
-      <c r="I171" t="s">
-        <v>14</v>
-      </c>
-      <c r="J171" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
+      <c r="G174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B175" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C175" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D175" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="E175" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F175" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G175" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="H175" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I172" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="I175" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>10</v>
-      </c>
-      <c r="B173" t="s">
-        <v>41</v>
-      </c>
-      <c r="C173" t="s">
-        <v>140</v>
-      </c>
-      <c r="D173" t="s">
-        <v>129</v>
-      </c>
-      <c r="E173" t="s">
-        <v>22</v>
-      </c>
-      <c r="F173" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" t="s">
-        <v>14</v>
-      </c>
-      <c r="H173" t="s">
-        <v>14</v>
-      </c>
-      <c r="I173" t="s">
-        <v>14</v>
-      </c>
-      <c r="J173" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>17</v>
-      </c>
-      <c r="B174" t="s">
-        <v>41</v>
-      </c>
-      <c r="C174" t="s">
-        <v>141</v>
-      </c>
-      <c r="D174" t="s">
-        <v>142</v>
-      </c>
-      <c r="E174" t="s">
-        <v>15</v>
-      </c>
-      <c r="F174" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" t="s">
-        <v>14</v>
-      </c>
-      <c r="H174" t="s">
-        <v>14</v>
-      </c>
-      <c r="I174" t="s">
-        <v>14</v>
-      </c>
-      <c r="J174" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>17</v>
-      </c>
-      <c r="B175" t="s">
-        <v>41</v>
-      </c>
-      <c r="C175" t="s">
-        <v>141</v>
-      </c>
-      <c r="D175" t="s">
-        <v>143</v>
-      </c>
-      <c r="E175" t="s">
-        <v>15</v>
-      </c>
-      <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s">
-        <v>14</v>
-      </c>
-      <c r="H175" t="s">
-        <v>14</v>
-      </c>
-      <c r="I175" t="s">
-        <v>14</v>
-      </c>
-      <c r="J175" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>17</v>
       </c>
       <c r="B176" t="s">
         <v>41</v>
       </c>
       <c r="C176" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D176" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E176" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F176" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G176" t="s">
         <v>14</v>
@@ -7151,9 +7152,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B177" t="s">
         <v>41</v>
@@ -7162,7 +7163,7 @@
         <v>141</v>
       </c>
       <c r="D177" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
@@ -7183,9 +7184,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B178" t="s">
         <v>41</v>
@@ -7194,7 +7195,7 @@
         <v>141</v>
       </c>
       <c r="D178" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E178" t="s">
         <v>15</v>
@@ -7215,24 +7216,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C179" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D179" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="E179" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F179" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G179" t="s">
         <v>14</v>
@@ -7247,73 +7248,73 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s">
+        <v>141</v>
+      </c>
+      <c r="D180" t="s">
+        <v>144</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>14</v>
+      </c>
+      <c r="J180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>41</v>
+      </c>
+      <c r="C181" t="s">
+        <v>141</v>
+      </c>
+      <c r="D181" t="s">
+        <v>145</v>
+      </c>
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>14</v>
+      </c>
+      <c r="J181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>17</v>
-      </c>
-      <c r="B180" t="s">
-        <v>147</v>
-      </c>
-      <c r="C180" t="s">
-        <v>149</v>
-      </c>
-      <c r="D180" t="s">
-        <v>150</v>
-      </c>
-      <c r="E180" t="s">
-        <v>22</v>
-      </c>
-      <c r="F180" t="s">
-        <v>26</v>
-      </c>
-      <c r="G180" t="s">
-        <v>14</v>
-      </c>
-      <c r="H180" t="s">
-        <v>14</v>
-      </c>
-      <c r="I180" t="s">
-        <v>14</v>
-      </c>
-      <c r="J180" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>17</v>
-      </c>
-      <c r="B181" t="s">
-        <v>147</v>
-      </c>
-      <c r="C181" t="s">
-        <v>149</v>
-      </c>
-      <c r="D181" t="s">
-        <v>151</v>
-      </c>
-      <c r="E181" t="s">
-        <v>22</v>
-      </c>
-      <c r="F181" t="s">
-        <v>26</v>
-      </c>
-      <c r="G181" t="s">
-        <v>14</v>
-      </c>
-      <c r="H181" t="s">
-        <v>14</v>
-      </c>
-      <c r="I181" t="s">
-        <v>14</v>
-      </c>
-      <c r="J181" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>173</v>
       </c>
       <c r="B182" t="s">
         <v>147</v>
@@ -7343,9 +7344,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B183" t="s">
         <v>147</v>
@@ -7375,9 +7376,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B184" t="s">
         <v>147</v>
@@ -7386,7 +7387,7 @@
         <v>149</v>
       </c>
       <c r="D184" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="E184" t="s">
         <v>22</v>
@@ -7409,22 +7410,22 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B185" t="s">
         <v>147</v>
       </c>
       <c r="C185" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D185" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="E185" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
@@ -7441,22 +7442,22 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B186" t="s">
         <v>147</v>
       </c>
       <c r="C186" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D186" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E186" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F186" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G186" t="s">
         <v>14</v>
@@ -7473,22 +7474,22 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B187" t="s">
         <v>147</v>
       </c>
       <c r="C187" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D187" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="E187" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F187" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G187" t="s">
         <v>14</v>
@@ -7503,9 +7504,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
         <v>147</v>
@@ -7514,13 +7515,13 @@
         <v>153</v>
       </c>
       <c r="D188" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E188" t="s">
         <v>27</v>
       </c>
       <c r="F188" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G188" t="s">
         <v>14</v>
@@ -7535,7 +7536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>153</v>
       </c>
       <c r="D189" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E189" t="s">
         <v>27</v>
@@ -7567,9 +7568,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B190" t="s">
         <v>147</v>
@@ -7599,9 +7600,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B191" t="s">
         <v>147</v>
@@ -7610,7 +7611,7 @@
         <v>153</v>
       </c>
       <c r="D191" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E191" t="s">
         <v>27</v>
@@ -7631,9 +7632,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B192" t="s">
         <v>147</v>
@@ -7642,7 +7643,7 @@
         <v>153</v>
       </c>
       <c r="D192" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E192" t="s">
         <v>27</v>
@@ -7663,9 +7664,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B193" t="s">
         <v>147</v>
@@ -7674,7 +7675,7 @@
         <v>153</v>
       </c>
       <c r="D193" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E193" t="s">
         <v>27</v>
@@ -7706,7 +7707,7 @@
         <v>153</v>
       </c>
       <c r="D194" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E194" t="s">
         <v>27</v>
@@ -7729,16 +7730,16 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B195" t="s">
         <v>147</v>
       </c>
       <c r="C195" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D195" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E195" t="s">
         <v>27</v>
@@ -7761,22 +7762,22 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B196" t="s">
         <v>147</v>
       </c>
       <c r="C196" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D196" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E196" t="s">
         <v>27</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G196" t="s">
         <v>14</v>
@@ -7793,22 +7794,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B197" t="s">
         <v>147</v>
       </c>
       <c r="C197" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D197" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E197" t="s">
         <v>27</v>
       </c>
       <c r="F197" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G197" t="s">
         <v>14</v>
@@ -7823,7 +7824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -7834,13 +7835,13 @@
         <v>157</v>
       </c>
       <c r="D198" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E198" t="s">
         <v>27</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
@@ -7855,9 +7856,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
         <v>147</v>
@@ -7866,13 +7867,13 @@
         <v>157</v>
       </c>
       <c r="D199" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E199" t="s">
         <v>27</v>
       </c>
       <c r="F199" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G199" t="s">
         <v>14</v>
@@ -7887,9 +7888,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
         <v>147</v>
@@ -7904,7 +7905,7 @@
         <v>27</v>
       </c>
       <c r="F200" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G200" t="s">
         <v>14</v>
@@ -7919,9 +7920,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
         <v>147</v>
@@ -7930,13 +7931,13 @@
         <v>157</v>
       </c>
       <c r="D201" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E201" t="s">
         <v>27</v>
       </c>
       <c r="F201" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G201" t="s">
         <v>14</v>
@@ -7951,9 +7952,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B202" t="s">
         <v>147</v>
@@ -7962,45 +7963,45 @@
         <v>157</v>
       </c>
       <c r="D202" t="s">
+        <v>158</v>
+      </c>
+      <c r="E202" t="s">
+        <v>27</v>
+      </c>
+      <c r="F202" t="s">
+        <v>77</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" t="s">
+        <v>147</v>
+      </c>
+      <c r="C203" t="s">
+        <v>157</v>
+      </c>
+      <c r="D203" t="s">
         <v>160</v>
       </c>
-      <c r="E202" t="s">
-        <v>27</v>
-      </c>
-      <c r="F202" t="s">
-        <v>26</v>
-      </c>
-      <c r="G202" t="s">
-        <v>14</v>
-      </c>
-      <c r="H202" t="s">
-        <v>14</v>
-      </c>
-      <c r="I202" t="s">
-        <v>14</v>
-      </c>
-      <c r="J202" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>10</v>
-      </c>
-      <c r="B203" t="s">
-        <v>162</v>
-      </c>
-      <c r="C203" t="s">
-        <v>163</v>
-      </c>
-      <c r="D203" t="s">
-        <v>164</v>
-      </c>
       <c r="E203" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G203" t="s">
         <v>14</v>
@@ -8017,22 +8018,22 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B204" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C204" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D204" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E204" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F204" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G204" t="s">
         <v>14</v>
@@ -8049,22 +8050,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B205" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C205" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D205" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E205" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G205" t="s">
         <v>14</v>
@@ -8079,9 +8080,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
         <v>162</v>
@@ -8090,7 +8091,7 @@
         <v>163</v>
       </c>
       <c r="D206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E206" t="s">
         <v>15</v>
@@ -8111,7 +8112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -8119,10 +8120,10 @@
         <v>162</v>
       </c>
       <c r="C207" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D207" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E207" t="s">
         <v>15</v>
@@ -8143,18 +8144,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B208" t="s">
         <v>162</v>
       </c>
       <c r="C208" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D208" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8177,16 +8178,16 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="B209" t="s">
         <v>162</v>
       </c>
       <c r="C209" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D209" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
@@ -8207,9 +8208,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
         <v>162</v>
@@ -8239,7 +8240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -8247,10 +8248,10 @@
         <v>162</v>
       </c>
       <c r="C211" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D211" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E211" t="s">
         <v>15</v>
@@ -8271,14 +8272,115 @@
         <v>14</v>
       </c>
     </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>162</v>
+      </c>
+      <c r="C212" t="s">
+        <v>166</v>
+      </c>
+      <c r="D212" t="s">
+        <v>160</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" t="s">
+        <v>14</v>
+      </c>
+      <c r="H212" t="s">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>14</v>
+      </c>
+      <c r="J212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>173</v>
+      </c>
+      <c r="B213" t="s">
+        <v>162</v>
+      </c>
+      <c r="C213" t="s">
+        <v>166</v>
+      </c>
+      <c r="D213" t="s">
+        <v>153</v>
+      </c>
+      <c r="E213" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" t="s">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>162</v>
+      </c>
+      <c r="C214" t="s">
+        <v>167</v>
+      </c>
+      <c r="D214" t="s">
+        <v>167</v>
+      </c>
+      <c r="E214" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s">
+        <v>16</v>
+      </c>
+      <c r="G214" t="s">
+        <v>14</v>
+      </c>
+      <c r="H214" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>14</v>
+      </c>
+      <c r="J214" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J211" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J211">
-      <sortCondition ref="B1:B211"/>
+  <autoFilter ref="A1:J214" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Nutrient Amendments"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J214">
+      <sortCondition ref="B1:B214"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J236">
-    <sortCondition ref="D2:D236"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J239">
+    <sortCondition ref="D2:D239"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA8551D-4BF9-4330-831E-EA0068359CFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0475BD-C35D-4890-83B0-6A35866B5E75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="0" windowWidth="16080" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="205">
   <si>
     <t>Review</t>
   </si>
@@ -291,9 +291,6 @@
     <t>Crop Phosphorus Content</t>
   </si>
   <si>
-    <t>Root Nitrogen Content</t>
-  </si>
-  <si>
     <t>Stand Count</t>
   </si>
   <si>
@@ -643,6 +640,15 @@
   </si>
   <si>
     <t>Variable Cost</t>
+  </si>
+  <si>
+    <t>Community Diversity</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Root Herbivores</t>
   </si>
 </sst>
 </file>
@@ -1501,11 +1507,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99:D99"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143:D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,24 +1558,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1586,22 +1592,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1616,24 +1622,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1650,22 +1656,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1680,24 +1686,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1714,22 +1720,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1744,152 +1750,152 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1904,24 +1910,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1938,22 +1944,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1968,24 +1974,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -2002,22 +2008,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -2034,16 +2040,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -2064,18 +2070,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -2096,24 +2102,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -2128,24 +2134,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -2160,24 +2166,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -2320,9 +2326,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -2352,9 +2358,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -2363,7 +2369,7 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
@@ -2416,9 +2422,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -2512,9 +2518,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -2576,9 +2582,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -2651,7 +2657,7 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
@@ -2672,9 +2678,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -2683,7 +2689,7 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -2704,9 +2710,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -2715,7 +2721,7 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
@@ -3058,7 +3064,7 @@
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -3067,13 +3073,13 @@
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -3088,9 +3094,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -3099,7 +3105,7 @@
         <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -3120,9 +3126,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -3131,13 +3137,13 @@
         <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -3152,9 +3158,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -3163,7 +3169,7 @@
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -3184,9 +3190,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -3195,7 +3201,7 @@
         <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -3216,9 +3222,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -3227,7 +3233,7 @@
         <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -3259,7 +3265,7 @@
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -3282,7 +3288,7 @@
     </row>
     <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -3291,7 +3297,7 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -3312,9 +3318,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
@@ -3346,7 +3352,7 @@
     </row>
     <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -3355,7 +3361,7 @@
         <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -3376,9 +3382,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -3387,30 +3393,30 @@
         <v>78</v>
       </c>
       <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>172</v>
-      </c>
-      <c r="E59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -3440,24 +3446,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -3472,9 +3478,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -3483,13 +3489,13 @@
         <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
         <v>14</v>
@@ -3512,10 +3518,10 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" t="s">
         <v>87</v>
-      </c>
-      <c r="D63" t="s">
-        <v>65</v>
       </c>
       <c r="E63" t="s">
         <v>15</v>
@@ -3538,22 +3544,22 @@
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
-      <c r="C64" t="s">
-        <v>87</v>
+      <c r="C64" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
@@ -3576,10 +3582,10 @@
         <v>37</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -3608,10 +3614,10 @@
         <v>37</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -3640,10 +3646,10 @@
         <v>37</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -3672,10 +3678,10 @@
         <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -3704,10 +3710,10 @@
         <v>37</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -3736,10 +3742,10 @@
         <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -3768,10 +3774,10 @@
         <v>37</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -3799,11 +3805,11 @@
       <c r="B72" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>89</v>
+      <c r="C72" t="s">
+        <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -3831,11 +3837,11 @@
       <c r="B73" t="s">
         <v>37</v>
       </c>
-      <c r="C73" t="s">
-        <v>89</v>
+      <c r="C73" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -3864,10 +3870,10 @@
         <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
@@ -3896,10 +3902,10 @@
         <v>37</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -3928,10 +3934,10 @@
         <v>37</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -3959,11 +3965,11 @@
       <c r="B77" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>89</v>
+      <c r="C77" t="s">
+        <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E77" t="s">
         <v>22</v>
@@ -3992,10 +3998,10 @@
         <v>37</v>
       </c>
       <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
         <v>89</v>
-      </c>
-      <c r="D78" t="s">
-        <v>70</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -4023,11 +4029,11 @@
       <c r="B79" t="s">
         <v>37</v>
       </c>
-      <c r="C79" t="s">
-        <v>89</v>
+      <c r="C79" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E79" t="s">
         <v>22</v>
@@ -4056,10 +4062,10 @@
         <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
         <v>22</v>
@@ -4087,11 +4093,11 @@
       <c r="B81" t="s">
         <v>37</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>89</v>
+      <c r="C81" t="s">
+        <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
@@ -4119,11 +4125,11 @@
       <c r="B82" t="s">
         <v>37</v>
       </c>
-      <c r="C82" t="s">
-        <v>89</v>
+      <c r="C82" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E82" t="s">
         <v>22</v>
@@ -4152,10 +4158,10 @@
         <v>37</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
@@ -4178,16 +4184,16 @@
     </row>
     <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>89</v>
+      <c r="C84" t="s">
+        <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
@@ -4216,10 +4222,10 @@
         <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s">
         <v>22</v>
@@ -4248,10 +4254,10 @@
         <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -4274,16 +4280,16 @@
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -4304,18 +4310,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s">
         <v>22</v>
@@ -4336,18 +4342,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E89" t="s">
         <v>22</v>
@@ -4368,18 +4374,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="E90" t="s">
         <v>22</v>
@@ -4400,50 +4406,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
-        <v>182</v>
-      </c>
       <c r="D92" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="E92" t="s">
         <v>15</v>
@@ -4452,16 +4458,16 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -4469,10 +4475,10 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
         <v>91</v>
-      </c>
-      <c r="C93" t="s">
-        <v>92</v>
       </c>
       <c r="D93" t="s">
         <v>93</v>
@@ -4498,16 +4504,16 @@
     </row>
     <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
         <v>91</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>92</v>
-      </c>
-      <c r="D94" t="s">
-        <v>94</v>
       </c>
       <c r="E94" t="s">
         <v>15</v>
@@ -4528,15 +4534,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
         <v>91</v>
-      </c>
-      <c r="C95" t="s">
-        <v>92</v>
       </c>
       <c r="D95" t="s">
         <v>93</v>
@@ -4560,18 +4566,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
         <v>91</v>
       </c>
-      <c r="C96" t="s">
-        <v>92</v>
-      </c>
       <c r="D96" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -4592,111 +4598,111 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="97" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C97" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" t="s">
-        <v>183</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D98" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="F98" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" t="s">
         <v>91</v>
       </c>
-      <c r="C98" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" t="s">
-        <v>97</v>
-      </c>
-      <c r="E98" t="s">
-        <v>22</v>
-      </c>
-      <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="D99" t="s">
+        <v>184</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" t="s">
         <v>91</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>173</v>
-      </c>
-      <c r="B100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" t="s">
-        <v>92</v>
       </c>
       <c r="D100" t="s">
         <v>185</v>
@@ -4720,21 +4726,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D101" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
         <v>26</v>
@@ -4757,10 +4763,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102" t="s">
         <v>96</v>
@@ -4786,13 +4792,13 @@
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
         <v>97</v>
@@ -4801,7 +4807,7 @@
         <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
@@ -4816,24 +4822,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
@@ -4848,24 +4854,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
         <v>24</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D105" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E105" t="s">
         <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
@@ -4880,7 +4886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -4888,16 +4894,16 @@
         <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E106" t="s">
         <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
@@ -4912,18 +4918,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B107" t="s">
         <v>24</v>
       </c>
       <c r="C107" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" t="s">
         <v>99</v>
-      </c>
-      <c r="D107" t="s">
-        <v>194</v>
       </c>
       <c r="E107" t="s">
         <v>27</v>
@@ -4944,24 +4950,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -4976,24 +4982,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
@@ -5008,24 +5014,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
         <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="E110" t="s">
         <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G110" t="s">
         <v>14</v>
@@ -5042,16 +5048,16 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
         <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D111" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E111" t="s">
         <v>27</v>
@@ -5074,54 +5080,54 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
         <v>24</v>
       </c>
-      <c r="C112" t="s">
-        <v>99</v>
-      </c>
-      <c r="D112" t="s">
-        <v>193</v>
-      </c>
-      <c r="E112" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" t="s">
-        <v>77</v>
-      </c>
-      <c r="G112" t="s">
-        <v>14</v>
-      </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I112" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D113" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F113" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G113" t="s">
         <v>14</v>
@@ -5136,56 +5142,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D114" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G114" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
@@ -5200,24 +5206,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E116" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G116" t="s">
         <v>14</v>
@@ -5232,24 +5238,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G117" t="s">
         <v>14</v>
@@ -5264,7 +5270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -5272,16 +5278,16 @@
         <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="E118" t="s">
         <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
@@ -5296,24 +5302,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
         <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E119" t="s">
         <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
@@ -5330,16 +5336,16 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
         <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D120" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E120" t="s">
         <v>27</v>
@@ -5362,16 +5368,16 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B121" t="s">
         <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D121" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="E121" t="s">
         <v>27</v>
@@ -5380,33 +5386,33 @@
         <v>26</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J121" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="E122" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F122" t="s">
         <v>26</v>
@@ -5426,22 +5432,22 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D123" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E123" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
@@ -5458,22 +5464,22 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D124" t="s">
         <v>200</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G124" t="s">
         <v>14</v>
@@ -5490,16 +5496,16 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="D125" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="E125" t="s">
         <v>27</v>
@@ -5520,56 +5526,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D126" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E126" t="s">
         <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" t="s">
         <v>11</v>
       </c>
-      <c r="H126" t="s">
-        <v>20</v>
-      </c>
-      <c r="I126" t="s">
-        <v>22</v>
-      </c>
-      <c r="J126" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>17</v>
-      </c>
-      <c r="B127" t="s">
-        <v>24</v>
-      </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F127" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
@@ -5584,7 +5590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -5592,48 +5598,48 @@
         <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D128" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E128" t="s">
         <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I128" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
         <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D129" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="E129" t="s">
         <v>27</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
@@ -5650,22 +5656,22 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D130" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="E130" t="s">
         <v>27</v>
       </c>
       <c r="F130" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
@@ -5682,71 +5688,71 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D131" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E131" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I131" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E132" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I132" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
@@ -5755,7 +5761,7 @@
         <v>25</v>
       </c>
       <c r="D133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E133" t="s">
         <v>27</v>
@@ -5778,7 +5784,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B134" t="s">
         <v>24</v>
@@ -5787,60 +5793,60 @@
         <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="E134" t="s">
         <v>27</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G134" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I134" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
       </c>
       <c r="C135" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E135" t="s">
         <v>27</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G135" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="I135" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -5848,16 +5854,16 @@
         <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="D136" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E136" t="s">
         <v>27</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
@@ -5872,24 +5878,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D137" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="E137" t="s">
         <v>27</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G137" t="s">
         <v>14</v>
@@ -5904,18 +5910,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="D138" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="E138" t="s">
         <v>27</v>
@@ -5936,24 +5942,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="D139" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="E139" t="s">
         <v>27</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G139" t="s">
         <v>14</v>
@@ -5970,22 +5976,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="D140" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E140" t="s">
         <v>27</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G140" t="s">
         <v>14</v>
@@ -6000,24 +6006,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B141" t="s">
         <v>24</v>
       </c>
       <c r="C141" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D141" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="E141" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
@@ -6032,24 +6038,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D142" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="E142" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G142" t="s">
         <v>14</v>
@@ -6066,19 +6072,19 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D143" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="E143" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
         <v>26</v>
@@ -6098,22 +6104,22 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D144" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="E144" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
@@ -6128,103 +6134,103 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="D145" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="E145" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E146" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F146" t="s">
         <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D147" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E147" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H147" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
       </c>
       <c r="J147" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -6235,7 +6241,7 @@
         <v>40</v>
       </c>
       <c r="D148" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E148" t="s">
         <v>15</v>
@@ -6267,7 +6273,7 @@
         <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
@@ -6288,9 +6294,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s">
         <v>41</v>
@@ -6299,7 +6305,7 @@
         <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
@@ -6320,7 +6326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6328,10 +6334,10 @@
         <v>41</v>
       </c>
       <c r="C151" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
@@ -6340,16 +6346,16 @@
         <v>16</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J151" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6360,10 +6366,10 @@
         <v>41</v>
       </c>
       <c r="C152" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D152" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -6372,30 +6378,30 @@
         <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J152" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B153" t="s">
         <v>41</v>
       </c>
       <c r="C153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="E153" t="s">
         <v>15</v>
@@ -6404,16 +6410,16 @@
         <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J153" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6427,7 +6433,7 @@
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E154" t="s">
         <v>15</v>
@@ -6450,7 +6456,7 @@
     </row>
     <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
         <v>41</v>
@@ -6459,7 +6465,7 @@
         <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
@@ -6488,13 +6494,13 @@
         <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E156" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F156" t="s">
         <v>16</v>
@@ -6520,28 +6526,28 @@
         <v>41</v>
       </c>
       <c r="C157" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="E157" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F157" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G157" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I157" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6552,60 +6558,60 @@
         <v>41</v>
       </c>
       <c r="C158" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E158" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F158" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I158" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
         <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E159" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F159" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G159" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I159" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6616,28 +6622,28 @@
         <v>41</v>
       </c>
       <c r="C160" t="s">
+        <v>129</v>
+      </c>
+      <c r="D160" t="s">
         <v>130</v>
       </c>
-      <c r="D160" t="s">
-        <v>135</v>
-      </c>
       <c r="E160" t="s">
         <v>27</v>
       </c>
       <c r="F160" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G160" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I160" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6648,71 +6654,71 @@
         <v>41</v>
       </c>
       <c r="C161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D161" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E161" t="s">
         <v>27</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I161" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J161" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
         <v>41</v>
       </c>
       <c r="C162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D162" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E162" t="s">
         <v>27</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G162" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I162" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J162" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
         <v>41</v>
       </c>
       <c r="C163" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D163" t="s">
         <v>133</v>
@@ -6727,7 +6733,7 @@
         <v>24</v>
       </c>
       <c r="H163" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I163" t="s">
         <v>27</v>
@@ -6736,15 +6742,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
         <v>41</v>
       </c>
       <c r="C164" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D164" t="s">
         <v>134</v>
@@ -6759,7 +6765,7 @@
         <v>24</v>
       </c>
       <c r="H164" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I164" t="s">
         <v>27</v>
@@ -6768,15 +6774,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B165" t="s">
         <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D165" t="s">
         <v>135</v>
@@ -6785,77 +6791,77 @@
         <v>27</v>
       </c>
       <c r="F165" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I165" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
         <v>41</v>
       </c>
       <c r="C166" t="s">
+        <v>129</v>
+      </c>
+      <c r="D166" t="s">
         <v>130</v>
       </c>
-      <c r="D166" t="s">
-        <v>192</v>
-      </c>
       <c r="E166" t="s">
         <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G166" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="I166" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J166" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B167" t="s">
         <v>41</v>
       </c>
       <c r="C167" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D167" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="E167" t="s">
         <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G167" t="s">
         <v>24</v>
       </c>
       <c r="H167" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I167" t="s">
         <v>27</v>
@@ -6864,18 +6870,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B168" t="s">
         <v>41</v>
       </c>
       <c r="C168" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D168" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="E168" t="s">
         <v>27</v>
@@ -6887,7 +6893,7 @@
         <v>24</v>
       </c>
       <c r="H168" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I168" t="s">
         <v>27</v>
@@ -6896,146 +6902,146 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B169" s="3" t="s">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" t="s">
         <v>41</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F169" s="3" t="s">
+      <c r="C169" t="s">
+        <v>129</v>
+      </c>
+      <c r="D169" t="s">
+        <v>134</v>
+      </c>
+      <c r="E169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" t="s">
         <v>77</v>
       </c>
-      <c r="G169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J169" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B170" s="3" t="s">
+      <c r="G169" t="s">
+        <v>24</v>
+      </c>
+      <c r="H169" t="s">
+        <v>102</v>
+      </c>
+      <c r="I169" t="s">
+        <v>27</v>
+      </c>
+      <c r="J169" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
         <v>41</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D170" s="3" t="s">
+      <c r="C170" t="s">
         <v>129</v>
       </c>
-      <c r="E170" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B171" s="3" t="s">
+      <c r="D170" t="s">
+        <v>191</v>
+      </c>
+      <c r="E170" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" t="s">
+        <v>26</v>
+      </c>
+      <c r="G170" t="s">
+        <v>24</v>
+      </c>
+      <c r="H170" t="s">
+        <v>102</v>
+      </c>
+      <c r="I170" t="s">
+        <v>27</v>
+      </c>
+      <c r="J170" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
         <v>41</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F171" s="3" t="s">
+      <c r="C171" t="s">
+        <v>129</v>
+      </c>
+      <c r="D171" t="s">
+        <v>188</v>
+      </c>
+      <c r="E171" t="s">
+        <v>27</v>
+      </c>
+      <c r="F171" t="s">
+        <v>26</v>
+      </c>
+      <c r="G171" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" t="s">
+        <v>102</v>
+      </c>
+      <c r="I171" t="s">
+        <v>27</v>
+      </c>
+      <c r="J171" t="s">
         <v>77</v>
       </c>
-      <c r="G171" s="3" t="s">
+    </row>
+    <row r="172" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" t="s">
+        <v>129</v>
+      </c>
+      <c r="D172" t="s">
+        <v>189</v>
+      </c>
+      <c r="E172" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" t="s">
+        <v>77</v>
+      </c>
+      <c r="G172" t="s">
         <v>24</v>
       </c>
-      <c r="H171" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J172" s="3" t="s">
+      <c r="H172" t="s">
+        <v>102</v>
+      </c>
+      <c r="I172" t="s">
+        <v>27</v>
+      </c>
+      <c r="J172" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>27</v>
@@ -7044,30 +7050,30 @@
         <v>77</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>27</v>
@@ -7090,16 +7096,16 @@
     </row>
     <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>27</v>
@@ -7108,254 +7114,254 @@
         <v>77</v>
       </c>
       <c r="G175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H175" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J175" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>10</v>
-      </c>
-      <c r="B176" t="s">
+      <c r="H177" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C176" t="s">
-        <v>140</v>
-      </c>
-      <c r="D176" t="s">
-        <v>129</v>
-      </c>
-      <c r="E176" t="s">
-        <v>22</v>
-      </c>
-      <c r="F176" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" t="s">
-        <v>14</v>
-      </c>
-      <c r="H176" t="s">
-        <v>14</v>
-      </c>
-      <c r="I176" t="s">
-        <v>14</v>
-      </c>
-      <c r="J176" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="C178" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B179" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C177" t="s">
-        <v>141</v>
-      </c>
-      <c r="D177" t="s">
-        <v>142</v>
-      </c>
-      <c r="E177" t="s">
-        <v>15</v>
-      </c>
-      <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s">
-        <v>14</v>
-      </c>
-      <c r="H177" t="s">
-        <v>14</v>
-      </c>
-      <c r="I177" t="s">
-        <v>14</v>
-      </c>
-      <c r="J177" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="C179" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B181" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C178" t="s">
-        <v>141</v>
-      </c>
-      <c r="D178" t="s">
-        <v>143</v>
-      </c>
-      <c r="E178" t="s">
-        <v>15</v>
-      </c>
-      <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s">
-        <v>14</v>
-      </c>
-      <c r="H178" t="s">
-        <v>14</v>
-      </c>
-      <c r="I178" t="s">
-        <v>14</v>
-      </c>
-      <c r="J178" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>17</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="C181" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C179" t="s">
-        <v>141</v>
-      </c>
-      <c r="D179" t="s">
-        <v>146</v>
-      </c>
-      <c r="E179" t="s">
-        <v>15</v>
-      </c>
-      <c r="F179" t="s">
-        <v>77</v>
-      </c>
-      <c r="G179" t="s">
-        <v>14</v>
-      </c>
-      <c r="H179" t="s">
-        <v>14</v>
-      </c>
-      <c r="I179" t="s">
-        <v>14</v>
-      </c>
-      <c r="J179" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>10</v>
-      </c>
-      <c r="B180" t="s">
-        <v>41</v>
-      </c>
-      <c r="C180" t="s">
-        <v>141</v>
-      </c>
-      <c r="D180" t="s">
-        <v>144</v>
-      </c>
-      <c r="E180" t="s">
-        <v>15</v>
-      </c>
-      <c r="F180" t="s">
-        <v>16</v>
-      </c>
-      <c r="G180" t="s">
-        <v>14</v>
-      </c>
-      <c r="H180" t="s">
-        <v>14</v>
-      </c>
-      <c r="I180" t="s">
-        <v>14</v>
-      </c>
-      <c r="J180" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>10</v>
-      </c>
-      <c r="B181" t="s">
-        <v>41</v>
-      </c>
-      <c r="C181" t="s">
-        <v>141</v>
-      </c>
-      <c r="D181" t="s">
-        <v>145</v>
-      </c>
-      <c r="E181" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s">
-        <v>14</v>
-      </c>
-      <c r="H181" t="s">
-        <v>14</v>
-      </c>
-      <c r="I181" t="s">
-        <v>14</v>
-      </c>
-      <c r="J181" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>17</v>
-      </c>
-      <c r="B182" t="s">
-        <v>147</v>
-      </c>
-      <c r="C182" t="s">
-        <v>149</v>
-      </c>
-      <c r="D182" t="s">
-        <v>107</v>
-      </c>
-      <c r="E182" t="s">
-        <v>22</v>
-      </c>
-      <c r="F182" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" t="s">
-        <v>14</v>
-      </c>
-      <c r="H182" t="s">
-        <v>14</v>
-      </c>
-      <c r="I182" t="s">
-        <v>14</v>
-      </c>
-      <c r="J182" t="s">
+      <c r="C182" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J182" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C183" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D183" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E183" t="s">
         <v>22</v>
@@ -7381,19 +7387,19 @@
         <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D184" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E184" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F184" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G184" t="s">
         <v>14</v>
@@ -7408,24 +7414,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C185" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D185" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="E185" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F185" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
@@ -7440,24 +7446,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C186" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D186" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E186" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F186" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G186" t="s">
         <v>14</v>
@@ -7474,48 +7480,48 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="D187" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E187" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F187" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J187" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C188" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D188" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="E188" t="s">
         <v>27</v>
@@ -7524,36 +7530,36 @@
         <v>16</v>
       </c>
       <c r="G188" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="I188" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J188" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B189" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C189" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D189" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="E189" t="s">
         <v>27</v>
       </c>
       <c r="F189" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G189" t="s">
         <v>14</v>
@@ -7568,18 +7574,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C190" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="D190" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="E190" t="s">
         <v>27</v>
@@ -7600,18 +7606,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C191" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="D191" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="E191" t="s">
         <v>27</v>
@@ -7632,18 +7638,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B192" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C192" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="D192" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="E192" t="s">
         <v>27</v>
@@ -7664,281 +7670,281 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="E193" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F193" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G193" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H193" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I193" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J193" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="E194" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F194" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G194" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I194" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J194" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B195" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="E195" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F195" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G195" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I195" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J195" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B196" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C196" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="E196" t="s">
         <v>27</v>
       </c>
       <c r="F196" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G196" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I196" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J196" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C197" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D197" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E197" t="s">
         <v>27</v>
       </c>
       <c r="F197" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" t="s">
+        <v>20</v>
+      </c>
+      <c r="I197" t="s">
+        <v>22</v>
+      </c>
+      <c r="J197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" t="s">
+        <v>109</v>
+      </c>
+      <c r="E198" t="s">
+        <v>27</v>
+      </c>
+      <c r="F198" t="s">
+        <v>26</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" t="s">
+        <v>22</v>
+      </c>
+      <c r="J198" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>172</v>
+      </c>
+      <c r="B199" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" t="s">
+        <v>109</v>
+      </c>
+      <c r="E199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F199" t="s">
+        <v>26</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" t="s">
+        <v>20</v>
+      </c>
+      <c r="I199" t="s">
+        <v>22</v>
+      </c>
+      <c r="J199" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" t="s">
+        <v>98</v>
+      </c>
+      <c r="D200" t="s">
+        <v>193</v>
+      </c>
+      <c r="E200" t="s">
+        <v>27</v>
+      </c>
+      <c r="F200" t="s">
         <v>77</v>
       </c>
-      <c r="G197" t="s">
-        <v>14</v>
-      </c>
-      <c r="H197" t="s">
-        <v>14</v>
-      </c>
-      <c r="I197" t="s">
-        <v>14</v>
-      </c>
-      <c r="J197" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>10</v>
-      </c>
-      <c r="B198" t="s">
-        <v>147</v>
-      </c>
-      <c r="C198" t="s">
-        <v>157</v>
-      </c>
-      <c r="D198" t="s">
-        <v>158</v>
-      </c>
-      <c r="E198" t="s">
-        <v>27</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>172</v>
+      </c>
+      <c r="B201" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" t="s">
+        <v>98</v>
+      </c>
+      <c r="D201" t="s">
+        <v>192</v>
+      </c>
+      <c r="E201" t="s">
+        <v>27</v>
+      </c>
+      <c r="F201" t="s">
         <v>77</v>
       </c>
-      <c r="G198" t="s">
-        <v>14</v>
-      </c>
-      <c r="H198" t="s">
-        <v>14</v>
-      </c>
-      <c r="I198" t="s">
-        <v>14</v>
-      </c>
-      <c r="J198" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>10</v>
-      </c>
-      <c r="B199" t="s">
-        <v>147</v>
-      </c>
-      <c r="C199" t="s">
-        <v>157</v>
-      </c>
-      <c r="D199" t="s">
-        <v>159</v>
-      </c>
-      <c r="E199" t="s">
-        <v>27</v>
-      </c>
-      <c r="F199" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" t="s">
-        <v>14</v>
-      </c>
-      <c r="H199" t="s">
-        <v>14</v>
-      </c>
-      <c r="I199" t="s">
-        <v>14</v>
-      </c>
-      <c r="J199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>10</v>
-      </c>
-      <c r="B200" t="s">
-        <v>147</v>
-      </c>
-      <c r="C200" t="s">
-        <v>157</v>
-      </c>
-      <c r="D200" t="s">
-        <v>160</v>
-      </c>
-      <c r="E200" t="s">
-        <v>27</v>
-      </c>
-      <c r="F200" t="s">
-        <v>26</v>
-      </c>
-      <c r="G200" t="s">
-        <v>14</v>
-      </c>
-      <c r="H200" t="s">
-        <v>14</v>
-      </c>
-      <c r="I200" t="s">
-        <v>14</v>
-      </c>
-      <c r="J200" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>10</v>
-      </c>
-      <c r="B201" t="s">
-        <v>147</v>
-      </c>
-      <c r="C201" t="s">
-        <v>157</v>
-      </c>
-      <c r="D201" t="s">
-        <v>161</v>
-      </c>
-      <c r="E201" t="s">
-        <v>27</v>
-      </c>
-      <c r="F201" t="s">
-        <v>16</v>
-      </c>
       <c r="G201" t="s">
         <v>14</v>
       </c>
@@ -7952,18 +7958,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C202" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="D202" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E202" t="s">
         <v>27</v>
@@ -7984,24 +7990,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B203" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E203" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F203" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G203" t="s">
         <v>14</v>
@@ -8018,16 +8024,16 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C204" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D204" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E204" t="s">
         <v>27</v>
@@ -8050,22 +8056,22 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B205" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C205" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D205" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E205" t="s">
         <v>27</v>
       </c>
       <c r="F205" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G205" t="s">
         <v>14</v>
@@ -8080,24 +8086,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B206" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C206" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D206" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E206" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G206" t="s">
         <v>14</v>
@@ -8112,18 +8118,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B207" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="D207" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="E207" t="s">
         <v>15</v>
@@ -8144,18 +8150,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="D208" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8178,22 +8184,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="C209" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="D209" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="E209" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G209" t="s">
         <v>14</v>
@@ -8208,24 +8214,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B210" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="C210" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="D210" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="E210" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G210" t="s">
         <v>14</v>
@@ -8245,13 +8251,13 @@
         <v>10</v>
       </c>
       <c r="B211" t="s">
+        <v>161</v>
+      </c>
+      <c r="C211" t="s">
         <v>162</v>
       </c>
-      <c r="C211" t="s">
-        <v>166</v>
-      </c>
       <c r="D211" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E211" t="s">
         <v>15</v>
@@ -8277,13 +8283,13 @@
         <v>10</v>
       </c>
       <c r="B212" t="s">
+        <v>161</v>
+      </c>
+      <c r="C212" t="s">
         <v>162</v>
       </c>
-      <c r="C212" t="s">
-        <v>166</v>
-      </c>
       <c r="D212" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E212" t="s">
         <v>15</v>
@@ -8304,18 +8310,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="B213" t="s">
+        <v>161</v>
+      </c>
+      <c r="C213" t="s">
         <v>162</v>
       </c>
-      <c r="C213" t="s">
-        <v>166</v>
-      </c>
       <c r="D213" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E213" t="s">
         <v>15</v>
@@ -8338,16 +8344,16 @@
     </row>
     <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B214" t="s">
+        <v>161</v>
+      </c>
+      <c r="C214" t="s">
         <v>162</v>
       </c>
-      <c r="C214" t="s">
-        <v>167</v>
-      </c>
       <c r="D214" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E214" t="s">
         <v>15</v>
@@ -8368,19 +8374,277 @@
         <v>14</v>
       </c>
     </row>
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>161</v>
+      </c>
+      <c r="C215" t="s">
+        <v>165</v>
+      </c>
+      <c r="D215" t="s">
+        <v>152</v>
+      </c>
+      <c r="E215" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>14</v>
+      </c>
+      <c r="J215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>161</v>
+      </c>
+      <c r="C216" t="s">
+        <v>165</v>
+      </c>
+      <c r="D216" t="s">
+        <v>157</v>
+      </c>
+      <c r="E216" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" t="s">
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>14</v>
+      </c>
+      <c r="J216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>161</v>
+      </c>
+      <c r="C217" t="s">
+        <v>165</v>
+      </c>
+      <c r="D217" t="s">
+        <v>159</v>
+      </c>
+      <c r="E217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>172</v>
+      </c>
+      <c r="B218" t="s">
+        <v>161</v>
+      </c>
+      <c r="C218" t="s">
+        <v>165</v>
+      </c>
+      <c r="D218" t="s">
+        <v>152</v>
+      </c>
+      <c r="E218" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" t="s">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>161</v>
+      </c>
+      <c r="C219" t="s">
+        <v>166</v>
+      </c>
+      <c r="D219" t="s">
+        <v>166</v>
+      </c>
+      <c r="E219" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" t="s">
+        <v>16</v>
+      </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" t="s">
+        <v>35</v>
+      </c>
+      <c r="D220" t="s">
+        <v>36</v>
+      </c>
+      <c r="E220" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" t="s">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" t="s">
+        <v>140</v>
+      </c>
+      <c r="D221" t="s">
+        <v>143</v>
+      </c>
+      <c r="E221" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" t="s">
+        <v>16</v>
+      </c>
+      <c r="G221" t="s">
+        <v>14</v>
+      </c>
+      <c r="H221" t="s">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>41</v>
+      </c>
+      <c r="C222" t="s">
+        <v>140</v>
+      </c>
+      <c r="D222" t="s">
+        <v>144</v>
+      </c>
+      <c r="E222" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" t="s">
+        <v>14</v>
+      </c>
+      <c r="I222" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J214" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:J222" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Nutrient Amendments"/>
+        <filter val="Climate Mitigation"/>
+        <filter val="Other Soil Properties"/>
+        <filter val="Soil Nutrients"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J214">
-      <sortCondition ref="B1:B214"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J220">
+      <sortCondition ref="D1:D222"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J239">
-    <sortCondition ref="D2:D239"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J244">
+    <sortCondition ref="D2:D244"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0475BD-C35D-4890-83B0-6A35866B5E75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B242D3F2-0331-4AD4-8609-427BD918C7A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="206">
   <si>
     <t>Review</t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t>Root Herbivores</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
 </sst>
 </file>
@@ -1507,11 +1510,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143:D143"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1519,7 +1522,7 @@
     <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6328125" customWidth="1"/>
-    <col min="4" max="4" width="47.6328125" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
     <col min="5" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
@@ -1558,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>172</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -2390,9 +2393,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -2401,13 +2404,13 @@
         <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -2422,9 +2425,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -2454,9 +2457,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -2465,7 +2468,7 @@
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
@@ -2486,9 +2489,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -2518,9 +2521,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -2550,9 +2553,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -2561,7 +2564,7 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -2582,9 +2585,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -2614,9 +2617,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -2625,7 +2628,7 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>22</v>
@@ -2646,9 +2649,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -2657,7 +2660,7 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
@@ -2678,9 +2681,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -2689,7 +2692,7 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -2710,9 +2713,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -2721,7 +2724,7 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
@@ -2742,18 +2745,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -2774,18 +2777,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -2806,18 +2809,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -2838,7 +2841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
@@ -2870,7 +2873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2878,10 +2881,10 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
@@ -2902,7 +2905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2910,10 +2913,10 @@
         <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -2934,7 +2937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2942,16 +2945,16 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
@@ -2966,7 +2969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2974,16 +2977,16 @@
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -2998,7 +3001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3009,13 +3012,13 @@
         <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -3030,7 +3033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3041,13 +3044,13 @@
         <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
@@ -3062,9 +3065,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -3073,13 +3076,13 @@
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -3094,9 +3097,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>37</v>
@@ -3105,13 +3108,13 @@
         <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -3126,7 +3129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -3137,13 +3140,13 @@
         <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -3158,7 +3161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -3169,13 +3172,13 @@
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
@@ -3190,7 +3193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
@@ -3222,9 +3225,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -3233,7 +3236,7 @@
         <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -3254,9 +3257,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -3265,7 +3268,7 @@
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -3286,9 +3289,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -3297,7 +3300,7 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -3318,7 +3321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
@@ -3350,7 +3353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -3382,9 +3385,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -3393,13 +3396,13 @@
         <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="E59" t="s">
         <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G59" t="s">
         <v>14</v>
@@ -3414,7 +3417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>172</v>
       </c>
@@ -3425,13 +3428,13 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E60" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
@@ -3446,7 +3449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>172</v>
       </c>
@@ -3454,16 +3457,16 @@
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -3478,24 +3481,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s">
         <v>14</v>
@@ -3510,24 +3513,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
         <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
@@ -3542,24 +3545,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>88</v>
+      <c r="C64" t="s">
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
@@ -3574,24 +3577,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>88</v>
+      <c r="C65" t="s">
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
@@ -3606,7 +3609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -3638,7 +3641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -3670,7 +3673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -3702,7 +3705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -3734,7 +3737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -3766,7 +3769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -3798,18 +3801,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>37</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -3830,7 +3833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -3862,18 +3865,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
@@ -3894,7 +3897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -3926,7 +3929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -3958,18 +3961,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
         <v>22</v>
@@ -3990,18 +3993,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -4022,18 +4025,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
         <v>22</v>
@@ -4054,18 +4057,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E80" t="s">
         <v>22</v>
@@ -4086,18 +4089,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
@@ -4118,7 +4121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E82" t="s">
         <v>22</v>
@@ -4150,18 +4153,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
@@ -4182,18 +4185,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
@@ -4214,18 +4217,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
         <v>37</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E85" t="s">
         <v>22</v>
@@ -4246,7 +4249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -4278,9 +4281,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
@@ -4289,7 +4292,7 @@
         <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -4310,9 +4313,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -4321,7 +4324,7 @@
         <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s">
         <v>22</v>
@@ -4342,7 +4345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E89" t="s">
         <v>22</v>
@@ -4374,7 +4377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="E90" t="s">
         <v>22</v>
@@ -4406,56 +4409,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G91" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
@@ -4472,16 +4475,16 @@
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
         <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="E93" t="s">
         <v>15</v>
@@ -4490,21 +4493,21 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
@@ -4536,7 +4539,7 @@
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
         <v>90</v>
@@ -4577,7 +4580,7 @@
         <v>91</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -4598,149 +4601,149 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>172</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>90</v>
       </c>
       <c r="C97" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" t="s">
+        <v>182</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" t="s">
         <v>94</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>96</v>
       </c>
-      <c r="E97" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" t="s">
-        <v>184</v>
-      </c>
-      <c r="E99" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>172</v>
-      </c>
-      <c r="B100" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" t="s">
-        <v>91</v>
-      </c>
-      <c r="D100" t="s">
-        <v>185</v>
-      </c>
-      <c r="E100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="G100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
         <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D101" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
         <v>26</v>
@@ -4760,19 +4763,19 @@
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
         <v>90</v>
       </c>
       <c r="C102" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D102" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F102" t="s">
         <v>26</v>
@@ -4792,22 +4795,22 @@
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B103" t="s">
         <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D103" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E103" t="s">
         <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
@@ -4822,21 +4825,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D104" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F104" t="s">
         <v>26</v>
@@ -4854,24 +4857,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C105" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D105" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
@@ -4886,24 +4889,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
         <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D106" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E106" t="s">
         <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
@@ -4918,24 +4921,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
         <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D107" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E107" t="s">
         <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
@@ -4950,21 +4953,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
@@ -4982,216 +4985,216 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>98</v>
+      </c>
+      <c r="D109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" t="s">
+        <v>77</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>172</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>11</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>28</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>31</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E111" t="s">
         <v>15</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F111" t="s">
         <v>16</v>
       </c>
-      <c r="G109" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>172</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>24</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>25</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>107</v>
       </c>
-      <c r="E110" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="E112" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
         <v>24</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>98</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D113" t="s">
         <v>100</v>
       </c>
-      <c r="E111" t="s">
-        <v>27</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="E113" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" t="s">
         <v>77</v>
       </c>
-      <c r="G111" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
         <v>11</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>20</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D114" t="s">
         <v>21</v>
       </c>
-      <c r="E112" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="E114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" t="s">
         <v>16</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G114" t="s">
         <v>24</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H114" t="s">
         <v>25</v>
       </c>
-      <c r="I112" t="s">
-        <v>27</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="I114" t="s">
+        <v>27</v>
+      </c>
+      <c r="J114" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" t="s">
-        <v>146</v>
-      </c>
-      <c r="C113" t="s">
-        <v>148</v>
-      </c>
-      <c r="D113" t="s">
-        <v>149</v>
-      </c>
-      <c r="E113" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>172</v>
-      </c>
-      <c r="B114" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" t="s">
-        <v>148</v>
-      </c>
-      <c r="D114" t="s">
-        <v>149</v>
-      </c>
-      <c r="E114" t="s">
-        <v>22</v>
-      </c>
-      <c r="F114" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E115" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
@@ -5206,24 +5209,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E116" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G116" t="s">
         <v>14</v>
@@ -5238,7 +5241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -5270,56 +5273,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>17</v>
       </c>
-      <c r="B118" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" t="s">
-        <v>102</v>
-      </c>
-      <c r="D118" t="s">
-        <v>105</v>
-      </c>
-      <c r="E118" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>172</v>
-      </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
@@ -5334,9 +5337,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B120" t="s">
         <v>24</v>
@@ -5345,13 +5348,13 @@
         <v>102</v>
       </c>
       <c r="D120" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="E120" t="s">
         <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
@@ -5366,7 +5369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>172</v>
       </c>
@@ -5374,97 +5377,97 @@
         <v>24</v>
       </c>
       <c r="C121" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121" t="s">
+        <v>105</v>
+      </c>
+      <c r="E121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>172</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>102</v>
+      </c>
+      <c r="D122" t="s">
+        <v>196</v>
+      </c>
+      <c r="E122" t="s">
+        <v>27</v>
+      </c>
+      <c r="F122" t="s">
+        <v>77</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
         <v>25</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D123" t="s">
         <v>198</v>
       </c>
-      <c r="E121" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
         <v>11</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H123" t="s">
         <v>20</v>
       </c>
-      <c r="I121" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="I123" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>17</v>
-      </c>
-      <c r="B122" t="s">
-        <v>146</v>
-      </c>
-      <c r="C122" t="s">
-        <v>148</v>
-      </c>
-      <c r="D122" t="s">
-        <v>150</v>
-      </c>
-      <c r="E122" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" t="s">
-        <v>14</v>
-      </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" t="s">
-        <v>146</v>
-      </c>
-      <c r="C123" t="s">
-        <v>148</v>
-      </c>
-      <c r="D123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E123" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" t="s">
-        <v>14</v>
-      </c>
-      <c r="I123" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>172</v>
       </c>
       <c r="B124" t="s">
         <v>146</v>
@@ -5473,7 +5476,7 @@
         <v>148</v>
       </c>
       <c r="D124" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E124" t="s">
         <v>22</v>
@@ -5494,24 +5497,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
         <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D125" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="E125" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G125" t="s">
         <v>14</v>
@@ -5526,7 +5529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>172</v>
       </c>
@@ -5534,74 +5537,74 @@
         <v>146</v>
       </c>
       <c r="C126" t="s">
+        <v>148</v>
+      </c>
+      <c r="D126" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" t="s">
         <v>152</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>151</v>
       </c>
-      <c r="E126" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" t="s">
         <v>77</v>
       </c>
-      <c r="G126" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" t="s">
-        <v>14</v>
-      </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>172</v>
       </c>
-      <c r="B127" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" t="s">
-        <v>32</v>
-      </c>
-      <c r="E127" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" t="s">
-        <v>14</v>
-      </c>
-      <c r="I127" t="s">
-        <v>14</v>
-      </c>
-      <c r="J127" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>17</v>
-      </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C128" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D128" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E128" t="s">
         <v>27</v>
@@ -5622,117 +5625,117 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>172</v>
       </c>
       <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
         <v>24</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>102</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>175</v>
       </c>
-      <c r="E129" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" t="s">
         <v>77</v>
       </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" t="s">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>10</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" t="s">
+        <v>102</v>
+      </c>
+      <c r="D131" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" t="s">
+        <v>77</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
         <v>146</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C132" t="s">
         <v>152</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D132" t="s">
         <v>154</v>
       </c>
-      <c r="E130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" t="s">
-        <v>14</v>
-      </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>17</v>
-      </c>
-      <c r="B131" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" t="s">
-        <v>33</v>
-      </c>
-      <c r="E131" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>17</v>
-      </c>
-      <c r="B132" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" t="s">
-        <v>34</v>
-      </c>
       <c r="E132" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
@@ -5750,24 +5753,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="E133" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G133" t="s">
         <v>14</v>
@@ -5782,24 +5785,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E134" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F134" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G134" t="s">
         <v>14</v>
@@ -5814,7 +5817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>172</v>
       </c>
@@ -5825,13 +5828,13 @@
         <v>25</v>
       </c>
       <c r="D135" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="E135" t="s">
         <v>27</v>
       </c>
       <c r="F135" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
@@ -5846,9 +5849,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
@@ -5878,18 +5881,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
       </c>
       <c r="C137" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D137" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="E137" t="s">
         <v>27</v>
@@ -5910,18 +5913,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="D138" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="E138" t="s">
         <v>27</v>
@@ -5942,18 +5945,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D139" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="E139" t="s">
         <v>27</v>
@@ -5974,9 +5977,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
         <v>146</v>
@@ -6006,18 +6009,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="E141" t="s">
         <v>27</v>
@@ -6038,9 +6041,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B142" t="s">
         <v>146</v>
@@ -6049,13 +6052,13 @@
         <v>156</v>
       </c>
       <c r="D142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E142" t="s">
         <v>27</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G142" t="s">
         <v>14</v>
@@ -6070,24 +6073,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D143" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E143" t="s">
         <v>27</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G143" t="s">
         <v>14</v>
@@ -6102,9 +6105,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
         <v>146</v>
@@ -6113,13 +6116,13 @@
         <v>156</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E144" t="s">
         <v>27</v>
       </c>
       <c r="F144" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
@@ -6134,9 +6137,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -6166,9 +6169,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
@@ -6177,13 +6180,13 @@
         <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E146" t="s">
         <v>27</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G146" t="s">
         <v>14</v>
@@ -6198,36 +6201,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D147" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E147" t="s">
         <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G147" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6235,63 +6238,63 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="D148" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="E148" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C149" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D149" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E149" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I149" t="s">
         <v>15</v>
       </c>
       <c r="J149" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6305,7 +6308,7 @@
         <v>40</v>
       </c>
       <c r="D150" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
@@ -6326,7 +6329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
@@ -6369,7 +6372,7 @@
         <v>40</v>
       </c>
       <c r="D152" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -6390,9 +6393,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
         <v>41</v>
@@ -6401,7 +6404,7 @@
         <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="E153" t="s">
         <v>15</v>
@@ -6430,10 +6433,10 @@
         <v>41</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E154" t="s">
         <v>15</v>
@@ -6442,30 +6445,30 @@
         <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J154" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B155" t="s">
         <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
@@ -6474,16 +6477,16 @@
         <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J155" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6497,7 +6500,7 @@
         <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
@@ -6529,7 +6532,7 @@
         <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="E157" t="s">
         <v>15</v>
@@ -6561,7 +6564,7 @@
         <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E158" t="s">
         <v>15</v>
@@ -6584,7 +6587,7 @@
     </row>
     <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B159" t="s">
         <v>41</v>
@@ -6593,7 +6596,7 @@
         <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -6622,13 +6625,13 @@
         <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E160" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F160" t="s">
         <v>16</v>
@@ -6648,34 +6651,34 @@
     </row>
     <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
         <v>41</v>
       </c>
       <c r="C161" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D161" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E161" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F161" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G161" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I161" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6689,25 +6692,25 @@
         <v>129</v>
       </c>
       <c r="D162" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E162" t="s">
         <v>27</v>
       </c>
       <c r="F162" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G162" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I162" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6721,7 +6724,7 @@
         <v>129</v>
       </c>
       <c r="D163" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E163" t="s">
         <v>27</v>
@@ -6753,7 +6756,7 @@
         <v>129</v>
       </c>
       <c r="D164" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E164" t="s">
         <v>27</v>
@@ -6785,30 +6788,30 @@
         <v>129</v>
       </c>
       <c r="D165" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E165" t="s">
         <v>27</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G165" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I165" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J165" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
         <v>41</v>
@@ -6817,30 +6820,30 @@
         <v>129</v>
       </c>
       <c r="D166" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E166" t="s">
         <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I166" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J166" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
         <v>41</v>
@@ -6849,25 +6852,25 @@
         <v>129</v>
       </c>
       <c r="D167" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E167" t="s">
         <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G167" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I167" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6881,25 +6884,25 @@
         <v>129</v>
       </c>
       <c r="D168" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E168" t="s">
         <v>27</v>
       </c>
       <c r="F168" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G168" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I168" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J168" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6913,7 +6916,7 @@
         <v>129</v>
       </c>
       <c r="D169" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E169" t="s">
         <v>27</v>
@@ -6945,13 +6948,13 @@
         <v>129</v>
       </c>
       <c r="D170" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="E170" t="s">
         <v>27</v>
       </c>
       <c r="F170" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G170" t="s">
         <v>24</v>
@@ -6977,13 +6980,13 @@
         <v>129</v>
       </c>
       <c r="D171" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="E171" t="s">
         <v>27</v>
       </c>
       <c r="F171" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G171" t="s">
         <v>24</v>
@@ -6998,7 +7001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -7009,13 +7012,13 @@
         <v>129</v>
       </c>
       <c r="D172" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E172" t="s">
         <v>27</v>
       </c>
       <c r="F172" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G172" t="s">
         <v>24</v>
@@ -7030,82 +7033,82 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="3" t="s">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" t="s">
         <v>41</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" t="s">
         <v>129</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F173" s="3" t="s">
+      <c r="D173" t="s">
+        <v>188</v>
+      </c>
+      <c r="E173" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" t="s">
+        <v>26</v>
+      </c>
+      <c r="G173" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" t="s">
+        <v>102</v>
+      </c>
+      <c r="I173" t="s">
+        <v>27</v>
+      </c>
+      <c r="J173" t="s">
         <v>77</v>
       </c>
-      <c r="G173" s="3" t="s">
+    </row>
+    <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>41</v>
+      </c>
+      <c r="C174" t="s">
+        <v>129</v>
+      </c>
+      <c r="D174" t="s">
+        <v>189</v>
+      </c>
+      <c r="E174" t="s">
+        <v>27</v>
+      </c>
+      <c r="F174" t="s">
+        <v>77</v>
+      </c>
+      <c r="G174" t="s">
         <v>24</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H174" t="s">
         <v>102</v>
       </c>
-      <c r="I173" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J173" s="3" t="s">
+      <c r="I174" t="s">
+        <v>27</v>
+      </c>
+      <c r="J174" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J174" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>27</v>
@@ -7114,21 +7117,21 @@
         <v>77</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="176" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>41</v>
@@ -7137,7 +7140,7 @@
         <v>136</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>27</v>
@@ -7160,7 +7163,7 @@
     </row>
     <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>41</v>
@@ -7169,7 +7172,7 @@
         <v>136</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>27</v>
@@ -7178,21 +7181,21 @@
         <v>77</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>41</v>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="179" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>41</v>
@@ -7233,7 +7236,7 @@
         <v>136</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>27</v>
@@ -7242,16 +7245,16 @@
         <v>77</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -7265,7 +7268,7 @@
         <v>136</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>27</v>
@@ -7274,16 +7277,16 @@
         <v>77</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -7297,7 +7300,7 @@
         <v>136</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>27</v>
@@ -7306,132 +7309,132 @@
         <v>77</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C182" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>10</v>
-      </c>
-      <c r="B183" t="s">
-        <v>41</v>
-      </c>
-      <c r="C183" t="s">
-        <v>139</v>
-      </c>
-      <c r="D183" t="s">
-        <v>128</v>
-      </c>
-      <c r="E183" t="s">
-        <v>22</v>
-      </c>
-      <c r="F183" t="s">
-        <v>26</v>
-      </c>
-      <c r="G183" t="s">
-        <v>14</v>
-      </c>
-      <c r="H183" t="s">
-        <v>14</v>
-      </c>
-      <c r="I183" t="s">
-        <v>14</v>
-      </c>
-      <c r="J183" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>17</v>
-      </c>
-      <c r="B184" t="s">
-        <v>41</v>
-      </c>
-      <c r="C184" t="s">
-        <v>140</v>
-      </c>
-      <c r="D184" t="s">
-        <v>141</v>
-      </c>
-      <c r="E184" t="s">
-        <v>15</v>
-      </c>
-      <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s">
-        <v>14</v>
-      </c>
-      <c r="H184" t="s">
-        <v>14</v>
-      </c>
-      <c r="I184" t="s">
-        <v>14</v>
-      </c>
-      <c r="J184" t="s">
+      <c r="E184" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J184" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
         <v>41</v>
       </c>
       <c r="C185" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D185" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E185" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
@@ -7457,13 +7460,13 @@
         <v>140</v>
       </c>
       <c r="D186" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E186" t="s">
         <v>15</v>
       </c>
       <c r="F186" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G186" t="s">
         <v>14</v>
@@ -7478,152 +7481,152 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="D187" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="E187" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F187" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J187" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C188" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D188" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="E188" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G188" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="I188" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
         <v>24</v>
       </c>
       <c r="C189" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D189" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="E189" t="s">
         <v>27</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G189" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J189" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B190" t="s">
         <v>24</v>
       </c>
       <c r="C190" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D190" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E190" t="s">
         <v>27</v>
       </c>
       <c r="F190" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="I190" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J190" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B191" t="s">
         <v>24</v>
       </c>
       <c r="C191" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D191" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E191" t="s">
         <v>27</v>
       </c>
       <c r="F191" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G191" t="s">
         <v>14</v>
@@ -7638,9 +7641,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
         <v>24</v>
@@ -7670,73 +7673,73 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D193" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E193" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F193" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G193" t="s">
+        <v>14</v>
+      </c>
+      <c r="H193" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>14</v>
+      </c>
+      <c r="J193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>172</v>
+      </c>
+      <c r="B194" t="s">
         <v>24</v>
       </c>
-      <c r="H193" t="s">
-        <v>25</v>
-      </c>
-      <c r="I193" t="s">
-        <v>27</v>
-      </c>
-      <c r="J193" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>17</v>
-      </c>
-      <c r="B194" t="s">
-        <v>11</v>
-      </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D194" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E194" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F194" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G194" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I194" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J194" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -7766,73 +7769,73 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D196" t="s">
         <v>23</v>
       </c>
       <c r="E196" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F196" t="s">
         <v>26</v>
       </c>
       <c r="G196" t="s">
+        <v>24</v>
+      </c>
+      <c r="H196" t="s">
+        <v>25</v>
+      </c>
+      <c r="I196" t="s">
+        <v>27</v>
+      </c>
+      <c r="J196" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>172</v>
+      </c>
+      <c r="B197" t="s">
         <v>11</v>
       </c>
-      <c r="H196" t="s">
+      <c r="C197" t="s">
         <v>20</v>
       </c>
-      <c r="I196" t="s">
-        <v>22</v>
-      </c>
-      <c r="J196" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>10</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="D197" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" t="s">
         <v>24</v>
       </c>
-      <c r="C197" t="s">
+      <c r="H197" t="s">
         <v>25</v>
       </c>
-      <c r="D197" t="s">
-        <v>109</v>
-      </c>
-      <c r="E197" t="s">
-        <v>27</v>
-      </c>
-      <c r="F197" t="s">
-        <v>26</v>
-      </c>
-      <c r="G197" t="s">
-        <v>11</v>
-      </c>
-      <c r="H197" t="s">
-        <v>20</v>
-      </c>
       <c r="I197" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J197" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B198" t="s">
         <v>24</v>
@@ -7841,7 +7844,7 @@
         <v>25</v>
       </c>
       <c r="D198" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="E198" t="s">
         <v>27</v>
@@ -7862,9 +7865,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
         <v>24</v>
@@ -7894,39 +7897,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B200" t="s">
         <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D200" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="E200" t="s">
         <v>27</v>
       </c>
       <c r="F200" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G200" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I200" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J200" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>172</v>
       </c>
@@ -7934,31 +7937,31 @@
         <v>24</v>
       </c>
       <c r="C201" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D201" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="E201" t="s">
         <v>27</v>
       </c>
       <c r="F201" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G201" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I201" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J201" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>98</v>
       </c>
       <c r="D202" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E202" t="s">
         <v>27</v>
@@ -7990,24 +7993,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>172</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D203" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E203" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G203" t="s">
         <v>14</v>
@@ -8022,18 +8025,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C204" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="D204" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="E204" t="s">
         <v>27</v>
@@ -8054,24 +8057,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B205" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E205" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F205" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G205" t="s">
         <v>14</v>
@@ -8086,9 +8089,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
         <v>146</v>
@@ -8118,120 +8121,120 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" t="s">
+        <v>146</v>
+      </c>
+      <c r="C207" t="s">
+        <v>152</v>
+      </c>
+      <c r="D207" t="s">
+        <v>155</v>
+      </c>
+      <c r="E207" t="s">
+        <v>27</v>
+      </c>
+      <c r="F207" t="s">
+        <v>77</v>
+      </c>
+      <c r="G207" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" t="s">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
         <v>172</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
+        <v>146</v>
+      </c>
+      <c r="C208" t="s">
+        <v>152</v>
+      </c>
+      <c r="D208" t="s">
+        <v>155</v>
+      </c>
+      <c r="E208" t="s">
+        <v>27</v>
+      </c>
+      <c r="F208" t="s">
+        <v>77</v>
+      </c>
+      <c r="G208" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>172</v>
+      </c>
+      <c r="B209" t="s">
         <v>11</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C209" t="s">
         <v>28</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D209" t="s">
         <v>29</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E209" t="s">
         <v>15</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F209" t="s">
         <v>16</v>
       </c>
-      <c r="G207" t="s">
-        <v>14</v>
-      </c>
-      <c r="H207" t="s">
-        <v>14</v>
-      </c>
-      <c r="I207" t="s">
-        <v>14</v>
-      </c>
-      <c r="J207" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>10</v>
-      </c>
-      <c r="B208" t="s">
+      <c r="G209" t="s">
+        <v>14</v>
+      </c>
+      <c r="H209" t="s">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
         <v>11</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C210" t="s">
         <v>28</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D210" t="s">
         <v>29</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E210" t="s">
         <v>15</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F210" t="s">
         <v>16</v>
-      </c>
-      <c r="G208" t="s">
-        <v>14</v>
-      </c>
-      <c r="H208" t="s">
-        <v>14</v>
-      </c>
-      <c r="I208" t="s">
-        <v>14</v>
-      </c>
-      <c r="J208" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>10</v>
-      </c>
-      <c r="B209" t="s">
-        <v>24</v>
-      </c>
-      <c r="C209" t="s">
-        <v>110</v>
-      </c>
-      <c r="D209" t="s">
-        <v>115</v>
-      </c>
-      <c r="E209" t="s">
-        <v>27</v>
-      </c>
-      <c r="F209" t="s">
-        <v>26</v>
-      </c>
-      <c r="G209" t="s">
-        <v>14</v>
-      </c>
-      <c r="H209" t="s">
-        <v>14</v>
-      </c>
-      <c r="I209" t="s">
-        <v>14</v>
-      </c>
-      <c r="J209" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>17</v>
-      </c>
-      <c r="B210" t="s">
-        <v>24</v>
-      </c>
-      <c r="C210" t="s">
-        <v>110</v>
-      </c>
-      <c r="D210" t="s">
-        <v>115</v>
-      </c>
-      <c r="E210" t="s">
-        <v>27</v>
-      </c>
-      <c r="F210" t="s">
-        <v>26</v>
       </c>
       <c r="G210" t="s">
         <v>14</v>
@@ -8251,19 +8254,19 @@
         <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C211" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="D211" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="E211" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F211" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G211" t="s">
         <v>14</v>
@@ -8280,22 +8283,22 @@
     </row>
     <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B212" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C212" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="D212" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="E212" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G212" t="s">
         <v>14</v>
@@ -8312,7 +8315,7 @@
     </row>
     <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
         <v>161</v>
@@ -8321,7 +8324,7 @@
         <v>162</v>
       </c>
       <c r="D213" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E213" t="s">
         <v>15</v>
@@ -8344,7 +8347,7 @@
     </row>
     <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B214" t="s">
         <v>161</v>
@@ -8376,16 +8379,16 @@
     </row>
     <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B215" t="s">
         <v>161</v>
       </c>
       <c r="C215" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D215" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8408,16 +8411,16 @@
     </row>
     <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B216" t="s">
         <v>161</v>
       </c>
       <c r="C216" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D216" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E216" t="s">
         <v>15</v>
@@ -8449,7 +8452,7 @@
         <v>165</v>
       </c>
       <c r="D217" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E217" t="s">
         <v>15</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B218" t="s">
         <v>161</v>
@@ -8481,7 +8484,7 @@
         <v>165</v>
       </c>
       <c r="D218" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E218" t="s">
         <v>15</v>
@@ -8510,10 +8513,10 @@
         <v>161</v>
       </c>
       <c r="C219" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D219" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -8534,18 +8537,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="C220" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="D220" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E220" t="s">
         <v>15</v>
@@ -8571,13 +8574,13 @@
         <v>10</v>
       </c>
       <c r="B221" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="C221" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D221" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="E221" t="s">
         <v>15</v>
@@ -8603,13 +8606,13 @@
         <v>10</v>
       </c>
       <c r="B222" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="D222" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8630,21 +8633,193 @@
         <v>14</v>
       </c>
     </row>
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>41</v>
+      </c>
+      <c r="C223" t="s">
+        <v>140</v>
+      </c>
+      <c r="D223" t="s">
+        <v>143</v>
+      </c>
+      <c r="E223" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>41</v>
+      </c>
+      <c r="C224" t="s">
+        <v>140</v>
+      </c>
+      <c r="D224" t="s">
+        <v>144</v>
+      </c>
+      <c r="E224" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" t="s">
+        <v>16</v>
+      </c>
+      <c r="G224" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>161</v>
+      </c>
+      <c r="C225" t="s">
+        <v>165</v>
+      </c>
+      <c r="D225" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>41</v>
+      </c>
+      <c r="C226" t="s">
+        <v>140</v>
+      </c>
+      <c r="D226" t="s">
+        <v>141</v>
+      </c>
+      <c r="E226" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" t="s">
+        <v>16</v>
+      </c>
+      <c r="G226" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>14</v>
+      </c>
+      <c r="J226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" t="s">
+        <v>140</v>
+      </c>
+      <c r="D227" t="s">
+        <v>142</v>
+      </c>
+      <c r="E227" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" t="s">
+        <v>140</v>
+      </c>
+      <c r="D228" t="s">
+        <v>145</v>
+      </c>
+      <c r="E228" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" t="s">
+        <v>77</v>
+      </c>
+      <c r="G228" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J222" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J228" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Climate Mitigation"/>
-        <filter val="Other Soil Properties"/>
-        <filter val="Soil Nutrients"/>
+        <filter val="Crop Yields"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J220">
-      <sortCondition ref="D1:D222"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J222">
+      <sortCondition ref="D1:D224"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J244">
-    <sortCondition ref="D2:D244"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:J246">
+    <sortCondition ref="D2:D246"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B242D3F2-0331-4AD4-8609-427BD918C7A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E393F7-7E75-4DF7-85FA-92434B9BAAFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$234</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="210">
   <si>
     <t>Review</t>
   </si>
@@ -486,9 +486,6 @@
     <t>Magnesium</t>
   </si>
   <si>
-    <t>Misc. Micro-Nutrients</t>
-  </si>
-  <si>
     <t>Nitrate</t>
   </si>
   <si>
@@ -652,6 +649,21 @@
   </si>
   <si>
     <t>Development</t>
+  </si>
+  <si>
+    <t>Net Value</t>
+  </si>
+  <si>
+    <t>Caterpillars</t>
+  </si>
+  <si>
+    <t>Natural Enemy Activity</t>
+  </si>
+  <si>
+    <t>Birds</t>
+  </si>
+  <si>
+    <t>Grainivores</t>
   </si>
 </sst>
 </file>
@@ -1510,11 +1522,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37:D37"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C180" sqref="C180:D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1595,7 +1607,7 @@
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1691,7 +1703,7 @@
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1729,7 +1741,7 @@
         <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>147</v>
@@ -1755,13 +1767,13 @@
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
         <v>147</v>
@@ -1819,7 +1831,7 @@
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1857,10 +1869,10 @@
         <v>146</v>
       </c>
       <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
         <v>152</v>
-      </c>
-      <c r="D11" t="s">
-        <v>153</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -1883,16 +1895,16 @@
     </row>
     <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>146</v>
       </c>
       <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
         <v>152</v>
-      </c>
-      <c r="D12" t="s">
-        <v>153</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1915,22 +1927,22 @@
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
         <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1947,7 +1959,7 @@
     </row>
     <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>146</v>
@@ -1979,22 +1991,22 @@
     </row>
     <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -2011,7 +2023,7 @@
     </row>
     <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -2020,7 +2032,7 @@
         <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -2043,22 +2055,22 @@
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -2075,7 +2087,7 @@
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -2107,22 +2119,22 @@
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -2139,16 +2151,16 @@
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -2180,60 +2192,60 @@
         <v>102</v>
       </c>
       <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
         <v>104</v>
       </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -2265,7 +2277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2273,33 +2285,33 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -2329,9 +2341,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
@@ -2361,9 +2373,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -2372,7 +2384,7 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
@@ -2393,9 +2405,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -2404,13 +2416,13 @@
         <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -2425,9 +2437,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -2436,13 +2448,13 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -2457,9 +2469,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -2489,9 +2501,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -2500,7 +2512,7 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -2521,9 +2533,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -2553,9 +2565,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -2585,9 +2597,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -2596,7 +2608,7 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -2617,9 +2629,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -2649,9 +2661,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -2660,7 +2672,7 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
@@ -2681,7 +2693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2692,7 +2704,7 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
         <v>22</v>
@@ -2713,9 +2725,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -2724,7 +2736,7 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E38" t="s">
         <v>22</v>
@@ -2745,9 +2757,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -2756,7 +2768,7 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -2777,9 +2789,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -2788,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
         <v>22</v>
@@ -2809,18 +2821,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
         <v>22</v>
@@ -2841,18 +2853,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
@@ -2873,7 +2885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2884,7 +2896,7 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
@@ -2905,7 +2917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
         <v>22</v>
@@ -2937,7 +2949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2945,10 +2957,10 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
         <v>22</v>
@@ -2969,7 +2981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2977,10 +2989,10 @@
         <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
@@ -3001,7 +3013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3009,16 +3021,16 @@
         <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -3033,7 +3045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -3065,7 +3077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3076,13 +3088,13 @@
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -3097,7 +3109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -3129,9 +3141,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -3140,13 +3152,13 @@
         <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -3161,9 +3173,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
         <v>37</v>
@@ -3172,7 +3184,7 @@
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
@@ -3193,9 +3205,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
         <v>37</v>
@@ -3204,13 +3216,13 @@
         <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
@@ -3225,9 +3237,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -3236,7 +3248,7 @@
         <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -3257,9 +3269,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
         <v>37</v>
@@ -3268,7 +3280,7 @@
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -3289,9 +3301,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
@@ -3300,7 +3312,7 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -3321,7 +3333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3332,7 +3344,7 @@
         <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
@@ -3353,9 +3365,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -3364,7 +3376,7 @@
         <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -3385,9 +3397,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -3417,9 +3429,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
@@ -3428,30 +3440,30 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>171</v>
-      </c>
-      <c r="E60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>172</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -3460,13 +3472,13 @@
         <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -3481,9 +3493,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -3492,7 +3504,7 @@
         <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -3513,24 +3525,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
@@ -3545,24 +3557,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
@@ -3577,7 +3589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3588,7 +3600,7 @@
         <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -3609,24 +3621,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>88</v>
+      <c r="C66" t="s">
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
@@ -3641,7 +3653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3664,7 @@
         <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -3673,7 +3685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3684,7 +3696,7 @@
         <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -3705,7 +3717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3716,7 +3728,7 @@
         <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -3737,7 +3749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3748,7 +3760,7 @@
         <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -3769,7 +3781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3780,7 +3792,7 @@
         <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
@@ -3801,7 +3813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3812,7 +3824,7 @@
         <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
@@ -3833,7 +3845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3844,7 +3856,7 @@
         <v>88</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -3865,18 +3877,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>37</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
@@ -3897,18 +3909,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
         <v>22</v>
@@ -3929,7 +3941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3940,7 +3952,7 @@
         <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E76" t="s">
         <v>22</v>
@@ -3961,7 +3973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3972,7 +3984,7 @@
         <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
         <v>22</v>
@@ -3993,7 +4005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4004,7 +4016,7 @@
         <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
         <v>22</v>
@@ -4025,18 +4037,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>37</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E79" t="s">
         <v>22</v>
@@ -4057,7 +4069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4068,7 +4080,7 @@
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
         <v>22</v>
@@ -4089,18 +4101,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>37</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s">
         <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
         <v>22</v>
@@ -4121,7 +4133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -4132,7 +4144,7 @@
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E82" t="s">
         <v>22</v>
@@ -4153,18 +4165,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>37</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E83" t="s">
         <v>22</v>
@@ -4185,18 +4197,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
@@ -4217,7 +4229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -4228,7 +4240,7 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E85" t="s">
         <v>22</v>
@@ -4249,18 +4261,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -4281,7 +4293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -4292,7 +4304,7 @@
         <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -4313,7 +4325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -4324,7 +4336,7 @@
         <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s">
         <v>22</v>
@@ -4345,9 +4357,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
         <v>37</v>
@@ -4356,7 +4368,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E89" t="s">
         <v>22</v>
@@ -4377,9 +4389,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s">
         <v>37</v>
@@ -4388,7 +4400,7 @@
         <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E90" t="s">
         <v>22</v>
@@ -4409,9 +4421,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -4420,7 +4432,7 @@
         <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E91" t="s">
         <v>22</v>
@@ -4441,9 +4453,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
         <v>37</v>
@@ -4452,7 +4464,7 @@
         <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="E92" t="s">
         <v>22</v>
@@ -4475,48 +4487,48 @@
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G93" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="D94" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="E94" t="s">
         <v>15</v>
@@ -4525,16 +4537,16 @@
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -4548,7 +4560,7 @@
         <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
@@ -4571,7 +4583,7 @@
     </row>
     <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
         <v>90</v>
@@ -4580,7 +4592,7 @@
         <v>91</v>
       </c>
       <c r="D96" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -4603,7 +4615,7 @@
     </row>
     <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
         <v>90</v>
@@ -4612,7 +4624,7 @@
         <v>91</v>
       </c>
       <c r="D97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E97" t="s">
         <v>15</v>
@@ -4635,7 +4647,7 @@
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
         <v>90</v>
@@ -4644,7 +4656,7 @@
         <v>91</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
@@ -4665,105 +4677,105 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" s="3" t="s">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" t="s">
         <v>90</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="D101" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>172</v>
-      </c>
-      <c r="B101" t="s">
-        <v>90</v>
-      </c>
-      <c r="C101" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="G101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
         <v>90</v>
@@ -4772,7 +4784,7 @@
         <v>91</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
         <v>15</v>
@@ -4795,19 +4807,19 @@
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
         <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D103" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F103" t="s">
         <v>26</v>
@@ -4836,7 +4848,7 @@
         <v>94</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E104" t="s">
         <v>22</v>
@@ -4859,22 +4871,22 @@
     </row>
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B105" t="s">
         <v>90</v>
       </c>
       <c r="C105" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E105" t="s">
         <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
@@ -4891,22 +4903,22 @@
     </row>
     <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D106" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
@@ -4923,7 +4935,7 @@
     </row>
     <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B107" t="s">
         <v>24</v>
@@ -4955,22 +4967,22 @@
     </row>
     <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B108" t="s">
         <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E108" t="s">
         <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -4987,22 +4999,22 @@
     </row>
     <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
         <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E109" t="s">
         <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
@@ -5022,19 +5034,19 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G110" t="s">
         <v>14</v>
@@ -5051,7 +5063,7 @@
     </row>
     <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -5083,22 +5095,22 @@
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D112" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G112" t="s">
         <v>14</v>
@@ -5115,22 +5127,22 @@
     </row>
     <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
         <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E113" t="s">
         <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G113" t="s">
         <v>14</v>
@@ -5150,68 +5162,68 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
         <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J115" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B116" t="s">
         <v>146</v>
@@ -5243,22 +5255,22 @@
     </row>
     <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E117" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G117" t="s">
         <v>14</v>
@@ -5275,7 +5287,7 @@
     </row>
     <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -5307,7 +5319,7 @@
     </row>
     <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -5316,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E119" t="s">
         <v>15</v>
@@ -5342,19 +5354,19 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
@@ -5371,7 +5383,7 @@
     </row>
     <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B121" t="s">
         <v>24</v>
@@ -5403,7 +5415,7 @@
     </row>
     <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
         <v>24</v>
@@ -5412,13 +5424,13 @@
         <v>102</v>
       </c>
       <c r="D122" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="E122" t="s">
         <v>27</v>
       </c>
       <c r="F122" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G122" t="s">
         <v>14</v>
@@ -5435,71 +5447,71 @@
     </row>
     <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
         <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D123" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E123" t="s">
         <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E124" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F124" t="s">
         <v>26</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I124" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J124" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B125" t="s">
         <v>146</v>
@@ -5508,7 +5520,7 @@
         <v>148</v>
       </c>
       <c r="D125" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E125" t="s">
         <v>22</v>
@@ -5531,7 +5543,7 @@
     </row>
     <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
         <v>146</v>
@@ -5540,7 +5552,7 @@
         <v>148</v>
       </c>
       <c r="D126" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E126" t="s">
         <v>22</v>
@@ -5563,22 +5575,22 @@
     </row>
     <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s">
         <v>146</v>
       </c>
       <c r="C127" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F127" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
@@ -5595,16 +5607,16 @@
     </row>
     <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B128" t="s">
         <v>146</v>
       </c>
       <c r="C128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E128" t="s">
         <v>27</v>
@@ -5627,22 +5639,22 @@
     </row>
     <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="E129" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
@@ -5659,22 +5671,22 @@
     </row>
     <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="E130" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
@@ -5691,7 +5703,7 @@
     </row>
     <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
@@ -5700,7 +5712,7 @@
         <v>102</v>
       </c>
       <c r="D131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E131" t="s">
         <v>27</v>
@@ -5723,22 +5735,22 @@
     </row>
     <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="D132" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E132" t="s">
         <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
@@ -5755,19 +5767,19 @@
     </row>
     <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="E133" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F133" t="s">
         <v>16</v>
@@ -5796,7 +5808,7 @@
         <v>28</v>
       </c>
       <c r="D134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E134" t="s">
         <v>15</v>
@@ -5819,22 +5831,22 @@
     </row>
     <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D135" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="E135" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
@@ -5851,7 +5863,7 @@
     </row>
     <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
@@ -5860,13 +5872,13 @@
         <v>25</v>
       </c>
       <c r="D136" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="E136" t="s">
         <v>27</v>
       </c>
       <c r="F136" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
@@ -5883,7 +5895,7 @@
     </row>
     <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
@@ -5915,7 +5927,7 @@
     </row>
     <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
@@ -5947,16 +5959,16 @@
     </row>
     <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
         <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D139" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="E139" t="s">
         <v>27</v>
@@ -5979,16 +5991,16 @@
     </row>
     <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C140" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D140" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E140" t="s">
         <v>27</v>
@@ -6011,16 +6023,16 @@
     </row>
     <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
         <v>146</v>
       </c>
       <c r="C141" t="s">
+        <v>155</v>
+      </c>
+      <c r="D141" t="s">
         <v>156</v>
-      </c>
-      <c r="D141" t="s">
-        <v>157</v>
       </c>
       <c r="E141" t="s">
         <v>27</v>
@@ -6043,16 +6055,16 @@
     </row>
     <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B142" t="s">
         <v>146</v>
       </c>
       <c r="C142" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142" t="s">
         <v>156</v>
-      </c>
-      <c r="D142" t="s">
-        <v>157</v>
       </c>
       <c r="E142" t="s">
         <v>27</v>
@@ -6075,16 +6087,16 @@
     </row>
     <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="D143" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="E143" t="s">
         <v>27</v>
@@ -6107,22 +6119,22 @@
     </row>
     <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D144" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="E144" t="s">
         <v>27</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
@@ -6145,16 +6157,16 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E145" t="s">
         <v>27</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G145" t="s">
         <v>14</v>
@@ -6171,22 +6183,22 @@
     </row>
     <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E146" t="s">
         <v>27</v>
       </c>
       <c r="F146" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G146" t="s">
         <v>14</v>
@@ -6203,22 +6215,22 @@
     </row>
     <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E147" t="s">
         <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G147" t="s">
         <v>14</v>
@@ -6235,22 +6247,22 @@
     </row>
     <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B148" t="s">
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D148" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E148" t="s">
         <v>27</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G148" t="s">
         <v>14</v>
@@ -6267,69 +6279,69 @@
     </row>
     <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C149" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="D149" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E149" t="s">
         <v>27</v>
       </c>
       <c r="F149" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G149" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D150" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="E150" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H150" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I150" t="s">
         <v>15</v>
       </c>
       <c r="J150" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6340,7 +6352,7 @@
         <v>40</v>
       </c>
       <c r="D151" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
@@ -6361,7 +6373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -6372,7 +6384,7 @@
         <v>40</v>
       </c>
       <c r="D152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -6393,7 +6405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -6404,7 +6416,7 @@
         <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E153" t="s">
         <v>15</v>
@@ -6425,7 +6437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -6436,7 +6448,7 @@
         <v>40</v>
       </c>
       <c r="D154" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E154" t="s">
         <v>15</v>
@@ -6457,9 +6469,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
         <v>41</v>
@@ -6468,7 +6480,7 @@
         <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
@@ -6489,18 +6501,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B156" t="s">
         <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D156" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
@@ -6509,19 +6521,19 @@
         <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J156" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -6532,7 +6544,7 @@
         <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E157" t="s">
         <v>15</v>
@@ -6553,7 +6565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -6564,7 +6576,7 @@
         <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E158" t="s">
         <v>15</v>
@@ -6585,7 +6597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -6596,7 +6608,7 @@
         <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
@@ -6617,7 +6629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -6628,7 +6640,7 @@
         <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
@@ -6649,9 +6661,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
         <v>41</v>
@@ -6660,7 +6672,7 @@
         <v>42</v>
       </c>
       <c r="D161" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="E161" t="s">
         <v>15</v>
@@ -6681,7 +6693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -6689,13 +6701,13 @@
         <v>41</v>
       </c>
       <c r="C162" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="D162" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="E162" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F162" t="s">
         <v>16</v>
@@ -6713,7 +6725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -6721,63 +6733,63 @@
         <v>41</v>
       </c>
       <c r="C163" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D163" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E163" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F163" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G163" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I163" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B164" t="s">
         <v>41</v>
       </c>
       <c r="C164" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D164" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E164" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F164" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G164" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I164" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -6788,28 +6800,28 @@
         <v>129</v>
       </c>
       <c r="D165" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E165" t="s">
         <v>27</v>
       </c>
       <c r="F165" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I165" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -6820,7 +6832,7 @@
         <v>129</v>
       </c>
       <c r="D166" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E166" t="s">
         <v>27</v>
@@ -6841,7 +6853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -6852,30 +6864,30 @@
         <v>129</v>
       </c>
       <c r="D167" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E167" t="s">
         <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G167" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I167" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
         <v>41</v>
@@ -6884,30 +6896,30 @@
         <v>129</v>
       </c>
       <c r="D168" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E168" t="s">
         <v>27</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G168" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I168" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J168" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
         <v>41</v>
@@ -6916,7 +6928,7 @@
         <v>129</v>
       </c>
       <c r="D169" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E169" t="s">
         <v>27</v>
@@ -6937,9 +6949,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
         <v>41</v>
@@ -6948,30 +6960,30 @@
         <v>129</v>
       </c>
       <c r="D170" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E170" t="s">
         <v>27</v>
       </c>
       <c r="F170" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G170" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I170" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J170" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
         <v>41</v>
@@ -6980,30 +6992,30 @@
         <v>129</v>
       </c>
       <c r="D171" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E171" t="s">
         <v>27</v>
       </c>
       <c r="F171" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G171" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I171" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>41</v>
@@ -7012,13 +7024,13 @@
         <v>129</v>
       </c>
       <c r="D172" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E172" t="s">
         <v>27</v>
       </c>
       <c r="F172" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G172" t="s">
         <v>24</v>
@@ -7033,9 +7045,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>41</v>
@@ -7044,13 +7056,13 @@
         <v>129</v>
       </c>
       <c r="D173" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="E173" t="s">
         <v>27</v>
       </c>
       <c r="F173" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G173" t="s">
         <v>24</v>
@@ -7065,9 +7077,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
         <v>41</v>
@@ -7076,7 +7088,7 @@
         <v>129</v>
       </c>
       <c r="D174" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="E174" t="s">
         <v>27</v>
@@ -7097,114 +7109,114 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B175" s="3" t="s">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" t="s">
         <v>41</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" t="s">
         <v>129</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" t="s">
         <v>190</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F175" s="3" t="s">
+      <c r="E175" t="s">
+        <v>27</v>
+      </c>
+      <c r="F175" t="s">
+        <v>26</v>
+      </c>
+      <c r="G175" t="s">
+        <v>24</v>
+      </c>
+      <c r="H175" t="s">
+        <v>102</v>
+      </c>
+      <c r="I175" t="s">
+        <v>27</v>
+      </c>
+      <c r="J175" t="s">
         <v>77</v>
       </c>
-      <c r="G175" s="3" t="s">
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" t="s">
+        <v>41</v>
+      </c>
+      <c r="C176" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" t="s">
+        <v>187</v>
+      </c>
+      <c r="E176" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s">
         <v>24</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="H176" t="s">
         <v>102</v>
       </c>
-      <c r="I175" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J175" s="3" t="s">
+      <c r="I176" t="s">
+        <v>27</v>
+      </c>
+      <c r="J176" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B176" s="3" t="s">
+    <row r="177" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" t="s">
         <v>41</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F176" s="3" t="s">
+      <c r="C177" t="s">
+        <v>129</v>
+      </c>
+      <c r="D177" t="s">
+        <v>188</v>
+      </c>
+      <c r="E177" t="s">
+        <v>27</v>
+      </c>
+      <c r="F177" t="s">
         <v>77</v>
       </c>
-      <c r="G176" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J176" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F177" s="3" t="s">
+      <c r="G177" t="s">
+        <v>24</v>
+      </c>
+      <c r="H177" t="s">
+        <v>102</v>
+      </c>
+      <c r="I177" t="s">
+        <v>27</v>
+      </c>
+      <c r="J177" t="s">
         <v>77</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>27</v>
@@ -7213,21 +7225,21 @@
         <v>77</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>41</v>
@@ -7236,7 +7248,7 @@
         <v>136</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>27</v>
@@ -7245,19 +7257,19 @@
         <v>77</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>10</v>
       </c>
@@ -7268,7 +7280,7 @@
         <v>136</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>27</v>
@@ -7289,9 +7301,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>41</v>
@@ -7321,9 +7333,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>41</v>
@@ -7353,9 +7365,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>41</v>
@@ -7364,7 +7376,7 @@
         <v>136</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>27</v>
@@ -7373,164 +7385,164 @@
         <v>77</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A187" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H184" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>10</v>
-      </c>
-      <c r="B185" t="s">
-        <v>41</v>
-      </c>
-      <c r="C185" t="s">
-        <v>139</v>
-      </c>
-      <c r="D185" t="s">
-        <v>128</v>
-      </c>
-      <c r="E185" t="s">
-        <v>22</v>
-      </c>
-      <c r="F185" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" t="s">
-        <v>14</v>
-      </c>
-      <c r="H185" t="s">
-        <v>14</v>
-      </c>
-      <c r="I185" t="s">
-        <v>14</v>
-      </c>
-      <c r="J185" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>17</v>
-      </c>
-      <c r="B186" t="s">
-        <v>41</v>
-      </c>
-      <c r="C186" t="s">
-        <v>140</v>
-      </c>
-      <c r="D186" t="s">
-        <v>141</v>
-      </c>
-      <c r="E186" t="s">
-        <v>15</v>
-      </c>
-      <c r="F186" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" t="s">
-        <v>14</v>
-      </c>
-      <c r="H186" t="s">
-        <v>14</v>
-      </c>
-      <c r="I186" t="s">
-        <v>14</v>
-      </c>
-      <c r="J186" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>17</v>
-      </c>
-      <c r="B187" t="s">
-        <v>41</v>
-      </c>
-      <c r="C187" t="s">
-        <v>140</v>
-      </c>
-      <c r="D187" t="s">
-        <v>142</v>
-      </c>
-      <c r="E187" t="s">
-        <v>15</v>
-      </c>
-      <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s">
-        <v>14</v>
-      </c>
-      <c r="H187" t="s">
-        <v>14</v>
-      </c>
-      <c r="I187" t="s">
-        <v>14</v>
-      </c>
-      <c r="J187" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E187" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
         <v>41</v>
       </c>
       <c r="C188" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D188" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E188" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F188" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G188" t="s">
         <v>14</v>
@@ -7545,85 +7557,85 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C189" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="D189" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="E189" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F189" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G189" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J189" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>17</v>
       </c>
       <c r="B190" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C190" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D190" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E190" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
       </c>
       <c r="G190" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="I190" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C191" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D191" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E191" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F191" t="s">
         <v>16</v>
@@ -7641,21 +7653,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C192" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="D192" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="E192" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F192" t="s">
         <v>77</v>
@@ -7675,16 +7687,16 @@
     </row>
     <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
         <v>24</v>
       </c>
       <c r="C193" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D193" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="E193" t="s">
         <v>27</v>
@@ -7693,237 +7705,237 @@
         <v>77</v>
       </c>
       <c r="G193" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I193" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J193" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B194" t="s">
         <v>24</v>
       </c>
       <c r="C194" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D194" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E194" t="s">
         <v>27</v>
       </c>
       <c r="F194" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="G194" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="I194" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J194" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D195" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E195" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F195" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G195" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I195" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J195" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D196" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E196" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F196" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G196" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I196" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J196" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D197" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E197" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F197" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G197" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I197" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B198" t="s">
         <v>24</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D198" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E198" t="s">
         <v>27</v>
       </c>
       <c r="F198" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I198" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J198" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B199" t="s">
         <v>24</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D199" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E199" t="s">
         <v>27</v>
       </c>
       <c r="F199" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G199" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I199" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J199" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>20</v>
+      </c>
+      <c r="D200" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" t="s">
+        <v>26</v>
+      </c>
+      <c r="G200" t="s">
         <v>24</v>
       </c>
-      <c r="C200" t="s">
+      <c r="H200" t="s">
         <v>25</v>
       </c>
-      <c r="D200" t="s">
-        <v>109</v>
-      </c>
-      <c r="E200" t="s">
-        <v>27</v>
-      </c>
-      <c r="F200" t="s">
-        <v>26</v>
-      </c>
-      <c r="G200" t="s">
-        <v>11</v>
-      </c>
-      <c r="H200" t="s">
-        <v>20</v>
-      </c>
       <c r="I200" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J200" t="s">
         <v>26</v>
@@ -7931,31 +7943,31 @@
     </row>
     <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" t="s">
+        <v>26</v>
+      </c>
+      <c r="G201" t="s">
         <v>24</v>
       </c>
-      <c r="C201" t="s">
+      <c r="H201" t="s">
         <v>25</v>
       </c>
-      <c r="D201" t="s">
-        <v>109</v>
-      </c>
-      <c r="E201" t="s">
-        <v>27</v>
-      </c>
-      <c r="F201" t="s">
-        <v>26</v>
-      </c>
-      <c r="G201" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" t="s">
-        <v>20</v>
-      </c>
       <c r="I201" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J201" t="s">
         <v>26</v>
@@ -7963,66 +7975,66 @@
     </row>
     <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" t="s">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
         <v>24</v>
       </c>
-      <c r="C202" t="s">
-        <v>98</v>
-      </c>
-      <c r="D202" t="s">
-        <v>193</v>
-      </c>
-      <c r="E202" t="s">
-        <v>27</v>
-      </c>
-      <c r="F202" t="s">
-        <v>77</v>
-      </c>
-      <c r="G202" t="s">
-        <v>14</v>
-      </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I202" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J202" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B203" t="s">
         <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D203" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="E203" t="s">
         <v>27</v>
       </c>
       <c r="F203" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G203" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H203" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I203" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J203" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -8033,106 +8045,106 @@
         <v>24</v>
       </c>
       <c r="C204" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D204" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="E204" t="s">
         <v>27</v>
       </c>
       <c r="F204" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G204" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I204" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J204" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B205" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" t="s">
+        <v>109</v>
+      </c>
+      <c r="E205" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
         <v>11</v>
       </c>
-      <c r="C205" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205" t="s">
-        <v>168</v>
-      </c>
-      <c r="E205" t="s">
-        <v>15</v>
-      </c>
-      <c r="F205" t="s">
-        <v>16</v>
-      </c>
-      <c r="G205" t="s">
-        <v>14</v>
-      </c>
       <c r="H205" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I205" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J205" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B206" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C206" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D206" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="E206" t="s">
         <v>27</v>
       </c>
       <c r="F206" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G206" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I206" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J206" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C207" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="D207" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E207" t="s">
         <v>27</v>
@@ -8155,16 +8167,16 @@
     </row>
     <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B208" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C208" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="D208" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="E208" t="s">
         <v>27</v>
@@ -8187,22 +8199,22 @@
     </row>
     <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="E209" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G209" t="s">
         <v>14</v>
@@ -8219,16 +8231,16 @@
     </row>
     <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
@@ -8254,19 +8266,19 @@
         <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C211" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D211" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="E211" t="s">
         <v>27</v>
       </c>
       <c r="F211" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G211" t="s">
         <v>14</v>
@@ -8286,19 +8298,19 @@
         <v>17</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C212" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D212" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="E212" t="s">
         <v>27</v>
       </c>
       <c r="F212" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G212" t="s">
         <v>14</v>
@@ -8315,22 +8327,22 @@
     </row>
     <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B213" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C213" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D213" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E213" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G213" t="s">
         <v>14</v>
@@ -8347,16 +8359,16 @@
     </row>
     <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B214" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D214" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="E214" t="s">
         <v>15</v>
@@ -8379,16 +8391,16 @@
     </row>
     <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D215" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="E215" t="s">
         <v>15</v>
@@ -8411,22 +8423,22 @@
     </row>
     <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C216" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="D216" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="E216" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F216" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G216" t="s">
         <v>14</v>
@@ -8443,22 +8455,22 @@
     </row>
     <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B217" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C217" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="D217" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E217" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F217" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G217" t="s">
         <v>14</v>
@@ -8478,13 +8490,13 @@
         <v>10</v>
       </c>
       <c r="B218" t="s">
+        <v>160</v>
+      </c>
+      <c r="C218" t="s">
         <v>161</v>
       </c>
-      <c r="C218" t="s">
-        <v>165</v>
-      </c>
       <c r="D218" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E218" t="s">
         <v>15</v>
@@ -8510,13 +8522,13 @@
         <v>10</v>
       </c>
       <c r="B219" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219" t="s">
         <v>161</v>
       </c>
-      <c r="C219" t="s">
-        <v>165</v>
-      </c>
       <c r="D219" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -8539,16 +8551,16 @@
     </row>
     <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="B220" t="s">
+        <v>160</v>
+      </c>
+      <c r="C220" t="s">
         <v>161</v>
       </c>
-      <c r="C220" t="s">
-        <v>165</v>
-      </c>
       <c r="D220" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E220" t="s">
         <v>15</v>
@@ -8571,16 +8583,16 @@
     </row>
     <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B221" t="s">
+        <v>160</v>
+      </c>
+      <c r="C221" t="s">
         <v>161</v>
       </c>
-      <c r="C221" t="s">
-        <v>166</v>
-      </c>
       <c r="D221" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E221" t="s">
         <v>15</v>
@@ -8606,13 +8618,13 @@
         <v>10</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="D222" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="E222" t="s">
         <v>15</v>
@@ -8638,13 +8650,13 @@
         <v>10</v>
       </c>
       <c r="B223" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="C223" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D223" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E223" t="s">
         <v>15</v>
@@ -8670,13 +8682,13 @@
         <v>10</v>
       </c>
       <c r="B224" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="C224" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D224" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E224" t="s">
         <v>15</v>
@@ -8699,16 +8711,34 @@
     </row>
     <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B225" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C225" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D225" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="E225" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" t="s">
+        <v>16</v>
+      </c>
+      <c r="G225" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" t="s">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -8716,13 +8746,13 @@
         <v>10</v>
       </c>
       <c r="B226" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="C226" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D226" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E226" t="s">
         <v>15</v>
@@ -8748,13 +8778,13 @@
         <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="D227" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="E227" t="s">
         <v>15</v>
@@ -8775,7 +8805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -8786,40 +8816,214 @@
         <v>140</v>
       </c>
       <c r="D228" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E228" t="s">
         <v>15</v>
       </c>
       <c r="F228" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>41</v>
+      </c>
+      <c r="C229" t="s">
+        <v>140</v>
+      </c>
+      <c r="D229" t="s">
+        <v>144</v>
+      </c>
+      <c r="E229" t="s">
+        <v>15</v>
+      </c>
+      <c r="F229" t="s">
+        <v>16</v>
+      </c>
+      <c r="G229" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>160</v>
+      </c>
+      <c r="C230" t="s">
+        <v>164</v>
+      </c>
+      <c r="D230" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>41</v>
+      </c>
+      <c r="C231" t="s">
+        <v>140</v>
+      </c>
+      <c r="D231" t="s">
+        <v>141</v>
+      </c>
+      <c r="E231" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" t="s">
+        <v>16</v>
+      </c>
+      <c r="G231" t="s">
+        <v>14</v>
+      </c>
+      <c r="H231" t="s">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>14</v>
+      </c>
+      <c r="J231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>41</v>
+      </c>
+      <c r="C232" t="s">
+        <v>140</v>
+      </c>
+      <c r="D232" t="s">
+        <v>142</v>
+      </c>
+      <c r="E232" t="s">
+        <v>15</v>
+      </c>
+      <c r="F232" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>41</v>
+      </c>
+      <c r="C233" t="s">
+        <v>140</v>
+      </c>
+      <c r="D233" t="s">
+        <v>145</v>
+      </c>
+      <c r="E233" t="s">
+        <v>15</v>
+      </c>
+      <c r="F233" t="s">
         <v>77</v>
       </c>
-      <c r="G228" t="s">
-        <v>14</v>
-      </c>
-      <c r="H228" t="s">
-        <v>14</v>
-      </c>
-      <c r="I228" t="s">
-        <v>14</v>
-      </c>
-      <c r="J228" t="s">
+      <c r="G233" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>14</v>
+      </c>
+      <c r="J233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>90</v>
+      </c>
+      <c r="C234" t="s">
+        <v>94</v>
+      </c>
+      <c r="D234" t="s">
+        <v>205</v>
+      </c>
+      <c r="E234" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J228" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J234" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Crop Yields"/>
+        <filter val="Pests"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J222">
-      <sortCondition ref="D1:D224"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J227">
+      <sortCondition ref="D1:D229"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:J246">
-    <sortCondition ref="D2:D246"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:J251">
+    <sortCondition ref="D2:D251"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E393F7-7E75-4DF7-85FA-92434B9BAAFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62013D-957C-4A28-90D4-2E1A52D55819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="210">
   <si>
     <t>Review</t>
   </si>
@@ -1524,9 +1524,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C180" sqref="C180:D180"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6341,7 +6341,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>171</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>171</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>171</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>171</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>10</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>10</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>171</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>171</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>10</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>17</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>10</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>17</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>171</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>171</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>171</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>10</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>10</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>10</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>10</v>
       </c>
@@ -8882,8 +8882,26 @@
       <c r="D230" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E230" t="s">
+        <v>15</v>
+      </c>
+      <c r="F230" t="s">
+        <v>77</v>
+      </c>
+      <c r="G230" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -8915,7 +8933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>10</v>
       </c>
@@ -8947,7 +8965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -9015,7 +9033,7 @@
   <autoFilter ref="A1:J234" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Pests"/>
+        <filter val="Water Quality"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J227">

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E6A887-D9F9-43EF-8945-D6ACDEDA9C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA4668C-2AD3-4311-A37A-6979E3319629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39720" yWindow="1845" windowWidth="24885" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1488,8 +1488,8 @@
   <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA4668C-2AD3-4311-A37A-6979E3319629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FFFD39-7DC8-4EFD-A74A-F79CC80D2E59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39720" yWindow="1845" windowWidth="24885" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$226</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="198">
   <si>
     <t>Review</t>
   </si>
@@ -1485,11 +1485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,10 +1544,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1576,10 +1576,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1698,16 +1698,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1730,34 +1730,34 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1771,13 +1771,13 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1789,7 +1789,7 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1800,28 +1800,28 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1832,28 +1832,28 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1864,10 +1864,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1899,7 +1899,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -1931,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1963,7 +1963,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1986,34 +1986,34 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2024,60 +2024,60 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -2088,10 +2088,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -2152,10 +2152,10 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -2181,13 +2181,13 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -2196,16 +2196,16 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -2216,33 +2216,33 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2315,7 +2315,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2379,7 +2379,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2411,13 +2411,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -2443,13 +2443,13 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -2539,7 +2539,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -2603,7 +2603,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -2626,16 +2626,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -2699,7 +2699,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -2731,7 +2731,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
@@ -2760,10 +2760,10 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -2792,10 +2792,10 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -2818,22 +2818,22 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -2859,13 +2859,13 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -2891,13 +2891,13 @@
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -2955,7 +2955,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -2987,13 +2987,13 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -3019,7 +3019,7 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -3051,7 +3051,7 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -3115,13 +3115,13 @@
         <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -3153,7 +3153,7 @@
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -3179,7 +3179,7 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
@@ -3211,7 +3211,7 @@
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -3240,10 +3240,10 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
@@ -3266,22 +3266,22 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
@@ -3307,7 +3307,7 @@
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -3330,22 +3330,22 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -3362,16 +3362,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -3394,12 +3394,12 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D60" t="s">
@@ -3426,7 +3426,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -3458,16 +3458,16 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
@@ -3499,7 +3499,7 @@
         <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -3531,7 +3531,7 @@
         <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -3563,7 +3563,7 @@
         <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -3595,7 +3595,7 @@
         <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -3627,7 +3627,7 @@
         <v>55</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3659,7 +3659,7 @@
         <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -3687,11 +3687,11 @@
       <c r="B69" t="s">
         <v>26</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -3778,16 +3778,16 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3819,7 +3819,7 @@
         <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3851,7 +3851,7 @@
         <v>55</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -3883,7 +3883,7 @@
         <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -3911,11 +3911,11 @@
       <c r="B76" t="s">
         <v>26</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -3947,7 +3947,7 @@
         <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -3975,11 +3975,11 @@
       <c r="B78" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -4011,7 +4011,7 @@
         <v>55</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -4039,11 +4039,11 @@
       <c r="B80" t="s">
         <v>26</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -4130,16 +4130,16 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>55</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -4171,7 +4171,7 @@
         <v>55</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4194,34 +4194,34 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" t="s">
-        <v>95</v>
+        <v>26</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D85" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
@@ -4232,28 +4232,28 @@
         <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4267,13 +4267,13 @@
         <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
         <v>13</v>
@@ -4299,13 +4299,13 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
         <v>13</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
         <v>56</v>
@@ -4331,13 +4331,13 @@
         <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G89" t="s">
         <v>13</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
         <v>56</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
         <v>56</v>
@@ -4395,7 +4395,7 @@
         <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -4416,9 +4416,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
         <v>56</v>
@@ -4448,82 +4448,82 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" t="s">
         <v>57</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="G94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>16</v>
       </c>
-      <c r="B94" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D94" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>56</v>
       </c>
       <c r="C95" t="s">
         <v>59</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
@@ -4531,24 +4531,24 @@
       <c r="F95" t="s">
         <v>22</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="1" t="s">
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>16</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="A96" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C96" t="s">
@@ -4563,22 +4563,22 @@
       <c r="F96" t="s">
         <v>22</v>
       </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="G96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s">
         <v>56</v>
@@ -4587,7 +4587,7 @@
         <v>59</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -4616,16 +4616,16 @@
         <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
@@ -4642,19 +4642,19 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D99" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
         <v>50</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -4683,7 +4683,7 @@
         <v>60</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="E100" t="s">
         <v>23</v>
@@ -4715,7 +4715,7 @@
         <v>60</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E101" t="s">
         <v>23</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -4811,7 +4811,7 @@
         <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
@@ -4866,16 +4866,16 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
         <v>23</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
@@ -4939,7 +4939,7 @@
         <v>62</v>
       </c>
       <c r="D108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E108" t="s">
         <v>23</v>
@@ -4971,13 +4971,13 @@
         <v>62</v>
       </c>
       <c r="D109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E109" t="s">
         <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G109" t="s">
         <v>13</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
@@ -5067,7 +5067,7 @@
         <v>62</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E112" t="s">
         <v>23</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
@@ -5131,13 +5131,13 @@
         <v>62</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E114" t="s">
         <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G114" t="s">
         <v>13</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
@@ -5163,13 +5163,13 @@
         <v>62</v>
       </c>
       <c r="D115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E115" t="s">
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G115" t="s">
         <v>13</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -5227,7 +5227,7 @@
         <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E117" t="s">
         <v>23</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
@@ -5291,7 +5291,7 @@
         <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="E119" t="s">
         <v>23</v>
@@ -5300,21 +5300,21 @@
         <v>50</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -5346,34 +5346,34 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="E121" t="s">
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -5387,7 +5387,7 @@
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E122" t="s">
         <v>23</v>
@@ -5396,16 +5396,16 @@
         <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J122" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -5419,7 +5419,7 @@
         <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
@@ -5428,21 +5428,21 @@
         <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I123" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J123" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
@@ -5451,13 +5451,13 @@
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="E124" t="s">
         <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
         <v>13</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -5547,30 +5547,30 @@
         <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J127" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
@@ -5579,7 +5579,7 @@
         <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
@@ -5666,39 +5666,39 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E131" t="s">
         <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I131" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
@@ -5707,13 +5707,13 @@
         <v>65</v>
       </c>
       <c r="D132" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G132" t="s">
         <v>13</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
@@ -5739,7 +5739,7 @@
         <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="E133" t="s">
         <v>23</v>
@@ -5748,21 +5748,21 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -5780,21 +5780,21 @@
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="I134" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J134" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
         <v>20</v>
@@ -5835,13 +5835,13 @@
         <v>65</v>
       </c>
       <c r="D136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E136" t="s">
         <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G136" t="s">
         <v>13</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
@@ -5896,13 +5896,13 @@
         <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E138" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F138" t="s">
         <v>22</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B139" t="s">
         <v>20</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
         <v>20</v>
@@ -5995,7 +5995,7 @@
         <v>66</v>
       </c>
       <c r="D141" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E141" t="s">
         <v>19</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B142" t="s">
         <v>20</v>
@@ -6050,22 +6050,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D143" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G143" t="s">
         <v>13</v>
@@ -6088,10 +6088,10 @@
         <v>28</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D144" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -6100,16 +6100,16 @@
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
@@ -6123,7 +6123,7 @@
         <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -6144,7 +6144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>27</v>
       </c>
       <c r="D146" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -6176,7 +6176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>27</v>
       </c>
       <c r="D147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -6219,7 +6219,7 @@
         <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
         <v>28</v>
@@ -6251,7 +6251,7 @@
         <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -6274,16 +6274,16 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B150" t="s">
         <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -6292,16 +6292,16 @@
         <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
@@ -6315,7 +6315,7 @@
         <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -6347,7 +6347,7 @@
         <v>29</v>
       </c>
       <c r="D152" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -6379,7 +6379,7 @@
         <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -6411,7 +6411,7 @@
         <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
         <v>28</v>
@@ -6443,7 +6443,7 @@
         <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B156" t="s">
         <v>28</v>
@@ -6475,7 +6475,7 @@
         <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -6498,34 +6498,34 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
         <v>28</v>
       </c>
       <c r="C157" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I157" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
@@ -6539,7 +6539,7 @@
         <v>71</v>
       </c>
       <c r="D158" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
@@ -6548,21 +6548,21 @@
         <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I158" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B159" t="s">
         <v>28</v>
@@ -6571,13 +6571,13 @@
         <v>71</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G159" t="s">
         <v>13</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
         <v>28</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B161" t="s">
         <v>28</v>
@@ -6635,25 +6635,25 @@
         <v>71</v>
       </c>
       <c r="D161" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="E161" t="s">
         <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I161" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
@@ -6667,13 +6667,13 @@
         <v>71</v>
       </c>
       <c r="D162" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G162" t="s">
         <v>20</v>
@@ -6685,12 +6685,12 @@
         <v>23</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
         <v>28</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B164" t="s">
         <v>28</v>
@@ -6731,7 +6731,7 @@
         <v>71</v>
       </c>
       <c r="D164" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B165" t="s">
         <v>28</v>
@@ -6769,7 +6769,7 @@
         <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G165" t="s">
         <v>20</v>
@@ -6781,12 +6781,12 @@
         <v>23</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B166" t="s">
         <v>28</v>
@@ -6795,13 +6795,13 @@
         <v>71</v>
       </c>
       <c r="D166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E166" t="s">
         <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G166" t="s">
         <v>20</v>
@@ -6813,12 +6813,12 @@
         <v>23</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
         <v>28</v>
@@ -6859,7 +6859,7 @@
         <v>71</v>
       </c>
       <c r="D168" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="E168" t="s">
         <v>23</v>
@@ -6880,9 +6880,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B169" t="s">
         <v>28</v>
@@ -6891,88 +6891,88 @@
         <v>71</v>
       </c>
       <c r="D169" t="s">
+        <v>99</v>
+      </c>
+      <c r="E169" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" t="s">
+        <v>13</v>
+      </c>
+      <c r="J169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" t="s">
+        <v>71</v>
+      </c>
+      <c r="D170" t="s">
         <v>184</v>
       </c>
-      <c r="E169" t="s">
-        <v>23</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="E170" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" t="s">
         <v>15</v>
       </c>
-      <c r="G169" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" t="s">
-        <v>13</v>
-      </c>
-      <c r="I169" t="s">
-        <v>13</v>
-      </c>
-      <c r="J169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>50</v>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F171" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J171" s="3" t="s">
+      <c r="F171" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6987,13 +6987,13 @@
         <v>73</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>50</v>
+      <c r="F172" t="s">
+        <v>22</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>13</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="173" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>28</v>
@@ -7019,13 +7019,13 @@
         <v>73</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>50</v>
+      <c r="F173" t="s">
+        <v>22</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>13</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="174" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>28</v>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="175" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>28</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="176" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>28</v>
@@ -7115,7 +7115,7 @@
         <v>73</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>23</v>
@@ -7124,21 +7124,21 @@
         <v>50</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>28</v>
@@ -7152,8 +7152,8 @@
       <c r="E177" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F177" s="3" t="s">
-        <v>50</v>
+      <c r="F177" t="s">
+        <v>22</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>20</v>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="178" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>28</v>
@@ -7184,8 +7184,8 @@
       <c r="E178" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>50</v>
+      <c r="F178" t="s">
+        <v>22</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>20</v>
@@ -7200,67 +7200,67 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F179" t="s">
         <v>22</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>10</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="A180" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E180" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" t="s">
-        <v>13</v>
-      </c>
-      <c r="J180" t="s">
+      <c r="E180" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J180" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7274,8 +7274,8 @@
       <c r="C181" t="s">
         <v>76</v>
       </c>
-      <c r="D181" t="s">
-        <v>187</v>
+      <c r="D181" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E181" t="s">
         <v>19</v>
@@ -7298,22 +7298,22 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
         <v>28</v>
       </c>
       <c r="C182" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D182" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E182" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G182" t="s">
         <v>13</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B183" t="s">
         <v>28</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
         <v>28</v>
@@ -7371,7 +7371,7 @@
         <v>77</v>
       </c>
       <c r="D184" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B185" t="s">
         <v>28</v>
@@ -7435,7 +7435,7 @@
         <v>77</v>
       </c>
       <c r="D186" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -7467,7 +7467,7 @@
         <v>77</v>
       </c>
       <c r="D187" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
         <v>28</v>
@@ -7499,13 +7499,13 @@
         <v>77</v>
       </c>
       <c r="D188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G188" t="s">
         <v>13</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B189" t="s">
         <v>28</v>
@@ -7554,22 +7554,22 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C190" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D190" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G190" t="s">
         <v>13</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B191" t="s">
         <v>80</v>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B192" t="s">
         <v>80</v>
@@ -7627,7 +7627,7 @@
         <v>113</v>
       </c>
       <c r="D192" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B193" t="s">
         <v>80</v>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B194" t="s">
         <v>80</v>
@@ -7691,7 +7691,7 @@
         <v>113</v>
       </c>
       <c r="D194" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="E194" t="s">
         <v>19</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B195" t="s">
         <v>80</v>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
         <v>80</v>
@@ -7778,22 +7778,22 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B197" t="s">
         <v>80</v>
       </c>
       <c r="C197" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D197" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="E197" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F197" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G197" t="s">
         <v>13</v>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B198" t="s">
         <v>80</v>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B199" t="s">
         <v>80</v>
@@ -7851,7 +7851,7 @@
         <v>84</v>
       </c>
       <c r="D199" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B200" t="s">
         <v>80</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
         <v>80</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B202" t="s">
         <v>80</v>
@@ -7947,7 +7947,7 @@
         <v>84</v>
       </c>
       <c r="D202" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -7970,7 +7970,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B203" t="s">
         <v>80</v>
@@ -8002,7 +8002,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B204" t="s">
         <v>80</v>
@@ -8011,13 +8011,13 @@
         <v>84</v>
       </c>
       <c r="D204" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="E204" t="s">
         <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G204" t="s">
         <v>13</v>
@@ -8043,13 +8043,13 @@
         <v>84</v>
       </c>
       <c r="D205" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E205" t="s">
         <v>23</v>
       </c>
       <c r="F205" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G205" t="s">
         <v>13</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
         <v>80</v>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B207" t="s">
         <v>80</v>
@@ -8130,16 +8130,16 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B208" t="s">
         <v>80</v>
       </c>
       <c r="C208" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D208" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="E208" t="s">
         <v>23</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
         <v>80</v>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B210" t="s">
         <v>80</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B211" t="s">
         <v>80</v>
@@ -8235,13 +8235,13 @@
         <v>85</v>
       </c>
       <c r="D211" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="E211" t="s">
         <v>23</v>
       </c>
       <c r="F211" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G211" t="s">
         <v>13</v>
@@ -8267,13 +8267,13 @@
         <v>85</v>
       </c>
       <c r="D212" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G212" t="s">
         <v>13</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
         <v>80</v>
@@ -8305,7 +8305,7 @@
         <v>23</v>
       </c>
       <c r="F213" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G213" t="s">
         <v>13</v>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B214" t="s">
         <v>80</v>
@@ -8337,7 +8337,7 @@
         <v>23</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G214" t="s">
         <v>13</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B215" t="s">
         <v>80</v>
@@ -8363,13 +8363,13 @@
         <v>85</v>
       </c>
       <c r="D215" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="E215" t="s">
         <v>23</v>
       </c>
       <c r="F215" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G215" t="s">
         <v>13</v>
@@ -8389,16 +8389,16 @@
         <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C216" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D216" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="E216" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F216" t="s">
         <v>15</v>
@@ -8427,7 +8427,7 @@
         <v>89</v>
       </c>
       <c r="D217" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
@@ -8450,7 +8450,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B218" t="s">
         <v>88</v>
@@ -8482,7 +8482,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B219" t="s">
         <v>88</v>
@@ -8514,22 +8514,22 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B220" t="s">
         <v>88</v>
       </c>
       <c r="C220" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D220" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G220" t="s">
         <v>13</v>
@@ -8555,13 +8555,13 @@
         <v>91</v>
       </c>
       <c r="D221" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
       </c>
       <c r="F221" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G221" t="s">
         <v>13</v>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B222" t="s">
         <v>88</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B223" t="s">
         <v>88</v>
@@ -8619,7 +8619,7 @@
         <v>91</v>
       </c>
       <c r="D223" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
@@ -8651,7 +8651,7 @@
         <v>91</v>
       </c>
       <c r="D224" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
@@ -8680,10 +8680,10 @@
         <v>88</v>
       </c>
       <c r="C225" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D225" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
@@ -8704,14 +8704,46 @@
         <v>13</v>
       </c>
     </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>88</v>
+      </c>
+      <c r="C226" t="s">
+        <v>92</v>
+      </c>
+      <c r="D226" t="s">
+        <v>196</v>
+      </c>
+      <c r="E226" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" t="s">
+        <v>13</v>
+      </c>
+      <c r="J226" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J225" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J222">
-      <sortCondition ref="B1:B225"/>
+  <autoFilter ref="A1:J226" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
+      <sortCondition ref="D1:D226"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:J242">
-    <sortCondition ref="D2:D242"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J243">
+    <sortCondition ref="D2:D243"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FFFD39-7DC8-4EFD-A74A-F79CC80D2E59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B308CB3E-03FC-462A-89BC-C71225592852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29025" yWindow="30" windowWidth="28290" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
@@ -1488,8 +1488,8 @@
   <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F6"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5329,7 +5329,7 @@
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -5341,7 +5341,7 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
@@ -5361,7 +5361,7 @@
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -5373,7 +5373,7 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B308CB3E-03FC-462A-89BC-C71225592852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EACA05-621E-4B09-995A-963FDF205D36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29025" yWindow="30" windowWidth="28290" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="199">
   <si>
     <t>Review</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>Phosphorus decomposition rate of buried residues</t>
+  </si>
+  <si>
+    <t>Yield Losses</t>
   </si>
 </sst>
 </file>
@@ -1485,11 +1488,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1536,7 +1540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1696,7 +1700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1984,7 +1988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2432,7 +2436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2656,7 +2660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2848,7 +2852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3072,7 +3076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -3328,7 +3332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3840,7 +3844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -4160,7 +4164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -4648,16 +4652,16 @@
         <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
         <v>153</v>
       </c>
-      <c r="E99" t="s">
-        <v>19</v>
+      <c r="E99" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
         <v>13</v>
@@ -4672,7 +4676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -4736,7 +4740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>93</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>93</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>93</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>93</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -5184,7 +5188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>93</v>
       </c>
@@ -5248,7 +5252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>93</v>
       </c>
@@ -5312,7 +5316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>93</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>93</v>
       </c>
@@ -5536,7 +5540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -5568,7 +5572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>93</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -5632,7 +5636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>93</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>93</v>
       </c>
@@ -5824,7 +5828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -5952,7 +5956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>93</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>93</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>93</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -6464,7 +6468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -6528,7 +6532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>93</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>93</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>93</v>
       </c>
@@ -6656,7 +6660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>93</v>
       </c>
@@ -6752,7 +6756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>93</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>93</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>93</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -6944,7 +6948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>93</v>
       </c>
@@ -6976,7 +6980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>10</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>10</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>93</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>10</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>16</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>93</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>10</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>16</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>93</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -7296,7 +7300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -7328,7 +7332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -7392,7 +7396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -7488,7 +7492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -7552,7 +7556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>93</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>93</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -7744,7 +7748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>93</v>
       </c>
@@ -7808,7 +7812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>93</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -7936,7 +7940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>93</v>
       </c>
@@ -7968,7 +7972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>16</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>93</v>
       </c>
@@ -8032,7 +8036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -8096,7 +8100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>16</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>93</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>10</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -8224,7 +8228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>93</v>
       </c>
@@ -8256,7 +8260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>10</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -8352,7 +8356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>93</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -8416,7 +8420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -8448,7 +8452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>93</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -8576,7 +8580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>93</v>
       </c>
@@ -8640,7 +8644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -8704,7 +8708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>10</v>
       </c>
@@ -8738,6 +8742,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J226" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Economics"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
       <sortCondition ref="D1:D226"/>
     </sortState>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA4668C-2AD3-4311-A37A-6979E3319629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD201797-E5D7-4409-BB54-CD14105623A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39720" yWindow="1845" windowWidth="24885" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="199">
   <si>
     <t>Review</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>Phosphorus decomposition rate of buried residues</t>
+  </si>
+  <si>
+    <t>Yield losses</t>
   </si>
 </sst>
 </file>
@@ -1485,11 +1488,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1536,7 +1540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1696,7 +1700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1984,7 +1988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2432,7 +2436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -2848,7 +2852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3072,7 +3076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -3328,7 +3332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3840,7 +3844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4160,7 +4164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -4616,16 +4620,16 @@
         <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="D98" t="s">
         <v>153</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
@@ -4640,7 +4644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -4736,7 +4740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>93</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>93</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>93</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>93</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>93</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -5184,7 +5188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>93</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -5248,7 +5252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -5312,7 +5316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>93</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>93</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -5536,7 +5540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>93</v>
       </c>
@@ -5568,7 +5572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -5632,7 +5636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>93</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>93</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -5824,7 +5828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>93</v>
       </c>
@@ -5952,7 +5956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>93</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>16</v>
       </c>
@@ -6464,7 +6468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>93</v>
       </c>
@@ -6528,7 +6532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>93</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>93</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -6656,7 +6660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>93</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -6752,7 +6756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>93</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>93</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>93</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>93</v>
       </c>
@@ -6944,7 +6948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>10</v>
       </c>
@@ -6976,7 +6980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>10</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>93</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>10</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>16</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>93</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>10</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>16</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>93</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -7296,7 +7300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -7328,7 +7332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -7392,7 +7396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -7488,7 +7492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -7552,7 +7556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>93</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>16</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>93</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -7744,7 +7748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>93</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -7808,7 +7812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>93</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>93</v>
       </c>
@@ -7936,7 +7940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>16</v>
       </c>
@@ -7968,7 +7972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>93</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -8032,7 +8036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -8096,7 +8100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>93</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>10</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>16</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>93</v>
       </c>
@@ -8224,7 +8228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -8256,7 +8260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>93</v>
       </c>
@@ -8352,7 +8356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>10</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -8416,7 +8420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -8448,7 +8452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>93</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -8576,7 +8580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>93</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>10</v>
       </c>
@@ -8640,7 +8644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>10</v>
       </c>
@@ -8706,6 +8710,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J225" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Economics"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J222">
       <sortCondition ref="B1:B225"/>
     </sortState>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub2\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD201797-E5D7-4409-BB54-CD14105623A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91891A18-3364-4909-A9C4-28958A7BB453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="194">
   <si>
     <t>Review</t>
   </si>
@@ -456,21 +456,9 @@
     <t>Grain selenium content</t>
   </si>
   <si>
-    <t>Cowpea (LER)</t>
-  </si>
-  <si>
     <t>French bean</t>
   </si>
   <si>
-    <t>Maize (LER)</t>
-  </si>
-  <si>
-    <t>Potato (LER)</t>
-  </si>
-  <si>
-    <t>Sorghum (LER)</t>
-  </si>
-  <si>
     <t>Sweet potato</t>
   </si>
   <si>
@@ -628,9 +616,6 @@
   </si>
   <si>
     <t>Phosphorus decomposition rate of buried residues</t>
-  </si>
-  <si>
-    <t>Yield losses</t>
   </si>
 </sst>
 </file>
@@ -1488,12 +1473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J225"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1540,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1548,10 +1532,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1572,7 +1556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1580,10 +1564,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1604,9 +1588,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1615,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1636,9 +1620,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1647,7 +1631,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1668,9 +1652,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1679,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1700,18 +1684,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1732,39 +1716,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1775,13 +1759,13 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1793,10 +1777,10 @@
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1804,31 +1788,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1836,31 +1820,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1868,10 +1852,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1892,7 +1876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -1903,7 +1887,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -1924,7 +1908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1935,7 +1919,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -1956,9 +1940,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1967,7 +1951,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1988,39 +1972,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2028,63 +2012,63 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2092,10 +2076,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2116,9 +2100,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -2148,7 +2132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2156,10 +2140,10 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -2180,18 +2164,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -2200,19 +2184,19 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2220,33 +2204,33 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -2276,9 +2260,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2308,9 +2292,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2319,7 +2303,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -2340,9 +2324,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2372,9 +2356,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2383,7 +2367,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -2404,9 +2388,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2415,13 +2399,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -2436,7 +2420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2447,13 +2431,13 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -2468,9 +2452,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2500,9 +2484,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -2532,9 +2516,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -2543,7 +2527,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
@@ -2564,9 +2548,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -2596,9 +2580,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -2607,7 +2591,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -2628,18 +2612,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -2660,18 +2644,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -2692,7 +2676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2703,7 +2687,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -2724,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2735,7 +2719,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
@@ -2756,7 +2740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2764,10 +2748,10 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -2788,7 +2772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2796,10 +2780,10 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -2820,24 +2804,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -2852,7 +2836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2863,13 +2847,13 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -2884,7 +2868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2895,13 +2879,13 @@
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -2916,9 +2900,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -2948,7 +2932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2959,7 +2943,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -2980,7 +2964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2991,13 +2975,13 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -3012,7 +2996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3023,7 +3007,7 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
@@ -3044,9 +3028,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -3055,7 +3039,7 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
@@ -3076,9 +3060,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -3108,9 +3092,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -3119,13 +3103,13 @@
         <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
@@ -3140,9 +3124,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -3157,7 +3141,7 @@
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -3172,9 +3156,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -3183,7 +3167,7 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
@@ -3204,7 +3188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -3215,7 +3199,7 @@
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -3236,7 +3220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -3244,10 +3228,10 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
@@ -3268,24 +3252,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
@@ -3300,7 +3284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -3311,7 +3295,7 @@
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -3332,24 +3316,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -3364,18 +3348,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -3396,14 +3380,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D60" t="s">
@@ -3428,9 +3412,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -3460,18 +3444,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
@@ -3492,7 +3476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -3503,7 +3487,7 @@
         <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -3524,7 +3508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3535,7 +3519,7 @@
         <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -3556,7 +3540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3567,7 +3551,7 @@
         <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -3588,7 +3572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3599,7 +3583,7 @@
         <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -3620,7 +3604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3615,7 @@
         <v>55</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3652,7 +3636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3684,7 +3668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3716,7 +3700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -3748,7 +3732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -3780,7 +3764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3775,7 @@
         <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3812,7 +3796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3823,7 +3807,7 @@
         <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3844,7 +3828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3855,7 +3839,7 @@
         <v>55</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -3876,18 +3860,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -3908,18 +3892,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -3940,7 +3924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3951,7 +3935,7 @@
         <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -3972,18 +3956,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -4004,18 +3988,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>55</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -4036,18 +4020,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D80" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4068,18 +4052,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4100,53 +4084,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -4164,24 +4148,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C84" t="s">
+        <v>57</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
         <v>13</v>
@@ -4204,33 +4188,33 @@
         <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D85" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
         <v>56</v>
@@ -4239,13 +4223,13 @@
         <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
@@ -4271,7 +4255,7 @@
         <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -4294,7 +4278,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
         <v>56</v>
@@ -4303,13 +4287,13 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
         <v>13</v>
@@ -4324,9 +4308,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
         <v>56</v>
@@ -4335,7 +4319,7 @@
         <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -4356,35 +4340,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="90" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D90" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D90" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" t="s">
+      <c r="F90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4396,16 +4380,16 @@
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
@@ -4420,73 +4404,73 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="3" t="s">
+      <c r="C93" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>56</v>
@@ -4495,7 +4479,7 @@
         <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E94" t="s">
         <v>19</v>
@@ -4517,34 +4501,34 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
         <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4553,19 +4537,19 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
@@ -4585,19 +4569,19 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G97" t="s">
         <v>13</v>
@@ -4617,19 +4601,19 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
@@ -4644,7 +4628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -4655,7 +4639,7 @@
         <v>60</v>
       </c>
       <c r="D99" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="E99" t="s">
         <v>23</v>
@@ -4676,9 +4660,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -4687,7 +4671,7 @@
         <v>60</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E100" t="s">
         <v>23</v>
@@ -4708,7 +4692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -4719,7 +4703,7 @@
         <v>60</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
         <v>23</v>
@@ -4740,9 +4724,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -4751,7 +4735,7 @@
         <v>60</v>
       </c>
       <c r="D102" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="E102" t="s">
         <v>23</v>
@@ -4772,18 +4756,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D103" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E103" t="s">
         <v>23</v>
@@ -4804,18 +4788,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D104" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -4836,18 +4820,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D105" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="E105" t="s">
         <v>23</v>
@@ -4868,9 +4852,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -4879,13 +4863,13 @@
         <v>62</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E106" t="s">
         <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G106" t="s">
         <v>13</v>
@@ -4900,9 +4884,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -4911,13 +4895,13 @@
         <v>62</v>
       </c>
       <c r="D107" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E107" t="s">
         <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G107" t="s">
         <v>13</v>
@@ -4932,9 +4916,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
@@ -4943,13 +4927,13 @@
         <v>62</v>
       </c>
       <c r="D108" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
         <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G108" t="s">
         <v>13</v>
@@ -4964,9 +4948,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -4975,7 +4959,7 @@
         <v>62</v>
       </c>
       <c r="D109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E109" t="s">
         <v>23</v>
@@ -4996,9 +4980,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
@@ -5007,7 +4991,7 @@
         <v>62</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E110" t="s">
         <v>23</v>
@@ -5028,7 +5012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>93</v>
       </c>
@@ -5039,7 +5023,7 @@
         <v>62</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E111" t="s">
         <v>23</v>
@@ -5060,7 +5044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -5071,13 +5055,13 @@
         <v>62</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E112" t="s">
         <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
@@ -5092,7 +5076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>93</v>
       </c>
@@ -5103,13 +5087,13 @@
         <v>62</v>
       </c>
       <c r="D113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E113" t="s">
         <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
@@ -5124,9 +5108,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
@@ -5135,7 +5119,7 @@
         <v>62</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E114" t="s">
         <v>23</v>
@@ -5156,9 +5140,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
@@ -5167,7 +5151,7 @@
         <v>62</v>
       </c>
       <c r="D115" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E115" t="s">
         <v>23</v>
@@ -5188,9 +5172,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
@@ -5199,30 +5183,30 @@
         <v>62</v>
       </c>
       <c r="D116" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -5231,28 +5215,28 @@
         <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="E117" t="s">
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -5260,16 +5244,16 @@
         <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="E118" t="s">
         <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G118" t="s">
         <v>13</v>
@@ -5284,73 +5268,73 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="E119" t="s">
         <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
@@ -5359,13 +5343,13 @@
         <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E121" t="s">
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s">
         <v>13</v>
@@ -5380,7 +5364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -5391,30 +5375,30 @@
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="E122" t="s">
         <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J122" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
@@ -5423,13 +5407,13 @@
         <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G123" t="s">
         <v>13</v>
@@ -5444,9 +5428,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
@@ -5455,30 +5439,30 @@
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E124" t="s">
         <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I124" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
@@ -5487,30 +5471,30 @@
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I125" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
@@ -5519,28 +5503,28 @@
         <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="E126" t="s">
         <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I126" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>93</v>
       </c>
@@ -5551,7 +5535,7 @@
         <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
@@ -5572,105 +5556,105 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D128" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I128" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J128" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D129" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="E129" t="s">
         <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I129" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J129" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E130" t="s">
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H130" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
@@ -5679,13 +5663,13 @@
         <v>65</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E131" t="s">
         <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G131" t="s">
         <v>13</v>
@@ -5700,7 +5684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -5711,7 +5695,7 @@
         <v>65</v>
       </c>
       <c r="D132" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
@@ -5732,9 +5716,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
@@ -5743,30 +5727,30 @@
         <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E133" t="s">
         <v>23</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -5775,13 +5759,13 @@
         <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G134" t="s">
         <v>13</v>
@@ -5796,24 +5780,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B135" t="s">
         <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D135" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G135" t="s">
         <v>13</v>
@@ -5828,21 +5812,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D136" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E136" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F136" t="s">
         <v>22</v>
@@ -5860,21 +5844,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D137" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F137" t="s">
         <v>22</v>
@@ -5892,7 +5876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -5903,7 +5887,7 @@
         <v>66</v>
       </c>
       <c r="D138" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -5924,7 +5908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>93</v>
       </c>
@@ -5935,7 +5919,7 @@
         <v>66</v>
       </c>
       <c r="D139" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
@@ -5956,24 +5940,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D140" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="E140" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G140" t="s">
         <v>13</v>
@@ -5988,71 +5972,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C141" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D141" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E141" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C142" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E142" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -6060,10 +6044,10 @@
         <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D143" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="E143" t="s">
         <v>14</v>
@@ -6072,19 +6056,19 @@
         <v>15</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -6095,7 +6079,7 @@
         <v>27</v>
       </c>
       <c r="D144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -6116,7 +6100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -6127,7 +6111,7 @@
         <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -6148,9 +6132,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B146" t="s">
         <v>28</v>
@@ -6159,7 +6143,7 @@
         <v>27</v>
       </c>
       <c r="D146" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -6180,7 +6164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -6188,10 +6172,10 @@
         <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -6200,19 +6184,19 @@
         <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J147" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -6220,10 +6204,10 @@
         <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -6232,30 +6216,30 @@
         <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J148" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
         <v>28</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -6264,19 +6248,19 @@
         <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J149" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -6287,7 +6271,7 @@
         <v>29</v>
       </c>
       <c r="D150" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -6308,7 +6292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -6319,7 +6303,7 @@
         <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -6340,9 +6324,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B152" t="s">
         <v>28</v>
@@ -6351,7 +6335,7 @@
         <v>29</v>
       </c>
       <c r="D152" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -6372,7 +6356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -6383,7 +6367,7 @@
         <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -6404,24 +6388,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B154" t="s">
         <v>28</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D154" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="E154" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G154" t="s">
         <v>13</v>
@@ -6436,24 +6420,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B155" t="s">
         <v>28</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E155" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G155" t="s">
         <v>13</v>
@@ -6468,7 +6452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -6476,13 +6460,13 @@
         <v>28</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D156" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E156" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F156" t="s">
         <v>15</v>
@@ -6500,7 +6484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>93</v>
       </c>
@@ -6511,30 +6495,30 @@
         <v>71</v>
       </c>
       <c r="D157" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E157" t="s">
         <v>23</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I157" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B158" t="s">
         <v>28</v>
@@ -6543,7 +6527,7 @@
         <v>71</v>
       </c>
       <c r="D158" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
@@ -6561,10 +6545,10 @@
         <v>23</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -6575,28 +6559,28 @@
         <v>71</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I159" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>93</v>
       </c>
@@ -6607,28 +6591,28 @@
         <v>71</v>
       </c>
       <c r="D160" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I160" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -6639,13 +6623,13 @@
         <v>71</v>
       </c>
       <c r="D161" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E161" t="s">
         <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G161" t="s">
         <v>20</v>
@@ -6657,12 +6641,12 @@
         <v>23</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B162" t="s">
         <v>28</v>
@@ -6671,13 +6655,13 @@
         <v>71</v>
       </c>
       <c r="D162" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G162" t="s">
         <v>20</v>
@@ -6689,12 +6673,12 @@
         <v>23</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
         <v>28</v>
@@ -6703,7 +6687,7 @@
         <v>71</v>
       </c>
       <c r="D163" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E163" t="s">
         <v>23</v>
@@ -6724,9 +6708,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B164" t="s">
         <v>28</v>
@@ -6735,7 +6719,7 @@
         <v>71</v>
       </c>
       <c r="D164" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
@@ -6756,7 +6740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>93</v>
       </c>
@@ -6767,28 +6751,28 @@
         <v>71</v>
       </c>
       <c r="D165" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="E165" t="s">
         <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G165" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H165" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I165" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -6799,124 +6783,124 @@
         <v>71</v>
       </c>
       <c r="D166" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E166" t="s">
         <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G166" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I166" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D167" t="s">
-        <v>183</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="D167" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G167" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I167" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>93</v>
-      </c>
-      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C168" t="s">
-        <v>71</v>
-      </c>
-      <c r="D168" t="s">
-        <v>99</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="C168" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E168" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
-      </c>
-      <c r="G168" t="s">
-        <v>20</v>
-      </c>
-      <c r="H168" t="s">
-        <v>62</v>
-      </c>
-      <c r="I168" t="s">
-        <v>23</v>
-      </c>
-      <c r="J168" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>10</v>
-      </c>
-      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C169" t="s">
-        <v>71</v>
-      </c>
-      <c r="D169" t="s">
-        <v>184</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="C169" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E169" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" t="s">
-        <v>13</v>
-      </c>
-      <c r="I169" t="s">
-        <v>13</v>
-      </c>
-      <c r="J169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>93</v>
       </c>
@@ -6924,10 +6908,10 @@
         <v>28</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>23</v>
@@ -6945,10 +6929,10 @@
         <v>23</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>10</v>
       </c>
@@ -6959,7 +6943,7 @@
         <v>73</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>23</v>
@@ -6968,21 +6952,21 @@
         <v>50</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>28</v>
@@ -6991,7 +6975,7 @@
         <v>73</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>23</v>
@@ -7000,19 +6984,19 @@
         <v>50</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>93</v>
       </c>
@@ -7023,28 +7007,28 @@
         <v>73</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>50</v>
+      <c r="F173" t="s">
+        <v>22</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>10</v>
       </c>
@@ -7055,28 +7039,28 @@
         <v>73</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F174" s="3" t="s">
-        <v>50</v>
+      <c r="F174" t="s">
+        <v>22</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>16</v>
       </c>
@@ -7087,28 +7071,28 @@
         <v>73</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F175" s="3" t="s">
-        <v>50</v>
+      <c r="F175" t="s">
+        <v>22</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>93</v>
       </c>
@@ -7116,16 +7100,16 @@
         <v>28</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>20</v>
@@ -7140,24 +7124,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B177" s="3" t="s">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
         <v>28</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>73</v>
+      <c r="C177" t="s">
+        <v>76</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>50</v>
+        <v>182</v>
+      </c>
+      <c r="E177" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" t="s">
+        <v>22</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>20</v>
@@ -7172,24 +7156,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B178" s="3" t="s">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
         <v>28</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>50</v>
+      <c r="C178" t="s">
+        <v>76</v>
+      </c>
+      <c r="D178" t="s">
+        <v>183</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" t="s">
+        <v>22</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>20</v>
@@ -7204,39 +7188,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B179" s="3" t="s">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" t="s">
         <v>28</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J179" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C179" t="s">
+        <v>77</v>
+      </c>
+      <c r="D179" t="s">
+        <v>78</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+      <c r="I179" t="s">
+        <v>13</v>
+      </c>
+      <c r="J179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -7244,16 +7228,16 @@
         <v>28</v>
       </c>
       <c r="C180" t="s">
-        <v>76</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>186</v>
+        <v>77</v>
+      </c>
+      <c r="D180" t="s">
+        <v>78</v>
       </c>
       <c r="E180" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G180" t="s">
         <v>13</v>
@@ -7268,24 +7252,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B181" t="s">
         <v>28</v>
       </c>
       <c r="C181" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D181" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="E181" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G181" t="s">
         <v>13</v>
@@ -7300,9 +7284,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
         <v>28</v>
@@ -7311,7 +7295,7 @@
         <v>77</v>
       </c>
       <c r="D182" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
@@ -7332,7 +7316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -7343,7 +7327,7 @@
         <v>77</v>
       </c>
       <c r="D183" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
@@ -7364,9 +7348,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
         <v>28</v>
@@ -7375,7 +7359,7 @@
         <v>77</v>
       </c>
       <c r="D184" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
@@ -7396,9 +7380,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B185" t="s">
         <v>28</v>
@@ -7407,13 +7391,13 @@
         <v>77</v>
       </c>
       <c r="D185" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G185" t="s">
         <v>13</v>
@@ -7428,7 +7412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -7439,13 +7423,13 @@
         <v>77</v>
       </c>
       <c r="D186" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G186" t="s">
         <v>13</v>
@@ -7460,24 +7444,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C187" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D187" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="E187" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G187" t="s">
         <v>13</v>
@@ -7492,56 +7476,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>93</v>
+      </c>
+      <c r="B188" t="s">
+        <v>80</v>
+      </c>
+      <c r="C188" t="s">
+        <v>113</v>
+      </c>
+      <c r="D188" t="s">
+        <v>63</v>
+      </c>
+      <c r="E188" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" t="s">
+        <v>13</v>
+      </c>
+      <c r="J188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>16</v>
       </c>
-      <c r="B188" t="s">
-        <v>28</v>
-      </c>
-      <c r="C188" t="s">
-        <v>77</v>
-      </c>
-      <c r="D188" t="s">
-        <v>189</v>
-      </c>
-      <c r="E188" t="s">
-        <v>14</v>
-      </c>
-      <c r="F188" t="s">
-        <v>50</v>
-      </c>
-      <c r="G188" t="s">
-        <v>13</v>
-      </c>
-      <c r="H188" t="s">
-        <v>13</v>
-      </c>
-      <c r="I188" t="s">
-        <v>13</v>
-      </c>
-      <c r="J188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>10</v>
-      </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C189" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D189" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="E189" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F189" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G189" t="s">
         <v>13</v>
@@ -7556,9 +7540,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B190" t="s">
         <v>80</v>
@@ -7567,7 +7551,7 @@
         <v>113</v>
       </c>
       <c r="D190" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E190" t="s">
         <v>19</v>
@@ -7588,9 +7572,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B191" t="s">
         <v>80</v>
@@ -7599,7 +7583,7 @@
         <v>113</v>
       </c>
       <c r="D191" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="E191" t="s">
         <v>19</v>
@@ -7620,9 +7604,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
         <v>80</v>
@@ -7631,7 +7615,7 @@
         <v>113</v>
       </c>
       <c r="D192" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -7652,7 +7636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>93</v>
       </c>
@@ -7663,7 +7647,7 @@
         <v>113</v>
       </c>
       <c r="D193" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -7684,7 +7668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -7692,16 +7676,16 @@
         <v>80</v>
       </c>
       <c r="C194" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D194" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="E194" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F194" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G194" t="s">
         <v>13</v>
@@ -7716,24 +7700,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B195" t="s">
         <v>80</v>
       </c>
       <c r="C195" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D195" t="s">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="E195" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G195" t="s">
         <v>13</v>
@@ -7748,24 +7732,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B196" t="s">
         <v>80</v>
       </c>
       <c r="C196" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D196" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="E196" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F196" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G196" t="s">
         <v>13</v>
@@ -7780,9 +7764,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
         <v>80</v>
@@ -7791,7 +7775,7 @@
         <v>84</v>
       </c>
       <c r="D197" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E197" t="s">
         <v>23</v>
@@ -7812,7 +7796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>93</v>
       </c>
@@ -7823,7 +7807,7 @@
         <v>84</v>
       </c>
       <c r="D198" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E198" t="s">
         <v>23</v>
@@ -7844,7 +7828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -7855,7 +7839,7 @@
         <v>84</v>
       </c>
       <c r="D199" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
@@ -7876,9 +7860,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B200" t="s">
         <v>80</v>
@@ -7887,7 +7871,7 @@
         <v>84</v>
       </c>
       <c r="D200" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E200" t="s">
         <v>23</v>
@@ -7908,9 +7892,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
         <v>80</v>
@@ -7919,13 +7903,13 @@
         <v>84</v>
       </c>
       <c r="D201" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
       </c>
       <c r="F201" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G201" t="s">
         <v>13</v>
@@ -7940,9 +7924,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
         <v>80</v>
@@ -7951,7 +7935,7 @@
         <v>84</v>
       </c>
       <c r="D202" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -7972,9 +7956,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B203" t="s">
         <v>80</v>
@@ -7983,7 +7967,7 @@
         <v>84</v>
       </c>
       <c r="D203" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="E203" t="s">
         <v>23</v>
@@ -8004,9 +7988,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B204" t="s">
         <v>80</v>
@@ -8015,13 +7999,13 @@
         <v>84</v>
       </c>
       <c r="D204" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E204" t="s">
         <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G204" t="s">
         <v>13</v>
@@ -8036,7 +8020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -8044,10 +8028,10 @@
         <v>80</v>
       </c>
       <c r="C205" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D205" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="E205" t="s">
         <v>23</v>
@@ -8068,7 +8052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -8076,10 +8060,10 @@
         <v>80</v>
       </c>
       <c r="C206" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D206" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="E206" t="s">
         <v>23</v>
@@ -8100,7 +8084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>93</v>
       </c>
@@ -8108,10 +8092,10 @@
         <v>80</v>
       </c>
       <c r="C207" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D207" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8132,7 +8116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>10</v>
       </c>
@@ -8143,13 +8127,13 @@
         <v>85</v>
       </c>
       <c r="D208" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="E208" t="s">
         <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G208" t="s">
         <v>13</v>
@@ -8164,9 +8148,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
         <v>80</v>
@@ -8175,13 +8159,13 @@
         <v>85</v>
       </c>
       <c r="D209" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E209" t="s">
         <v>23</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G209" t="s">
         <v>13</v>
@@ -8196,9 +8180,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B210" t="s">
         <v>80</v>
@@ -8207,7 +8191,7 @@
         <v>85</v>
       </c>
       <c r="D210" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E210" t="s">
         <v>23</v>
@@ -8228,9 +8212,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B211" t="s">
         <v>80</v>
@@ -8239,13 +8223,13 @@
         <v>85</v>
       </c>
       <c r="D211" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="E211" t="s">
         <v>23</v>
       </c>
       <c r="F211" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G211" t="s">
         <v>13</v>
@@ -8260,7 +8244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -8271,13 +8255,13 @@
         <v>85</v>
       </c>
       <c r="D212" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G212" t="s">
         <v>13</v>
@@ -8292,85 +8276,85 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>88</v>
+      </c>
+      <c r="C213" t="s">
+        <v>89</v>
+      </c>
+      <c r="D213" t="s">
+        <v>90</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
+      <c r="H213" t="s">
+        <v>13</v>
+      </c>
+      <c r="I213" t="s">
+        <v>13</v>
+      </c>
+      <c r="J213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>88</v>
+      </c>
+      <c r="C214" t="s">
+        <v>89</v>
+      </c>
+      <c r="D214" t="s">
+        <v>191</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" t="s">
+        <v>15</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214" t="s">
+        <v>13</v>
+      </c>
+      <c r="J214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>16</v>
       </c>
-      <c r="B213" t="s">
-        <v>80</v>
-      </c>
-      <c r="C213" t="s">
-        <v>85</v>
-      </c>
-      <c r="D213" t="s">
-        <v>87</v>
-      </c>
-      <c r="E213" t="s">
-        <v>23</v>
-      </c>
-      <c r="F213" t="s">
-        <v>50</v>
-      </c>
-      <c r="G213" t="s">
-        <v>13</v>
-      </c>
-      <c r="H213" t="s">
-        <v>13</v>
-      </c>
-      <c r="I213" t="s">
-        <v>13</v>
-      </c>
-      <c r="J213" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>93</v>
-      </c>
-      <c r="B214" t="s">
-        <v>80</v>
-      </c>
-      <c r="C214" t="s">
-        <v>85</v>
-      </c>
-      <c r="D214" t="s">
-        <v>87</v>
-      </c>
-      <c r="E214" t="s">
-        <v>23</v>
-      </c>
-      <c r="F214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G214" t="s">
-        <v>13</v>
-      </c>
-      <c r="H214" t="s">
-        <v>13</v>
-      </c>
-      <c r="I214" t="s">
-        <v>13</v>
-      </c>
-      <c r="J214" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>10</v>
-      </c>
       <c r="B215" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C215" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D215" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E215" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F215" t="s">
         <v>15</v>
@@ -8388,9 +8372,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B216" t="s">
         <v>88</v>
@@ -8399,7 +8383,7 @@
         <v>89</v>
       </c>
       <c r="D216" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
@@ -8420,7 +8404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>10</v>
       </c>
@@ -8428,16 +8412,16 @@
         <v>88</v>
       </c>
       <c r="C217" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D217" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G217" t="s">
         <v>13</v>
@@ -8452,18 +8436,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B218" t="s">
         <v>88</v>
       </c>
       <c r="C218" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D218" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
@@ -8484,7 +8468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>93</v>
       </c>
@@ -8492,10 +8476,10 @@
         <v>88</v>
       </c>
       <c r="C219" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D219" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
@@ -8516,7 +8500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -8527,13 +8511,13 @@
         <v>91</v>
       </c>
       <c r="D220" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G220" t="s">
         <v>13</v>
@@ -8548,7 +8532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>10</v>
       </c>
@@ -8559,7 +8543,7 @@
         <v>91</v>
       </c>
       <c r="D221" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8580,18 +8564,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B222" t="s">
         <v>88</v>
       </c>
       <c r="C222" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D222" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
@@ -8612,115 +8596,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>10</v>
-      </c>
-      <c r="B223" t="s">
-        <v>88</v>
-      </c>
-      <c r="C223" t="s">
-        <v>91</v>
-      </c>
-      <c r="D223" t="s">
-        <v>86</v>
-      </c>
-      <c r="E223" t="s">
-        <v>14</v>
-      </c>
-      <c r="F223" t="s">
-        <v>15</v>
-      </c>
-      <c r="G223" t="s">
-        <v>13</v>
-      </c>
-      <c r="H223" t="s">
-        <v>13</v>
-      </c>
-      <c r="I223" t="s">
-        <v>13</v>
-      </c>
-      <c r="J223" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>10</v>
-      </c>
-      <c r="B224" t="s">
-        <v>88</v>
-      </c>
-      <c r="C224" t="s">
-        <v>91</v>
-      </c>
-      <c r="D224" t="s">
-        <v>87</v>
-      </c>
-      <c r="E224" t="s">
-        <v>14</v>
-      </c>
-      <c r="F224" t="s">
-        <v>15</v>
-      </c>
-      <c r="G224" t="s">
-        <v>13</v>
-      </c>
-      <c r="H224" t="s">
-        <v>13</v>
-      </c>
-      <c r="I224" t="s">
-        <v>13</v>
-      </c>
-      <c r="J224" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>10</v>
-      </c>
-      <c r="B225" t="s">
-        <v>88</v>
-      </c>
-      <c r="C225" t="s">
-        <v>92</v>
-      </c>
-      <c r="D225" t="s">
-        <v>196</v>
-      </c>
-      <c r="E225" t="s">
-        <v>14</v>
-      </c>
-      <c r="F225" t="s">
-        <v>15</v>
-      </c>
-      <c r="G225" t="s">
-        <v>13</v>
-      </c>
-      <c r="H225" t="s">
-        <v>13</v>
-      </c>
-      <c r="I225" t="s">
-        <v>13</v>
-      </c>
-      <c r="J225" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J225" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Economics"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J222">
-      <sortCondition ref="B1:B225"/>
+  <autoFilter ref="A1:J222" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
+      <sortCondition ref="D1:D222"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:J242">
-    <sortCondition ref="D2:D242"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J239">
+    <sortCondition ref="D2:D239"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub2\AgEvidence\AgEvidence_Kenya\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91891A18-3364-4909-A9C4-28958A7BB453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36CEB4-85EA-40AF-8BF4-351FB3DAF2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="206">
   <si>
     <t>Review</t>
   </si>
@@ -616,6 +617,42 @@
   </si>
   <si>
     <t>Phosphorus decomposition rate of buried residues</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Name of review</t>
+  </si>
+  <si>
+    <t>Highest grouping level</t>
+  </si>
+  <si>
+    <t>Middle grouping level</t>
+  </si>
+  <si>
+    <t>Finest grouping level</t>
+  </si>
+  <si>
+    <t>Normative interpretation of group_level2 where Negative = assumed societal harm, Positive = assumed societal benefit, and Dependent on other factors</t>
+  </si>
+  <si>
+    <t>Normative interpretation of group_level3 where Negative = assumed societal harm, Positive = assumed societal benefit, and Dependent on other factors</t>
+  </si>
+  <si>
+    <t>Alternate highest grouping level, used when a variable could be classified under more than one grouping</t>
+  </si>
+  <si>
+    <t>Alternate middle grouping level, used when a variable could be classified under more than one grouping</t>
+  </si>
+  <si>
+    <t>Normative interpretation of group_level2_alt where Negative = assumed societal harm, Positive = assumed societal benefit, and Dependent on other factors</t>
+  </si>
+  <si>
+    <t>Normative interpretation of group_level3_alt where Negative = assumed societal harm, Positive = assumed societal benefit, and Dependent on other factors</t>
   </si>
 </sst>
 </file>
@@ -1472,12 +1509,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC0001B-83E3-4DBB-B747-50C6C3430621}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F224" sqref="F224"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36CEB4-85EA-40AF-8BF4-351FB3DAF2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF277A9-E15E-49E1-BC67-2DB11A112C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$236</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="210">
   <si>
     <t>Review</t>
   </si>
@@ -653,6 +653,18 @@
   </si>
   <si>
     <t>Normative interpretation of group_level3_alt where Negative = assumed societal harm, Positive = assumed societal benefit, and Dependent on other factors</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Crop phosphorus use efficiency</t>
+  </si>
+  <si>
+    <t>Crop water use efficiency</t>
+  </si>
+  <si>
+    <t>Pore space</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC0001B-83E3-4DBB-B747-50C6C3430621}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
@@ -1617,11 +1629,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J222"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J236"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B140" sqref="B140:D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1668,7 +1681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1732,7 +1745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +1777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1796,7 +1809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1828,7 +1841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1924,7 +1937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +1969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -1988,7 +2001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -2052,7 +2065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2116,7 +2129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2148,7 +2161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2180,7 +2193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2212,7 +2225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -2276,7 +2289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2308,7 +2321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2340,7 +2353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2404,7 +2417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2436,7 +2449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -2500,7 +2513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2532,9 +2545,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2543,13 +2556,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -2564,7 +2577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2575,13 +2588,13 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -2596,9 +2609,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2628,9 +2641,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -2660,9 +2673,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -2671,7 +2684,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
@@ -2692,9 +2705,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -2724,9 +2737,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -2735,7 +2748,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -2756,18 +2769,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -2788,18 +2801,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -2820,7 +2833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2831,7 +2844,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -2852,7 +2865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2863,7 +2876,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
@@ -2884,7 +2897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2892,10 +2905,10 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -2916,7 +2929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2924,10 +2937,10 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -2948,24 +2961,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -2980,7 +2993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2991,13 +3004,13 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -3012,7 +3025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -3023,13 +3036,13 @@
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -3044,9 +3057,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -3076,7 +3089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3087,7 +3100,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -3108,7 +3121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3119,13 +3132,13 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -3140,9 +3153,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -3151,7 +3164,7 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
@@ -3172,9 +3185,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -3183,13 +3196,13 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -3204,9 +3217,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -3215,7 +3228,7 @@
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
@@ -3236,9 +3249,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -3268,9 +3281,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -3279,13 +3292,13 @@
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -3300,7 +3313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -3311,13 +3324,13 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -3332,9 +3345,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -3343,7 +3356,7 @@
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -3364,7 +3377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -3375,13 +3388,13 @@
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
@@ -3396,18 +3409,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
@@ -3428,24 +3441,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
@@ -3460,24 +3473,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -3492,7 +3505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -3500,10 +3513,10 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -3524,24 +3537,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>55</v>
+      <c r="C60" t="s">
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
@@ -3556,24 +3569,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -3588,9 +3601,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -3599,7 +3612,7 @@
         <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
@@ -3620,7 +3633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3644,7 @@
         <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -3652,18 +3665,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -3684,18 +3697,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -3716,7 +3729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +3740,7 @@
         <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -3748,7 +3761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3759,7 +3772,7 @@
         <v>55</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3780,7 +3793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3804,7 @@
         <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -3812,18 +3825,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
@@ -3844,18 +3857,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
@@ -3876,18 +3889,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -3908,7 +3921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3940,18 +3953,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3972,18 +3985,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>55</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -4004,9 +4017,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -4015,7 +4028,7 @@
         <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -4036,7 +4049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -4047,7 +4060,7 @@
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -4068,18 +4081,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -4100,18 +4113,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -4132,9 +4145,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -4143,7 +4156,7 @@
         <v>55</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -4164,7 +4177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4175,7 +4188,7 @@
         <v>55</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4196,18 +4209,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s">
         <v>55</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4228,146 +4241,146 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D82" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>141</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>93</v>
-      </c>
-      <c r="B83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" t="s">
-        <v>142</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" t="s">
-        <v>13</v>
-      </c>
-      <c r="J83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" t="s">
-        <v>13</v>
-      </c>
-      <c r="J84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" t="s">
-        <v>143</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" t="s">
-        <v>13</v>
-      </c>
-      <c r="J85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>16</v>
       </c>
       <c r="B86" t="s">
         <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -4376,19 +4389,19 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4399,13 +4412,13 @@
         <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
         <v>13</v>
@@ -4420,9 +4433,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
         <v>56</v>
@@ -4431,7 +4444,7 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -4452,7 +4465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -4463,77 +4476,77 @@
         <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
         <v>15</v>
       </c>
-      <c r="G89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" t="s">
-        <v>13</v>
-      </c>
-      <c r="J89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>93</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>16</v>
       </c>
       <c r="B91" t="s">
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
@@ -4548,56 +4561,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>93</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>16</v>
       </c>
       <c r="B93" t="s">
         <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
         <v>13</v>
@@ -4612,88 +4625,88 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="94" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D94" t="s">
-        <v>148</v>
-      </c>
-      <c r="E94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C94" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C95" t="s">
-        <v>55</v>
-      </c>
-      <c r="D95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E95" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="C95" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
@@ -4708,56 +4721,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97" t="s">
-        <v>20</v>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>50</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
@@ -4772,24 +4785,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G99" t="s">
         <v>13</v>
@@ -4804,21 +4817,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F100" t="s">
         <v>50</v>
@@ -4836,9 +4849,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
@@ -4847,7 +4860,7 @@
         <v>60</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="E101" t="s">
         <v>23</v>
@@ -4868,9 +4881,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -4879,7 +4892,7 @@
         <v>60</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E102" t="s">
         <v>23</v>
@@ -4900,18 +4913,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E103" t="s">
         <v>23</v>
@@ -4932,18 +4945,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -4964,18 +4977,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E105" t="s">
         <v>23</v>
@@ -4996,7 +5009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -5004,16 +5017,16 @@
         <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
         <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G106" t="s">
         <v>13</v>
@@ -5028,24 +5041,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D107" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E107" t="s">
         <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G107" t="s">
         <v>13</v>
@@ -5060,9 +5073,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
@@ -5071,13 +5084,13 @@
         <v>62</v>
       </c>
       <c r="D108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E108" t="s">
         <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G108" t="s">
         <v>13</v>
@@ -5092,9 +5105,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -5103,13 +5116,13 @@
         <v>62</v>
       </c>
       <c r="D109" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E109" t="s">
         <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G109" t="s">
         <v>13</v>
@@ -5124,9 +5137,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
@@ -5135,13 +5148,13 @@
         <v>62</v>
       </c>
       <c r="D110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E110" t="s">
         <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G110" t="s">
         <v>13</v>
@@ -5156,9 +5169,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
@@ -5167,7 +5180,7 @@
         <v>62</v>
       </c>
       <c r="D111" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E111" t="s">
         <v>23</v>
@@ -5188,7 +5201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -5199,13 +5212,13 @@
         <v>62</v>
       </c>
       <c r="D112" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E112" t="s">
         <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
@@ -5220,7 +5233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>93</v>
       </c>
@@ -5231,13 +5244,13 @@
         <v>62</v>
       </c>
       <c r="D113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E113" t="s">
         <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
@@ -5252,7 +5265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -5263,13 +5276,13 @@
         <v>62</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
         <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G114" t="s">
         <v>13</v>
@@ -5284,7 +5297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>93</v>
       </c>
@@ -5295,13 +5308,13 @@
         <v>62</v>
       </c>
       <c r="D115" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E115" t="s">
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G115" t="s">
         <v>13</v>
@@ -5316,9 +5329,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
@@ -5327,30 +5340,30 @@
         <v>62</v>
       </c>
       <c r="D116" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -5359,28 +5372,28 @@
         <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="E117" t="s">
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -5388,16 +5401,16 @@
         <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E118" t="s">
         <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s">
         <v>13</v>
@@ -5412,39 +5425,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E119" t="s">
         <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I119" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J119" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>93</v>
       </c>
@@ -5452,16 +5465,16 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
@@ -5476,7 +5489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -5484,65 +5497,65 @@
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D121" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E121" t="s">
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D122" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E122" t="s">
         <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
@@ -5551,13 +5564,13 @@
         <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G123" t="s">
         <v>13</v>
@@ -5572,7 +5585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>93</v>
       </c>
@@ -5583,7 +5596,7 @@
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="E124" t="s">
         <v>23</v>
@@ -5604,9 +5617,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
@@ -5615,7 +5628,7 @@
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
@@ -5624,19 +5637,19 @@
         <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I125" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J125" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -5647,28 +5660,28 @@
         <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="E126" t="s">
         <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I126" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J126" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>93</v>
       </c>
@@ -5679,39 +5692,39 @@
         <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
@@ -5732,137 +5745,137 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="E129" t="s">
         <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I129" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E130" t="s">
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E131" t="s">
         <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I131" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I132" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J132" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
@@ -5871,13 +5884,13 @@
         <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E133" t="s">
         <v>23</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s">
         <v>13</v>
@@ -5894,7 +5907,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -5903,13 +5916,13 @@
         <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G134" t="s">
         <v>13</v>
@@ -5932,28 +5945,28 @@
         <v>20</v>
       </c>
       <c r="C135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" t="s">
+        <v>163</v>
+      </c>
+      <c r="E135" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" t="s">
         <v>66</v>
       </c>
-      <c r="D135" t="s">
-        <v>165</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="I135" t="s">
         <v>19</v>
       </c>
-      <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" t="s">
-        <v>13</v>
-      </c>
-      <c r="I135" t="s">
-        <v>13</v>
-      </c>
       <c r="J135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
@@ -5964,16 +5977,16 @@
         <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D136" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G136" t="s">
         <v>13</v>
@@ -5996,16 +6009,16 @@
         <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D137" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E137" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G137" t="s">
         <v>13</v>
@@ -6022,19 +6035,19 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
         <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D138" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E138" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F138" t="s">
         <v>22</v>
@@ -6054,19 +6067,19 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B139" t="s">
         <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D139" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E139" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F139" t="s">
         <v>22</v>
@@ -6086,22 +6099,22 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D140" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G140" t="s">
         <v>13</v>
@@ -6118,34 +6131,34 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D141" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E141" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
@@ -6153,98 +6166,98 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D142" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E142" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J142" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D143" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D144" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E144" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G144" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J144" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -6252,10 +6265,10 @@
         <v>28</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D145" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -6264,21 +6277,21 @@
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J145" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
         <v>28</v>
@@ -6287,7 +6300,7 @@
         <v>27</v>
       </c>
       <c r="D146" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -6308,7 +6321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -6316,10 +6329,10 @@
         <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -6328,19 +6341,19 @@
         <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -6348,10 +6361,10 @@
         <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -6360,19 +6373,19 @@
         <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -6380,10 +6393,10 @@
         <v>28</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -6392,19 +6405,19 @@
         <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -6412,10 +6425,10 @@
         <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -6424,30 +6437,30 @@
         <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B151" t="s">
         <v>28</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -6456,21 +6469,21 @@
         <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
         <v>28</v>
@@ -6479,7 +6492,7 @@
         <v>29</v>
       </c>
       <c r="D152" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -6500,7 +6513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -6511,7 +6524,7 @@
         <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -6532,24 +6545,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
         <v>28</v>
       </c>
       <c r="C154" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="E154" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G154" t="s">
         <v>13</v>
@@ -6564,24 +6577,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
         <v>28</v>
       </c>
       <c r="C155" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="E155" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G155" t="s">
         <v>13</v>
@@ -6596,7 +6609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -6604,13 +6617,13 @@
         <v>28</v>
       </c>
       <c r="C156" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="E156" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F156" t="s">
         <v>15</v>
@@ -6628,21 +6641,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B157" t="s">
         <v>28</v>
       </c>
       <c r="C157" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D157" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s">
         <v>15</v>
@@ -6660,7 +6673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -6668,33 +6681,33 @@
         <v>28</v>
       </c>
       <c r="C158" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D158" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="E158" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I158" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J158" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B159" t="s">
         <v>28</v>
@@ -6703,28 +6716,28 @@
         <v>71</v>
       </c>
       <c r="D159" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H159" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I159" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>93</v>
       </c>
@@ -6735,28 +6748,28 @@
         <v>71</v>
       </c>
       <c r="D160" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
       </c>
       <c r="F160" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H160" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I160" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -6767,28 +6780,28 @@
         <v>71</v>
       </c>
       <c r="D161" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="E161" t="s">
         <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I161" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J161" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>93</v>
       </c>
@@ -6799,28 +6812,28 @@
         <v>71</v>
       </c>
       <c r="D162" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G162" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H162" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I162" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J162" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -6831,13 +6844,13 @@
         <v>71</v>
       </c>
       <c r="D163" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E163" t="s">
         <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G163" t="s">
         <v>20</v>
@@ -6849,12 +6862,12 @@
         <v>23</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
         <v>28</v>
@@ -6863,7 +6876,7 @@
         <v>71</v>
       </c>
       <c r="D164" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
@@ -6884,7 +6897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>93</v>
       </c>
@@ -6895,28 +6908,28 @@
         <v>71</v>
       </c>
       <c r="D165" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="E165" t="s">
         <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H165" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I165" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -6927,222 +6940,222 @@
         <v>71</v>
       </c>
       <c r="D166" t="s">
+        <v>178</v>
+      </c>
+      <c r="E166" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>20</v>
+      </c>
+      <c r="H166" t="s">
+        <v>62</v>
+      </c>
+      <c r="I166" t="s">
+        <v>23</v>
+      </c>
+      <c r="J166" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>93</v>
+      </c>
+      <c r="B167" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" t="s">
+        <v>71</v>
+      </c>
+      <c r="D167" t="s">
+        <v>178</v>
+      </c>
+      <c r="E167" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" t="s">
+        <v>62</v>
+      </c>
+      <c r="I167" t="s">
+        <v>23</v>
+      </c>
+      <c r="J167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" t="s">
+        <v>71</v>
+      </c>
+      <c r="D168" t="s">
+        <v>179</v>
+      </c>
+      <c r="E168" t="s">
+        <v>23</v>
+      </c>
+      <c r="F168" t="s">
+        <v>50</v>
+      </c>
+      <c r="G168" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" t="s">
+        <v>62</v>
+      </c>
+      <c r="I168" t="s">
+        <v>23</v>
+      </c>
+      <c r="J168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>93</v>
+      </c>
+      <c r="B169" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" t="s">
+        <v>71</v>
+      </c>
+      <c r="D169" t="s">
+        <v>179</v>
+      </c>
+      <c r="E169" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" t="s">
+        <v>50</v>
+      </c>
+      <c r="G169" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" t="s">
+        <v>62</v>
+      </c>
+      <c r="I169" t="s">
+        <v>23</v>
+      </c>
+      <c r="J169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>93</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" t="s">
+        <v>71</v>
+      </c>
+      <c r="D170" t="s">
+        <v>99</v>
+      </c>
+      <c r="E170" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" t="s">
+        <v>71</v>
+      </c>
+      <c r="D171" t="s">
         <v>180</v>
       </c>
-      <c r="E166" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="E171" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" t="s">
         <v>15</v>
       </c>
-      <c r="G166" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" t="s">
-        <v>13</v>
-      </c>
-      <c r="I166" t="s">
-        <v>13</v>
-      </c>
-      <c r="J166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="3" t="s">
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F167" t="s">
-        <v>22</v>
-      </c>
-      <c r="G167" t="s">
-        <v>13</v>
-      </c>
-      <c r="H167" t="s">
-        <v>13</v>
-      </c>
-      <c r="I167" t="s">
-        <v>13</v>
-      </c>
-      <c r="J167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J168" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J169" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F172" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s">
+        <v>13</v>
+      </c>
+      <c r="J172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>28</v>
@@ -7151,7 +7164,7 @@
         <v>73</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>23</v>
@@ -7160,19 +7173,19 @@
         <v>22</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>10</v>
       </c>
@@ -7183,7 +7196,7 @@
         <v>73</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>23</v>
@@ -7192,21 +7205,21 @@
         <v>22</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>28</v>
@@ -7215,13 +7228,13 @@
         <v>73</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F175" t="s">
-        <v>22</v>
+      <c r="F175" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>20</v>
@@ -7236,24 +7249,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>20</v>
@@ -7268,24 +7281,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>10</v>
-      </c>
-      <c r="B177" t="s">
+    <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C177" t="s">
-        <v>76</v>
+      <c r="C177" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E177" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>20</v>
@@ -7300,21 +7313,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>10</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C178" t="s">
-        <v>76</v>
-      </c>
-      <c r="D178" t="s">
-        <v>183</v>
-      </c>
-      <c r="E178" t="s">
-        <v>19</v>
+      <c r="C178" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F178" t="s">
         <v>22</v>
@@ -7332,103 +7345,103 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+    <row r="179" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C179" t="s">
-        <v>77</v>
-      </c>
-      <c r="D179" t="s">
-        <v>78</v>
-      </c>
-      <c r="E179" t="s">
-        <v>14</v>
-      </c>
-      <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>13</v>
-      </c>
-      <c r="H179" t="s">
-        <v>13</v>
-      </c>
-      <c r="I179" t="s">
-        <v>13</v>
-      </c>
-      <c r="J179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>10</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="C180" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F180" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C180" t="s">
-        <v>77</v>
-      </c>
-      <c r="D180" t="s">
-        <v>78</v>
-      </c>
-      <c r="E180" t="s">
-        <v>14</v>
-      </c>
-      <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" t="s">
-        <v>13</v>
-      </c>
-      <c r="J180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>16</v>
-      </c>
-      <c r="B181" t="s">
-        <v>28</v>
-      </c>
-      <c r="C181" t="s">
-        <v>77</v>
-      </c>
-      <c r="D181" t="s">
-        <v>79</v>
-      </c>
-      <c r="E181" t="s">
-        <v>14</v>
-      </c>
-      <c r="F181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" t="s">
-        <v>13</v>
-      </c>
-      <c r="J181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C181" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -7436,31 +7449,31 @@
         <v>28</v>
       </c>
       <c r="C182" t="s">
-        <v>77</v>
-      </c>
-      <c r="D182" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="E182" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G182" t="s">
-        <v>13</v>
-      </c>
-      <c r="H182" t="s">
-        <v>13</v>
-      </c>
-      <c r="I182" t="s">
-        <v>13</v>
-      </c>
-      <c r="J182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -7468,33 +7481,33 @@
         <v>28</v>
       </c>
       <c r="C183" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D183" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="E183" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
-      </c>
-      <c r="G183" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" t="s">
-        <v>13</v>
-      </c>
-      <c r="I183" t="s">
-        <v>13</v>
-      </c>
-      <c r="J183" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B184" t="s">
         <v>28</v>
@@ -7503,7 +7516,7 @@
         <v>77</v>
       </c>
       <c r="D184" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
@@ -7524,9 +7537,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
         <v>28</v>
@@ -7535,13 +7548,13 @@
         <v>77</v>
       </c>
       <c r="D185" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G185" t="s">
         <v>13</v>
@@ -7556,9 +7569,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B186" t="s">
         <v>28</v>
@@ -7567,190 +7580,190 @@
         <v>77</v>
       </c>
       <c r="D186" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" t="s">
+        <v>13</v>
+      </c>
+      <c r="J186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" t="s">
+        <v>77</v>
+      </c>
+      <c r="D187" t="s">
+        <v>79</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
+      </c>
+      <c r="J187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" t="s">
+        <v>77</v>
+      </c>
+      <c r="D188" t="s">
+        <v>112</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" t="s">
+        <v>13</v>
+      </c>
+      <c r="J188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" t="s">
+        <v>77</v>
+      </c>
+      <c r="D189" t="s">
+        <v>184</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" t="s">
+        <v>13</v>
+      </c>
+      <c r="J189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" t="s">
+        <v>77</v>
+      </c>
+      <c r="D190" t="s">
+        <v>185</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" t="s">
         <v>50</v>
       </c>
-      <c r="G186" t="s">
-        <v>13</v>
-      </c>
-      <c r="H186" t="s">
-        <v>13</v>
-      </c>
-      <c r="I186" t="s">
-        <v>13</v>
-      </c>
-      <c r="J186" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" t="s">
+        <v>13</v>
+      </c>
+      <c r="J190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" t="s">
+        <v>77</v>
+      </c>
+      <c r="D191" t="s">
+        <v>185</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
+        <v>50</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" t="s">
+        <v>13</v>
+      </c>
+      <c r="J191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>16</v>
-      </c>
-      <c r="B187" t="s">
-        <v>80</v>
-      </c>
-      <c r="C187" t="s">
-        <v>113</v>
-      </c>
-      <c r="D187" t="s">
-        <v>63</v>
-      </c>
-      <c r="E187" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" t="s">
-        <v>13</v>
-      </c>
-      <c r="I187" t="s">
-        <v>13</v>
-      </c>
-      <c r="J187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>93</v>
-      </c>
-      <c r="B188" t="s">
-        <v>80</v>
-      </c>
-      <c r="C188" t="s">
-        <v>113</v>
-      </c>
-      <c r="D188" t="s">
-        <v>63</v>
-      </c>
-      <c r="E188" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" t="s">
-        <v>13</v>
-      </c>
-      <c r="H188" t="s">
-        <v>13</v>
-      </c>
-      <c r="I188" t="s">
-        <v>13</v>
-      </c>
-      <c r="J188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>16</v>
-      </c>
-      <c r="B189" t="s">
-        <v>80</v>
-      </c>
-      <c r="C189" t="s">
-        <v>113</v>
-      </c>
-      <c r="D189" t="s">
-        <v>82</v>
-      </c>
-      <c r="E189" t="s">
-        <v>19</v>
-      </c>
-      <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" t="s">
-        <v>13</v>
-      </c>
-      <c r="I189" t="s">
-        <v>13</v>
-      </c>
-      <c r="J189" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>93</v>
-      </c>
-      <c r="B190" t="s">
-        <v>80</v>
-      </c>
-      <c r="C190" t="s">
-        <v>113</v>
-      </c>
-      <c r="D190" t="s">
-        <v>82</v>
-      </c>
-      <c r="E190" t="s">
-        <v>19</v>
-      </c>
-      <c r="F190" t="s">
-        <v>22</v>
-      </c>
-      <c r="G190" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" t="s">
-        <v>13</v>
-      </c>
-      <c r="I190" t="s">
-        <v>13</v>
-      </c>
-      <c r="J190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>16</v>
-      </c>
-      <c r="B191" t="s">
-        <v>80</v>
-      </c>
-      <c r="C191" t="s">
-        <v>113</v>
-      </c>
-      <c r="D191" t="s">
-        <v>186</v>
-      </c>
-      <c r="E191" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" t="s">
-        <v>13</v>
-      </c>
-      <c r="I191" t="s">
-        <v>13</v>
-      </c>
-      <c r="J191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>10</v>
       </c>
       <c r="B192" t="s">
         <v>80</v>
@@ -7759,7 +7772,7 @@
         <v>113</v>
       </c>
       <c r="D192" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -7780,7 +7793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>93</v>
       </c>
@@ -7791,7 +7804,7 @@
         <v>113</v>
       </c>
       <c r="D193" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="E193" t="s">
         <v>19</v>
@@ -7812,7 +7825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -7820,16 +7833,16 @@
         <v>80</v>
       </c>
       <c r="C194" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D194" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E194" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F194" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G194" t="s">
         <v>13</v>
@@ -7844,7 +7857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>93</v>
       </c>
@@ -7852,16 +7865,16 @@
         <v>80</v>
       </c>
       <c r="C195" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D195" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F195" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G195" t="s">
         <v>13</v>
@@ -7876,7 +7889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -7884,16 +7897,16 @@
         <v>80</v>
       </c>
       <c r="C196" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D196" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="E196" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F196" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G196" t="s">
         <v>13</v>
@@ -7908,7 +7921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -7916,16 +7929,16 @@
         <v>80</v>
       </c>
       <c r="C197" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D197" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="E197" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F197" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G197" t="s">
         <v>13</v>
@@ -7940,7 +7953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>93</v>
       </c>
@@ -7948,16 +7961,16 @@
         <v>80</v>
       </c>
       <c r="C198" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D198" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="E198" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F198" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G198" t="s">
         <v>13</v>
@@ -7972,7 +7985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -7983,7 +7996,7 @@
         <v>84</v>
       </c>
       <c r="D199" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
@@ -8004,7 +8017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>93</v>
       </c>
@@ -8015,7 +8028,7 @@
         <v>84</v>
       </c>
       <c r="D200" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E200" t="s">
         <v>23</v>
@@ -8036,9 +8049,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B201" t="s">
         <v>80</v>
@@ -8047,13 +8060,13 @@
         <v>84</v>
       </c>
       <c r="D201" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
       </c>
       <c r="F201" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G201" t="s">
         <v>13</v>
@@ -8068,7 +8081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>10</v>
       </c>
@@ -8079,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="D202" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -8100,9 +8113,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B203" t="s">
         <v>80</v>
@@ -8111,7 +8124,7 @@
         <v>84</v>
       </c>
       <c r="D203" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="E203" t="s">
         <v>23</v>
@@ -8132,9 +8145,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B204" t="s">
         <v>80</v>
@@ -8143,7 +8156,7 @@
         <v>84</v>
       </c>
       <c r="D204" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="E204" t="s">
         <v>23</v>
@@ -8164,18 +8177,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B205" t="s">
         <v>80</v>
       </c>
       <c r="C205" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D205" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E205" t="s">
         <v>23</v>
@@ -8196,24 +8209,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
         <v>80</v>
       </c>
       <c r="C206" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D206" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E206" t="s">
         <v>23</v>
       </c>
       <c r="F206" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G206" t="s">
         <v>13</v>
@@ -8228,18 +8241,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
         <v>80</v>
       </c>
       <c r="C207" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D207" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8260,24 +8273,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B208" t="s">
         <v>80</v>
       </c>
       <c r="C208" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D208" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E208" t="s">
         <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G208" t="s">
         <v>13</v>
@@ -8292,24 +8305,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B209" t="s">
         <v>80</v>
       </c>
       <c r="C209" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D209" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="E209" t="s">
         <v>23</v>
       </c>
       <c r="F209" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G209" t="s">
         <v>13</v>
@@ -8324,9 +8337,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
         <v>80</v>
@@ -8335,7 +8348,7 @@
         <v>85</v>
       </c>
       <c r="D210" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E210" t="s">
         <v>23</v>
@@ -8356,9 +8369,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B211" t="s">
         <v>80</v>
@@ -8367,13 +8380,13 @@
         <v>85</v>
       </c>
       <c r="D211" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E211" t="s">
         <v>23</v>
       </c>
       <c r="F211" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G211" t="s">
         <v>13</v>
@@ -8388,9 +8401,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B212" t="s">
         <v>80</v>
@@ -8399,13 +8412,13 @@
         <v>85</v>
       </c>
       <c r="D212" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
       </c>
       <c r="F212" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G212" t="s">
         <v>13</v>
@@ -8420,21 +8433,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C213" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D213" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="E213" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F213" t="s">
         <v>15</v>
@@ -8452,24 +8465,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C214" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D214" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="E214" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F214" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G214" t="s">
         <v>13</v>
@@ -8484,24 +8497,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>16</v>
       </c>
       <c r="B215" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C215" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D215" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="E215" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F215" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G215" t="s">
         <v>13</v>
@@ -8516,57 +8529,57 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>93</v>
       </c>
       <c r="B216" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C216" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D216" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="E216" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F216" t="s">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
+      <c r="H216" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216" t="s">
+        <v>13</v>
+      </c>
+      <c r="J216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>80</v>
+      </c>
+      <c r="C217" t="s">
+        <v>85</v>
+      </c>
+      <c r="D217" t="s">
+        <v>190</v>
+      </c>
+      <c r="E217" t="s">
+        <v>23</v>
+      </c>
+      <c r="F217" t="s">
         <v>15</v>
       </c>
-      <c r="G216" t="s">
-        <v>13</v>
-      </c>
-      <c r="H216" t="s">
-        <v>13</v>
-      </c>
-      <c r="I216" t="s">
-        <v>13</v>
-      </c>
-      <c r="J216" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>10</v>
-      </c>
-      <c r="B217" t="s">
-        <v>88</v>
-      </c>
-      <c r="C217" t="s">
-        <v>91</v>
-      </c>
-      <c r="D217" t="s">
-        <v>133</v>
-      </c>
-      <c r="E217" t="s">
-        <v>14</v>
-      </c>
-      <c r="F217" t="s">
-        <v>50</v>
-      </c>
       <c r="G217" t="s">
         <v>13</v>
       </c>
@@ -8580,7 +8593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -8588,10 +8601,10 @@
         <v>88</v>
       </c>
       <c r="C218" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D218" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
@@ -8612,18 +8625,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B219" t="s">
         <v>88</v>
       </c>
       <c r="C219" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D219" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
@@ -8644,18 +8657,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B220" t="s">
         <v>88</v>
       </c>
       <c r="C220" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D220" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
@@ -8676,18 +8689,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B221" t="s">
         <v>88</v>
       </c>
       <c r="C221" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D221" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8708,7 +8721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -8716,38 +8729,497 @@
         <v>88</v>
       </c>
       <c r="C222" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D222" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222" t="s">
+        <v>50</v>
+      </c>
+      <c r="G222" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" t="s">
+        <v>13</v>
+      </c>
+      <c r="I222" t="s">
+        <v>13</v>
+      </c>
+      <c r="J222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>88</v>
+      </c>
+      <c r="C223" t="s">
+        <v>91</v>
+      </c>
+      <c r="D223" t="s">
+        <v>84</v>
+      </c>
+      <c r="E223" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223" t="s">
         <v>15</v>
       </c>
-      <c r="G222" t="s">
-        <v>13</v>
-      </c>
-      <c r="H222" t="s">
-        <v>13</v>
-      </c>
-      <c r="I222" t="s">
-        <v>13</v>
-      </c>
-      <c r="J222" t="s">
+      <c r="G223" t="s">
+        <v>13</v>
+      </c>
+      <c r="H223" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223" t="s">
+        <v>13</v>
+      </c>
+      <c r="J223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>93</v>
+      </c>
+      <c r="B224" t="s">
+        <v>88</v>
+      </c>
+      <c r="C224" t="s">
+        <v>91</v>
+      </c>
+      <c r="D224" t="s">
+        <v>84</v>
+      </c>
+      <c r="E224" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" t="s">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" t="s">
+        <v>13</v>
+      </c>
+      <c r="I224" t="s">
+        <v>13</v>
+      </c>
+      <c r="J224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>88</v>
+      </c>
+      <c r="C225" t="s">
+        <v>91</v>
+      </c>
+      <c r="D225" t="s">
+        <v>86</v>
+      </c>
+      <c r="E225" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
+      <c r="H225" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" t="s">
+        <v>13</v>
+      </c>
+      <c r="J225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>88</v>
+      </c>
+      <c r="C226" t="s">
+        <v>91</v>
+      </c>
+      <c r="D226" t="s">
+        <v>87</v>
+      </c>
+      <c r="E226" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" t="s">
+        <v>13</v>
+      </c>
+      <c r="J226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>88</v>
+      </c>
+      <c r="C227" t="s">
+        <v>92</v>
+      </c>
+      <c r="D227" t="s">
+        <v>192</v>
+      </c>
+      <c r="E227" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" t="s">
+        <v>13</v>
+      </c>
+      <c r="I227" t="s">
+        <v>13</v>
+      </c>
+      <c r="J227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" t="s">
+        <v>88</v>
+      </c>
+      <c r="C228" t="s">
+        <v>92</v>
+      </c>
+      <c r="D228" t="s">
+        <v>192</v>
+      </c>
+      <c r="E228" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" t="s">
+        <v>13</v>
+      </c>
+      <c r="H228" t="s">
+        <v>13</v>
+      </c>
+      <c r="I228" t="s">
+        <v>13</v>
+      </c>
+      <c r="J228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" t="s">
+        <v>88</v>
+      </c>
+      <c r="C229" t="s">
+        <v>91</v>
+      </c>
+      <c r="D229" t="s">
+        <v>84</v>
+      </c>
+      <c r="E229" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" t="s">
+        <v>15</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
+      <c r="H229" t="s">
+        <v>13</v>
+      </c>
+      <c r="I229" t="s">
+        <v>13</v>
+      </c>
+      <c r="J229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230" t="s">
+        <v>88</v>
+      </c>
+      <c r="C230" t="s">
+        <v>91</v>
+      </c>
+      <c r="D230" t="s">
+        <v>86</v>
+      </c>
+      <c r="E230" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" t="s">
+        <v>13</v>
+      </c>
+      <c r="I230" t="s">
+        <v>13</v>
+      </c>
+      <c r="J230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>16</v>
+      </c>
+      <c r="B231" t="s">
+        <v>88</v>
+      </c>
+      <c r="C231" t="s">
+        <v>91</v>
+      </c>
+      <c r="D231" t="s">
+        <v>206</v>
+      </c>
+      <c r="E231" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" t="s">
+        <v>50</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" t="s">
+        <v>13</v>
+      </c>
+      <c r="I231" t="s">
+        <v>13</v>
+      </c>
+      <c r="J231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>16</v>
+      </c>
+      <c r="B232" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" t="s">
+        <v>65</v>
+      </c>
+      <c r="D232" t="s">
+        <v>67</v>
+      </c>
+      <c r="E232" t="s">
+        <v>23</v>
+      </c>
+      <c r="F232" t="s">
+        <v>15</v>
+      </c>
+      <c r="G232" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" t="s">
+        <v>13</v>
+      </c>
+      <c r="I232" t="s">
+        <v>13</v>
+      </c>
+      <c r="J232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>16</v>
+      </c>
+      <c r="B234" t="s">
+        <v>56</v>
+      </c>
+      <c r="C234" t="s">
+        <v>57</v>
+      </c>
+      <c r="D234" t="s">
+        <v>142</v>
+      </c>
+      <c r="E234" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" t="s">
+        <v>22</v>
+      </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
+        <v>13</v>
+      </c>
+      <c r="I234" t="s">
+        <v>13</v>
+      </c>
+      <c r="J234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" t="s">
+        <v>20</v>
+      </c>
+      <c r="C235" t="s">
+        <v>65</v>
+      </c>
+      <c r="D235" t="s">
+        <v>209</v>
+      </c>
+      <c r="E235" t="s">
+        <v>23</v>
+      </c>
+      <c r="F235" t="s">
+        <v>22</v>
+      </c>
+      <c r="G235" t="s">
+        <v>13</v>
+      </c>
+      <c r="H235" t="s">
+        <v>13</v>
+      </c>
+      <c r="I235" t="s">
+        <v>13</v>
+      </c>
+      <c r="J235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>16</v>
+      </c>
+      <c r="B236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C236" t="s">
+        <v>30</v>
+      </c>
+      <c r="D236" t="s">
+        <v>104</v>
+      </c>
+      <c r="E236" t="s">
+        <v>19</v>
+      </c>
+      <c r="F236" t="s">
+        <v>50</v>
+      </c>
+      <c r="G236" t="s">
+        <v>13</v>
+      </c>
+      <c r="H236" t="s">
+        <v>13</v>
+      </c>
+      <c r="I236" t="s">
+        <v>13</v>
+      </c>
+      <c r="J236" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J222" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J236" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Other Soil Properties"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Physical Properties"/>
+        <filter val="Soil Structure"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
-      <sortCondition ref="D1:D222"/>
+      <sortCondition ref="D1:D227"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J239">
-    <sortCondition ref="D2:D239"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:J243">
+    <sortCondition ref="D2:D243"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF277A9-E15E-49E1-BC67-2DB11A112C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F271DD7-BEA9-4DC0-BC4A-20385451C477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$252</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="214">
   <si>
     <t>Review</t>
   </si>
@@ -481,9 +481,6 @@
     <t>Net income</t>
   </si>
   <si>
-    <t>Net value</t>
-  </si>
-  <si>
     <t>Pest damage</t>
   </si>
   <si>
@@ -665,6 +662,21 @@
   </si>
   <si>
     <t>Pore space</t>
+  </si>
+  <si>
+    <t>Fat content</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Cation exchange capacity</t>
+  </si>
+  <si>
+    <t>Mycorrhizal root colonization</t>
+  </si>
+  <si>
+    <t>Nodule count</t>
   </si>
 </sst>
 </file>
@@ -1535,10 +1547,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
         <v>194</v>
-      </c>
-      <c r="B1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1546,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1554,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1562,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1570,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1578,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1586,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1594,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1602,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1610,7 +1622,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1618,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1630,11 +1642,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140:D140"/>
+      <selection pane="bottomLeft" activeCell="B253" sqref="B253:D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2353,7 +2365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2361,33 +2373,33 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -2417,9 +2429,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2451,13 +2463,13 @@
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>110</v>
@@ -2489,10 +2501,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -2515,16 +2527,16 @@
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>30</v>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -2547,22 +2559,22 @@
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -2579,16 +2591,16 @@
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
@@ -2611,16 +2623,16 @@
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
@@ -2643,22 +2655,22 @@
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -2680,11 +2692,11 @@
       <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
-        <v>30</v>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
@@ -2707,16 +2719,16 @@
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
-        <v>30</v>
+      <c r="C34" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -2744,11 +2756,11 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C35" t="s">
-        <v>30</v>
+      <c r="C35" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
@@ -2771,16 +2783,16 @@
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
@@ -2803,16 +2815,16 @@
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C37" t="s">
-        <v>32</v>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -2840,11 +2852,11 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="C38" t="s">
-        <v>32</v>
+      <c r="C38" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -2867,16 +2879,16 @@
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
@@ -2899,22 +2911,22 @@
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
@@ -2931,22 +2943,22 @@
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -2963,7 +2975,7 @@
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -2972,7 +2984,7 @@
         <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
@@ -2993,7 +3005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -3001,10 +3013,10 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
@@ -3025,24 +3037,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -3068,7 +3080,7 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
@@ -3100,13 +3112,13 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -3123,7 +3135,7 @@
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -3132,7 +3144,7 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -3187,7 +3199,7 @@
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -3196,13 +3208,13 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -3219,7 +3231,7 @@
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -3228,7 +3240,7 @@
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
@@ -3251,7 +3263,7 @@
     </row>
     <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -3292,13 +3304,13 @@
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -3315,7 +3327,7 @@
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -3324,13 +3336,13 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -3356,7 +3368,7 @@
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -3379,7 +3391,7 @@
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -3388,13 +3400,13 @@
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
@@ -3411,7 +3423,7 @@
     </row>
     <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -3420,7 +3432,7 @@
         <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
@@ -3475,7 +3487,7 @@
     </row>
     <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -3484,7 +3496,7 @@
         <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
@@ -3507,16 +3519,16 @@
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -3537,24 +3549,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
@@ -3569,7 +3581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -3577,16 +3589,16 @@
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -3601,7 +3613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -3609,16 +3621,16 @@
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
@@ -3635,22 +3647,22 @@
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>55</v>
+      <c r="C63" t="s">
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
@@ -3667,16 +3679,16 @@
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -3699,16 +3711,16 @@
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -3729,18 +3741,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>55</v>
+      <c r="C66" t="s">
+        <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -3772,7 +3784,7 @@
         <v>55</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -3800,11 +3812,11 @@
       <c r="B68" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>55</v>
+      <c r="C68" t="s">
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -3832,17 +3844,17 @@
       <c r="B69" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>55</v>
+      <c r="C69" t="s">
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
         <v>13</v>
@@ -3864,11 +3876,11 @@
       <c r="B70" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>55</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
@@ -3891,16 +3903,16 @@
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>55</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -3923,16 +3935,16 @@
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
@@ -3960,11 +3972,11 @@
       <c r="B73" t="s">
         <v>26</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -3987,16 +3999,16 @@
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -4019,16 +4031,16 @@
     </row>
     <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -4060,7 +4072,7 @@
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -4081,18 +4093,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>55</v>
+      <c r="C77" t="s">
+        <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -4113,18 +4125,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>55</v>
+      <c r="C78" t="s">
+        <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -4145,18 +4157,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -4184,11 +4196,11 @@
       <c r="B80" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>55</v>
       </c>
       <c r="D80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4209,7 +4221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -4217,10 +4229,10 @@
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4241,7 +4253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4249,10 +4261,10 @@
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -4275,16 +4287,16 @@
     </row>
     <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -4312,11 +4324,11 @@
       <c r="B84" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>55</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4339,16 +4351,16 @@
     </row>
     <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s">
         <v>55</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
@@ -4371,51 +4383,51 @@
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" t="s">
-        <v>57</v>
+        <v>26</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
         <v>22</v>
@@ -4444,13 +4456,13 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G88" t="s">
         <v>13</v>
@@ -4467,7 +4479,7 @@
     </row>
     <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B89" t="s">
         <v>56</v>
@@ -4476,7 +4488,7 @@
         <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -4499,7 +4511,7 @@
     </row>
     <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
         <v>56</v>
@@ -4508,13 +4520,13 @@
         <v>57</v>
       </c>
       <c r="D90" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G90" t="s">
         <v>13</v>
@@ -4540,7 +4552,7 @@
         <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -4563,7 +4575,7 @@
     </row>
     <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
         <v>56</v>
@@ -4572,7 +4584,7 @@
         <v>57</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -4593,7 +4605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -4604,109 +4616,109 @@
         <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
       </c>
       <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
         <v>15</v>
       </c>
-      <c r="G93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" t="s">
         <v>57</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="D95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>16</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
         <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
@@ -4721,18 +4733,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" s="3" t="s">
+    <row r="97" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
         <v>56</v>
       </c>
       <c r="C97" t="s">
         <v>59</v>
       </c>
       <c r="D97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -4740,22 +4752,22 @@
       <c r="F97" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" s="1" t="s">
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>56</v>
@@ -4764,7 +4776,7 @@
         <v>59</v>
       </c>
       <c r="D98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
@@ -4786,17 +4798,17 @@
       </c>
     </row>
     <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="A99" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C99" t="s">
         <v>59</v>
       </c>
       <c r="D99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E99" t="s">
         <v>19</v>
@@ -4804,37 +4816,37 @@
       <c r="F99" t="s">
         <v>22</v>
       </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="G99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
         <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
         <v>13</v>
@@ -4851,22 +4863,22 @@
     </row>
     <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -4883,7 +4895,7 @@
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -4892,7 +4904,7 @@
         <v>60</v>
       </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="E102" t="s">
         <v>23</v>
@@ -4924,7 +4936,7 @@
         <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E103" t="s">
         <v>23</v>
@@ -4947,7 +4959,7 @@
     </row>
     <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -4956,7 +4968,7 @@
         <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -4979,7 +4991,7 @@
     </row>
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
@@ -4988,7 +5000,7 @@
         <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E105" t="s">
         <v>23</v>
@@ -5011,7 +5023,7 @@
     </row>
     <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -5020,7 +5032,7 @@
         <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E106" t="s">
         <v>23</v>
@@ -5043,7 +5055,7 @@
     </row>
     <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -5075,16 +5087,16 @@
     </row>
     <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="E108" t="s">
         <v>23</v>
@@ -5107,7 +5119,7 @@
     </row>
     <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -5116,7 +5128,7 @@
         <v>62</v>
       </c>
       <c r="D109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E109" t="s">
         <v>23</v>
@@ -5139,7 +5151,7 @@
     </row>
     <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
@@ -5148,7 +5160,7 @@
         <v>62</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E110" t="s">
         <v>23</v>
@@ -5180,13 +5192,13 @@
         <v>62</v>
       </c>
       <c r="D111" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E111" t="s">
         <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G111" t="s">
         <v>13</v>
@@ -5203,7 +5215,7 @@
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
@@ -5212,7 +5224,7 @@
         <v>62</v>
       </c>
       <c r="D112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E112" t="s">
         <v>23</v>
@@ -5235,7 +5247,7 @@
     </row>
     <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
@@ -5244,7 +5256,7 @@
         <v>62</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E113" t="s">
         <v>23</v>
@@ -5267,7 +5279,7 @@
     </row>
     <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
@@ -5276,7 +5288,7 @@
         <v>62</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E114" t="s">
         <v>23</v>
@@ -5299,7 +5311,7 @@
     </row>
     <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
@@ -5308,7 +5320,7 @@
         <v>62</v>
       </c>
       <c r="D115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E115" t="s">
         <v>23</v>
@@ -5340,7 +5352,7 @@
         <v>62</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
@@ -5363,7 +5375,7 @@
     </row>
     <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -5372,13 +5384,13 @@
         <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E117" t="s">
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G117" t="s">
         <v>13</v>
@@ -5395,7 +5407,7 @@
     </row>
     <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
@@ -5404,7 +5416,7 @@
         <v>62</v>
       </c>
       <c r="D118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E118" t="s">
         <v>23</v>
@@ -5427,7 +5439,7 @@
     </row>
     <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
@@ -5436,7 +5448,7 @@
         <v>62</v>
       </c>
       <c r="D119" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="E119" t="s">
         <v>23</v>
@@ -5459,7 +5471,7 @@
     </row>
     <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -5468,7 +5480,7 @@
         <v>62</v>
       </c>
       <c r="D120" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
@@ -5491,7 +5503,7 @@
     </row>
     <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
@@ -5500,30 +5512,30 @@
         <v>62</v>
       </c>
       <c r="D121" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="E121" t="s">
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
@@ -5555,34 +5567,34 @@
     </row>
     <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D123" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -5596,7 +5608,7 @@
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E124" t="s">
         <v>23</v>
@@ -5605,16 +5617,16 @@
         <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I124" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J124" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -5628,7 +5640,7 @@
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
@@ -5637,21 +5649,21 @@
         <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I125" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J125" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
@@ -5660,13 +5672,13 @@
         <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E126" t="s">
         <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G126" t="s">
         <v>13</v>
@@ -5683,7 +5695,7 @@
     </row>
     <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -5715,7 +5727,7 @@
     </row>
     <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
@@ -5724,7 +5736,7 @@
         <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
@@ -5756,25 +5768,25 @@
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E129" t="s">
         <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I129" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J129" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -5788,30 +5800,30 @@
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="E130" t="s">
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I130" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J130" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
@@ -5820,7 +5832,7 @@
         <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="E131" t="s">
         <v>23</v>
@@ -5843,7 +5855,7 @@
     </row>
     <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
@@ -5852,7 +5864,7 @@
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
@@ -5873,7 +5885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -5881,63 +5893,63 @@
         <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E133" t="s">
         <v>23</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I133" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I134" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -5948,30 +5960,30 @@
         <v>65</v>
       </c>
       <c r="D135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E135" t="s">
         <v>23</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G135" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="I135" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J135" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
@@ -5980,7 +5992,7 @@
         <v>65</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="E136" t="s">
         <v>23</v>
@@ -6001,9 +6013,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
@@ -6012,7 +6024,7 @@
         <v>65</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E137" t="s">
         <v>23</v>
@@ -6021,21 +6033,21 @@
         <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H137" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="I137" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B138" t="s">
         <v>20</v>
@@ -6044,13 +6056,13 @@
         <v>65</v>
       </c>
       <c r="D138" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E138" t="s">
         <v>23</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
@@ -6065,9 +6077,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
         <v>20</v>
@@ -6076,13 +6088,13 @@
         <v>65</v>
       </c>
       <c r="D139" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E139" t="s">
         <v>23</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G139" t="s">
         <v>13</v>
@@ -6097,21 +6109,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D140" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E140" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F140" t="s">
         <v>22</v>
@@ -6129,21 +6141,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B141" t="s">
         <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D141" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E141" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F141" t="s">
         <v>22</v>
@@ -6161,9 +6173,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B142" t="s">
         <v>20</v>
@@ -6172,7 +6184,7 @@
         <v>66</v>
       </c>
       <c r="D142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
@@ -6193,9 +6205,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B143" t="s">
         <v>20</v>
@@ -6204,7 +6216,7 @@
         <v>66</v>
       </c>
       <c r="D143" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -6225,9 +6237,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
         <v>20</v>
@@ -6236,7 +6248,7 @@
         <v>66</v>
       </c>
       <c r="D144" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E144" t="s">
         <v>19</v>
@@ -6259,22 +6271,22 @@
     </row>
     <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="D145" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="E145" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G145" t="s">
         <v>13</v>
@@ -6291,34 +6303,34 @@
     </row>
     <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B146" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D146" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G146" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6329,10 +6341,10 @@
         <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D147" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -6341,19 +6353,19 @@
         <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J147" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -6364,7 +6376,7 @@
         <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -6396,7 +6408,7 @@
         <v>27</v>
       </c>
       <c r="D149" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -6417,7 +6429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -6428,7 +6440,7 @@
         <v>27</v>
       </c>
       <c r="D150" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -6451,7 +6463,7 @@
     </row>
     <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
         <v>28</v>
@@ -6460,7 +6472,7 @@
         <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -6489,10 +6501,10 @@
         <v>28</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -6501,30 +6513,30 @@
         <v>15</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B153" t="s">
         <v>28</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -6533,16 +6545,16 @@
         <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H153" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6556,7 +6568,7 @@
         <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6588,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -6620,7 +6632,7 @@
         <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -6643,7 +6655,7 @@
     </row>
     <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
         <v>28</v>
@@ -6652,7 +6664,7 @@
         <v>29</v>
       </c>
       <c r="D157" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
@@ -6684,7 +6696,7 @@
         <v>29</v>
       </c>
       <c r="D158" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -6707,22 +6719,22 @@
     </row>
     <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B159" t="s">
         <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D159" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G159" t="s">
         <v>13</v>
@@ -6739,22 +6751,22 @@
     </row>
     <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
         <v>28</v>
       </c>
       <c r="C160" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D160" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E160" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G160" t="s">
         <v>13</v>
@@ -6771,7 +6783,7 @@
     </row>
     <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B161" t="s">
         <v>28</v>
@@ -6780,13 +6792,13 @@
         <v>71</v>
       </c>
       <c r="D161" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E161" t="s">
         <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G161" t="s">
         <v>13</v>
@@ -6812,13 +6824,13 @@
         <v>71</v>
       </c>
       <c r="D162" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G162" t="s">
         <v>13</v>
@@ -6844,30 +6856,30 @@
         <v>71</v>
       </c>
       <c r="D163" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E163" t="s">
         <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G163" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H163" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I163" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J163" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B164" t="s">
         <v>28</v>
@@ -6876,30 +6888,30 @@
         <v>71</v>
       </c>
       <c r="D164" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G164" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I164" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B165" t="s">
         <v>28</v>
@@ -6908,13 +6920,13 @@
         <v>71</v>
       </c>
       <c r="D165" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E165" t="s">
         <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G165" t="s">
         <v>20</v>
@@ -6926,7 +6938,7 @@
         <v>23</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6940,13 +6952,13 @@
         <v>71</v>
       </c>
       <c r="D166" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E166" t="s">
         <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G166" t="s">
         <v>20</v>
@@ -6958,7 +6970,7 @@
         <v>23</v>
       </c>
       <c r="J166" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -6972,13 +6984,13 @@
         <v>71</v>
       </c>
       <c r="D167" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E167" t="s">
         <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G167" t="s">
         <v>20</v>
@@ -6990,7 +7002,7 @@
         <v>23</v>
       </c>
       <c r="J167" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -7004,13 +7016,13 @@
         <v>71</v>
       </c>
       <c r="D168" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E168" t="s">
         <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G168" t="s">
         <v>20</v>
@@ -7022,7 +7034,7 @@
         <v>23</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -7036,13 +7048,13 @@
         <v>71</v>
       </c>
       <c r="D169" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E169" t="s">
         <v>23</v>
       </c>
       <c r="F169" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G169" t="s">
         <v>20</v>
@@ -7054,12 +7066,12 @@
         <v>23</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
         <v>28</v>
@@ -7068,30 +7080,30 @@
         <v>71</v>
       </c>
       <c r="D170" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="E170" t="s">
         <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H170" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I170" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B171" t="s">
         <v>28</v>
@@ -7100,103 +7112,103 @@
         <v>71</v>
       </c>
       <c r="D171" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E171" t="s">
         <v>23</v>
       </c>
       <c r="F171" t="s">
+        <v>50</v>
+      </c>
+      <c r="G171" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" t="s">
+        <v>62</v>
+      </c>
+      <c r="I171" t="s">
+        <v>23</v>
+      </c>
+      <c r="J171" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>93</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" t="s">
+        <v>71</v>
+      </c>
+      <c r="D172" t="s">
+        <v>99</v>
+      </c>
+      <c r="E172" t="s">
+        <v>23</v>
+      </c>
+      <c r="F172" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s">
+        <v>13</v>
+      </c>
+      <c r="J172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>71</v>
+      </c>
+      <c r="D173" t="s">
+        <v>179</v>
+      </c>
+      <c r="E173" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173" t="s">
         <v>15</v>
       </c>
-      <c r="G171" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" t="s">
-        <v>13</v>
-      </c>
-      <c r="J171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s">
-        <v>13</v>
-      </c>
-      <c r="H172" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" t="s">
-        <v>13</v>
-      </c>
-      <c r="J172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J173" s="3" t="s">
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" t="s">
+        <v>13</v>
+      </c>
+      <c r="J173" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>23</v>
@@ -7204,22 +7216,22 @@
       <c r="F174" t="s">
         <v>22</v>
       </c>
-      <c r="G174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J174" s="3" t="s">
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" t="s">
+        <v>13</v>
+      </c>
+      <c r="J174" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>28</v>
@@ -7228,25 +7240,25 @@
         <v>73</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F175" s="3" t="s">
-        <v>50</v>
+      <c r="F175" t="s">
+        <v>22</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -7260,30 +7272,30 @@
         <v>73</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F176" s="3" t="s">
-        <v>50</v>
+      <c r="F176" t="s">
+        <v>22</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>28</v>
@@ -7315,7 +7327,7 @@
     </row>
     <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>28</v>
@@ -7324,13 +7336,13 @@
         <v>73</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F178" t="s">
-        <v>22</v>
+      <c r="F178" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>20</v>
@@ -7347,7 +7359,7 @@
     </row>
     <row r="179" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>28</v>
@@ -7356,13 +7368,13 @@
         <v>73</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F179" t="s">
-        <v>22</v>
+      <c r="F179" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>20</v>
@@ -7379,7 +7391,7 @@
     </row>
     <row r="180" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>28</v>
@@ -7409,23 +7421,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181" t="s">
         <v>22</v>
       </c>
       <c r="G181" s="3" t="s">
@@ -7441,21 +7453,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>10</v>
-      </c>
-      <c r="B182" t="s">
+    <row r="182" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C182" t="s">
-        <v>76</v>
+      <c r="C182" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E182" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F182" t="s">
         <v>22</v>
@@ -7474,22 +7486,22 @@
       </c>
     </row>
     <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>10</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="A183" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D183" t="s">
-        <v>183</v>
-      </c>
-      <c r="E183" t="s">
+      <c r="D183" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G183" s="3" t="s">
@@ -7507,34 +7519,34 @@
     </row>
     <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
         <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>77</v>
-      </c>
-      <c r="D184" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E184" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" t="s">
-        <v>13</v>
-      </c>
-      <c r="I184" t="s">
-        <v>13</v>
-      </c>
-      <c r="J184" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -7545,28 +7557,28 @@
         <v>28</v>
       </c>
       <c r="C185" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D185" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="E185" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" t="s">
-        <v>13</v>
-      </c>
-      <c r="H185" t="s">
-        <v>13</v>
-      </c>
-      <c r="I185" t="s">
-        <v>13</v>
-      </c>
-      <c r="J185" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
@@ -7580,7 +7592,7 @@
         <v>77</v>
       </c>
       <c r="D186" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -7612,7 +7624,7 @@
         <v>77</v>
       </c>
       <c r="D187" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -7635,7 +7647,7 @@
     </row>
     <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B188" t="s">
         <v>28</v>
@@ -7644,7 +7656,7 @@
         <v>77</v>
       </c>
       <c r="D188" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
@@ -7676,7 +7688,7 @@
         <v>77</v>
       </c>
       <c r="D189" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
@@ -7699,7 +7711,7 @@
     </row>
     <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B190" t="s">
         <v>28</v>
@@ -7708,13 +7720,13 @@
         <v>77</v>
       </c>
       <c r="D190" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G190" t="s">
         <v>13</v>
@@ -7740,13 +7752,13 @@
         <v>77</v>
       </c>
       <c r="D191" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E191" t="s">
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G191" t="s">
         <v>13</v>
@@ -7766,19 +7778,19 @@
         <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C192" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D192" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="E192" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G192" t="s">
         <v>13</v>
@@ -7795,22 +7807,22 @@
     </row>
     <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D193" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="E193" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G193" t="s">
         <v>13</v>
@@ -7836,7 +7848,7 @@
         <v>113</v>
       </c>
       <c r="D194" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E194" t="s">
         <v>19</v>
@@ -7868,7 +7880,7 @@
         <v>113</v>
       </c>
       <c r="D195" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E195" t="s">
         <v>19</v>
@@ -7900,7 +7912,7 @@
         <v>113</v>
       </c>
       <c r="D196" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="E196" t="s">
         <v>19</v>
@@ -7923,7 +7935,7 @@
     </row>
     <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B197" t="s">
         <v>80</v>
@@ -7932,7 +7944,7 @@
         <v>113</v>
       </c>
       <c r="D197" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="E197" t="s">
         <v>19</v>
@@ -7955,7 +7967,7 @@
     </row>
     <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B198" t="s">
         <v>80</v>
@@ -7964,7 +7976,7 @@
         <v>113</v>
       </c>
       <c r="D198" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E198" t="s">
         <v>19</v>
@@ -7987,22 +7999,22 @@
     </row>
     <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
         <v>80</v>
       </c>
       <c r="C199" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D199" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="E199" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F199" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G199" t="s">
         <v>13</v>
@@ -8025,16 +8037,16 @@
         <v>80</v>
       </c>
       <c r="C200" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D200" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="E200" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F200" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G200" t="s">
         <v>13</v>
@@ -8060,7 +8072,7 @@
         <v>84</v>
       </c>
       <c r="D201" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
@@ -8083,7 +8095,7 @@
     </row>
     <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B202" t="s">
         <v>80</v>
@@ -8092,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="D202" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -8115,7 +8127,7 @@
     </row>
     <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B203" t="s">
         <v>80</v>
@@ -8147,7 +8159,7 @@
     </row>
     <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
         <v>80</v>
@@ -8156,7 +8168,7 @@
         <v>84</v>
       </c>
       <c r="D204" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E204" t="s">
         <v>23</v>
@@ -8188,7 +8200,7 @@
         <v>84</v>
       </c>
       <c r="D205" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E205" t="s">
         <v>23</v>
@@ -8211,7 +8223,7 @@
     </row>
     <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B206" t="s">
         <v>80</v>
@@ -8220,13 +8232,13 @@
         <v>84</v>
       </c>
       <c r="D206" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="E206" t="s">
         <v>23</v>
       </c>
       <c r="F206" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G206" t="s">
         <v>13</v>
@@ -8243,7 +8255,7 @@
     </row>
     <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B207" t="s">
         <v>80</v>
@@ -8252,7 +8264,7 @@
         <v>84</v>
       </c>
       <c r="D207" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8275,7 +8287,7 @@
     </row>
     <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
         <v>80</v>
@@ -8284,13 +8296,13 @@
         <v>84</v>
       </c>
       <c r="D208" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E208" t="s">
         <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G208" t="s">
         <v>13</v>
@@ -8307,7 +8319,7 @@
     </row>
     <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
         <v>80</v>
@@ -8316,7 +8328,7 @@
         <v>84</v>
       </c>
       <c r="D209" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E209" t="s">
         <v>23</v>
@@ -8339,16 +8351,16 @@
     </row>
     <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B210" t="s">
         <v>80</v>
       </c>
       <c r="C210" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D210" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E210" t="s">
         <v>23</v>
@@ -8371,16 +8383,16 @@
     </row>
     <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B211" t="s">
         <v>80</v>
       </c>
       <c r="C211" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D211" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E211" t="s">
         <v>23</v>
@@ -8403,7 +8415,7 @@
     </row>
     <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B212" t="s">
         <v>80</v>
@@ -8435,7 +8447,7 @@
     </row>
     <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B213" t="s">
         <v>80</v>
@@ -8444,13 +8456,13 @@
         <v>85</v>
       </c>
       <c r="D213" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
       </c>
       <c r="F213" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G213" t="s">
         <v>13</v>
@@ -8467,7 +8479,7 @@
     </row>
     <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B214" t="s">
         <v>80</v>
@@ -8476,13 +8488,13 @@
         <v>85</v>
       </c>
       <c r="D214" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E214" t="s">
         <v>23</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G214" t="s">
         <v>13</v>
@@ -8499,7 +8511,7 @@
     </row>
     <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
         <v>80</v>
@@ -8508,13 +8520,13 @@
         <v>85</v>
       </c>
       <c r="D215" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="E215" t="s">
         <v>23</v>
       </c>
       <c r="F215" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G215" t="s">
         <v>13</v>
@@ -8531,7 +8543,7 @@
     </row>
     <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B216" t="s">
         <v>80</v>
@@ -8563,7 +8575,7 @@
     </row>
     <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B217" t="s">
         <v>80</v>
@@ -8572,13 +8584,13 @@
         <v>85</v>
       </c>
       <c r="D217" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="E217" t="s">
         <v>23</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G217" t="s">
         <v>13</v>
@@ -8595,22 +8607,22 @@
     </row>
     <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B218" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C218" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D218" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E218" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F218" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G218" t="s">
         <v>13</v>
@@ -8630,16 +8642,16 @@
         <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C219" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D219" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E219" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F219" t="s">
         <v>15</v>
@@ -8659,7 +8671,7 @@
     </row>
     <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B220" t="s">
         <v>88</v>
@@ -8668,7 +8680,7 @@
         <v>89</v>
       </c>
       <c r="D220" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
@@ -8691,7 +8703,7 @@
     </row>
     <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B221" t="s">
         <v>88</v>
@@ -8700,7 +8712,7 @@
         <v>89</v>
       </c>
       <c r="D221" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8723,22 +8735,22 @@
     </row>
     <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B222" t="s">
         <v>88</v>
       </c>
       <c r="C222" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D222" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G222" t="s">
         <v>13</v>
@@ -8755,16 +8767,16 @@
     </row>
     <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B223" t="s">
         <v>88</v>
       </c>
       <c r="C223" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D223" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
@@ -8787,7 +8799,7 @@
     </row>
     <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s">
         <v>88</v>
@@ -8796,13 +8808,13 @@
         <v>91</v>
       </c>
       <c r="D224" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G224" t="s">
         <v>13</v>
@@ -8828,7 +8840,7 @@
         <v>91</v>
       </c>
       <c r="D225" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
@@ -8851,7 +8863,7 @@
     </row>
     <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B226" t="s">
         <v>88</v>
@@ -8860,7 +8872,7 @@
         <v>91</v>
       </c>
       <c r="D226" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
@@ -8889,10 +8901,10 @@
         <v>88</v>
       </c>
       <c r="C227" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D227" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
@@ -8915,16 +8927,16 @@
     </row>
     <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B228" t="s">
         <v>88</v>
       </c>
       <c r="C228" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D228" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -8947,16 +8959,16 @@
     </row>
     <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B229" t="s">
         <v>88</v>
       </c>
       <c r="C229" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D229" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
@@ -8985,10 +8997,10 @@
         <v>88</v>
       </c>
       <c r="C230" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D230" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
@@ -9020,13 +9032,13 @@
         <v>91</v>
       </c>
       <c r="D231" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G231" t="s">
         <v>13</v>
@@ -9041,21 +9053,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>16</v>
       </c>
       <c r="B232" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C232" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D232" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E232" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F232" t="s">
         <v>15</v>
@@ -9073,35 +9085,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>16</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E233" s="3" t="s">
+      <c r="B233" t="s">
+        <v>88</v>
+      </c>
+      <c r="C233" t="s">
+        <v>91</v>
+      </c>
+      <c r="D233" t="s">
+        <v>205</v>
+      </c>
+      <c r="E233" t="s">
         <v>14</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F233" t="s">
         <v>50</v>
       </c>
-      <c r="G233" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I233" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J233" s="3" t="s">
+      <c r="G233" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" t="s">
+        <v>13</v>
+      </c>
+      <c r="I233" t="s">
+        <v>13</v>
+      </c>
+      <c r="J233" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9110,77 +9122,77 @@
         <v>16</v>
       </c>
       <c r="B234" t="s">
+        <v>20</v>
+      </c>
+      <c r="C234" t="s">
+        <v>65</v>
+      </c>
+      <c r="D234" t="s">
+        <v>67</v>
+      </c>
+      <c r="E234" t="s">
+        <v>23</v>
+      </c>
+      <c r="F234" t="s">
+        <v>15</v>
+      </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
+        <v>13</v>
+      </c>
+      <c r="I234" t="s">
+        <v>13</v>
+      </c>
+      <c r="J234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>93</v>
+      </c>
+      <c r="B235" t="s">
         <v>56</v>
       </c>
-      <c r="C234" t="s">
-        <v>57</v>
-      </c>
-      <c r="D234" t="s">
-        <v>142</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="C235" t="s">
+        <v>95</v>
+      </c>
+      <c r="D235" t="s">
+        <v>97</v>
+      </c>
+      <c r="E235" t="s">
         <v>14</v>
       </c>
-      <c r="F234" t="s">
-        <v>22</v>
-      </c>
-      <c r="G234" t="s">
-        <v>13</v>
-      </c>
-      <c r="H234" t="s">
-        <v>13</v>
-      </c>
-      <c r="I234" t="s">
-        <v>13</v>
-      </c>
-      <c r="J234" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>16</v>
-      </c>
-      <c r="B235" t="s">
-        <v>20</v>
-      </c>
-      <c r="C235" t="s">
-        <v>65</v>
-      </c>
-      <c r="D235" t="s">
-        <v>209</v>
-      </c>
-      <c r="E235" t="s">
-        <v>23</v>
-      </c>
       <c r="F235" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H235" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J235" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B236" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C236" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D236" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="E236" t="s">
         <v>19</v>
@@ -9201,25 +9213,569 @@
         <v>13</v>
       </c>
     </row>
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>16</v>
+      </c>
+      <c r="B237" t="s">
+        <v>20</v>
+      </c>
+      <c r="C237" t="s">
+        <v>65</v>
+      </c>
+      <c r="D237" t="s">
+        <v>208</v>
+      </c>
+      <c r="E237" t="s">
+        <v>23</v>
+      </c>
+      <c r="F237" t="s">
+        <v>22</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
+      <c r="H237" t="s">
+        <v>13</v>
+      </c>
+      <c r="I237" t="s">
+        <v>13</v>
+      </c>
+      <c r="J237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>93</v>
+      </c>
+      <c r="B238" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D238" t="s">
+        <v>210</v>
+      </c>
+      <c r="E238" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238" t="s">
+        <v>22</v>
+      </c>
+      <c r="G238" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" t="s">
+        <v>13</v>
+      </c>
+      <c r="I238" t="s">
+        <v>13</v>
+      </c>
+      <c r="J238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>16</v>
+      </c>
+      <c r="B239" t="s">
+        <v>56</v>
+      </c>
+      <c r="C239" t="s">
+        <v>57</v>
+      </c>
+      <c r="D239" t="s">
+        <v>144</v>
+      </c>
+      <c r="E239" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" t="s">
+        <v>13</v>
+      </c>
+      <c r="I239" t="s">
+        <v>13</v>
+      </c>
+      <c r="J239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>93</v>
+      </c>
+      <c r="B240" t="s">
+        <v>56</v>
+      </c>
+      <c r="C240" t="s">
+        <v>57</v>
+      </c>
+      <c r="D240" t="s">
+        <v>144</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" t="s">
+        <v>15</v>
+      </c>
+      <c r="G240" t="s">
+        <v>13</v>
+      </c>
+      <c r="H240" t="s">
+        <v>13</v>
+      </c>
+      <c r="I240" t="s">
+        <v>13</v>
+      </c>
+      <c r="J240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" t="s">
+        <v>56</v>
+      </c>
+      <c r="C241" t="s">
+        <v>57</v>
+      </c>
+      <c r="D241" t="s">
+        <v>144</v>
+      </c>
+      <c r="E241" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" t="s">
+        <v>15</v>
+      </c>
+      <c r="G241" t="s">
+        <v>13</v>
+      </c>
+      <c r="H241" t="s">
+        <v>13</v>
+      </c>
+      <c r="I241" t="s">
+        <v>13</v>
+      </c>
+      <c r="J241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>16</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>20</v>
+      </c>
+      <c r="C245" t="s">
+        <v>65</v>
+      </c>
+      <c r="D245" t="s">
+        <v>208</v>
+      </c>
+      <c r="E245" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245" t="s">
+        <v>22</v>
+      </c>
+      <c r="G245" t="s">
+        <v>13</v>
+      </c>
+      <c r="H245" t="s">
+        <v>13</v>
+      </c>
+      <c r="I245" t="s">
+        <v>13</v>
+      </c>
+      <c r="J245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>26</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D246" t="s">
+        <v>47</v>
+      </c>
+      <c r="E246" t="s">
+        <v>19</v>
+      </c>
+      <c r="F246" t="s">
+        <v>22</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" t="s">
+        <v>13</v>
+      </c>
+      <c r="J246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" t="s">
+        <v>129</v>
+      </c>
+      <c r="E247" t="s">
+        <v>19</v>
+      </c>
+      <c r="F247" t="s">
+        <v>22</v>
+      </c>
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" t="s">
+        <v>13</v>
+      </c>
+      <c r="J247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B248" t="s">
+        <v>28</v>
+      </c>
+      <c r="C248" t="s">
+        <v>77</v>
+      </c>
+      <c r="D248" t="s">
+        <v>183</v>
+      </c>
+      <c r="E248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" t="s">
+        <v>15</v>
+      </c>
+      <c r="G248" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" t="s">
+        <v>13</v>
+      </c>
+      <c r="I248" t="s">
+        <v>13</v>
+      </c>
+      <c r="J248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>93</v>
+      </c>
+      <c r="B249" t="s">
+        <v>20</v>
+      </c>
+      <c r="C249" t="s">
+        <v>65</v>
+      </c>
+      <c r="D249" t="s">
+        <v>161</v>
+      </c>
+      <c r="E249" t="s">
+        <v>23</v>
+      </c>
+      <c r="F249" t="s">
+        <v>50</v>
+      </c>
+      <c r="G249" t="s">
+        <v>13</v>
+      </c>
+      <c r="H249" t="s">
+        <v>13</v>
+      </c>
+      <c r="I249" t="s">
+        <v>13</v>
+      </c>
+      <c r="J249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
+        <v>26</v>
+      </c>
+      <c r="C250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D250" t="s">
+        <v>125</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" t="s">
+        <v>28</v>
+      </c>
+      <c r="H250" t="s">
+        <v>29</v>
+      </c>
+      <c r="I250" t="s">
+        <v>14</v>
+      </c>
+      <c r="J250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>93</v>
+      </c>
+      <c r="B251" t="s">
+        <v>20</v>
+      </c>
+      <c r="C251" t="s">
+        <v>62</v>
+      </c>
+      <c r="D251" t="s">
+        <v>212</v>
+      </c>
+      <c r="E251" t="s">
+        <v>23</v>
+      </c>
+      <c r="F251" t="s">
+        <v>22</v>
+      </c>
+      <c r="G251" t="s">
+        <v>13</v>
+      </c>
+      <c r="H251" t="s">
+        <v>13</v>
+      </c>
+      <c r="I251" t="s">
+        <v>13</v>
+      </c>
+      <c r="J251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>93</v>
+      </c>
+      <c r="B252" t="s">
+        <v>20</v>
+      </c>
+      <c r="C252" t="s">
+        <v>62</v>
+      </c>
+      <c r="D252" t="s">
+        <v>94</v>
+      </c>
+      <c r="E252" t="s">
+        <v>23</v>
+      </c>
+      <c r="F252" t="s">
+        <v>14</v>
+      </c>
+      <c r="G252" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252" t="s">
+        <v>12</v>
+      </c>
+      <c r="I252" t="s">
+        <v>14</v>
+      </c>
+      <c r="J252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>93</v>
+      </c>
+      <c r="B253" t="s">
+        <v>26</v>
+      </c>
+      <c r="C253" t="s">
+        <v>30</v>
+      </c>
+      <c r="D253" t="s">
+        <v>213</v>
+      </c>
+      <c r="E253" t="s">
+        <v>19</v>
+      </c>
+      <c r="F253" t="s">
+        <v>22</v>
+      </c>
+      <c r="G253" t="s">
+        <v>13</v>
+      </c>
+      <c r="H253" t="s">
+        <v>13</v>
+      </c>
+      <c r="I253" t="s">
+        <v>13</v>
+      </c>
+      <c r="J253" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J236" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J252" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Other Soil Properties"/>
+        <filter val="Crop Yields"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="Physical Properties"/>
-        <filter val="Soil Structure"/>
+        <filter val="Crop Growth"/>
+        <filter val="Crop Quality"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J22">
-      <sortCondition ref="D1:D227"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:J250">
+      <sortCondition ref="D1:D252"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A40:J243">
-    <sortCondition ref="D2:D243"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J245">
+    <sortCondition ref="D2:D245"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F271DD7-BEA9-4DC0-BC4A-20385451C477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3537ED9-18CE-4A56-BCBC-D6B004698EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32730" yWindow="2835" windowWidth="14400" windowHeight="8265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
     <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$258</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="213">
   <si>
     <t>Review</t>
   </si>
@@ -208,12 +208,6 @@
     <t>Economics</t>
   </si>
   <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
     <t>Income</t>
   </si>
   <si>
@@ -322,15 +316,6 @@
     <t>Respiration</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Fertilizers</t>
-  </si>
-  <si>
-    <t>Nitrous oxide emission economic intensity</t>
-  </si>
-  <si>
     <t>Fungivores</t>
   </si>
   <si>
@@ -463,27 +448,6 @@
     <t>Sweet potato</t>
   </si>
   <si>
-    <t>Benefit-cost ratio</t>
-  </si>
-  <si>
-    <t>Gross output</t>
-  </si>
-  <si>
-    <t>Total costs</t>
-  </si>
-  <si>
-    <t>Variable cost</t>
-  </si>
-  <si>
-    <t>Marginal rate of return</t>
-  </si>
-  <si>
-    <t>Net income</t>
-  </si>
-  <si>
-    <t>Pest damage</t>
-  </si>
-  <si>
     <t>Light intensity</t>
   </si>
   <si>
@@ -677,6 +641,39 @@
   </si>
   <si>
     <t>Nodule count</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Labour Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Variable Cost</t>
+  </si>
+  <si>
+    <t>Economic Performance</t>
+  </si>
+  <si>
+    <t>Benefit Cost Ratio (GRTC)</t>
+  </si>
+  <si>
+    <t>Benefit Cost Ratio (GRVC)</t>
+  </si>
+  <si>
+    <t>Benefit Cost Ratio (NRTC)</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Gross Return</t>
+  </si>
+  <si>
+    <t>Net Return</t>
   </si>
 </sst>
 </file>
@@ -1547,10 +1544,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1558,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1566,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1574,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1582,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1590,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1598,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1606,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1614,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1622,7 +1619,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1630,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1641,12 +1638,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J253"/>
+  <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B253" sqref="B253:D253"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1693,7 +1689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1725,9 +1721,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1736,7 +1732,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1757,7 +1753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1768,7 +1764,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1789,7 +1785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1821,9 +1817,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1832,7 +1828,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1853,7 +1849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1864,7 +1860,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1885,9 +1881,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1896,7 +1892,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1917,7 +1913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1924,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1949,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1981,9 +1977,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2013,7 +2009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -2045,9 +2041,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -2056,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -2077,7 +2073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2088,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -2109,7 +2105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2116,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -2141,7 +2137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -2173,7 +2169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2184,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -2205,9 +2201,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -2216,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -2237,9 +2233,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -2248,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2269,9 +2265,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -2280,7 +2276,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -2301,7 +2297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2312,7 +2308,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -2333,7 +2329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2344,7 +2340,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -2376,7 +2372,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -2399,7 +2395,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -2408,7 +2404,7 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -2440,7 +2436,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
@@ -2461,7 +2457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -2493,9 +2489,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2504,7 +2500,7 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -2525,7 +2521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2557,9 +2553,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2589,7 +2585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2621,7 +2617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2632,7 +2628,7 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
@@ -2653,9 +2649,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -2664,7 +2660,7 @@
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -2685,7 +2681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2717,7 +2713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2749,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2781,7 +2777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2813,7 +2809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2845,7 +2841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2877,9 +2873,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -2909,7 +2905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2941,9 +2937,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -2952,7 +2948,7 @@
         <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
@@ -2973,7 +2969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +2980,7 @@
         <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
@@ -3007,7 +3003,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -3016,7 +3012,7 @@
         <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
@@ -3048,7 +3044,7 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -3069,7 +3065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -3080,7 +3076,7 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
@@ -3101,7 +3097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3112,7 +3108,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -3133,9 +3129,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -3144,7 +3140,7 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -3165,7 +3161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3176,7 +3172,7 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
@@ -3197,7 +3193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3208,7 +3204,7 @@
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
@@ -3229,9 +3225,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -3240,7 +3236,7 @@
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
@@ -3261,7 +3257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -3272,7 +3268,7 @@
         <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
@@ -3293,7 +3289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -3304,7 +3300,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
@@ -3325,9 +3321,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -3336,7 +3332,7 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
@@ -3357,7 +3353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -3389,7 +3385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -3400,7 +3396,7 @@
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
@@ -3421,9 +3417,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -3432,7 +3428,7 @@
         <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
@@ -3453,9 +3449,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -3464,7 +3460,7 @@
         <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
         <v>19</v>
@@ -3485,7 +3481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3496,7 +3492,7 @@
         <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
@@ -3517,7 +3513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -3528,7 +3524,7 @@
         <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -3560,7 +3556,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
@@ -3592,7 +3588,7 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
@@ -3615,7 +3611,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -3624,7 +3620,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
@@ -3645,9 +3641,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -3656,7 +3652,7 @@
         <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -3677,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3688,7 +3684,7 @@
         <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -3709,9 +3705,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -3720,7 +3716,7 @@
         <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -3752,7 +3748,7 @@
         <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -3773,7 +3769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3805,7 +3801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3837,7 +3833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -3869,7 +3865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3901,9 +3897,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -3933,7 +3929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -3965,7 +3961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3997,7 +3993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -4029,7 +4025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -4040,7 +4036,7 @@
         <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -4061,7 +4057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -4104,7 +4100,7 @@
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -4127,7 +4123,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -4136,7 +4132,7 @@
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -4168,7 +4164,7 @@
         <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -4189,7 +4185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4232,7 +4228,7 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4255,7 +4251,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -4264,7 +4260,7 @@
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -4285,7 +4281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4317,7 +4313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -4349,9 +4345,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -4381,7 +4377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -4413,7 +4409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -4424,7 +4420,7 @@
         <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -4445,21 +4441,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -4477,7 +4473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -4485,13 +4481,13 @@
         <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D89" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -4509,7 +4505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -4517,13 +4513,13 @@
         <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -4541,24 +4537,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
@@ -4573,24 +4569,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
         <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
         <v>13</v>
@@ -4605,21 +4601,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
         <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -4637,24 +4633,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
         <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
         <v>13</v>
@@ -4669,24 +4665,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
         <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D95" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
@@ -4701,7 +4697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -4709,16 +4705,16 @@
         <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
@@ -4733,7 +4729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -4741,16 +4737,16 @@
         <v>56</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="E97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
         <v>13</v>
@@ -4765,24 +4761,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B98" t="s">
         <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="D98" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
@@ -4797,39 +4793,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="3" t="s">
+    <row r="99" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
         <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="D99" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="E99" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -4837,10 +4833,10 @@
         <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -4861,7 +4857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -4869,10 +4865,10 @@
         <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
@@ -4893,56 +4889,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>16</v>
       </c>
-      <c r="B102" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" t="s">
-        <v>60</v>
-      </c>
-      <c r="D102" t="s">
-        <v>61</v>
-      </c>
-      <c r="E102" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102" t="s">
-        <v>50</v>
-      </c>
-      <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" t="s">
-        <v>13</v>
-      </c>
-      <c r="J102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>10</v>
-      </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G103" t="s">
         <v>13</v>
@@ -4957,24 +4953,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D104" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="E104" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
@@ -4989,56 +4985,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>16</v>
       </c>
-      <c r="B105" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" t="s">
-        <v>60</v>
-      </c>
-      <c r="D105" t="s">
-        <v>150</v>
-      </c>
-      <c r="E105" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" t="s">
-        <v>50</v>
-      </c>
-      <c r="G105" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>93</v>
-      </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D106" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G106" t="s">
         <v>13</v>
@@ -5053,56 +5049,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" t="s">
-        <v>20</v>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D107" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" t="s">
-        <v>13</v>
-      </c>
-      <c r="J107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C108" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G108" t="s">
         <v>13</v>
@@ -5117,7 +5113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -5125,10 +5121,10 @@
         <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="E109" t="s">
         <v>23</v>
@@ -5149,18 +5145,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E110" t="s">
         <v>23</v>
@@ -5181,7 +5177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -5189,10 +5185,10 @@
         <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E111" t="s">
         <v>23</v>
@@ -5213,24 +5209,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E112" t="s">
         <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
@@ -5245,24 +5241,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E113" t="s">
         <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
@@ -5277,24 +5273,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D114" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="E114" t="s">
         <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
         <v>13</v>
@@ -5309,24 +5305,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D115" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="E115" t="s">
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s">
         <v>13</v>
@@ -5341,24 +5337,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D116" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G116" t="s">
         <v>13</v>
@@ -5373,24 +5369,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D117" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E117" t="s">
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s">
         <v>13</v>
@@ -5405,18 +5401,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D118" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E118" t="s">
         <v>23</v>
@@ -5437,24 +5433,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D119" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E119" t="s">
         <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
@@ -5469,7 +5465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -5477,16 +5473,16 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D120" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
@@ -5501,24 +5497,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D121" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="E121" t="s">
         <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G121" t="s">
         <v>13</v>
@@ -5533,7 +5529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -5541,74 +5537,74 @@
         <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D122" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E122" t="s">
         <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D123" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D124" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E124" t="s">
         <v>23</v>
@@ -5629,56 +5625,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I125" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J125" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D126" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E126" t="s">
         <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G126" t="s">
         <v>13</v>
@@ -5693,7 +5689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -5701,10 +5697,10 @@
         <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
@@ -5725,18 +5721,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D128" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
@@ -5757,39 +5753,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D129" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E129" t="s">
         <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -5797,33 +5793,33 @@
         <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D130" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E130" t="s">
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
@@ -5832,7 +5828,7 @@
         <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E131" t="s">
         <v>23</v>
@@ -5841,21 +5837,21 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I131" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
@@ -5864,7 +5860,7 @@
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
@@ -5885,9 +5881,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
@@ -5896,7 +5892,7 @@
         <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E133" t="s">
         <v>23</v>
@@ -5905,21 +5901,21 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -5928,39 +5924,39 @@
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J134" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B135" t="s">
         <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="E135" t="s">
         <v>23</v>
@@ -5981,24 +5977,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E136" t="s">
         <v>23</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G136" t="s">
         <v>13</v>
@@ -6013,71 +6009,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="E137" t="s">
         <v>23</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="I137" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J137" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B138" t="s">
         <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="E138" t="s">
         <v>23</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I138" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -6085,42 +6081,42 @@
         <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E139" t="s">
         <v>23</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I139" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E140" t="s">
         <v>23</v>
@@ -6129,30 +6125,30 @@
         <v>22</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I140" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B141" t="s">
         <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E141" t="s">
         <v>23</v>
@@ -6161,19 +6157,19 @@
         <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I141" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -6181,16 +6177,16 @@
         <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D142" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E142" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G142" t="s">
         <v>13</v>
@@ -6205,24 +6201,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
         <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D143" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="E143" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G143" t="s">
         <v>13</v>
@@ -6237,56 +6233,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B144" t="s">
         <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D144" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="I144" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D145" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E145" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G145" t="s">
         <v>13</v>
@@ -6301,24 +6297,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
         <v>20</v>
       </c>
       <c r="C146" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D146" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G146" t="s">
         <v>13</v>
@@ -6333,24 +6329,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D147" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G147" t="s">
         <v>13</v>
@@ -6365,199 +6361,199 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D148" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J148" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D149" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G149" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J149" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D150" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E150" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G150" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J150" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D151" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H151" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J151" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D152" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J152" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D153" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E153" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J153" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -6565,10 +6561,10 @@
         <v>28</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6589,7 +6585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -6597,10 +6593,10 @@
         <v>28</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -6609,19 +6605,19 @@
         <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -6629,10 +6625,10 @@
         <v>28</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -6641,19 +6637,19 @@
         <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -6661,10 +6657,10 @@
         <v>28</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
@@ -6673,19 +6669,19 @@
         <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -6693,10 +6689,10 @@
         <v>28</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -6705,30 +6701,30 @@
         <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H158" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B159" t="s">
         <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -6737,30 +6733,30 @@
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B160" t="s">
         <v>28</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
@@ -6769,36 +6765,36 @@
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
         <v>28</v>
       </c>
       <c r="C161" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D161" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E161" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G161" t="s">
         <v>13</v>
@@ -6813,24 +6809,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
         <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D162" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E162" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G162" t="s">
         <v>13</v>
@@ -6845,7 +6841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -6853,13 +6849,13 @@
         <v>28</v>
       </c>
       <c r="C163" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D163" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F163" t="s">
         <v>15</v>
@@ -6877,21 +6873,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
         <v>28</v>
       </c>
       <c r="C164" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D164" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="E164" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F164" t="s">
         <v>15</v>
@@ -6909,7 +6905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -6917,106 +6913,106 @@
         <v>28</v>
       </c>
       <c r="C165" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D165" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E165" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G165" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H165" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I165" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J165" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B166" t="s">
         <v>28</v>
       </c>
       <c r="C166" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D166" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="E166" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G166" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I166" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
         <v>28</v>
       </c>
       <c r="C167" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="E167" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G167" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I167" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B168" t="s">
         <v>28</v>
       </c>
       <c r="C168" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D168" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="E168" t="s">
         <v>23</v>
@@ -7025,30 +7021,30 @@
         <v>22</v>
       </c>
       <c r="G168" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H168" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I168" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J168" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B169" t="s">
         <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D169" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="E169" t="s">
         <v>23</v>
@@ -7057,19 +7053,19 @@
         <v>22</v>
       </c>
       <c r="G169" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I169" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J169" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -7077,74 +7073,74 @@
         <v>28</v>
       </c>
       <c r="C170" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D170" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="E170" t="s">
         <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G170" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H170" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I170" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B171" t="s">
         <v>28</v>
       </c>
       <c r="C171" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D171" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="E171" t="s">
         <v>23</v>
       </c>
       <c r="F171" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G171" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H171" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I171" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J171" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
         <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D172" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="E172" t="s">
         <v>23</v>
@@ -7153,19 +7149,19 @@
         <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I172" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -7173,266 +7169,266 @@
         <v>28</v>
       </c>
       <c r="C173" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D173" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E173" t="s">
         <v>23</v>
       </c>
       <c r="F173" t="s">
+        <v>50</v>
+      </c>
+      <c r="G173" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" t="s">
+        <v>60</v>
+      </c>
+      <c r="I173" t="s">
+        <v>23</v>
+      </c>
+      <c r="J173" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>91</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" t="s">
+        <v>69</v>
+      </c>
+      <c r="D174" t="s">
+        <v>164</v>
+      </c>
+      <c r="E174" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" t="s">
+        <v>50</v>
+      </c>
+      <c r="G174" t="s">
+        <v>20</v>
+      </c>
+      <c r="H174" t="s">
+        <v>60</v>
+      </c>
+      <c r="I174" t="s">
+        <v>23</v>
+      </c>
+      <c r="J174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" t="s">
+        <v>69</v>
+      </c>
+      <c r="D175" t="s">
+        <v>165</v>
+      </c>
+      <c r="E175" t="s">
+        <v>23</v>
+      </c>
+      <c r="F175" t="s">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" t="s">
+        <v>60</v>
+      </c>
+      <c r="I175" t="s">
+        <v>23</v>
+      </c>
+      <c r="J175" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>91</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176" t="s">
+        <v>165</v>
+      </c>
+      <c r="E176" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" t="s">
+        <v>60</v>
+      </c>
+      <c r="I176" t="s">
+        <v>23</v>
+      </c>
+      <c r="J176" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>69</v>
+      </c>
+      <c r="D177" t="s">
+        <v>166</v>
+      </c>
+      <c r="E177" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" t="s">
+        <v>50</v>
+      </c>
+      <c r="G177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" t="s">
+        <v>60</v>
+      </c>
+      <c r="I177" t="s">
+        <v>23</v>
+      </c>
+      <c r="J177" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>91</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" t="s">
+        <v>69</v>
+      </c>
+      <c r="D178" t="s">
+        <v>166</v>
+      </c>
+      <c r="E178" t="s">
+        <v>23</v>
+      </c>
+      <c r="F178" t="s">
+        <v>50</v>
+      </c>
+      <c r="G178" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" t="s">
+        <v>60</v>
+      </c>
+      <c r="I178" t="s">
+        <v>23</v>
+      </c>
+      <c r="J178" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>91</v>
+      </c>
+      <c r="B179" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" t="s">
+        <v>69</v>
+      </c>
+      <c r="D179" t="s">
+        <v>94</v>
+      </c>
+      <c r="E179" t="s">
+        <v>23</v>
+      </c>
+      <c r="F179" t="s">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+      <c r="I179" t="s">
+        <v>13</v>
+      </c>
+      <c r="J179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" t="s">
+        <v>69</v>
+      </c>
+      <c r="D180" t="s">
+        <v>167</v>
+      </c>
+      <c r="E180" t="s">
+        <v>23</v>
+      </c>
+      <c r="F180" t="s">
         <v>15</v>
       </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s">
-        <v>13</v>
-      </c>
-      <c r="I173" t="s">
-        <v>13</v>
-      </c>
-      <c r="J173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F174" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" t="s">
-        <v>13</v>
-      </c>
-      <c r="J174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J175" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J176" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J177" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J179" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I180" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+      <c r="J180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>23</v>
@@ -7440,31 +7436,31 @@
       <c r="F181" t="s">
         <v>22</v>
       </c>
-      <c r="G181" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H181" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J181" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+      <c r="J181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>23</v>
@@ -7473,74 +7469,74 @@
         <v>22</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F183" t="s">
         <v>22</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>10</v>
-      </c>
-      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C184" t="s">
-        <v>76</v>
+      <c r="C184" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E184" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184" t="s">
-        <v>22</v>
+        <v>72</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I184" s="3" t="s">
         <v>23</v>
@@ -7549,30 +7545,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>10</v>
-      </c>
-      <c r="B185" t="s">
+    <row r="185" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C185" t="s">
-        <v>76</v>
-      </c>
-      <c r="D185" t="s">
-        <v>182</v>
-      </c>
-      <c r="E185" t="s">
-        <v>19</v>
-      </c>
-      <c r="F185" t="s">
-        <v>22</v>
+      <c r="C185" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I185" s="3" t="s">
         <v>23</v>
@@ -7581,167 +7577,167 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+    <row r="186" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C186" t="s">
-        <v>77</v>
-      </c>
-      <c r="D186" t="s">
-        <v>78</v>
-      </c>
-      <c r="E186" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
-        <v>13</v>
-      </c>
-      <c r="H186" t="s">
-        <v>13</v>
-      </c>
-      <c r="I186" t="s">
-        <v>13</v>
-      </c>
-      <c r="J186" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>10</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="C186" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C187" t="s">
-        <v>77</v>
-      </c>
-      <c r="D187" t="s">
-        <v>78</v>
-      </c>
-      <c r="E187" t="s">
-        <v>14</v>
+      <c r="C187" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" t="s">
-        <v>13</v>
-      </c>
-      <c r="I187" t="s">
-        <v>13</v>
-      </c>
-      <c r="J187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+        <v>22</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F188" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C188" t="s">
-        <v>77</v>
-      </c>
-      <c r="D188" t="s">
-        <v>79</v>
-      </c>
-      <c r="E188" t="s">
-        <v>14</v>
-      </c>
-      <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s">
-        <v>13</v>
-      </c>
-      <c r="H188" t="s">
-        <v>13</v>
-      </c>
-      <c r="I188" t="s">
-        <v>13</v>
-      </c>
-      <c r="J188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>10</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="C189" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F189" t="s">
+        <v>22</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C189" t="s">
-        <v>77</v>
-      </c>
-      <c r="D189" t="s">
-        <v>79</v>
-      </c>
-      <c r="E189" t="s">
-        <v>14</v>
-      </c>
-      <c r="F189" t="s">
-        <v>15</v>
-      </c>
-      <c r="G189" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" t="s">
-        <v>13</v>
-      </c>
-      <c r="I189" t="s">
-        <v>13</v>
-      </c>
-      <c r="J189" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>10</v>
-      </c>
-      <c r="B190" t="s">
-        <v>28</v>
-      </c>
-      <c r="C190" t="s">
-        <v>77</v>
-      </c>
-      <c r="D190" t="s">
-        <v>112</v>
-      </c>
-      <c r="E190" t="s">
-        <v>14</v>
-      </c>
-      <c r="F190" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" t="s">
-        <v>13</v>
-      </c>
-      <c r="I190" t="s">
-        <v>13</v>
-      </c>
-      <c r="J190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C190" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -7749,273 +7745,273 @@
         <v>28</v>
       </c>
       <c r="C191" t="s">
-        <v>77</v>
-      </c>
-      <c r="D191" t="s">
-        <v>183</v>
+        <v>74</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E191" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F191" t="s">
-        <v>15</v>
-      </c>
-      <c r="G191" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" t="s">
-        <v>13</v>
-      </c>
-      <c r="I191" t="s">
-        <v>13</v>
-      </c>
-      <c r="J191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
         <v>28</v>
       </c>
       <c r="C192" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D192" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E192" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F192" t="s">
-        <v>50</v>
-      </c>
-      <c r="G192" t="s">
-        <v>13</v>
-      </c>
-      <c r="H192" t="s">
-        <v>13</v>
-      </c>
-      <c r="I192" t="s">
-        <v>13</v>
-      </c>
-      <c r="J192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B193" t="s">
         <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D193" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
       <c r="F193" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" t="s">
+        <v>13</v>
+      </c>
+      <c r="J193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" t="s">
+        <v>75</v>
+      </c>
+      <c r="D194" t="s">
+        <v>76</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" t="s">
+        <v>15</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194" t="s">
+        <v>13</v>
+      </c>
+      <c r="J194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195" t="s">
+        <v>75</v>
+      </c>
+      <c r="D195" t="s">
+        <v>77</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" t="s">
+        <v>15</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" t="s">
+        <v>13</v>
+      </c>
+      <c r="J195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" t="s">
+        <v>75</v>
+      </c>
+      <c r="D196" t="s">
+        <v>77</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" t="s">
+        <v>13</v>
+      </c>
+      <c r="J196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" t="s">
+        <v>75</v>
+      </c>
+      <c r="D197" t="s">
+        <v>107</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" t="s">
+        <v>13</v>
+      </c>
+      <c r="J197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" t="s">
+        <v>75</v>
+      </c>
+      <c r="D198" t="s">
+        <v>171</v>
+      </c>
+      <c r="E198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+      <c r="I198" t="s">
+        <v>13</v>
+      </c>
+      <c r="J198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199" t="s">
+        <v>75</v>
+      </c>
+      <c r="D199" t="s">
+        <v>172</v>
+      </c>
+      <c r="E199" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" t="s">
         <v>50</v>
       </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" t="s">
-        <v>13</v>
-      </c>
-      <c r="I193" t="s">
-        <v>13</v>
-      </c>
-      <c r="J193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>16</v>
-      </c>
-      <c r="B194" t="s">
-        <v>80</v>
-      </c>
-      <c r="C194" t="s">
-        <v>113</v>
-      </c>
-      <c r="D194" t="s">
-        <v>63</v>
-      </c>
-      <c r="E194" t="s">
-        <v>19</v>
-      </c>
-      <c r="F194" t="s">
-        <v>22</v>
-      </c>
-      <c r="G194" t="s">
-        <v>13</v>
-      </c>
-      <c r="H194" t="s">
-        <v>13</v>
-      </c>
-      <c r="I194" t="s">
-        <v>13</v>
-      </c>
-      <c r="J194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>93</v>
-      </c>
-      <c r="B195" t="s">
-        <v>80</v>
-      </c>
-      <c r="C195" t="s">
-        <v>113</v>
-      </c>
-      <c r="D195" t="s">
-        <v>63</v>
-      </c>
-      <c r="E195" t="s">
-        <v>19</v>
-      </c>
-      <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
-        <v>13</v>
-      </c>
-      <c r="H195" t="s">
-        <v>13</v>
-      </c>
-      <c r="I195" t="s">
-        <v>13</v>
-      </c>
-      <c r="J195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>16</v>
-      </c>
-      <c r="B196" t="s">
-        <v>80</v>
-      </c>
-      <c r="C196" t="s">
-        <v>113</v>
-      </c>
-      <c r="D196" t="s">
-        <v>82</v>
-      </c>
-      <c r="E196" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" t="s">
-        <v>22</v>
-      </c>
-      <c r="G196" t="s">
-        <v>13</v>
-      </c>
-      <c r="H196" t="s">
-        <v>13</v>
-      </c>
-      <c r="I196" t="s">
-        <v>13</v>
-      </c>
-      <c r="J196" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>93</v>
-      </c>
-      <c r="B197" t="s">
-        <v>80</v>
-      </c>
-      <c r="C197" t="s">
-        <v>113</v>
-      </c>
-      <c r="D197" t="s">
-        <v>82</v>
-      </c>
-      <c r="E197" t="s">
-        <v>19</v>
-      </c>
-      <c r="F197" t="s">
-        <v>22</v>
-      </c>
-      <c r="G197" t="s">
-        <v>13</v>
-      </c>
-      <c r="H197" t="s">
-        <v>13</v>
-      </c>
-      <c r="I197" t="s">
-        <v>13</v>
-      </c>
-      <c r="J197" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>16</v>
-      </c>
-      <c r="B198" t="s">
-        <v>80</v>
-      </c>
-      <c r="C198" t="s">
-        <v>113</v>
-      </c>
-      <c r="D198" t="s">
-        <v>185</v>
-      </c>
-      <c r="E198" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" t="s">
-        <v>22</v>
-      </c>
-      <c r="G198" t="s">
-        <v>13</v>
-      </c>
-      <c r="H198" t="s">
-        <v>13</v>
-      </c>
-      <c r="I198" t="s">
-        <v>13</v>
-      </c>
-      <c r="J198" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>10</v>
-      </c>
-      <c r="B199" t="s">
-        <v>80</v>
-      </c>
-      <c r="C199" t="s">
-        <v>113</v>
-      </c>
-      <c r="D199" t="s">
-        <v>185</v>
-      </c>
-      <c r="E199" t="s">
-        <v>19</v>
-      </c>
-      <c r="F199" t="s">
-        <v>22</v>
-      </c>
       <c r="G199" t="s">
         <v>13</v>
       </c>
@@ -8029,24 +8025,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D200" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E200" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G200" t="s">
         <v>13</v>
@@ -8061,24 +8057,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>16</v>
       </c>
       <c r="B201" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C201" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D201" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E201" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F201" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G201" t="s">
         <v>13</v>
@@ -8093,24 +8089,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B202" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C202" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D202" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E202" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G202" t="s">
         <v>13</v>
@@ -8125,185 +8121,185 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>16</v>
       </c>
       <c r="B203" t="s">
+        <v>78</v>
+      </c>
+      <c r="C203" t="s">
+        <v>108</v>
+      </c>
+      <c r="D203" t="s">
         <v>80</v>
       </c>
-      <c r="C203" t="s">
-        <v>84</v>
-      </c>
-      <c r="D203" t="s">
-        <v>133</v>
-      </c>
       <c r="E203" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F203" t="s">
+        <v>22</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" t="s">
+        <v>13</v>
+      </c>
+      <c r="J203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>91</v>
+      </c>
+      <c r="B204" t="s">
+        <v>78</v>
+      </c>
+      <c r="C204" t="s">
+        <v>108</v>
+      </c>
+      <c r="D204" t="s">
+        <v>80</v>
+      </c>
+      <c r="E204" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" t="s">
+        <v>22</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" t="s">
+        <v>13</v>
+      </c>
+      <c r="J204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>16</v>
+      </c>
+      <c r="B205" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205" t="s">
+        <v>108</v>
+      </c>
+      <c r="D205" t="s">
+        <v>173</v>
+      </c>
+      <c r="E205" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
+      <c r="H205" t="s">
+        <v>13</v>
+      </c>
+      <c r="I205" t="s">
+        <v>13</v>
+      </c>
+      <c r="J205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>78</v>
+      </c>
+      <c r="C206" t="s">
+        <v>108</v>
+      </c>
+      <c r="D206" t="s">
+        <v>173</v>
+      </c>
+      <c r="E206" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206" t="s">
+        <v>22</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" t="s">
+        <v>13</v>
+      </c>
+      <c r="J206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>91</v>
+      </c>
+      <c r="B207" t="s">
+        <v>78</v>
+      </c>
+      <c r="C207" t="s">
+        <v>108</v>
+      </c>
+      <c r="D207" t="s">
+        <v>173</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207" t="s">
+        <v>22</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" t="s">
+        <v>13</v>
+      </c>
+      <c r="J207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208" t="s">
+        <v>78</v>
+      </c>
+      <c r="C208" t="s">
+        <v>82</v>
+      </c>
+      <c r="D208" t="s">
+        <v>79</v>
+      </c>
+      <c r="E208" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208" t="s">
         <v>50</v>
       </c>
-      <c r="G203" t="s">
-        <v>13</v>
-      </c>
-      <c r="H203" t="s">
-        <v>13</v>
-      </c>
-      <c r="I203" t="s">
-        <v>13</v>
-      </c>
-      <c r="J203" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>10</v>
-      </c>
-      <c r="B204" t="s">
-        <v>80</v>
-      </c>
-      <c r="C204" t="s">
-        <v>84</v>
-      </c>
-      <c r="D204" t="s">
-        <v>133</v>
-      </c>
-      <c r="E204" t="s">
-        <v>23</v>
-      </c>
-      <c r="F204" t="s">
-        <v>50</v>
-      </c>
-      <c r="G204" t="s">
-        <v>13</v>
-      </c>
-      <c r="H204" t="s">
-        <v>13</v>
-      </c>
-      <c r="I204" t="s">
-        <v>13</v>
-      </c>
-      <c r="J204" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>93</v>
-      </c>
-      <c r="B205" t="s">
-        <v>80</v>
-      </c>
-      <c r="C205" t="s">
-        <v>84</v>
-      </c>
-      <c r="D205" t="s">
-        <v>133</v>
-      </c>
-      <c r="E205" t="s">
-        <v>23</v>
-      </c>
-      <c r="F205" t="s">
-        <v>50</v>
-      </c>
-      <c r="G205" t="s">
-        <v>13</v>
-      </c>
-      <c r="H205" t="s">
-        <v>13</v>
-      </c>
-      <c r="I205" t="s">
-        <v>13</v>
-      </c>
-      <c r="J205" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>16</v>
-      </c>
-      <c r="B206" t="s">
-        <v>80</v>
-      </c>
-      <c r="C206" t="s">
-        <v>84</v>
-      </c>
-      <c r="D206" t="s">
-        <v>83</v>
-      </c>
-      <c r="E206" t="s">
-        <v>23</v>
-      </c>
-      <c r="F206" t="s">
-        <v>50</v>
-      </c>
-      <c r="G206" t="s">
-        <v>13</v>
-      </c>
-      <c r="H206" t="s">
-        <v>13</v>
-      </c>
-      <c r="I206" t="s">
-        <v>13</v>
-      </c>
-      <c r="J206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>93</v>
-      </c>
-      <c r="B207" t="s">
-        <v>80</v>
-      </c>
-      <c r="C207" t="s">
-        <v>84</v>
-      </c>
-      <c r="D207" t="s">
-        <v>83</v>
-      </c>
-      <c r="E207" t="s">
-        <v>23</v>
-      </c>
-      <c r="F207" t="s">
-        <v>50</v>
-      </c>
-      <c r="G207" t="s">
-        <v>13</v>
-      </c>
-      <c r="H207" t="s">
-        <v>13</v>
-      </c>
-      <c r="I207" t="s">
-        <v>13</v>
-      </c>
-      <c r="J207" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>10</v>
-      </c>
-      <c r="B208" t="s">
-        <v>80</v>
-      </c>
-      <c r="C208" t="s">
-        <v>84</v>
-      </c>
-      <c r="D208" t="s">
-        <v>186</v>
-      </c>
-      <c r="E208" t="s">
-        <v>23</v>
-      </c>
-      <c r="F208" t="s">
-        <v>15</v>
-      </c>
       <c r="G208" t="s">
         <v>13</v>
       </c>
@@ -8317,18 +8313,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B209" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C209" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D209" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="E209" t="s">
         <v>23</v>
@@ -8349,18 +8345,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C210" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D210" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="E210" t="s">
         <v>23</v>
@@ -8381,18 +8377,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C211" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D211" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="E211" t="s">
         <v>23</v>
@@ -8413,18 +8409,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B212" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C212" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D212" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
@@ -8445,18 +8441,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>16</v>
       </c>
       <c r="B213" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C213" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D213" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8477,18 +8473,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B214" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C214" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D214" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E214" t="s">
         <v>23</v>
@@ -8509,18 +8505,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C215" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D215" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E215" t="s">
         <v>23</v>
@@ -8541,24 +8537,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C216" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D216" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="E216" t="s">
         <v>23</v>
       </c>
       <c r="F216" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G216" t="s">
         <v>13</v>
@@ -8573,18 +8569,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>16</v>
       </c>
       <c r="B217" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C217" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D217" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="E217" t="s">
         <v>23</v>
@@ -8605,24 +8601,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B218" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C218" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D218" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="E218" t="s">
         <v>23</v>
       </c>
       <c r="F218" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G218" t="s">
         <v>13</v>
@@ -8637,24 +8633,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C219" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D219" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="E219" t="s">
         <v>23</v>
       </c>
       <c r="F219" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G219" t="s">
         <v>13</v>
@@ -8669,24 +8665,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C220" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D220" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E220" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F220" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G220" t="s">
         <v>13</v>
@@ -8701,24 +8697,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B221" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C221" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D221" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="E221" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F221" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G221" t="s">
         <v>13</v>
@@ -8733,21 +8729,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B222" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C222" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D222" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E222" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F222" t="s">
         <v>15</v>
@@ -8765,24 +8761,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B223" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C223" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D223" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="E223" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F223" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G223" t="s">
         <v>13</v>
@@ -8797,21 +8793,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B224" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C224" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D224" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E224" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F224" t="s">
         <v>50</v>
@@ -8829,24 +8825,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B225" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C225" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D225" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E225" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F225" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G225" t="s">
         <v>13</v>
@@ -8861,21 +8857,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B226" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C226" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D226" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="E226" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F226" t="s">
         <v>15</v>
@@ -8893,18 +8889,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>10</v>
       </c>
       <c r="B227" t="s">
+        <v>86</v>
+      </c>
+      <c r="C227" t="s">
+        <v>87</v>
+      </c>
+      <c r="D227" t="s">
         <v>88</v>
-      </c>
-      <c r="C227" t="s">
-        <v>91</v>
-      </c>
-      <c r="D227" t="s">
-        <v>86</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
@@ -8925,18 +8921,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>10</v>
       </c>
       <c r="B228" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C228" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D228" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -8957,18 +8953,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C229" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D229" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
@@ -8989,18 +8985,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B230" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C230" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D230" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
@@ -9021,24 +9017,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B231" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C231" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D231" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G231" t="s">
         <v>13</v>
@@ -9053,18 +9049,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B232" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C232" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D232" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
@@ -9085,24 +9081,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B233" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C233" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D233" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G233" t="s">
         <v>13</v>
@@ -9117,21 +9113,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B234" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C234" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D234" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E234" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F234" t="s">
         <v>15</v>
@@ -9149,18 +9145,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B235" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C235" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D235" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -9169,37 +9165,37 @@
         <v>15</v>
       </c>
       <c r="G235" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H235" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I235" t="s">
+        <v>13</v>
+      </c>
+      <c r="J235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" t="s">
+        <v>86</v>
+      </c>
+      <c r="C236" t="s">
+        <v>90</v>
+      </c>
+      <c r="D236" t="s">
+        <v>179</v>
+      </c>
+      <c r="E236" t="s">
         <v>14</v>
       </c>
-      <c r="J235" t="s">
+      <c r="F236" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>10</v>
-      </c>
-      <c r="B236" t="s">
-        <v>56</v>
-      </c>
-      <c r="C236" t="s">
-        <v>55</v>
-      </c>
-      <c r="D236" t="s">
-        <v>148</v>
-      </c>
-      <c r="E236" t="s">
-        <v>19</v>
-      </c>
-      <c r="F236" t="s">
-        <v>50</v>
-      </c>
       <c r="G236" t="s">
         <v>13</v>
       </c>
@@ -9213,24 +9209,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>16</v>
       </c>
       <c r="B237" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C237" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D237" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="E237" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G237" t="s">
         <v>13</v>
@@ -9245,24 +9241,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B238" t="s">
-        <v>26</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="C238" t="s">
+        <v>89</v>
       </c>
       <c r="D238" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="E238" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G238" t="s">
         <v>13</v>
@@ -9277,18 +9273,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C239" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D239" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
@@ -9309,24 +9305,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C240" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D240" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E240" t="s">
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G240" t="s">
         <v>13</v>
@@ -9341,21 +9337,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C241" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D241" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="E241" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F241" t="s">
         <v>15</v>
@@ -9373,409 +9369,558 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B242" s="3" t="s">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>16</v>
+      </c>
+      <c r="B242" t="s">
+        <v>20</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>196</v>
+      </c>
+      <c r="E242" t="s">
+        <v>23</v>
+      </c>
+      <c r="F242" t="s">
+        <v>22</v>
+      </c>
+      <c r="G242" t="s">
+        <v>13</v>
+      </c>
+      <c r="H242" t="s">
+        <v>13</v>
+      </c>
+      <c r="I242" t="s">
+        <v>13</v>
+      </c>
+      <c r="J242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>91</v>
+      </c>
+      <c r="B243" t="s">
+        <v>26</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D243" t="s">
+        <v>198</v>
+      </c>
+      <c r="E243" t="s">
+        <v>19</v>
+      </c>
+      <c r="F243" t="s">
+        <v>22</v>
+      </c>
+      <c r="G243" t="s">
+        <v>13</v>
+      </c>
+      <c r="H243" t="s">
+        <v>13</v>
+      </c>
+      <c r="I243" t="s">
+        <v>13</v>
+      </c>
+      <c r="J243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>16</v>
+      </c>
+      <c r="B244" t="s">
         <v>56</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E242" s="3" t="s">
+      <c r="C244" t="s">
+        <v>202</v>
+      </c>
+      <c r="D244" t="s">
+        <v>204</v>
+      </c>
+      <c r="E244" t="s">
         <v>14</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="F244" t="s">
+        <v>15</v>
+      </c>
+      <c r="G244" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" t="s">
+        <v>13</v>
+      </c>
+      <c r="I244" t="s">
+        <v>13</v>
+      </c>
+      <c r="J244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>91</v>
+      </c>
+      <c r="B245" t="s">
+        <v>56</v>
+      </c>
+      <c r="C245" t="s">
+        <v>202</v>
+      </c>
+      <c r="D245" t="s">
+        <v>204</v>
+      </c>
+      <c r="E245" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" t="s">
+        <v>15</v>
+      </c>
+      <c r="G245" t="s">
+        <v>13</v>
+      </c>
+      <c r="H245" t="s">
+        <v>13</v>
+      </c>
+      <c r="I245" t="s">
+        <v>13</v>
+      </c>
+      <c r="J245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>56</v>
+      </c>
+      <c r="C246" t="s">
+        <v>202</v>
+      </c>
+      <c r="D246" t="s">
+        <v>204</v>
+      </c>
+      <c r="E246" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" t="s">
+        <v>15</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" t="s">
+        <v>13</v>
+      </c>
+      <c r="J246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A247" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C247" t="s">
+        <v>202</v>
+      </c>
+      <c r="D247" t="s">
+        <v>205</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G242" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H242" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J242" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+      <c r="G247" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>16</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B248" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C243" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E243" s="3" t="s">
+      <c r="C248" t="s">
+        <v>202</v>
+      </c>
+      <c r="D248" t="s">
+        <v>205</v>
+      </c>
+      <c r="E248" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="F248" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G243" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H243" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I243" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J243" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>10</v>
-      </c>
-      <c r="B244" s="3" t="s">
+      <c r="G248" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E244" s="3" t="s">
+      <c r="C249" t="s">
+        <v>202</v>
+      </c>
+      <c r="D249" t="s">
+        <v>205</v>
+      </c>
+      <c r="E249" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="F249" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G244" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H244" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I244" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J244" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>10</v>
-      </c>
-      <c r="B245" t="s">
+      <c r="G249" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
         <v>20</v>
       </c>
-      <c r="C245" t="s">
-        <v>65</v>
-      </c>
-      <c r="D245" t="s">
-        <v>208</v>
-      </c>
-      <c r="E245" t="s">
-        <v>23</v>
-      </c>
-      <c r="F245" t="s">
-        <v>22</v>
-      </c>
-      <c r="G245" t="s">
-        <v>13</v>
-      </c>
-      <c r="H245" t="s">
-        <v>13</v>
-      </c>
-      <c r="I245" t="s">
-        <v>13</v>
-      </c>
-      <c r="J245" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>10</v>
-      </c>
-      <c r="B246" t="s">
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>196</v>
+      </c>
+      <c r="E250" t="s">
+        <v>23</v>
+      </c>
+      <c r="F250" t="s">
+        <v>22</v>
+      </c>
+      <c r="G250" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" t="s">
+        <v>13</v>
+      </c>
+      <c r="I250" t="s">
+        <v>13</v>
+      </c>
+      <c r="J250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
         <v>26</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D251" t="s">
         <v>47</v>
       </c>
-      <c r="E246" t="s">
-        <v>19</v>
-      </c>
-      <c r="F246" t="s">
-        <v>22</v>
-      </c>
-      <c r="G246" t="s">
-        <v>13</v>
-      </c>
-      <c r="H246" t="s">
-        <v>13</v>
-      </c>
-      <c r="I246" t="s">
-        <v>13</v>
-      </c>
-      <c r="J246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>10</v>
-      </c>
-      <c r="B247" t="s">
+      <c r="E251" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251" t="s">
+        <v>22</v>
+      </c>
+      <c r="G251" t="s">
+        <v>13</v>
+      </c>
+      <c r="H251" t="s">
+        <v>13</v>
+      </c>
+      <c r="I251" t="s">
+        <v>13</v>
+      </c>
+      <c r="J251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
         <v>26</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C252" t="s">
         <v>30</v>
       </c>
-      <c r="D247" t="s">
-        <v>129</v>
-      </c>
-      <c r="E247" t="s">
-        <v>19</v>
-      </c>
-      <c r="F247" t="s">
-        <v>22</v>
-      </c>
-      <c r="G247" t="s">
-        <v>13</v>
-      </c>
-      <c r="H247" t="s">
-        <v>13</v>
-      </c>
-      <c r="I247" t="s">
-        <v>13</v>
-      </c>
-      <c r="J247" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B248" t="s">
+      <c r="D252" t="s">
+        <v>124</v>
+      </c>
+      <c r="E252" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252" t="s">
+        <v>22</v>
+      </c>
+      <c r="G252" t="s">
+        <v>13</v>
+      </c>
+      <c r="H252" t="s">
+        <v>13</v>
+      </c>
+      <c r="I252" t="s">
+        <v>13</v>
+      </c>
+      <c r="J252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A253" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B253" t="s">
         <v>28</v>
       </c>
-      <c r="C248" t="s">
-        <v>77</v>
-      </c>
-      <c r="D248" t="s">
-        <v>183</v>
-      </c>
-      <c r="E248" t="s">
+      <c r="C253" t="s">
+        <v>75</v>
+      </c>
+      <c r="D253" t="s">
+        <v>171</v>
+      </c>
+      <c r="E253" t="s">
         <v>14</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F253" t="s">
         <v>15</v>
       </c>
-      <c r="G248" t="s">
-        <v>13</v>
-      </c>
-      <c r="H248" t="s">
-        <v>13</v>
-      </c>
-      <c r="I248" t="s">
-        <v>13</v>
-      </c>
-      <c r="J248" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>93</v>
-      </c>
-      <c r="B249" t="s">
+      <c r="G253" t="s">
+        <v>13</v>
+      </c>
+      <c r="H253" t="s">
+        <v>13</v>
+      </c>
+      <c r="I253" t="s">
+        <v>13</v>
+      </c>
+      <c r="J253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>91</v>
+      </c>
+      <c r="B254" t="s">
         <v>20</v>
       </c>
-      <c r="C249" t="s">
-        <v>65</v>
-      </c>
-      <c r="D249" t="s">
-        <v>161</v>
-      </c>
-      <c r="E249" t="s">
-        <v>23</v>
-      </c>
-      <c r="F249" t="s">
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254" t="s">
+        <v>149</v>
+      </c>
+      <c r="E254" t="s">
+        <v>23</v>
+      </c>
+      <c r="F254" t="s">
         <v>50</v>
       </c>
-      <c r="G249" t="s">
-        <v>13</v>
-      </c>
-      <c r="H249" t="s">
-        <v>13</v>
-      </c>
-      <c r="I249" t="s">
-        <v>13</v>
-      </c>
-      <c r="J249" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>10</v>
-      </c>
-      <c r="B250" t="s">
+      <c r="G254" t="s">
+        <v>13</v>
+      </c>
+      <c r="H254" t="s">
+        <v>13</v>
+      </c>
+      <c r="I254" t="s">
+        <v>13</v>
+      </c>
+      <c r="J254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" t="s">
         <v>26</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C255" t="s">
         <v>27</v>
       </c>
-      <c r="D250" t="s">
-        <v>125</v>
-      </c>
-      <c r="E250" t="s">
+      <c r="D255" t="s">
+        <v>120</v>
+      </c>
+      <c r="E255" t="s">
         <v>14</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F255" t="s">
         <v>15</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G255" t="s">
         <v>28</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H255" t="s">
         <v>29</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I255" t="s">
         <v>14</v>
       </c>
-      <c r="J250" t="s">
+      <c r="J255" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>93</v>
-      </c>
-      <c r="B251" t="s">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>91</v>
+      </c>
+      <c r="B256" t="s">
         <v>20</v>
       </c>
-      <c r="C251" t="s">
-        <v>62</v>
-      </c>
-      <c r="D251" t="s">
-        <v>212</v>
-      </c>
-      <c r="E251" t="s">
-        <v>23</v>
-      </c>
-      <c r="F251" t="s">
-        <v>22</v>
-      </c>
-      <c r="G251" t="s">
-        <v>13</v>
-      </c>
-      <c r="H251" t="s">
-        <v>13</v>
-      </c>
-      <c r="I251" t="s">
-        <v>13</v>
-      </c>
-      <c r="J251" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>93</v>
-      </c>
-      <c r="B252" t="s">
+      <c r="C256" t="s">
+        <v>60</v>
+      </c>
+      <c r="D256" t="s">
+        <v>200</v>
+      </c>
+      <c r="E256" t="s">
+        <v>23</v>
+      </c>
+      <c r="F256" t="s">
+        <v>22</v>
+      </c>
+      <c r="G256" t="s">
+        <v>13</v>
+      </c>
+      <c r="H256" t="s">
+        <v>13</v>
+      </c>
+      <c r="I256" t="s">
+        <v>13</v>
+      </c>
+      <c r="J256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>91</v>
+      </c>
+      <c r="B257" t="s">
         <v>20</v>
       </c>
-      <c r="C252" t="s">
-        <v>62</v>
-      </c>
-      <c r="D252" t="s">
-        <v>94</v>
-      </c>
-      <c r="E252" t="s">
-        <v>23</v>
-      </c>
-      <c r="F252" t="s">
+      <c r="C257" t="s">
+        <v>60</v>
+      </c>
+      <c r="D257" t="s">
+        <v>92</v>
+      </c>
+      <c r="E257" t="s">
+        <v>23</v>
+      </c>
+      <c r="F257" t="s">
         <v>14</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G257" t="s">
         <v>11</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H257" t="s">
         <v>12</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I257" t="s">
         <v>14</v>
       </c>
-      <c r="J252" t="s">
+      <c r="J257" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>93</v>
-      </c>
-      <c r="B253" t="s">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>91</v>
+      </c>
+      <c r="B258" t="s">
         <v>26</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C258" t="s">
         <v>30</v>
       </c>
-      <c r="D253" t="s">
-        <v>213</v>
-      </c>
-      <c r="E253" t="s">
-        <v>19</v>
-      </c>
-      <c r="F253" t="s">
-        <v>22</v>
-      </c>
-      <c r="G253" t="s">
-        <v>13</v>
-      </c>
-      <c r="H253" t="s">
-        <v>13</v>
-      </c>
-      <c r="I253" t="s">
-        <v>13</v>
-      </c>
-      <c r="J253" t="s">
+      <c r="D258" t="s">
+        <v>201</v>
+      </c>
+      <c r="E258" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258" t="s">
+        <v>22</v>
+      </c>
+      <c r="G258" t="s">
+        <v>13</v>
+      </c>
+      <c r="H258" t="s">
+        <v>13</v>
+      </c>
+      <c r="I258" t="s">
+        <v>13</v>
+      </c>
+      <c r="J258" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J252" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Crop Yields"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Crop Growth"/>
-        <filter val="Crop Quality"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:J250">
-      <sortCondition ref="D1:D252"/>
+  <autoFilter ref="A1:J258" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:J255">
+      <sortCondition ref="D1:D257"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J245">
-    <sortCondition ref="D2:D245"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J250">
+    <sortCondition ref="D2:D250"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3537ED9-18CE-4A56-BCBC-D6B004698EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444999EC-82BB-4108-BA10-22E8CC5CB0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32730" yWindow="2835" windowWidth="14400" windowHeight="8265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
-    <sheet name="grouplists_Kenya_2021-07-14" sheetId="1" r:id="rId2"/>
+    <sheet name="grouplists_Kenya" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'grouplists_Kenya_2021-07-14'!$A$1:$J$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">grouplists_Kenya!$A$1:$J$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="214">
   <si>
     <t>Review</t>
   </si>
@@ -544,9 +544,6 @@
     <t>Community diversity</t>
   </si>
   <si>
-    <t>Natural enemies</t>
-  </si>
-  <si>
     <t>Natural enemy activity</t>
   </si>
   <si>
@@ -646,34 +643,40 @@
     <t>Costs</t>
   </si>
   <si>
-    <t>Labour Cost</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Variable Cost</t>
-  </si>
-  <si>
     <t>Economic Performance</t>
   </si>
   <si>
-    <t>Benefit Cost Ratio (GRTC)</t>
-  </si>
-  <si>
-    <t>Benefit Cost Ratio (GRVC)</t>
-  </si>
-  <si>
-    <t>Benefit Cost Ratio (NRTC)</t>
-  </si>
-  <si>
-    <t>Gross Margin</t>
-  </si>
-  <si>
-    <t>Gross Return</t>
-  </si>
-  <si>
-    <t>Net Return</t>
+    <t>Benefit cost ratio (GRTC)</t>
+  </si>
+  <si>
+    <t>Benefit cost ratio (GRVC)</t>
+  </si>
+  <si>
+    <t>Benefit cost ratio (NRTC)</t>
+  </si>
+  <si>
+    <t>Labour cost</t>
+  </si>
+  <si>
+    <t>Net return</t>
+  </si>
+  <si>
+    <t>Gross margin</t>
+  </si>
+  <si>
+    <t>Gross return</t>
+  </si>
+  <si>
+    <t>Natural enemy</t>
+  </si>
+  <si>
+    <t>Misc. Micronutrients</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Variable cost</t>
   </si>
 </sst>
 </file>
@@ -1544,10 +1547,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
         <v>181</v>
-      </c>
-      <c r="B1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1555,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1563,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1571,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1579,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1587,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1595,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1603,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1611,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1619,7 +1622,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1627,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1638,11 +1641,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J258"/>
+  <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3396,7 +3399,7 @@
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
@@ -3428,7 +3431,7 @@
         <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
@@ -3492,7 +3495,7 @@
         <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
@@ -3524,7 +3527,7 @@
         <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -3652,7 +3655,7 @@
         <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -4449,10 +4452,10 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4481,10 +4484,10 @@
         <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E89" t="s">
         <v>19</v>
@@ -4513,10 +4516,10 @@
         <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E90" t="s">
         <v>19</v>
@@ -4545,10 +4548,10 @@
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
@@ -4577,10 +4580,10 @@
         <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -4609,10 +4612,10 @@
         <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E93" t="s">
         <v>19</v>
@@ -4641,10 +4644,10 @@
         <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E94" t="s">
         <v>19</v>
@@ -4673,10 +4676,10 @@
         <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
@@ -4705,10 +4708,10 @@
         <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
@@ -4737,10 +4740,10 @@
         <v>56</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D97" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -4769,10 +4772,10 @@
         <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D98" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -4801,10 +4804,10 @@
         <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -4836,7 +4839,7 @@
         <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -4868,7 +4871,7 @@
         <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
@@ -4900,7 +4903,7 @@
         <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E102" t="s">
         <v>19</v>
@@ -4932,7 +4935,7 @@
         <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
@@ -4964,7 +4967,7 @@
         <v>57</v>
       </c>
       <c r="D104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -4996,7 +4999,7 @@
         <v>57</v>
       </c>
       <c r="D105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E105" t="s">
         <v>19</v>
@@ -5028,7 +5031,7 @@
         <v>57</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E106" t="s">
         <v>19</v>
@@ -5060,7 +5063,7 @@
         <v>57</v>
       </c>
       <c r="D107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E107" t="s">
         <v>19</v>
@@ -5092,7 +5095,7 @@
         <v>57</v>
       </c>
       <c r="D108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
@@ -5700,7 +5703,7 @@
         <v>60</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
@@ -5732,7 +5735,7 @@
         <v>60</v>
       </c>
       <c r="D128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E128" t="s">
         <v>23</v>
@@ -5956,7 +5959,7 @@
         <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E135" t="s">
         <v>23</v>
@@ -7716,7 +7719,7 @@
         <v>74</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>19</v>
@@ -7748,7 +7751,7 @@
         <v>74</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="E191" t="s">
         <v>19</v>
@@ -7780,7 +7783,7 @@
         <v>74</v>
       </c>
       <c r="D192" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -7972,7 +7975,7 @@
         <v>75</v>
       </c>
       <c r="D198" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
@@ -8004,7 +8007,7 @@
         <v>75</v>
       </c>
       <c r="D199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
@@ -8036,7 +8039,7 @@
         <v>75</v>
       </c>
       <c r="D200" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -8196,7 +8199,7 @@
         <v>108</v>
       </c>
       <c r="D205" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E205" t="s">
         <v>19</v>
@@ -8228,7 +8231,7 @@
         <v>108</v>
       </c>
       <c r="D206" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E206" t="s">
         <v>19</v>
@@ -8260,7 +8263,7 @@
         <v>108</v>
       </c>
       <c r="D207" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E207" t="s">
         <v>19</v>
@@ -8289,16 +8292,16 @@
         <v>78</v>
       </c>
       <c r="C208" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D208" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G208" t="s">
         <v>13</v>
@@ -8315,22 +8318,22 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
         <v>78</v>
       </c>
       <c r="C209" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D209" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="E209" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G209" t="s">
         <v>13</v>
@@ -8347,22 +8350,22 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B210" t="s">
         <v>78</v>
       </c>
       <c r="C210" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D210" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F210" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G210" t="s">
         <v>13</v>
@@ -8379,7 +8382,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B211" t="s">
         <v>78</v>
@@ -8388,7 +8391,7 @@
         <v>82</v>
       </c>
       <c r="D211" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E211" t="s">
         <v>23</v>
@@ -8420,7 +8423,7 @@
         <v>82</v>
       </c>
       <c r="D212" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
@@ -8452,7 +8455,7 @@
         <v>82</v>
       </c>
       <c r="D213" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8475,7 +8478,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B214" t="s">
         <v>78</v>
@@ -8484,7 +8487,7 @@
         <v>82</v>
       </c>
       <c r="D214" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="E214" t="s">
         <v>23</v>
@@ -8507,7 +8510,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B215" t="s">
         <v>78</v>
@@ -8516,13 +8519,13 @@
         <v>82</v>
       </c>
       <c r="D215" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="E215" t="s">
         <v>23</v>
       </c>
       <c r="F215" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G215" t="s">
         <v>13</v>
@@ -8539,7 +8542,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B216" t="s">
         <v>78</v>
@@ -8548,7 +8551,7 @@
         <v>82</v>
       </c>
       <c r="D216" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="E216" t="s">
         <v>23</v>
@@ -8571,7 +8574,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B217" t="s">
         <v>78</v>
@@ -8580,7 +8583,7 @@
         <v>82</v>
       </c>
       <c r="D217" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="E217" t="s">
         <v>23</v>
@@ -8603,7 +8606,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B218" t="s">
         <v>78</v>
@@ -8612,13 +8615,13 @@
         <v>82</v>
       </c>
       <c r="D218" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E218" t="s">
         <v>23</v>
       </c>
       <c r="F218" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G218" t="s">
         <v>13</v>
@@ -8641,10 +8644,10 @@
         <v>78</v>
       </c>
       <c r="C219" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D219" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="E219" t="s">
         <v>23</v>
@@ -8673,10 +8676,10 @@
         <v>78</v>
       </c>
       <c r="C220" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D220" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="E220" t="s">
         <v>23</v>
@@ -8705,10 +8708,10 @@
         <v>78</v>
       </c>
       <c r="C221" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D221" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="E221" t="s">
         <v>23</v>
@@ -8740,13 +8743,13 @@
         <v>83</v>
       </c>
       <c r="D222" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="E222" t="s">
         <v>23</v>
       </c>
       <c r="F222" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G222" t="s">
         <v>13</v>
@@ -8763,7 +8766,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B223" t="s">
         <v>78</v>
@@ -8772,13 +8775,13 @@
         <v>83</v>
       </c>
       <c r="D223" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E223" t="s">
         <v>23</v>
       </c>
       <c r="F223" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G223" t="s">
         <v>13</v>
@@ -8795,7 +8798,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B224" t="s">
         <v>78</v>
@@ -8804,7 +8807,7 @@
         <v>83</v>
       </c>
       <c r="D224" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E224" t="s">
         <v>23</v>
@@ -8827,7 +8830,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B225" t="s">
         <v>78</v>
@@ -8836,13 +8839,13 @@
         <v>83</v>
       </c>
       <c r="D225" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="E225" t="s">
         <v>23</v>
       </c>
       <c r="F225" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G225" t="s">
         <v>13</v>
@@ -8868,13 +8871,13 @@
         <v>83</v>
       </c>
       <c r="D226" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="E226" t="s">
         <v>23</v>
       </c>
       <c r="F226" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G226" t="s">
         <v>13</v>
@@ -8891,22 +8894,22 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B227" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C227" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D227" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E227" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F227" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G227" t="s">
         <v>13</v>
@@ -8923,22 +8926,22 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B228" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C228" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D228" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="E228" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F228" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G228" t="s">
         <v>13</v>
@@ -8955,19 +8958,19 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B229" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C229" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D229" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E229" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F229" t="s">
         <v>15</v>
@@ -8987,7 +8990,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B230" t="s">
         <v>86</v>
@@ -8996,7 +8999,7 @@
         <v>87</v>
       </c>
       <c r="D230" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
@@ -9025,16 +9028,16 @@
         <v>86</v>
       </c>
       <c r="C231" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D231" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G231" t="s">
         <v>13</v>
@@ -9051,16 +9054,16 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B232" t="s">
         <v>86</v>
       </c>
       <c r="C232" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D232" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
@@ -9089,10 +9092,10 @@
         <v>86</v>
       </c>
       <c r="C233" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D233" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
@@ -9124,13 +9127,13 @@
         <v>89</v>
       </c>
       <c r="D234" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E234" t="s">
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G234" t="s">
         <v>13</v>
@@ -9156,7 +9159,7 @@
         <v>89</v>
       </c>
       <c r="D235" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -9179,16 +9182,16 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B236" t="s">
         <v>86</v>
       </c>
       <c r="C236" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D236" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
@@ -9211,16 +9214,16 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B237" t="s">
         <v>86</v>
       </c>
       <c r="C237" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D237" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="E237" t="s">
         <v>14</v>
@@ -9243,7 +9246,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B238" t="s">
         <v>86</v>
@@ -9252,7 +9255,7 @@
         <v>89</v>
       </c>
       <c r="D238" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E238" t="s">
         <v>14</v>
@@ -9275,16 +9278,16 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B239" t="s">
         <v>86</v>
       </c>
       <c r="C239" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D239" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
@@ -9313,16 +9316,16 @@
         <v>86</v>
       </c>
       <c r="C240" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D240" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E240" t="s">
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G240" t="s">
         <v>13</v>
@@ -9342,16 +9345,16 @@
         <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C241" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D241" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E241" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F241" t="s">
         <v>15</v>
@@ -9374,19 +9377,19 @@
         <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C242" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D242" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="E242" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G242" t="s">
         <v>13</v>
@@ -9403,22 +9406,22 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B243" t="s">
-        <v>26</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="C243" t="s">
+        <v>89</v>
       </c>
       <c r="D243" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E243" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G243" t="s">
         <v>13</v>
@@ -9438,16 +9441,16 @@
         <v>16</v>
       </c>
       <c r="B244" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C244" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="D244" t="s">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="E244" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F244" t="s">
         <v>15</v>
@@ -9467,22 +9470,22 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B245" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C245" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="D245" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E245" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F245" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G245" t="s">
         <v>13</v>
@@ -9499,97 +9502,97 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B246" t="s">
+        <v>26</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D246" t="s">
+        <v>197</v>
+      </c>
+      <c r="E246" t="s">
+        <v>19</v>
+      </c>
+      <c r="F246" t="s">
+        <v>22</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" t="s">
+        <v>13</v>
+      </c>
+      <c r="J246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>16</v>
+      </c>
+      <c r="B247" t="s">
         <v>56</v>
       </c>
-      <c r="C246" t="s">
-        <v>202</v>
-      </c>
-      <c r="D246" t="s">
-        <v>204</v>
-      </c>
-      <c r="E246" t="s">
+      <c r="C247" t="s">
+        <v>201</v>
+      </c>
+      <c r="D247" t="s">
+        <v>212</v>
+      </c>
+      <c r="E247" t="s">
         <v>14</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F247" t="s">
         <v>15</v>
       </c>
-      <c r="G246" t="s">
-        <v>13</v>
-      </c>
-      <c r="H246" t="s">
-        <v>13</v>
-      </c>
-      <c r="I246" t="s">
-        <v>13</v>
-      </c>
-      <c r="J246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A247" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C247" t="s">
-        <v>202</v>
-      </c>
-      <c r="D247" t="s">
-        <v>205</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G247" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H247" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I247" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J247" s="3" t="s">
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" t="s">
+        <v>13</v>
+      </c>
+      <c r="J247" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>16</v>
-      </c>
-      <c r="B248" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B248" t="s">
         <v>56</v>
       </c>
       <c r="C248" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D248" t="s">
-        <v>205</v>
-      </c>
-      <c r="E248" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E248" t="s">
         <v>14</v>
       </c>
-      <c r="F248" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H248" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I248" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J248" s="3" t="s">
+      <c r="F248" t="s">
+        <v>15</v>
+      </c>
+      <c r="G248" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" t="s">
+        <v>13</v>
+      </c>
+      <c r="I248" t="s">
+        <v>13</v>
+      </c>
+      <c r="J248" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9597,95 +9600,95 @@
       <c r="A249" t="s">
         <v>10</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" t="s">
         <v>56</v>
       </c>
       <c r="C249" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D249" t="s">
-        <v>205</v>
-      </c>
-      <c r="E249" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E249" t="s">
         <v>14</v>
       </c>
-      <c r="F249" s="3" t="s">
+      <c r="F249" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" t="s">
+        <v>13</v>
+      </c>
+      <c r="H249" t="s">
+        <v>13</v>
+      </c>
+      <c r="I249" t="s">
+        <v>13</v>
+      </c>
+      <c r="J249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A250" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" t="s">
+        <v>201</v>
+      </c>
+      <c r="D250" t="s">
+        <v>213</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G249" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H249" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I249" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J249" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>10</v>
-      </c>
-      <c r="B250" t="s">
-        <v>20</v>
-      </c>
-      <c r="C250" t="s">
-        <v>63</v>
-      </c>
-      <c r="D250" t="s">
-        <v>196</v>
-      </c>
-      <c r="E250" t="s">
-        <v>23</v>
-      </c>
-      <c r="F250" t="s">
-        <v>22</v>
-      </c>
-      <c r="G250" t="s">
-        <v>13</v>
-      </c>
-      <c r="H250" t="s">
-        <v>13</v>
-      </c>
-      <c r="I250" t="s">
-        <v>13</v>
-      </c>
-      <c r="J250" t="s">
+      <c r="G250" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J250" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>10</v>
-      </c>
-      <c r="B251" t="s">
-        <v>26</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" t="s">
+        <v>201</v>
       </c>
       <c r="D251" t="s">
-        <v>47</v>
-      </c>
-      <c r="E251" t="s">
-        <v>19</v>
-      </c>
-      <c r="F251" t="s">
-        <v>22</v>
-      </c>
-      <c r="G251" t="s">
-        <v>13</v>
-      </c>
-      <c r="H251" t="s">
-        <v>13</v>
-      </c>
-      <c r="I251" t="s">
-        <v>13</v>
-      </c>
-      <c r="J251" t="s">
+        <v>213</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J251" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9693,52 +9696,52 @@
       <c r="A252" t="s">
         <v>10</v>
       </c>
-      <c r="B252" t="s">
-        <v>26</v>
+      <c r="B252" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C252" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="D252" t="s">
-        <v>124</v>
-      </c>
-      <c r="E252" t="s">
-        <v>19</v>
-      </c>
-      <c r="F252" t="s">
-        <v>22</v>
-      </c>
-      <c r="G252" t="s">
-        <v>13</v>
-      </c>
-      <c r="H252" t="s">
-        <v>13</v>
-      </c>
-      <c r="I252" t="s">
-        <v>13</v>
-      </c>
-      <c r="J252" t="s">
+        <v>213</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J252" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A253" s="3" t="s">
-        <v>91</v>
+      <c r="A253" t="s">
+        <v>10</v>
       </c>
       <c r="B253" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C253" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D253" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="E253" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F253" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G253" t="s">
         <v>13</v>
@@ -9755,22 +9758,22 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B254" t="s">
-        <v>20</v>
-      </c>
-      <c r="C254" t="s">
-        <v>63</v>
+        <v>26</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D254" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="E254" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F254" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G254" t="s">
         <v>13</v>
@@ -9793,48 +9796,48 @@
         <v>26</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D255" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E255" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" t="s">
+        <v>22</v>
+      </c>
+      <c r="G255" t="s">
+        <v>13</v>
+      </c>
+      <c r="H255" t="s">
+        <v>13</v>
+      </c>
+      <c r="I255" t="s">
+        <v>13</v>
+      </c>
+      <c r="J255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A256" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B256" t="s">
+        <v>28</v>
+      </c>
+      <c r="C256" t="s">
+        <v>75</v>
+      </c>
+      <c r="D256" t="s">
+        <v>170</v>
+      </c>
+      <c r="E256" t="s">
         <v>14</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F256" t="s">
         <v>15</v>
-      </c>
-      <c r="G255" t="s">
-        <v>28</v>
-      </c>
-      <c r="H255" t="s">
-        <v>29</v>
-      </c>
-      <c r="I255" t="s">
-        <v>14</v>
-      </c>
-      <c r="J255" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>91</v>
-      </c>
-      <c r="B256" t="s">
-        <v>20</v>
-      </c>
-      <c r="C256" t="s">
-        <v>60</v>
-      </c>
-      <c r="D256" t="s">
-        <v>200</v>
-      </c>
-      <c r="E256" t="s">
-        <v>23</v>
-      </c>
-      <c r="F256" t="s">
-        <v>22</v>
       </c>
       <c r="G256" t="s">
         <v>13</v>
@@ -9857,70 +9860,166 @@
         <v>20</v>
       </c>
       <c r="C257" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D257" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="E257" t="s">
         <v>23</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G257" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H257" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B258" t="s">
         <v>26</v>
       </c>
       <c r="C258" t="s">
+        <v>27</v>
+      </c>
+      <c r="D258" t="s">
+        <v>120</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" t="s">
+        <v>28</v>
+      </c>
+      <c r="H258" t="s">
+        <v>29</v>
+      </c>
+      <c r="I258" t="s">
+        <v>14</v>
+      </c>
+      <c r="J258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>91</v>
+      </c>
+      <c r="B259" t="s">
+        <v>20</v>
+      </c>
+      <c r="C259" t="s">
+        <v>60</v>
+      </c>
+      <c r="D259" t="s">
+        <v>199</v>
+      </c>
+      <c r="E259" t="s">
+        <v>23</v>
+      </c>
+      <c r="F259" t="s">
+        <v>22</v>
+      </c>
+      <c r="G259" t="s">
+        <v>13</v>
+      </c>
+      <c r="H259" t="s">
+        <v>13</v>
+      </c>
+      <c r="I259" t="s">
+        <v>13</v>
+      </c>
+      <c r="J259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>91</v>
+      </c>
+      <c r="B260" t="s">
+        <v>20</v>
+      </c>
+      <c r="C260" t="s">
+        <v>60</v>
+      </c>
+      <c r="D260" t="s">
+        <v>92</v>
+      </c>
+      <c r="E260" t="s">
+        <v>23</v>
+      </c>
+      <c r="F260" t="s">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+      <c r="H260" t="s">
+        <v>12</v>
+      </c>
+      <c r="I260" t="s">
+        <v>14</v>
+      </c>
+      <c r="J260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>91</v>
+      </c>
+      <c r="B261" t="s">
+        <v>26</v>
+      </c>
+      <c r="C261" t="s">
         <v>30</v>
       </c>
-      <c r="D258" t="s">
-        <v>201</v>
-      </c>
-      <c r="E258" t="s">
-        <v>19</v>
-      </c>
-      <c r="F258" t="s">
-        <v>22</v>
-      </c>
-      <c r="G258" t="s">
-        <v>13</v>
-      </c>
-      <c r="H258" t="s">
-        <v>13</v>
-      </c>
-      <c r="I258" t="s">
-        <v>13</v>
-      </c>
-      <c r="J258" t="s">
+      <c r="D261" t="s">
+        <v>200</v>
+      </c>
+      <c r="E261" t="s">
+        <v>19</v>
+      </c>
+      <c r="F261" t="s">
+        <v>22</v>
+      </c>
+      <c r="G261" t="s">
+        <v>13</v>
+      </c>
+      <c r="H261" t="s">
+        <v>13</v>
+      </c>
+      <c r="I261" t="s">
+        <v>13</v>
+      </c>
+      <c r="J261" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J258" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:J255">
-      <sortCondition ref="D1:D257"/>
+  <autoFilter ref="A1:J261" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:J258">
+      <sortCondition ref="D1:D260"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J250">
-    <sortCondition ref="D2:D250"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J253">
+    <sortCondition ref="D2:D253"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444999EC-82BB-4108-BA10-22E8CC5CB0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1930BAA-39F8-402D-AF45-44252DE64AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3565,7 +3565,7 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
@@ -3597,7 +3597,7 @@
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -3629,7 +3629,7 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>

--- a/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
+++ b/AgEvidence_Kenya/data/normative-effects-Kenya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesley.atwood\Desktop\GitHub\AgEvidence\AgEvidence_Kenya\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1930BAA-39F8-402D-AF45-44252DE64AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269C422B-A161-4FEF-A5D5-5033C24364CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="grouplists_Kenya" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">grouplists_Kenya!$A$1:$J$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">grouplists_Kenya!$A$1:$J$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="214">
   <si>
     <t>Review</t>
   </si>
@@ -1641,11 +1641,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J261"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1692,7 +1693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -3644,7 +3645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>91</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>91</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>91</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -5630,7 +5631,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
@@ -5639,13 +5640,13 @@
         <v>60</v>
       </c>
       <c r="D125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E125" t="s">
         <v>23</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
         <v>13</v>
@@ -5662,7 +5663,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
@@ -5694,7 +5695,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -5703,7 +5704,7 @@
         <v>60</v>
       </c>
       <c r="D127" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="E127" t="s">
         <v>23</v>
@@ -5726,7 +5727,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
@@ -5758,7 +5759,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
@@ -5767,30 +5768,30 @@
         <v>60</v>
       </c>
       <c r="D129" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="E129" t="s">
         <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
@@ -5822,34 +5823,34 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D131" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="E131" t="s">
         <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
@@ -5863,7 +5864,7 @@
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
@@ -5872,16 +5873,16 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I132" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J132" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
@@ -5895,7 +5896,7 @@
         <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E133" t="s">
         <v>23</v>
@@ -5904,21 +5905,21 @@
         <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I133" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J133" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -5927,13 +5928,13 @@
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G134" t="s">
         <v>13</v>
@@ -5950,7 +5951,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B135" t="s">
         <v>20</v>
@@ -5959,7 +5960,7 @@
         <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="E135" t="s">
         <v>23</v>
@@ -5991,7 +5992,7 @@
         <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="E136" t="s">
         <v>23</v>
@@ -6014,7 +6015,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
@@ -6046,7 +6047,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
         <v>20</v>
@@ -6055,30 +6056,30 @@
         <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="E138" t="s">
         <v>23</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I138" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J138" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B139" t="s">
         <v>20</v>
@@ -6087,7 +6088,7 @@
         <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="E139" t="s">
         <v>23</v>
@@ -6110,7 +6111,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
@@ -6142,7 +6143,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B141" t="s">
         <v>20</v>
@@ -6174,39 +6175,39 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B142" t="s">
         <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E142" t="s">
         <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I142" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J142" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B143" t="s">
         <v>20</v>
@@ -6215,13 +6216,13 @@
         <v>63</v>
       </c>
       <c r="D143" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="E143" t="s">
         <v>23</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G143" t="s">
         <v>13</v>
@@ -6238,7 +6239,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
         <v>20</v>
@@ -6247,7 +6248,7 @@
         <v>63</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="E144" t="s">
         <v>23</v>
@@ -6256,21 +6257,21 @@
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="I144" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
@@ -6288,21 +6289,21 @@
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="I145" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J145" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B146" t="s">
         <v>20</v>
@@ -6343,13 +6344,13 @@
         <v>63</v>
       </c>
       <c r="D147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E147" t="s">
         <v>23</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G147" t="s">
         <v>13</v>
@@ -6366,7 +6367,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
         <v>20</v>
@@ -6404,13 +6405,13 @@
         <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E149" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F149" t="s">
         <v>22</v>
@@ -6430,7 +6431,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
@@ -6462,7 +6463,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -6494,7 +6495,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
@@ -6503,7 +6504,7 @@
         <v>64</v>
       </c>
       <c r="D152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E152" t="s">
         <v>19</v>
@@ -6526,7 +6527,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
@@ -6558,22 +6559,22 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C154" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D154" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G154" t="s">
         <v>13</v>
@@ -6588,7 +6589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -6596,10 +6597,10 @@
         <v>28</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D155" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -6608,19 +6609,19 @@
         <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J155" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -6652,7 +6653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>27</v>
       </c>
       <c r="D157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
@@ -6684,7 +6685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>27</v>
       </c>
       <c r="D158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -6716,7 +6717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -6748,9 +6749,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
         <v>28</v>
@@ -6759,7 +6760,7 @@
         <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
@@ -6780,18 +6781,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B161" t="s">
         <v>28</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
@@ -6800,19 +6801,19 @@
         <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H161" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>29</v>
       </c>
       <c r="D162" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
@@ -6844,7 +6845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>29</v>
       </c>
       <c r="D163" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E163" t="s">
         <v>14</v>
@@ -6876,7 +6877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -6887,7 +6888,7 @@
         <v>29</v>
       </c>
       <c r="D164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E164" t="s">
         <v>14</v>
@@ -6908,7 +6909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>29</v>
       </c>
       <c r="D165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -6940,9 +6941,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
         <v>28</v>
@@ -6951,7 +6952,7 @@
         <v>29</v>
       </c>
       <c r="D166" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
@@ -6972,9 +6973,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B167" t="s">
         <v>28</v>
@@ -6983,7 +6984,7 @@
         <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
@@ -7004,24 +7005,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
         <v>28</v>
       </c>
       <c r="C168" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D168" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E168" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G168" t="s">
         <v>13</v>
@@ -7036,7 +7037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>91</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>69</v>
       </c>
       <c r="D169" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E169" t="s">
         <v>23</v>
@@ -7068,9 +7069,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B170" t="s">
         <v>28</v>
@@ -7079,13 +7080,13 @@
         <v>69</v>
       </c>
       <c r="D170" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E170" t="s">
         <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G170" t="s">
         <v>13</v>
@@ -7100,9 +7101,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
         <v>28</v>
@@ -7132,9 +7133,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B172" t="s">
         <v>28</v>
@@ -7143,28 +7144,28 @@
         <v>69</v>
       </c>
       <c r="D172" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="E172" t="s">
         <v>23</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G172" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H172" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I172" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J172" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -7175,13 +7176,13 @@
         <v>69</v>
       </c>
       <c r="D173" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E173" t="s">
         <v>23</v>
       </c>
       <c r="F173" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G173" t="s">
         <v>20</v>
@@ -7193,12 +7194,12 @@
         <v>23</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
         <v>28</v>
@@ -7228,9 +7229,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B175" t="s">
         <v>28</v>
@@ -7239,13 +7240,13 @@
         <v>69</v>
       </c>
       <c r="D175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E175" t="s">
         <v>23</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G175" t="s">
         <v>20</v>
@@ -7257,12 +7258,12 @@
         <v>23</v>
       </c>
       <c r="J175" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
         <v>28</v>
@@ -7292,9 +7293,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B177" t="s">
         <v>28</v>
@@ -7303,13 +7304,13 @@
         <v>69</v>
       </c>
       <c r="D177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E177" t="s">
         <v>23</v>
       </c>
       <c r="F177" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G177" t="s">
         <v>20</v>
@@ -7321,12 +7322,12 @@
         <v>23</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
         <v>28</v>
@@ -7356,7 +7357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>91</v>
       </c>
@@ -7367,30 +7368,30 @@
         <v>69</v>
       </c>
       <c r="D179" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E179" t="s">
         <v>23</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I179" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B180" t="s">
         <v>28</v>
@@ -7399,71 +7400,71 @@
         <v>69</v>
       </c>
       <c r="D180" t="s">
+        <v>94</v>
+      </c>
+      <c r="E180" t="s">
+        <v>23</v>
+      </c>
+      <c r="F180" t="s">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+      <c r="J180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" t="s">
+        <v>69</v>
+      </c>
+      <c r="D181" t="s">
         <v>167</v>
       </c>
-      <c r="E180" t="s">
-        <v>23</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="E181" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181" t="s">
         <v>15</v>
       </c>
-      <c r="G180" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" t="s">
-        <v>13</v>
-      </c>
-      <c r="J180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="3" t="s">
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+      <c r="J181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" t="s">
-        <v>13</v>
-      </c>
-      <c r="J181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>23</v>
@@ -7471,20 +7472,20 @@
       <c r="F182" t="s">
         <v>22</v>
       </c>
-      <c r="G182" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H182" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" t="s">
+        <v>13</v>
+      </c>
+      <c r="I182" t="s">
+        <v>13</v>
+      </c>
+      <c r="J182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>10</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>71</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>23</v>
@@ -7516,9 +7517,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>28</v>
@@ -7527,30 +7528,30 @@
         <v>71</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>50</v>
+      <c r="F184" t="s">
+        <v>22</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>28</v>
@@ -7580,9 +7581,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>28</v>
@@ -7612,9 +7613,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>28</v>
@@ -7623,13 +7624,13 @@
         <v>71</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F187" t="s">
-        <v>22</v>
+      <c r="F187" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>20</v>
@@ -7644,9 +7645,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>28</v>
@@ -7676,9 +7677,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>28</v>
@@ -7708,23 +7709,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F190" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F190" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="3" t="s">
@@ -7740,23 +7741,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>10</v>
-      </c>
-      <c r="B191" t="s">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E191" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" t="s">
+      <c r="E191" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="3" t="s">
@@ -7772,7 +7773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -7782,8 +7783,8 @@
       <c r="C192" t="s">
         <v>74</v>
       </c>
-      <c r="D192" t="s">
-        <v>169</v>
+      <c r="D192" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="E192" t="s">
         <v>19</v>
@@ -7804,41 +7805,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
         <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D193" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="E193" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" t="s">
-        <v>13</v>
-      </c>
-      <c r="I193" t="s">
-        <v>13</v>
-      </c>
-      <c r="J193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B194" t="s">
         <v>28</v>
@@ -7868,9 +7869,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
         <v>28</v>
@@ -7879,7 +7880,7 @@
         <v>75</v>
       </c>
       <c r="D195" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
@@ -7900,9 +7901,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B196" t="s">
         <v>28</v>
@@ -7932,7 +7933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>75</v>
       </c>
       <c r="D197" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
@@ -7964,7 +7965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>75</v>
       </c>
       <c r="D198" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
@@ -7996,9 +7997,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
         <v>28</v>
@@ -8007,13 +8008,13 @@
         <v>75</v>
       </c>
       <c r="D199" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G199" t="s">
         <v>13</v>
@@ -8028,9 +8029,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B200" t="s">
         <v>28</v>
@@ -8060,41 +8061,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201" t="s">
+        <v>75</v>
+      </c>
+      <c r="D201" t="s">
+        <v>171</v>
+      </c>
+      <c r="E201" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" t="s">
+        <v>50</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" t="s">
+        <v>13</v>
+      </c>
+      <c r="I201" t="s">
+        <v>13</v>
+      </c>
+      <c r="J201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>16</v>
-      </c>
-      <c r="B201" t="s">
-        <v>78</v>
-      </c>
-      <c r="C201" t="s">
-        <v>108</v>
-      </c>
-      <c r="D201" t="s">
-        <v>61</v>
-      </c>
-      <c r="E201" t="s">
-        <v>19</v>
-      </c>
-      <c r="F201" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" t="s">
-        <v>13</v>
-      </c>
-      <c r="H201" t="s">
-        <v>13</v>
-      </c>
-      <c r="I201" t="s">
-        <v>13</v>
-      </c>
-      <c r="J201" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>91</v>
       </c>
       <c r="B202" t="s">
         <v>78</v>
@@ -8124,9 +8125,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B203" t="s">
         <v>78</v>
@@ -8135,7 +8136,7 @@
         <v>108</v>
       </c>
       <c r="D203" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E203" t="s">
         <v>19</v>
@@ -8156,9 +8157,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B204" t="s">
         <v>78</v>
@@ -8188,9 +8189,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B205" t="s">
         <v>78</v>
@@ -8199,7 +8200,7 @@
         <v>108</v>
       </c>
       <c r="D205" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E205" t="s">
         <v>19</v>
@@ -8220,9 +8221,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B206" t="s">
         <v>78</v>
@@ -8252,9 +8253,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
         <v>78</v>
@@ -8284,9 +8285,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B208" t="s">
         <v>78</v>
@@ -8295,7 +8296,7 @@
         <v>108</v>
       </c>
       <c r="D208" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="E208" t="s">
         <v>19</v>
@@ -8316,9 +8317,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B209" t="s">
         <v>78</v>
@@ -8348,9 +8349,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
         <v>78</v>
@@ -8380,24 +8381,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B211" t="s">
         <v>78</v>
       </c>
       <c r="C211" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D211" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="E211" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G211" t="s">
         <v>13</v>
@@ -8412,9 +8413,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B212" t="s">
         <v>78</v>
@@ -8444,9 +8445,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B213" t="s">
         <v>78</v>
@@ -8455,7 +8456,7 @@
         <v>82</v>
       </c>
       <c r="D213" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8476,9 +8477,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B214" t="s">
         <v>78</v>
@@ -8508,9 +8509,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
         <v>78</v>
@@ -8540,9 +8541,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B216" t="s">
         <v>78</v>
@@ -8551,7 +8552,7 @@
         <v>82</v>
       </c>
       <c r="D216" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="E216" t="s">
         <v>23</v>
@@ -8572,9 +8573,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B217" t="s">
         <v>78</v>
@@ -8604,9 +8605,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B218" t="s">
         <v>78</v>
@@ -8615,13 +8616,13 @@
         <v>82</v>
       </c>
       <c r="D218" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="E218" t="s">
         <v>23</v>
       </c>
       <c r="F218" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G218" t="s">
         <v>13</v>
@@ -8636,7 +8637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -8647,13 +8648,13 @@
         <v>82</v>
       </c>
       <c r="D219" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E219" t="s">
         <v>23</v>
       </c>
       <c r="F219" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G219" t="s">
         <v>13</v>
@@ -8668,9 +8669,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B220" t="s">
         <v>78</v>
@@ -8700,9 +8701,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B221" t="s">
         <v>78</v>
@@ -8732,18 +8733,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B222" t="s">
         <v>78</v>
       </c>
       <c r="C222" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D222" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="E222" t="s">
         <v>23</v>
@@ -8764,9 +8765,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B223" t="s">
         <v>78</v>
@@ -8796,9 +8797,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B224" t="s">
         <v>78</v>
@@ -8828,9 +8829,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B225" t="s">
         <v>78</v>
@@ -8839,13 +8840,13 @@
         <v>83</v>
       </c>
       <c r="D225" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="E225" t="s">
         <v>23</v>
       </c>
       <c r="F225" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G225" t="s">
         <v>13</v>
@@ -8860,7 +8861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>10</v>
       </c>
@@ -8871,13 +8872,13 @@
         <v>83</v>
       </c>
       <c r="D226" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="E226" t="s">
         <v>23</v>
       </c>
       <c r="F226" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G226" t="s">
         <v>13</v>
@@ -8892,9 +8893,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
         <v>78</v>
@@ -8909,7 +8910,7 @@
         <v>23</v>
       </c>
       <c r="F227" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G227" t="s">
         <v>13</v>
@@ -8924,9 +8925,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B228" t="s">
         <v>78</v>
@@ -8941,7 +8942,7 @@
         <v>23</v>
       </c>
       <c r="F228" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G228" t="s">
         <v>13</v>
@@ -8956,9 +8957,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B229" t="s">
         <v>78</v>
@@ -8967,42 +8968,42 @@
         <v>83</v>
       </c>
       <c r="D229" t="s">
+        <v>85</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+      <c r="F229" t="s">
+        <v>22</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
+      <c r="H229" t="s">
+        <v>13</v>
+      </c>
+      <c r="I229" t="s">
+        <v>13</v>
+      </c>
+      <c r="J229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>78</v>
+      </c>
+      <c r="C230" t="s">
+        <v>83</v>
+      </c>
+      <c r="D230" t="s">
         <v>176</v>
       </c>
-      <c r="E229" t="s">
-        <v>23</v>
-      </c>
-      <c r="F229" t="s">
-        <v>15</v>
-      </c>
-      <c r="G229" t="s">
-        <v>13</v>
-      </c>
-      <c r="H229" t="s">
-        <v>13</v>
-      </c>
-      <c r="I229" t="s">
-        <v>13</v>
-      </c>
-      <c r="J229" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>10</v>
-      </c>
-      <c r="B230" t="s">
-        <v>86</v>
-      </c>
-      <c r="C230" t="s">
-        <v>87</v>
-      </c>
-      <c r="D230" t="s">
-        <v>88</v>
-      </c>
       <c r="E230" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F230" t="s">
         <v>15</v>
@@ -9020,7 +9021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>10</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>87</v>
       </c>
       <c r="D231" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
@@ -9052,9 +9053,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B232" t="s">
         <v>86</v>
@@ -9084,9 +9085,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B233" t="s">
         <v>86</v>
@@ -9116,24 +9117,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B234" t="s">
         <v>86</v>
       </c>
       <c r="C234" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D234" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E234" t="s">
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G234" t="s">
         <v>13</v>
@@ -9148,7 +9149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -9159,13 +9160,13 @@
         <v>89</v>
       </c>
       <c r="D235" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G235" t="s">
         <v>13</v>
@@ -9180,9 +9181,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B236" t="s">
         <v>86</v>
@@ -9212,9 +9213,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B237" t="s">
         <v>86</v>
@@ -9223,7 +9224,7 @@
         <v>89</v>
       </c>
       <c r="D237" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E237" t="s">
         <v>14</v>
@@ -9244,7 +9245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>89</v>
       </c>
       <c r="D238" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E238" t="s">
         <v>14</v>
@@ -9276,7 +9277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -9284,10 +9285,10 @@
         <v>86</v>
       </c>
       <c r="C239" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D239" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
@@ -9308,9 +9309,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B240" t="s">
         <v>86</v>
@@ -9340,7 +9341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>16</v>
       </c>
@@ -9348,10 +9349,10 @@
         <v>86</v>
       </c>
       <c r="C241" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D241" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="E241" t="s">
         <v>14</v>
@@ -9372,7 +9373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>16</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>89</v>
       </c>
       <c r="D242" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -9404,7 +9405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -9415,13 +9416,13 @@
         <v>89</v>
       </c>
       <c r="D243" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="E243" t="s">
         <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G243" t="s">
         <v>13</v>
@@ -9436,24 +9437,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>16</v>
       </c>
       <c r="B244" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C244" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D244" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="E244" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s">
         <v>13</v>
@@ -9479,13 +9480,13 @@
         <v>63</v>
       </c>
       <c r="D245" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="E245" t="s">
         <v>23</v>
       </c>
       <c r="F245" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G245" t="s">
         <v>13</v>
@@ -9502,71 +9503,71 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
+        <v>16</v>
+      </c>
+      <c r="B246" t="s">
+        <v>20</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>195</v>
+      </c>
+      <c r="E246" t="s">
+        <v>23</v>
+      </c>
+      <c r="F246" t="s">
+        <v>22</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" t="s">
+        <v>13</v>
+      </c>
+      <c r="J246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
         <v>91</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>26</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D247" t="s">
         <v>197</v>
       </c>
-      <c r="E246" t="s">
-        <v>19</v>
-      </c>
-      <c r="F246" t="s">
-        <v>22</v>
-      </c>
-      <c r="G246" t="s">
-        <v>13</v>
-      </c>
-      <c r="H246" t="s">
-        <v>13</v>
-      </c>
-      <c r="I246" t="s">
-        <v>13</v>
-      </c>
-      <c r="J246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+      <c r="E247" t="s">
+        <v>19</v>
+      </c>
+      <c r="F247" t="s">
+        <v>22</v>
+      </c>
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" t="s">
+        <v>13</v>
+      </c>
+      <c r="J247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>16</v>
-      </c>
-      <c r="B247" t="s">
-        <v>56</v>
-      </c>
-      <c r="C247" t="s">
-        <v>201</v>
-      </c>
-      <c r="D247" t="s">
-        <v>212</v>
-      </c>
-      <c r="E247" t="s">
-        <v>14</v>
-      </c>
-      <c r="F247" t="s">
-        <v>15</v>
-      </c>
-      <c r="G247" t="s">
-        <v>13</v>
-      </c>
-      <c r="H247" t="s">
-        <v>13</v>
-      </c>
-      <c r="I247" t="s">
-        <v>13</v>
-      </c>
-      <c r="J247" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>91</v>
       </c>
       <c r="B248" t="s">
         <v>56</v>
@@ -9596,9 +9597,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B249" t="s">
         <v>56</v>
@@ -9628,41 +9629,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A250" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B250" s="3" t="s">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
         <v>56</v>
       </c>
       <c r="C250" t="s">
         <v>201</v>
       </c>
       <c r="D250" t="s">
-        <v>213</v>
-      </c>
-      <c r="E250" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E250" t="s">
         <v>14</v>
       </c>
-      <c r="F250" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H250" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I250" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J250" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>16</v>
+      <c r="F250" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" t="s">
+        <v>13</v>
+      </c>
+      <c r="I250" t="s">
+        <v>13</v>
+      </c>
+      <c r="J250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>56</v>
@@ -9692,9 +9693,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>56</v>
@@ -9724,35 +9725,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>10</v>
       </c>
-      <c r="B253" t="s">
-        <v>20</v>
+      <c r="B253" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C253" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="D253" t="s">
-        <v>195</v>
-      </c>
-      <c r="E253" t="s">
-        <v>23</v>
-      </c>
-      <c r="F253" t="s">
-        <v>22</v>
-      </c>
-      <c r="G253" t="s">
-        <v>13</v>
-      </c>
-      <c r="H253" t="s">
-        <v>13</v>
-      </c>
-      <c r="I253" t="s">
-        <v>13</v>
-      </c>
-      <c r="J253" t="s">
+        <v>213</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J253" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9761,16 +9762,16 @@
         <v>10</v>
       </c>
       <c r="B254" t="s">
-        <v>26</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="C254" t="s">
+        <v>63</v>
       </c>
       <c r="D254" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="E254" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F254" t="s">
         <v>22</v>
@@ -9788,88 +9789,88 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>10</v>
       </c>
       <c r="B255" t="s">
         <v>26</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D255" t="s">
+        <v>47</v>
+      </c>
+      <c r="E255" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" t="s">
+        <v>22</v>
+      </c>
+      <c r="G255" t="s">
+        <v>13</v>
+      </c>
+      <c r="H255" t="s">
+        <v>13</v>
+      </c>
+      <c r="I255" t="s">
+        <v>13</v>
+      </c>
+      <c r="J255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" t="s">
+        <v>26</v>
+      </c>
+      <c r="C256" t="s">
         <v>30</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D256" t="s">
         <v>124</v>
       </c>
-      <c r="E255" t="s">
-        <v>19</v>
-      </c>
-      <c r="F255" t="s">
-        <v>22</v>
-      </c>
-      <c r="G255" t="s">
-        <v>13</v>
-      </c>
-      <c r="H255" t="s">
-        <v>13</v>
-      </c>
-      <c r="I255" t="s">
-        <v>13</v>
-      </c>
-      <c r="J255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A256" s="3" t="s">
+      <c r="E256" t="s">
+        <v>19</v>
+      </c>
+      <c r="F256" t="s">
+        <v>22</v>
+      </c>
+      <c r="G256" t="s">
+        <v>13</v>
+      </c>
+      <c r="H256" t="s">
+        <v>13</v>
+      </c>
+      <c r="I256" t="s">
+        <v>13</v>
+      </c>
+      <c r="J256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>28</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C257" t="s">
         <v>75</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D257" t="s">
         <v>170</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E257" t="s">
         <v>14</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F257" t="s">
         <v>15</v>
-      </c>
-      <c r="G256" t="s">
-        <v>13</v>
-      </c>
-      <c r="H256" t="s">
-        <v>13</v>
-      </c>
-      <c r="I256" t="s">
-        <v>13</v>
-      </c>
-      <c r="J256" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>91</v>
-      </c>
-      <c r="B257" t="s">
-        <v>20</v>
-      </c>
-      <c r="C257" t="s">
-        <v>63</v>
-      </c>
-      <c r="D257" t="s">
-        <v>149</v>
-      </c>
-      <c r="E257" t="s">
-        <v>23</v>
-      </c>
-      <c r="F257" t="s">
-        <v>50</v>
       </c>
       <c r="G257" t="s">
         <v>13</v>
@@ -9886,66 +9887,66 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B258" t="s">
+        <v>20</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>149</v>
+      </c>
+      <c r="E258" t="s">
+        <v>23</v>
+      </c>
+      <c r="F258" t="s">
+        <v>50</v>
+      </c>
+      <c r="G258" t="s">
+        <v>13</v>
+      </c>
+      <c r="H258" t="s">
+        <v>13</v>
+      </c>
+      <c r="I258" t="s">
+        <v>13</v>
+      </c>
+      <c r="J258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" t="s">
         <v>26</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C259" t="s">
         <v>27</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D259" t="s">
         <v>120</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E259" t="s">
         <v>14</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F259" t="s">
         <v>15</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G259" t="s">
         <v>28</v>
       </c>
-      <c r="H258" t="s">
+      <c r="H259" t="s">
         <v>29</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I259" t="s">
         <v>14</v>
       </c>
-      <c r="J258" t="s">
+      <c r="J259" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>91</v>
-      </c>
-      <c r="B259" t="s">
-        <v>20</v>
-      </c>
-      <c r="C259" t="s">
-        <v>60</v>
-      </c>
-      <c r="D259" t="s">
-        <v>199</v>
-      </c>
-      <c r="E259" t="s">
-        <v>23</v>
-      </c>
-      <c r="F259" t="s">
-        <v>22</v>
-      </c>
-      <c r="G259" t="s">
-        <v>13</v>
-      </c>
-      <c r="H259" t="s">
-        <v>13</v>
-      </c>
-      <c r="I259" t="s">
-        <v>13</v>
-      </c>
-      <c r="J259" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.35">
@@ -9959,25 +9960,25 @@
         <v>60</v>
       </c>
       <c r="D260" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="E260" t="s">
         <v>23</v>
       </c>
       <c r="F260" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G260" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H260" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I260" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J260" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.35">
@@ -9985,41 +9986,78 @@
         <v>91</v>
       </c>
       <c r="B261" t="s">
+        <v>20</v>
+      </c>
+      <c r="C261" t="s">
+        <v>60</v>
+      </c>
+      <c r="D261" t="s">
+        <v>92</v>
+      </c>
+      <c r="E261" t="s">
+        <v>23</v>
+      </c>
+      <c r="F261" t="s">
+        <v>14</v>
+      </c>
+      <c r="G261" t="s">
+        <v>11</v>
+      </c>
+      <c r="H261" t="s">
+        <v>12</v>
+      </c>
+      <c r="I261" t="s">
+        <v>14</v>
+      </c>
+      <c r="J261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>91</v>
+      </c>
+      <c r="B262" t="s">
         <v>26</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C262" t="s">
         <v>30</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D262" t="s">
         <v>200</v>
       </c>
-      <c r="E261" t="s">
-        <v>19</v>
-      </c>
-      <c r="F261" t="s">
-        <v>22</v>
-      </c>
-      <c r="G261" t="s">
-        <v>13</v>
-      </c>
-      <c r="H261" t="s">
-        <v>13</v>
-      </c>
-      <c r="I261" t="s">
-        <v>13</v>
-      </c>
-      <c r="J261" t="s">
+      <c r="E262" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" t="s">
+        <v>22</v>
+      </c>
+      <c r="G262" t="s">
+        <v>13</v>
+      </c>
+      <c r="H262" t="s">
+        <v>13</v>
+      </c>
+      <c r="I262" t="s">
+        <v>13</v>
+      </c>
+      <c r="J262" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J261" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:J258">
-      <sortCondition ref="D1:D260"/>
+  <autoFilter ref="A1:J262" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Other Soil Properties"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:J259">
+      <sortCondition ref="D1:D261"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J253">
-    <sortCondition ref="D2:D253"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:J254">
+    <sortCondition ref="D2:D254"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
